--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -1244,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1426,8 +1426,8 @@
       <c r="I6" s="7">
         <v>0.966699999999999</v>
       </c>
-      <c r="J6" s="7">
-        <v>0.99570099999999995</v>
+      <c r="J6">
+        <v>1.0150349999999999</v>
       </c>
       <c r="K6" s="7">
         <v>1.16003999999999</v>
@@ -1451,9 +1451,7 @@
       <c r="S6">
         <v>25000</v>
       </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20">
       <c r="H7" s="7">
@@ -1462,8 +1460,8 @@
       <c r="I7" s="7">
         <v>1.00813</v>
       </c>
-      <c r="J7" s="7">
-        <v>1.0383739000000001</v>
+      <c r="J7">
+        <v>1.0585365</v>
       </c>
       <c r="K7" s="7">
         <v>1.2097559999999901</v>
@@ -1487,9 +1485,7 @@
       <c r="S7">
         <v>25000</v>
       </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20">
       <c r="H8" s="7">
@@ -1498,8 +1494,8 @@
       <c r="I8" s="7">
         <v>1.04956</v>
       </c>
-      <c r="J8" s="7">
-        <v>1.0810468</v>
+      <c r="J8">
+        <v>1.1020380000000001</v>
       </c>
       <c r="K8" s="7">
         <v>1.2594719999999999</v>
@@ -1523,9 +1519,7 @@
       <c r="S8">
         <v>20000</v>
       </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20">
       <c r="H9" s="7">
@@ -1534,8 +1528,8 @@
       <c r="I9" s="7">
         <v>1.0909899999999999</v>
       </c>
-      <c r="J9" s="7">
-        <v>1.1237197000000001</v>
+      <c r="J9">
+        <v>1.1455394999999999</v>
       </c>
       <c r="K9" s="7">
         <v>1.309188</v>
@@ -1559,9 +1553,7 @@
       <c r="S9">
         <v>20000</v>
       </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20">
       <c r="H10" s="7">
@@ -1570,8 +1562,8 @@
       <c r="I10" s="7">
         <v>1.13242</v>
       </c>
-      <c r="J10" s="7">
-        <v>1.1663926</v>
+      <c r="J10">
+        <v>1.189041</v>
       </c>
       <c r="K10" s="7">
         <v>1.3589039999999999</v>
@@ -1595,9 +1587,7 @@
       <c r="S10">
         <v>20000</v>
       </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20">
       <c r="H11" s="7">
@@ -1606,8 +1596,8 @@
       <c r="I11" s="7">
         <v>1.1738500000000001</v>
       </c>
-      <c r="J11" s="7">
-        <v>1.2090654999999999</v>
+      <c r="J11">
+        <v>1.2325425000000001</v>
       </c>
       <c r="K11" s="7">
         <v>1.40862</v>
@@ -1631,9 +1621,7 @@
       <c r="S11">
         <v>15000</v>
       </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20">
       <c r="H12" s="7">
@@ -1642,8 +1630,8 @@
       <c r="I12" s="7">
         <v>1.2152799999999999</v>
       </c>
-      <c r="J12" s="7">
-        <v>1.2517384</v>
+      <c r="J12">
+        <v>1.276044</v>
       </c>
       <c r="K12" s="7">
         <v>1.4583359999999901</v>
@@ -1667,9 +1655,7 @@
       <c r="S12" s="17">
         <v>15000</v>
       </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20">
       <c r="H13" s="7">
@@ -1678,8 +1664,8 @@
       <c r="I13" s="7">
         <v>1.25671</v>
       </c>
-      <c r="J13" s="7">
-        <v>1.2944112999999999</v>
+      <c r="J13">
+        <v>1.3195455</v>
       </c>
       <c r="K13" s="7">
         <v>1.5080519999999999</v>
@@ -1703,9 +1689,7 @@
       <c r="S13" s="7">
         <v>15000</v>
       </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20">
       <c r="H14" s="7">
@@ -1714,8 +1698,8 @@
       <c r="I14" s="7">
         <v>1.2981399999999901</v>
       </c>
-      <c r="J14" s="7">
-        <v>1.3370841999999901</v>
+      <c r="J14">
+        <v>1.3630469999999999</v>
       </c>
       <c r="K14" s="7">
         <v>1.55776799999999</v>
@@ -1739,9 +1723,7 @@
       <c r="S14" s="7">
         <v>10000</v>
       </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20">
       <c r="H15" s="7">
@@ -1750,8 +1732,8 @@
       <c r="I15" s="7">
         <v>1.3395699999999999</v>
       </c>
-      <c r="J15" s="7">
-        <v>1.3797571</v>
+      <c r="J15">
+        <v>1.4065485</v>
       </c>
       <c r="K15" s="7">
         <v>1.6074839999999999</v>
@@ -1775,9 +1757,7 @@
       <c r="S15" s="7">
         <v>10000</v>
       </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20">
       <c r="H16" s="7">
@@ -1786,8 +1766,8 @@
       <c r="I16" s="7">
         <v>1.381</v>
       </c>
-      <c r="J16" s="7">
-        <v>1.4224300000000001</v>
+      <c r="J16">
+        <v>1.4500500000000001</v>
       </c>
       <c r="K16" s="7">
         <v>1.6572</v>
@@ -1824,8 +1804,8 @@
       <c r="I17" s="7">
         <v>1.4224300000000001</v>
       </c>
-      <c r="J17" s="7">
-        <v>1.4651029</v>
+      <c r="J17">
+        <v>1.4935514999999999</v>
       </c>
       <c r="K17" s="7">
         <v>1.7069160000000001</v>
@@ -1844,9 +1824,7 @@
         <v>1.104984</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="8:20">
       <c r="H18" s="7">
@@ -1875,13 +1853,11 @@
         <v>1.137168</v>
       </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="7">
-        <v>0</v>
-      </c>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="8:20">
       <c r="J19" s="16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="8:20">
@@ -1926,9 +1902,7 @@
       <c r="L23" s="7">
         <v>20000</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="8:20">
       <c r="H24" s="7">
@@ -1946,9 +1920,7 @@
       <c r="L24" s="7">
         <v>20000</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="8:20">
       <c r="H25" s="7">
@@ -1966,9 +1938,7 @@
       <c r="L25" s="7">
         <v>20000</v>
       </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="8:20">
       <c r="H26" s="7">
@@ -1986,9 +1956,7 @@
       <c r="L26" s="7">
         <v>20000</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="8:20">
       <c r="H27" s="7">
@@ -2006,9 +1974,7 @@
       <c r="L27" s="7">
         <v>20000</v>
       </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="8:20">
       <c r="H28" s="7">
@@ -2026,9 +1992,7 @@
       <c r="L28" s="7">
         <v>20000</v>
       </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="8:20">
       <c r="H29" s="7">
@@ -2046,9 +2010,7 @@
       <c r="L29" s="7">
         <v>20000</v>
       </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="8:20">
       <c r="H30" s="7">
@@ -2066,9 +2028,7 @@
       <c r="L30" s="7">
         <v>20000</v>
       </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="8:20">
       <c r="H31" s="7">
@@ -2086,9 +2046,7 @@
       <c r="L31" s="7">
         <v>20000</v>
       </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="8:20">
       <c r="H32" s="7">
@@ -2108,7 +2066,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="8:13">
+    <row r="33" spans="1:17">
       <c r="H33" s="7">
         <v>11</v>
       </c>
@@ -2128,7 +2086,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="8:13">
+    <row r="34" spans="1:17">
       <c r="H34" s="7">
         <v>12</v>
       </c>
@@ -2138,21 +2096,54 @@
       <c r="J34" s="7">
         <v>1.2729254999999999</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34">
         <v>1.21231</v>
       </c>
       <c r="L34" s="7">
         <v>20000</v>
       </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:13">
-      <c r="I35" s="16">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7">
+        <v>1.310001</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1.24762</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7">
+        <v>1.3470765</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.2829299999999999</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="P46" s="16">
         <v>0.1</v>
       </c>
-      <c r="J35" s="16">
+      <c r="Q46" s="16">
         <v>0.03</v>
       </c>
     </row>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -601,6 +601,10 @@
   </si>
   <si>
     <t>max_num</t>
+  </si>
+  <si>
+    <t>目标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1244,25 +1248,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="17.75" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="3" max="5" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="17.75" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>15</v>
@@ -1271,19 +1275,22 @@
         <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1294,16 +1301,21 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+        <f>C2*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="E2" s="8" t="e">
+        <f>C1*1.05</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="8">
         <v>19500</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>17550</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1314,25 +1326,29 @@
         <v>1.381</v>
       </c>
       <c r="D3" s="8">
+        <f>C3*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>7500</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>10380</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1340,34 +1356,35 @@
         <v>510880</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>159905</v>
       </c>
-      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="7"/>
-      <c r="O4" s="14" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="7"/>
+      <c r="P4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <v>501029</v>
       </c>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1378,778 +1395,782 @@
         <v>1.177</v>
       </c>
       <c r="D5" s="8">
+        <f>C5*1.05</f>
+        <v>1.2358500000000001</v>
+      </c>
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>10000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>11770</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="H6" s="7">
+    <row r="6" spans="1:21">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>0.966699999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.0150349999999999</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>1.16003999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25000</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="O6" s="7">
+      <c r="N6" s="7"/>
+      <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>0.62580000000000002</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <v>0.64457399999999998</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>0.75095999999999996</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>25000</v>
       </c>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="H7" s="7">
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="I7" s="7">
         <v>2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>1.00813</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.0585365</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>1.2097559999999901</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>25000</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7">
+      <c r="N7" s="7"/>
+      <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>0.65261999999999998</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>0.67219859999999998</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>0.78314399999999995</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>25000</v>
       </c>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="H8" s="7">
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="I8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>1.04956</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.1020380000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>1.2594719999999999</v>
       </c>
-      <c r="L8">
-        <v>20000</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="7">
+      <c r="M8">
+        <v>20000</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>0.67944000000000004</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <v>0.69982319999999998</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>0.81532800000000005</v>
       </c>
-      <c r="S8">
-        <v>20000</v>
-      </c>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="H9" s="7">
+      <c r="T8">
+        <v>20000</v>
+      </c>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="I9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>1.0909899999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.1455394999999999</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>1.309188</v>
       </c>
-      <c r="L9">
-        <v>20000</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="7">
+      <c r="M9">
+        <v>20000</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="P9" s="7">
         <v>4</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>0.70626</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <v>0.72744779999999998</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>0.84751199999999904</v>
       </c>
-      <c r="S9">
-        <v>20000</v>
-      </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="H10" s="7">
+      <c r="T9">
+        <v>20000</v>
+      </c>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>1.13242</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.189041</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>1.3589039999999999</v>
       </c>
-      <c r="L10">
-        <v>20000</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="7">
+      <c r="M10">
+        <v>20000</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="P10" s="7">
         <v>5</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>0.73307999999999995</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <v>0.75507239999999998</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>0.87969600000000003</v>
       </c>
-      <c r="S10">
-        <v>20000</v>
-      </c>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="H11" s="7">
+      <c r="T10">
+        <v>20000</v>
+      </c>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>1.1738500000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.2325425000000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>1.40862</v>
       </c>
-      <c r="L11" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="7">
+      <c r="M11" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="P11" s="7">
         <v>6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>0.75990000000000002</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>0.78269699999999998</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>0.91188000000000002</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>15000</v>
       </c>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="H12" s="7">
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="I12" s="7">
         <v>7</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>1.2152799999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.276044</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>1.4583359999999901</v>
       </c>
-      <c r="L12" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="7">
+      <c r="M12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="P12" s="7">
         <v>7</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>0.78671999999999997</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
         <v>0.81032159999999998</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <v>0.94406399999999902</v>
       </c>
-      <c r="S12" s="17">
+      <c r="T12" s="17">
         <v>15000</v>
       </c>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="H13" s="7">
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>1.25671</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.3195455</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>1.5080519999999999</v>
       </c>
-      <c r="L13" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7">
+      <c r="M13" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="P13" s="7">
         <v>8</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>0.81354000000000004</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="7">
         <v>0.83794619999999997</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <v>0.976248</v>
       </c>
-      <c r="S13" s="7">
+      <c r="T13" s="7">
         <v>15000</v>
       </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="H14" s="7">
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="I14" s="7">
         <v>9</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>1.2981399999999901</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.3630469999999999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>1.55776799999999</v>
       </c>
-      <c r="L14" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="7">
+      <c r="M14" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="P14" s="7">
         <v>9</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>0.84036</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="7">
         <v>0.86557079999999997</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <v>1.008432</v>
       </c>
-      <c r="S14" s="7">
+      <c r="T14" s="7">
         <v>10000</v>
       </c>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="H15" s="7">
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="I15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>1.3395699999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.4065485</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>1.6074839999999999</v>
       </c>
-      <c r="L15" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7">
+      <c r="M15" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="P15" s="7">
         <v>10</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>0.86717999999999995</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="R15" s="7">
         <v>0.89319539999999997</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>1.040616</v>
       </c>
-      <c r="S15" s="7">
+      <c r="T15" s="7">
         <v>10000</v>
       </c>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="H16" s="7">
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="I16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>1.381</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.4500500000000001</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>1.6572</v>
       </c>
-      <c r="L16" s="16">
-        <v>20000</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="M16" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N16" s="8">
         <v>7500</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="7">
         <v>11</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>0.89400000000000002</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="R16" s="7">
         <v>0.92081999999999997</v>
       </c>
-      <c r="R16" s="7">
+      <c r="S16" s="7">
         <v>1.0728</v>
       </c>
-      <c r="S16" s="16">
+      <c r="T16" s="16">
         <v>10000</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>19500</v>
       </c>
     </row>
-    <row r="17" spans="8:20">
-      <c r="H17" s="7">
+    <row r="17" spans="9:21">
+      <c r="I17" s="7">
         <v>12</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <v>1.4224300000000001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.4935514999999999</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>1.7069160000000001</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="O17" s="7">
+      <c r="N17" s="7"/>
+      <c r="P17" s="7">
         <v>12</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>0.92081999999999997</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="7">
         <v>0.94844459999999997</v>
       </c>
-      <c r="R17" s="7">
+      <c r="S17" s="7">
         <v>1.104984</v>
       </c>
-      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="8:20">
-      <c r="H18" s="7">
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="9:21">
+      <c r="I18" s="7">
         <v>13</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>1.4638599999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>1.5077758000000001</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>1.756632</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="O18" s="7">
+      <c r="N18" s="7"/>
+      <c r="P18" s="7">
         <v>13</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="7">
         <v>0.94764000000000004</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="7">
         <v>0.97606919999999997</v>
       </c>
-      <c r="R18" s="7">
+      <c r="S18" s="7">
         <v>1.137168</v>
       </c>
-      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="8:20">
-      <c r="J19" s="16">
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="9:21">
+      <c r="K19" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="8:20">
-      <c r="H21" s="9" t="s">
+    <row r="21" spans="9:21">
+      <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>510900</v>
       </c>
     </row>
-    <row r="22" spans="8:20">
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
+    <row r="22" spans="9:21">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="8:20">
-      <c r="H23" s="7">
+    <row r="23" spans="9:21">
+      <c r="I23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="J23" s="7">
         <v>0.90629000000000004</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>0.86509499999999995</v>
       </c>
-      <c r="K23" s="7">
+      <c r="L23" s="7">
         <v>0.82389999999999997</v>
       </c>
-      <c r="L23" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="8:20">
-      <c r="H24" s="7">
+      <c r="M23" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="9:21">
+      <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J24" s="7">
         <v>0.94513100000000005</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <v>0.90217049999999999</v>
       </c>
-      <c r="K24" s="7">
+      <c r="L24" s="7">
         <v>0.85921000000000003</v>
       </c>
-      <c r="L24" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="8:20">
-      <c r="H25" s="7">
+      <c r="M24" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="9:21">
+      <c r="I25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J25" s="7">
         <v>0.98397199999999996</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <v>0.93924600000000003</v>
       </c>
-      <c r="K25" s="7">
+      <c r="L25" s="7">
         <v>0.89451999999999998</v>
       </c>
-      <c r="L25" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="8:20">
-      <c r="H26" s="7">
+      <c r="M25" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="9:21">
+      <c r="I26" s="7">
         <v>4</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J26" s="7">
         <v>1.022813</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>0.97632149999999995</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>0.92983000000000005</v>
       </c>
-      <c r="L26" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="8:20">
-      <c r="H27" s="7">
+      <c r="M26" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="9:21">
+      <c r="I27" s="7">
         <v>5</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="7">
         <v>1.0616540000000001</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>1.0133970000000001</v>
       </c>
-      <c r="K27" s="7">
+      <c r="L27" s="7">
         <v>0.96514</v>
       </c>
-      <c r="L27" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="8:20">
-      <c r="H28" s="7">
+      <c r="M27" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="9:21">
+      <c r="I28" s="7">
         <v>6</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="7">
         <v>1.100495</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>1.0504724999999999</v>
       </c>
-      <c r="K28" s="7">
+      <c r="L28" s="7">
         <v>1.0004500000000001</v>
       </c>
-      <c r="L28" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="8:20">
-      <c r="H29" s="7">
+      <c r="M28" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="9:21">
+      <c r="I29" s="7">
         <v>7</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L29" s="7">
         <v>1.03576</v>
       </c>
-      <c r="L29" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="8:20">
-      <c r="H30" s="7">
+      <c r="M29" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="9:21">
+      <c r="I30" s="7">
         <v>8</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>1.07107</v>
       </c>
-      <c r="L30" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="8:20">
-      <c r="H31" s="7">
+      <c r="M30" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="9:21">
+      <c r="I31" s="7">
         <v>9</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J31" s="7">
         <v>1.2170179999999999</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>1.161699</v>
       </c>
-      <c r="K31" s="7">
+      <c r="L31" s="7">
         <v>1.1063799999999999</v>
       </c>
-      <c r="L31" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="8:20">
-      <c r="H32" s="7">
+      <c r="M31" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="9:21">
+      <c r="I32" s="7">
         <v>10</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <v>1.2558590000000001</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>1.1987745000000001</v>
       </c>
-      <c r="K32" s="7">
+      <c r="L32" s="7">
         <v>1.1416900000000001</v>
       </c>
-      <c r="L32" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="H33" s="7">
+      <c r="M32" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="I33" s="7">
         <v>11</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J33" s="7">
         <v>1.2947</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>1.2358499999999999</v>
       </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>1.177</v>
       </c>
-      <c r="L33" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N33" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
-      <c r="H34" s="7">
+    <row r="34" spans="1:18">
+      <c r="I34" s="7">
         <v>12</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="7">
         <v>1.3335410000000001</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>1.2729254999999999</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1.21231</v>
       </c>
-      <c r="L34" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="M34" s="7">
+        <v>20000</v>
+      </c>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>12</v>
       </c>
-      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
         <v>1.310001</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <v>1.24762</v>
       </c>
-      <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>13</v>
       </c>
-      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
         <v>1.3470765</v>
       </c>
-      <c r="K36" s="7">
+      <c r="L36" s="7">
         <v>1.2829299999999999</v>
       </c>
-      <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="P46" s="16">
+    <row r="46" spans="1:18">
+      <c r="Q46" s="16">
         <v>0.1</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="R46" s="16">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L4:L15">
-    <sortCondition ref="L29"/>
+  <sortState ref="M4:M15">
+    <sortCondition ref="M29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -580,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aim_all_price</t>
   </si>
   <si>
@@ -605,13 +602,213 @@
   <si>
     <t>目标价</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1年</t>
+  </si>
+  <si>
+    <t>近3年</t>
+  </si>
+  <si>
+    <t>近3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发可转债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006483</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华中债AAA信用债指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国国有企业债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实超短债债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发纯债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成景兴信用债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时信用债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.87亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏纯债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成景旭纯债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞丰盛纯债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF33353C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>博时信用债纯债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF33353C"/>
+        <rFont val="PingFangSC-Semibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.60亿</t>
+  </si>
+  <si>
+    <t>长信可转债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.61亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6776.49万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.96亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.94亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.78亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.03亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.69亿</t>
+  </si>
+  <si>
+    <t>21.90亿</t>
+  </si>
+  <si>
+    <t>1.62亿</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +896,50 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="PingFangSC-Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF33353C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF005CBF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -767,7 +1008,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +1061,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,25 +1534,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="5" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="17.75" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="17.75" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>15</v>
@@ -1275,22 +1561,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1304,18 +1587,14 @@
         <f>C2*1.05</f>
         <v>0.93870000000000009</v>
       </c>
-      <c r="E2" s="8" t="e">
-        <f>C1*1.05</f>
-        <v>#VALUE!</v>
+      <c r="E2" s="8">
+        <v>19500</v>
       </c>
       <c r="F2" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G2" s="8">
         <v>17550</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1330,25 +1609,22 @@
         <v>1.4500500000000001</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="F3" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G3" s="8">
         <v>10380</v>
       </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1357,34 +1633,31 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
+      <c r="I4" s="9">
         <v>159905</v>
       </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="7"/>
-      <c r="P4" s="14" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="P4" s="9">
         <v>501029</v>
       </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1399,781 +1672,1223 @@
         <v>1.2358500000000001</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="8">
+        <v>11770</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.966699999999999</v>
+      </c>
+      <c r="J6">
+        <v>1.0150349999999999</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.16003999999999</v>
+      </c>
+      <c r="L6" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.64457399999999998</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.75095999999999996</v>
+      </c>
+      <c r="S6">
+        <v>25000</v>
+      </c>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.00813</v>
+      </c>
+      <c r="J7">
+        <v>1.0585365</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.2097559999999901</v>
+      </c>
+      <c r="L7" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.65261999999999998</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.67219859999999998</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.78314399999999995</v>
+      </c>
+      <c r="S7">
+        <v>25000</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.04956</v>
+      </c>
+      <c r="J8">
+        <v>1.1020380000000001</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.2594719999999999</v>
+      </c>
+      <c r="L8" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.67944000000000004</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.69982319999999998</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.81532800000000005</v>
+      </c>
+      <c r="S8">
+        <v>20000</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.0909899999999999</v>
+      </c>
+      <c r="J9">
+        <v>1.1455394999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.309188</v>
+      </c>
+      <c r="L9" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="O9" s="7">
+        <v>4</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.70626</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.72744779999999998</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.84751199999999904</v>
+      </c>
+      <c r="S9">
+        <v>20000</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.13242</v>
+      </c>
+      <c r="J10">
+        <v>1.189041</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.3589039999999999</v>
+      </c>
+      <c r="L10" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="O10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.73307999999999995</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.75507239999999998</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.87969600000000003</v>
+      </c>
+      <c r="S10">
+        <v>20000</v>
+      </c>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.1738500000000001</v>
+      </c>
+      <c r="J11">
+        <v>1.2325425000000001</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.40862</v>
+      </c>
+      <c r="L11" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="O11" s="7">
+        <v>6</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.78269699999999998</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.91188000000000002</v>
+      </c>
+      <c r="S11">
+        <v>15000</v>
+      </c>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.2152799999999999</v>
+      </c>
+      <c r="J12">
+        <v>1.276044</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.4583359999999901</v>
+      </c>
+      <c r="L12" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7">
+        <v>7</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.78671999999999997</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.81032159999999998</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.94406399999999902</v>
+      </c>
+      <c r="S12" s="17">
+        <v>15000</v>
+      </c>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.25671</v>
+      </c>
+      <c r="J13">
+        <v>1.3195455</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.5080519999999999</v>
+      </c>
+      <c r="L13" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="O13" s="7">
+        <v>8</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.81354000000000004</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.83794619999999997</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.976248</v>
+      </c>
+      <c r="S13" s="7">
+        <v>15000</v>
+      </c>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.2981399999999901</v>
+      </c>
+      <c r="J14">
+        <v>1.3630469999999999</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.55776799999999</v>
+      </c>
+      <c r="L14" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="O14" s="7">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.84036</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.86557079999999997</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1.008432</v>
+      </c>
+      <c r="S14" s="7">
         <v>10000</v>
       </c>
-      <c r="G5" s="8">
-        <v>11770</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.966699999999999</v>
-      </c>
-      <c r="K6">
-        <v>1.0150349999999999</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1.16003999999999</v>
-      </c>
-      <c r="M6">
-        <v>25000</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.62580000000000002</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0.64457399999999998</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.75095999999999996</v>
-      </c>
-      <c r="T6">
-        <v>25000</v>
-      </c>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1.00813</v>
-      </c>
-      <c r="K7">
-        <v>1.0585365</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.2097559999999901</v>
-      </c>
-      <c r="M7">
-        <v>25000</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="P7" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0.65261999999999998</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.67219859999999998</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0.78314399999999995</v>
-      </c>
-      <c r="T7">
-        <v>25000</v>
-      </c>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="I8" s="7">
-        <v>3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1.04956</v>
-      </c>
-      <c r="K8">
-        <v>1.1020380000000001</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1.2594719999999999</v>
-      </c>
-      <c r="M8">
-        <v>20000</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="P8" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.67944000000000004</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0.69982319999999998</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0.81532800000000005</v>
-      </c>
-      <c r="T8">
-        <v>20000</v>
-      </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.0909899999999999</v>
-      </c>
-      <c r="K9">
-        <v>1.1455394999999999</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1.309188</v>
-      </c>
-      <c r="M9">
-        <v>20000</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="P9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0.70626</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.72744779999999998</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0.84751199999999904</v>
-      </c>
-      <c r="T9">
-        <v>20000</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1.13242</v>
-      </c>
-      <c r="K10">
-        <v>1.189041</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1.3589039999999999</v>
-      </c>
-      <c r="M10">
-        <v>20000</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="P10" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.73307999999999995</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.75507239999999998</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0.87969600000000003</v>
-      </c>
-      <c r="T10">
-        <v>20000</v>
-      </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="I11" s="7">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1.1738500000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.2325425000000001</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1.40862</v>
-      </c>
-      <c r="M11" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="P11" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0.75990000000000002</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0.78269699999999998</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0.91188000000000002</v>
-      </c>
-      <c r="T11">
-        <v>15000</v>
-      </c>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1.2152799999999999</v>
-      </c>
-      <c r="K12">
-        <v>1.276044</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1.4583359999999901</v>
-      </c>
-      <c r="M12" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="P12" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0.78671999999999997</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.81032159999999998</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0.94406399999999902</v>
-      </c>
-      <c r="T12" s="17">
-        <v>15000</v>
-      </c>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="I13" s="7">
-        <v>8</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1.25671</v>
-      </c>
-      <c r="K13">
-        <v>1.3195455</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1.5080519999999999</v>
-      </c>
-      <c r="M13" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="P13" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0.81354000000000004</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0.83794619999999997</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0.976248</v>
-      </c>
-      <c r="T13" s="7">
-        <v>15000</v>
-      </c>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="I14" s="7">
-        <v>9</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1.2981399999999901</v>
-      </c>
-      <c r="K14">
-        <v>1.3630469999999999</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1.55776799999999</v>
-      </c>
-      <c r="M14" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="P14" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.84036</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.86557079999999997</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1.008432</v>
-      </c>
-      <c r="T14" s="7">
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.3395699999999999</v>
+      </c>
+      <c r="J15">
+        <v>1.4065485</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.6074839999999999</v>
+      </c>
+      <c r="L15" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="O15" s="7">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.89319539999999997</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1.040616</v>
+      </c>
+      <c r="S15" s="7">
         <v>10000</v>
       </c>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="I15" s="7">
-        <v>10</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1.3395699999999999</v>
-      </c>
-      <c r="K15">
-        <v>1.4065485</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1.6074839999999999</v>
-      </c>
-      <c r="M15" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="P15" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.86717999999999995</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.89319539999999997</v>
-      </c>
-      <c r="S15" s="7">
-        <v>1.040616</v>
-      </c>
-      <c r="T15" s="7">
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.381</v>
+      </c>
+      <c r="J16">
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1.6572</v>
+      </c>
+      <c r="L16" s="16">
+        <v>8000</v>
+      </c>
+      <c r="M16" s="8">
+        <v>7500</v>
+      </c>
+      <c r="O16" s="7">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.92081999999999997</v>
+      </c>
+      <c r="R16" s="7">
+        <v>1.0728</v>
+      </c>
+      <c r="S16" s="16">
         <v>10000</v>
       </c>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="I16" s="7">
-        <v>11</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1.381</v>
-      </c>
-      <c r="K16">
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1.6572</v>
-      </c>
-      <c r="M16" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N16" s="8">
-        <v>7500</v>
-      </c>
-      <c r="P16" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="T16" s="8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="17" spans="8:20">
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.4224300000000001</v>
+      </c>
+      <c r="J17">
+        <v>1.4935514999999999</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.7069160000000001</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="O17" s="7">
+        <v>12</v>
+      </c>
+      <c r="P17" s="7">
         <v>0.92081999999999997</v>
       </c>
-      <c r="S16" s="7">
-        <v>1.0728</v>
-      </c>
-      <c r="T16" s="16">
-        <v>10000</v>
-      </c>
-      <c r="U16" s="8">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="17" spans="9:21">
-      <c r="I17" s="7">
-        <v>12</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1.4224300000000001</v>
-      </c>
-      <c r="K17">
-        <v>1.4935514999999999</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1.7069160000000001</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="P17" s="7">
-        <v>12</v>
-      </c>
       <c r="Q17" s="7">
-        <v>0.92081999999999997</v>
+        <v>0.94844459999999997</v>
       </c>
       <c r="R17" s="7">
-        <v>0.94844459999999997</v>
-      </c>
-      <c r="S17" s="7">
         <v>1.104984</v>
       </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="9:21">
+    </row>
+    <row r="18" spans="8:20">
+      <c r="H18" s="7">
+        <v>13</v>
+      </c>
       <c r="I18" s="7">
+        <v>1.4638599999999999</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1.5077758000000001</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.756632</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="O18" s="7">
         <v>13</v>
       </c>
-      <c r="J18" s="7">
-        <v>1.4638599999999999</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1.5077758000000001</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1.756632</v>
-      </c>
-      <c r="N18" s="7"/>
       <c r="P18" s="7">
-        <v>13</v>
+        <v>0.94764000000000004</v>
       </c>
       <c r="Q18" s="7">
-        <v>0.94764000000000004</v>
+        <v>0.97606919999999997</v>
       </c>
       <c r="R18" s="7">
-        <v>0.97606919999999997</v>
-      </c>
-      <c r="S18" s="7">
         <v>1.137168</v>
       </c>
+      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="9:21">
-      <c r="K19" s="16">
+    </row>
+    <row r="19" spans="8:20">
+      <c r="J19" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="9:21">
-      <c r="I21" s="9" t="s">
+    <row r="21" spans="8:20">
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="9">
+      <c r="I21" s="9">
         <v>510900</v>
       </c>
     </row>
-    <row r="22" spans="9:21">
-      <c r="I22" s="7"/>
+    <row r="22" spans="8:20">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="9:21">
+    </row>
+    <row r="23" spans="8:20">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
       <c r="I23" s="7">
-        <v>1</v>
+        <v>0.90629000000000004</v>
       </c>
       <c r="J23" s="7">
-        <v>0.90629000000000004</v>
+        <v>0.86509499999999995</v>
       </c>
       <c r="K23" s="7">
-        <v>0.86509499999999995</v>
+        <v>0.82389999999999997</v>
       </c>
       <c r="L23" s="7">
-        <v>0.82389999999999997</v>
-      </c>
-      <c r="M23" s="7">
         <v>20000</v>
       </c>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="9:21">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="8:20">
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
       <c r="I24" s="7">
-        <v>2</v>
+        <v>0.94513100000000005</v>
       </c>
       <c r="J24" s="7">
-        <v>0.94513100000000005</v>
+        <v>0.90217049999999999</v>
       </c>
       <c r="K24" s="7">
-        <v>0.90217049999999999</v>
+        <v>0.85921000000000003</v>
       </c>
       <c r="L24" s="7">
-        <v>0.85921000000000003</v>
-      </c>
-      <c r="M24" s="7">
         <v>20000</v>
       </c>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="9:21">
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="8:20">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
       <c r="I25" s="7">
-        <v>3</v>
+        <v>0.98397199999999996</v>
       </c>
       <c r="J25" s="7">
-        <v>0.98397199999999996</v>
+        <v>0.93924600000000003</v>
       </c>
       <c r="K25" s="7">
-        <v>0.93924600000000003</v>
+        <v>0.89451999999999998</v>
       </c>
       <c r="L25" s="7">
-        <v>0.89451999999999998</v>
-      </c>
-      <c r="M25" s="7">
         <v>20000</v>
       </c>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="9:21">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="8:20">
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
       <c r="I26" s="7">
-        <v>4</v>
+        <v>1.022813</v>
       </c>
       <c r="J26" s="7">
-        <v>1.022813</v>
+        <v>0.97632149999999995</v>
       </c>
       <c r="K26" s="7">
-        <v>0.97632149999999995</v>
+        <v>0.92983000000000005</v>
       </c>
       <c r="L26" s="7">
-        <v>0.92983000000000005</v>
-      </c>
-      <c r="M26" s="7">
         <v>20000</v>
       </c>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="9:21">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="8:20">
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
       <c r="I27" s="7">
-        <v>5</v>
+        <v>1.0616540000000001</v>
       </c>
       <c r="J27" s="7">
-        <v>1.0616540000000001</v>
+        <v>1.0133970000000001</v>
       </c>
       <c r="K27" s="7">
-        <v>1.0133970000000001</v>
+        <v>0.96514</v>
       </c>
       <c r="L27" s="7">
-        <v>0.96514</v>
-      </c>
-      <c r="M27" s="7">
         <v>20000</v>
       </c>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="9:21">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="8:20">
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
       <c r="I28" s="7">
-        <v>6</v>
+        <v>1.100495</v>
       </c>
       <c r="J28" s="7">
-        <v>1.100495</v>
+        <v>1.0504724999999999</v>
       </c>
       <c r="K28" s="7">
-        <v>1.0504724999999999</v>
+        <v>1.0004500000000001</v>
       </c>
       <c r="L28" s="7">
-        <v>1.0004500000000001</v>
-      </c>
-      <c r="M28" s="7">
         <v>20000</v>
       </c>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="9:21">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="8:20">
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
       <c r="I29" s="7">
-        <v>7</v>
+        <v>1.1393359999999999</v>
       </c>
       <c r="J29" s="7">
-        <v>1.1393359999999999</v>
+        <v>1.087548</v>
       </c>
       <c r="K29" s="7">
-        <v>1.087548</v>
+        <v>1.03576</v>
       </c>
       <c r="L29" s="7">
-        <v>1.03576</v>
-      </c>
-      <c r="M29" s="7">
         <v>20000</v>
       </c>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="9:21">
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="8:20">
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
       <c r="I30" s="7">
-        <v>8</v>
+        <v>1.178177</v>
       </c>
       <c r="J30" s="7">
-        <v>1.178177</v>
+        <v>1.1246235</v>
       </c>
       <c r="K30" s="7">
-        <v>1.1246235</v>
+        <v>1.07107</v>
       </c>
       <c r="L30" s="7">
-        <v>1.07107</v>
-      </c>
-      <c r="M30" s="7">
         <v>20000</v>
       </c>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="9:21">
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="8:20">
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
       <c r="I31" s="7">
-        <v>9</v>
+        <v>1.2170179999999999</v>
       </c>
       <c r="J31" s="7">
-        <v>1.2170179999999999</v>
+        <v>1.161699</v>
       </c>
       <c r="K31" s="7">
-        <v>1.161699</v>
+        <v>1.1063799999999999</v>
       </c>
       <c r="L31" s="7">
-        <v>1.1063799999999999</v>
-      </c>
-      <c r="M31" s="7">
         <v>20000</v>
       </c>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="9:21">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="8:20">
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
       <c r="I32" s="7">
-        <v>10</v>
+        <v>1.2558590000000001</v>
       </c>
       <c r="J32" s="7">
-        <v>1.2558590000000001</v>
+        <v>1.1987745000000001</v>
       </c>
       <c r="K32" s="7">
-        <v>1.1987745000000001</v>
+        <v>1.1416900000000001</v>
       </c>
       <c r="L32" s="7">
-        <v>1.1416900000000001</v>
-      </c>
-      <c r="M32" s="7">
         <v>20000</v>
       </c>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="H33" s="7">
+        <v>11</v>
+      </c>
       <c r="I33" s="7">
-        <v>11</v>
+        <v>1.2947</v>
       </c>
       <c r="J33" s="7">
-        <v>1.2947</v>
+        <v>1.2358499999999999</v>
       </c>
       <c r="K33" s="7">
-        <v>1.2358499999999999</v>
+        <v>1.177</v>
       </c>
       <c r="L33" s="7">
-        <v>1.177</v>
-      </c>
-      <c r="M33" s="7">
         <v>20000</v>
       </c>
-      <c r="N33" s="8">
+      <c r="M33" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:17">
+      <c r="H34" s="7">
+        <v>12</v>
+      </c>
       <c r="I34" s="7">
-        <v>12</v>
+        <v>1.3335410000000001</v>
       </c>
       <c r="J34" s="7">
-        <v>1.3335410000000001</v>
-      </c>
-      <c r="K34" s="7">
         <v>1.2729254999999999</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <v>1.21231</v>
       </c>
-      <c r="M34" s="7">
+      <c r="L34" s="7">
         <v>20000</v>
       </c>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>12</v>
       </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="7">
+        <v>1.310001</v>
+      </c>
       <c r="K35" s="7">
-        <v>1.310001</v>
-      </c>
-      <c r="L35" s="7">
         <v>1.24762</v>
       </c>
+      <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>13</v>
       </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="7">
+        <v>1.3470765</v>
+      </c>
       <c r="K36" s="7">
-        <v>1.3470765</v>
-      </c>
-      <c r="L36" s="7">
         <v>1.2829299999999999</v>
       </c>
+      <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:17">
+      <c r="P46" s="16">
+        <v>0.1</v>
+      </c>
       <c r="Q46" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="16">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="M4:M15">
-    <sortCondition ref="M29"/>
+  <sortState ref="L4:L15">
+    <sortCondition ref="L29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="4" width="14.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="24" customFormat="1" ht="15">
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25">
+        <v>519976</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="30">
+        <v>40998</v>
+      </c>
+      <c r="F2" s="31">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="G2" s="31">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="H2" s="27">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="I2" s="27">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="J2" s="27">
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="K2" s="27">
+        <v>1.1455</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18">
+        <v>43406</v>
+      </c>
+      <c r="F3" s="19">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="18">
+        <v>42907</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2.06E-2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.31069999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="18">
+        <v>41542</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2.92E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="18">
+        <v>38833</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.1139</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.5514</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="24" customFormat="1">
+      <c r="B7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="26">
+        <v>41255</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="24" customFormat="1">
+      <c r="B9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="26">
+        <v>39974</v>
+      </c>
+      <c r="F9" s="27">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H9" s="27">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1.3714999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="24" customFormat="1">
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F11" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H11" s="27">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I11" s="27">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J11" s="27">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.25140000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18">
+        <v>42268</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="M13" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -682,10 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大成景兴信用债债券C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,13 +798,36 @@
   </si>
   <si>
     <t>1.62亿</t>
+  </si>
+  <si>
+    <t>60%-%80机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值波动要小，回撤小</t>
+  </si>
+  <si>
+    <t>90%个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96%个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +959,13 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1008,7 +1034,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1132,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2450,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M13"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2466,7 +2495,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:14" ht="15">
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
@@ -2474,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>35</v>
@@ -2497,16 +2526,22 @@
       <c r="K1" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" s="24" customFormat="1" ht="15">
+      <c r="M1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
       <c r="B2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="25">
         <v>519976</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="30">
         <v>40998</v>
@@ -2529,8 +2564,11 @@
       <c r="K2" s="27">
         <v>1.1455</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="M2" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -2544,22 +2582,22 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -2567,7 +2605,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="18">
         <v>42907</v>
@@ -2587,8 +2625,11 @@
       <c r="K4" s="19">
         <v>0.31069999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -2596,7 +2637,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="18">
         <v>41542</v>
@@ -2622,8 +2663,11 @@
       <c r="L5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -2631,7 +2675,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="18">
         <v>38833</v>
@@ -2654,8 +2698,11 @@
       <c r="K6" s="19">
         <v>0.5514</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" s="24" customFormat="1">
+      <c r="M6" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1">
       <c r="B7" s="24" t="s">
         <v>54</v>
       </c>
@@ -2663,7 +2710,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="26">
         <v>41255</v>
@@ -2689,16 +2736,19 @@
       <c r="L7" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="M7" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
+      <c r="C8" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="D8" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="18">
         <v>41429</v>
@@ -2722,18 +2772,18 @@
         <v>0.53739999999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="24" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1">
       <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="E9" s="26">
         <v>39974</v>
@@ -2757,15 +2807,15 @@
         <v>1.3714999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="18">
         <v>41519</v>
@@ -2789,15 +2839,15 @@
         <v>0.34060000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="24" customFormat="1">
+    <row r="11" spans="2:14" s="24" customFormat="1">
       <c r="B11" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="28">
         <v>41341</v>
@@ -2821,15 +2871,15 @@
         <v>0.25140000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15">
+    <row r="12" spans="2:14" ht="15">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="18">
         <v>41478</v>
@@ -2853,15 +2903,15 @@
         <v>0.35639999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="19.5">
+    <row r="13" spans="2:14" ht="19.5">
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="18">
         <v>42268</v>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2482,7 +2482,7 @@
   <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -646,14 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华中债AAA信用债指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富国国有企业债C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,10 +760,6 @@
   </si>
   <si>
     <t>11.61亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6776.49万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2479,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2503,7 +2491,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>35</v>
@@ -2527,21 +2515,21 @@
         <v>40</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
       <c r="B2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="25">
         <v>519976</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="30">
         <v>40998</v>
@@ -2565,7 +2553,7 @@
         <v>1.1455</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -2582,359 +2570,327 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="18">
-        <v>42907</v>
+        <v>41542</v>
       </c>
       <c r="F4" s="19">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="G4" s="19">
-        <v>2.06E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="H4" s="19">
-        <v>4.1399999999999999E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="I4" s="19">
-        <v>8.1699999999999995E-2</v>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>0.31069999999999998</v>
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="18">
+        <v>38833</v>
+      </c>
+      <c r="F5" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.1139</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.5514</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="24" customFormat="1">
+      <c r="B6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="26">
+        <v>41255</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H6" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I6" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J6" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="18">
-        <v>41542</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="H5" s="19">
-        <v>2.92E-2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J5" s="19">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.29709999999999998</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="E7" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="24" customFormat="1">
+      <c r="B8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="26">
+        <v>39974</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H8" s="27">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J8" s="27">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1.3714999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="18">
-        <v>38833</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G6" s="19">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.1139</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.5514</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="24" customFormat="1">
-      <c r="B7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E9" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1">
+      <c r="B10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="26">
-        <v>41255</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="E10" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F10" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="G10" s="27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J10" s="27">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.25140000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H11" s="19">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="I7" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J7" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="18">
-        <v>41429</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="24" customFormat="1">
-      <c r="B9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="26">
-        <v>39974</v>
-      </c>
-      <c r="F9" s="27">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H9" s="27">
-        <v>-5.8999999999999999E-3</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="J9" s="27">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="K9" s="27">
-        <v>1.3714999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" t="s">
+      <c r="I11" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="19.5">
+      <c r="B12" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="18">
-        <v>41519</v>
-      </c>
-      <c r="F10" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="I10" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="24" customFormat="1">
-      <c r="B11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="28">
-        <v>41341</v>
-      </c>
-      <c r="F11" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G11" s="27">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H11" s="27">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="I11" s="27">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="J11" s="27">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0.25140000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15">
-      <c r="B12" t="s">
-        <v>64</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E12" s="18">
-        <v>41478</v>
+        <v>42268</v>
       </c>
       <c r="F12" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1.9900000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="H12" s="19">
-        <v>3.4799999999999998E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>5.3100000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J12" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="19.5">
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="18">
-        <v>42268</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H13" s="19">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="I13" s="19">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J13" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K12" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -646,19 +646,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富国国有企业债C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>070009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,10 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.96亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>45.94亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,10 +777,6 @@
   </si>
   <si>
     <t>持有结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1132,6 +1112,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2467,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N12"/>
+  <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2478,7 +2463,7 @@
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="4" width="14.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
@@ -2491,7 +2476,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>35</v>
@@ -2515,21 +2500,21 @@
         <v>40</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
       <c r="B2" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="25">
         <v>519976</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="30">
         <v>40998</v>
@@ -2553,7 +2538,7 @@
         <v>1.1455</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -2570,327 +2555,289 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="18">
+        <v>38833</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.1139</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.5514</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1">
+      <c r="B5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26">
+        <v>41255</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H5" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I5" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J5" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="M5" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1">
+      <c r="B7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26">
+        <v>39974</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.3714999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="18">
-        <v>41542</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="H4" s="19">
-        <v>2.92E-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J4" s="19">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.29709999999999998</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="E8" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="24" customFormat="1">
+      <c r="B9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="18">
-        <v>38833</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G5" s="19">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H5" s="19">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0.1139</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.5514</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" s="24" customFormat="1">
-      <c r="B6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="E9" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F9" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H9" s="27">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I9" s="27">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J9" s="27">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0.25140000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="26">
-        <v>41255</v>
-      </c>
-      <c r="F6" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G6" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="E10" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H10" s="19">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="I6" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J6" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K6" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="18">
-        <v>41429</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H7" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="I7" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" s="24" customFormat="1">
-      <c r="B8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="26">
-        <v>39974</v>
-      </c>
-      <c r="F8" s="27">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H8" s="27">
-        <v>-5.8999999999999999E-3</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="J8" s="27">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="K8" s="27">
-        <v>1.3714999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="18">
-        <v>41519</v>
-      </c>
-      <c r="F9" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="I9" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="24" customFormat="1">
-      <c r="B10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="28">
-        <v>41341</v>
-      </c>
-      <c r="F10" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H10" s="27">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="I10" s="27">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="J10" s="27">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0.25140000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15">
+      <c r="I10" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="19.5">
       <c r="B11" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="18">
-        <v>41478</v>
+        <v>42268</v>
       </c>
       <c r="F11" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1.9900000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="H11" s="19">
-        <v>3.4799999999999998E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="I11" s="19">
-        <v>5.3100000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J11" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="19.5">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="18">
-        <v>42268</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H12" s="19">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="I12" s="19">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J12" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K11" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M11" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -710,8 +710,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t>001661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.60亿</t>
+  </si>
+  <si>
+    <t>长信可转债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.61亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.94亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.78亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.03亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.69亿</t>
+  </si>
+  <si>
+    <t>21.90亿</t>
+  </si>
+  <si>
+    <t>1.62亿</t>
+  </si>
+  <si>
+    <t>60%-%80机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值波动要小，回撤小</t>
+  </si>
+  <si>
+    <t>90%个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96%个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="15"/>
         <color rgb="FF33353C"/>
         <rFont val="宋体"/>
@@ -722,6 +785,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="15"/>
         <color rgb="FF33353C"/>
         <rFont val="PingFangSC-Semibold"/>
@@ -732,70 +796,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001661</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.60亿</t>
-  </si>
-  <si>
-    <t>长信可转债C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.61亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.94亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.78亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.03亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.69亿</t>
-  </si>
-  <si>
-    <t>21.90亿</t>
-  </si>
-  <si>
-    <t>1.62亿</t>
-  </si>
-  <si>
-    <t>60%-%80机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净值波动要小，回撤小</t>
-  </si>
-  <si>
-    <t>90%个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96%个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>平安短债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.20亿元</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,19 +900,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF33353C"/>
-      <name val="PingFangSC-Semibold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF33353C"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -934,8 +937,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="PingFangSC-Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +978,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1041,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1102,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1087,22 +1126,43 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2452,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2468,7 +2528,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
@@ -2500,21 +2560,21 @@
         <v>40</v>
       </c>
       <c r="M1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
+    </row>
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
       <c r="B2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="25">
         <v>519976</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="30">
         <v>40998</v>
@@ -2538,39 +2598,44 @@
         <v>1.1455</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="18">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37">
         <v>43406</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="38">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
+      <c r="G3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -2578,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="18">
         <v>38833</v>
@@ -2602,10 +2667,10 @@
         <v>0.5514</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="24" customFormat="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="24" customFormat="1">
       <c r="B5" s="24" t="s">
         <v>49</v>
       </c>
@@ -2613,7 +2678,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="26">
         <v>41255</v>
@@ -2640,10 +2705,10 @@
         <v>46</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2651,7 +2716,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18">
         <v>41429</v>
@@ -2678,7 +2743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="24" customFormat="1">
+    <row r="7" spans="1:14" s="24" customFormat="1">
       <c r="B7" s="24" t="s">
         <v>54</v>
       </c>
@@ -2710,7 +2775,7 @@
         <v>1.3714999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -2718,7 +2783,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="18">
         <v>41519</v>
@@ -2742,7 +2807,7 @@
         <v>0.34060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="24" customFormat="1">
+    <row r="9" spans="1:14" s="24" customFormat="1">
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2815,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="28">
         <v>41341</v>
@@ -2774,7 +2839,7 @@
         <v>0.25140000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15">
+    <row r="10" spans="1:14" ht="15">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -2782,7 +2847,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="18">
         <v>41478</v>
@@ -2806,15 +2871,15 @@
         <v>0.35639999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="19.5">
-      <c r="B11" t="s">
+    <row r="11" spans="1:14" ht="19.5">
+      <c r="B11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="E11" s="18">
         <v>42268</v>
@@ -2838,6 +2903,22 @@
         <v>0.13619999999999999</v>
       </c>
       <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5">
+      <c r="B12" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.25">
+      <c r="B13" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -714,17 +714,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.60亿</t>
-  </si>
-  <si>
     <t>长信可转债C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11.61亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,15 +734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.69亿</t>
-  </si>
-  <si>
-    <t>21.90亿</t>
-  </si>
-  <si>
-    <t>1.62亿</t>
-  </si>
-  <si>
     <t>60%-%80机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,9 +756,32 @@
     <t>)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>平安短债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信纯债一年定开债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信纯债壹号债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银瑞信双利债券B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="15"/>
         <color rgb="FF33353C"/>
         <rFont val="宋体"/>
@@ -785,7 +792,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="15"/>
         <color rgb="FF33353C"/>
         <rFont val="PingFangSC-Semibold"/>
@@ -796,15 +802,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平安短债C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005755</t>
+    <t>1.69亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.90亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.62亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.60亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.20亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.57亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -945,7 +976,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="15"/>
       <color rgb="FF33353C"/>
       <name val="宋体"/>
@@ -953,14 +983,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="15"/>
       <color rgb="FF33353C"/>
       <name val="PingFangSC-Semibold"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="15"/>
       <color rgb="FF33353C"/>
       <name val="宋体"/>
@@ -968,7 +996,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,7 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,7 +1075,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,9 +1163,6 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1147,22 +1178,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2512,15 +2555,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I4" sqref="I4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="3" max="4" width="14.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -2528,7 +2571,7 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="2:14" ht="15">
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
@@ -2560,29 +2603,29 @@
         <v>40</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
+        <v>69</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
       <c r="B2" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="25">
         <v>519976</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="30">
+        <v>64</v>
+      </c>
+      <c r="E2" s="29">
         <v>40998</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="H2" s="27">
@@ -2598,52 +2641,33 @@
         <v>1.1455</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="40" customFormat="1">
+      <c r="B3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42">
         <v>43406</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="43">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="18">
         <v>38833</v>
@@ -2667,10 +2691,10 @@
         <v>0.5514</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="24" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="24" customFormat="1">
       <c r="B5" s="24" t="s">
         <v>49</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26">
         <v>41255</v>
@@ -2705,18 +2729,18 @@
         <v>46</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>69</v>
+        <v>89</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="18">
         <v>41429</v>
@@ -2743,47 +2767,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="24" customFormat="1">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:14" s="35" customFormat="1">
+      <c r="B7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="38">
         <v>39974</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="39">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="39">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="39">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="39">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="39">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="39">
         <v>1.3714999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>70</v>
+      <c r="D8" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="18">
         <v>41519</v>
@@ -2807,15 +2831,15 @@
         <v>0.34060000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="24" customFormat="1">
+    <row r="9" spans="2:14" s="24" customFormat="1">
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>71</v>
+      <c r="D9" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="E9" s="28">
         <v>41341</v>
@@ -2839,15 +2863,15 @@
         <v>0.25140000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15">
+    <row r="10" spans="2:14" ht="15">
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>72</v>
+      <c r="D10" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="18">
         <v>41478</v>
@@ -2871,15 +2895,15 @@
         <v>0.35639999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.5">
-      <c r="B11" s="39" t="s">
-        <v>79</v>
+    <row r="11" spans="2:14" ht="19.5">
+      <c r="B11" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>63</v>
+      <c r="D11" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="E11" s="18">
         <v>42268</v>
@@ -2902,22 +2926,128 @@
       <c r="K11" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.5">
-      <c r="B12" s="39" t="s">
-        <v>80</v>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:14" ht="15">
+      <c r="B12" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20.25">
-      <c r="B13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="34">
+        <v>43236</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15">
+      <c r="B13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="23">
+        <v>519972</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="34">
+        <v>41607</v>
+      </c>
+      <c r="F13" s="20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.42480000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15">
+      <c r="B14" s="23" t="s">
         <v>78</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="34">
+        <v>42744</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I14" s="20">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15">
+      <c r="B15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="23">
+        <v>485011</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="34">
+        <v>40406</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0.79490000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="20.25">
+      <c r="B16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="19">
+        <f>SUM(I2:I15)</f>
+        <v>0.6883999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <r>
       <rPr>
@@ -742,9 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>净值波动要小，回撤小</t>
-  </si>
-  <si>
     <t>90%个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,6 +775,42 @@
   </si>
   <si>
     <t>工银瑞信双利债券B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.69亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.90亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.62亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.60亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.20亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.57亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.16亿元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,40 +836,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.69亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.90亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.62亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.60亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.20亿元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.57亿元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.16亿元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>070009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>基金比较基准</t>
+  </si>
+  <si>
+    <t>中债综合指数</t>
+  </si>
+  <si>
+    <t>本基金的投资范围为具有良好流动性的金融工具，包括国内依法发行上市的股票（包括中小板、创业板及其他经中国证监会核准上市的股票）、债券、货币市场工具、权证、资产支持证券及法律法规或中国证监会允许基金投资的其他金融工具，但须符合中国证监会的相关规定。 本基金为债券型基金，主要投资于固定收益类金融工具，具体包括企业债、公司债、国债、央行票据、金融债、地方政府债、次级债券、可转换债券、分离交易可转债、短期融资券、超级短期融资券、中期票据、中小企业私募债券、资产支持证券、债券回购及银行存款等。 本基金不从二级市场买入股票或权证，但可参与一级市场新股申购、股票增发，还可持有因可转换债券转股所形成的股票、因所持股票进行股票配售及派发所形成的股票和因投资分离交易可转债所形成的权证。因上述原因持有的股票和权证等资产，基金将在其可交易之日起的60个交易日内卖出。 如法律法规或监管机构以后允许基金投资其他品种，基金管理人在履行适当程序后，可以将其纳入投资范围，其投资比例遵循届时有效法律法规或相关规定。 
+如法律法规或监管机构以后允许基金投资其他品种，基金管理人在履行适当程序后，可以将其纳入投资范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券总指数收益率×90%+沪深300指数收益率×10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信标普可转债指数收益率×70%+中证综合债指数收益率×20%+沪深300指数收益率×10%</t>
+  </si>
+  <si>
+    <t>中证可转换债券指数收益率×70%+中债综合财富(总值)指数收益率×20%+沪深300指数收益率×10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期银行定期储蓄存款的税后利率</t>
+  </si>
+  <si>
+    <t>中债总全价指数收益率</t>
+  </si>
+  <si>
+    <t>中债综合全价(总值)指数</t>
+  </si>
+  <si>
+    <t>中国人民银行公布的1年期定期存款利率(税后)</t>
+  </si>
+  <si>
+    <t>银行一年期定期存款利率(税后)×1.3+1.1%</t>
+  </si>
+  <si>
+    <t>中债综合财富指数收益率</t>
+  </si>
+  <si>
+    <t>兴全可转债混合型证券投资基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%×中证可转换债券指数＋15%×沪深300指数＋5%×同业存款利率</t>
+  </si>
+  <si>
+    <t>中债企业债总指数收益率×90%+银行活期存款利率(税后)×10%</t>
   </si>
 </sst>
 </file>
@@ -962,13 +1010,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
@@ -995,8 +1036,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,20 +1057,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1065,6 +1101,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFDAE3E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1075,7 +1120,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,49 +1208,43 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2555,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N22"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2569,9 +2608,10 @@
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1">
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
@@ -2605,448 +2645,514 @@
       <c r="M1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="14" customFormat="1" ht="16.5">
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="36">
+        <v>519976</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="37">
+        <v>40998</v>
+      </c>
+      <c r="F2" s="38">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="G2" s="38">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="H2" s="39">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="J2" s="39">
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="K2" s="39">
+        <v>1.1455</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="14" customFormat="1">
+      <c r="B3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41">
+        <v>43406</v>
+      </c>
+      <c r="F3" s="39">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="14" customFormat="1">
+      <c r="B4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="41">
+        <v>39974</v>
+      </c>
+      <c r="F4" s="39">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="G4" s="39">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H4" s="39">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I4" s="39">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="J4" s="39">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="14" customFormat="1" ht="16.5">
+      <c r="B5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="36">
+        <v>340001</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="N5" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="16.5">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="18">
+        <v>38833</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.1139</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.5514</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" s="24" customFormat="1" ht="15">
-      <c r="B2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="25">
-        <v>519976</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="29">
-        <v>40998</v>
-      </c>
-      <c r="F2" s="30">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="G2" s="30">
-        <v>-5.4300000000000001E-2</v>
-      </c>
-      <c r="H2" s="27">
-        <v>-1.0800000000000001E-2</v>
-      </c>
-      <c r="I2" s="27">
-        <v>-4.58E-2</v>
-      </c>
-      <c r="J2" s="27">
-        <v>-0.16250000000000001</v>
-      </c>
-      <c r="K2" s="27">
-        <v>1.1455</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="40" customFormat="1">
-      <c r="B3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42">
-        <v>43406</v>
-      </c>
-      <c r="F3" s="43">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="18">
-        <v>38833</v>
-      </c>
-      <c r="F4" s="19">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G4" s="19">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0.1139</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0.5514</v>
-      </c>
-      <c r="M4" s="24" t="s">
+      <c r="N6" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="24" customFormat="1" ht="16.5">
+      <c r="B7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="26">
+        <v>41255</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" s="24" customFormat="1">
-      <c r="B5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="26">
-        <v>41255</v>
-      </c>
-      <c r="F5" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H5" s="27">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I5" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J5" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K5" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="18">
-        <v>41429</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H6" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="I6" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="35" customFormat="1">
-      <c r="B7" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="38">
-        <v>39974</v>
-      </c>
-      <c r="F7" s="39">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="G7" s="39">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H7" s="39">
-        <v>-5.8999999999999999E-3</v>
-      </c>
-      <c r="I7" s="39">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="J7" s="39">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="K7" s="39">
-        <v>1.3714999999999999</v>
+      <c r="N7" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="16.5">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="24" customFormat="1" ht="16.5">
+      <c r="B10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J10" s="27">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="16.5">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="18">
-        <v>41519</v>
-      </c>
-      <c r="F8" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="24" customFormat="1">
-      <c r="B9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="E11" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="19.5">
+      <c r="B12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="28">
-        <v>41341</v>
-      </c>
-      <c r="F9" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H9" s="27">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="I9" s="27">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="J9" s="27">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0.25140000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15">
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="E12" s="18">
+        <v>42268</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="16.5">
+      <c r="B13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="18">
-        <v>41478</v>
-      </c>
-      <c r="F10" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I10" s="19">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="19.5">
-      <c r="B11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="E13" s="31">
+        <v>43236</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="16.5">
+      <c r="B14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="23">
+        <v>519972</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="31">
+        <v>41607</v>
+      </c>
+      <c r="F14" s="20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G14" s="20">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I14" s="20">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="16.5">
+      <c r="B15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="18">
-        <v>42268</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="2:14" ht="15">
-      <c r="B12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="E15" s="31">
+        <v>42744</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="16.5">
+      <c r="B16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="23">
+        <v>485011</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="34">
-        <v>43236</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H12" s="20">
-        <v>3.2899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15">
-      <c r="B13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="23">
-        <v>519972</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="34">
-        <v>41607</v>
-      </c>
-      <c r="F13" s="20">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="H13" s="20">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I13" s="20">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0.42480000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15">
-      <c r="B14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="34">
-        <v>42744</v>
-      </c>
-      <c r="F14" s="20">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H14" s="20">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I14" s="20">
-        <v>4.9799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15">
-      <c r="B15" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="23">
-        <v>485011</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="E16" s="31">
         <v>40406</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F16" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G16" s="20">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H16" s="20">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I16" s="20">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J16" s="20">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K16" s="20">
         <v>0.79490000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="20.25">
-      <c r="B16" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9">
-      <c r="I22" s="19">
-        <f>SUM(I2:I15)</f>
+      <c r="N16" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="20.25">
+      <c r="B17" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <f>AVERAGE(H6:H16)</f>
+        <v>3.8845454545454544E-2</v>
+      </c>
+      <c r="I23" s="19">
+        <f>SUM(I2:I16)</f>
         <v>0.6883999999999999</v>
       </c>
     </row>
@@ -3055,4 +3161,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="185.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="81">
+      <c r="B2" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2597,7 +2597,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2597,7 +2597,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3148,13 +3148,10 @@
     <row r="23" spans="2:9">
       <c r="G23" s="19"/>
       <c r="H23" s="19">
-        <f>AVERAGE(H6:H16)</f>
-        <v>3.8845454545454544E-2</v>
-      </c>
-      <c r="I23" s="19">
-        <f>SUM(I2:I16)</f>
-        <v>0.6883999999999999</v>
-      </c>
+        <f>AVERAGE(H2:H16)</f>
+        <v>3.5523076923076921E-2</v>
+      </c>
+      <c r="I23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2597,7 +2597,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3181,5 +3181,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <r>
       <rPr>
@@ -567,9 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://danjuanapp.com/djmodule/value-center?channel=1300100161</t>
-  </si>
-  <si>
     <t>红利ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,22 +752,10 @@
     <t>)</t>
   </si>
   <si>
-    <t>平安短债C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005755</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004220</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长信纯债一年定开债C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长信纯债壹号债券C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,10 +777,6 @@
   </si>
   <si>
     <t>19.60亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.20亿元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -867,12 +849,6 @@
     <t>中债综合全价(总值)指数</t>
   </si>
   <si>
-    <t>中国人民银行公布的1年期定期存款利率(税后)</t>
-  </si>
-  <si>
-    <t>银行一年期定期存款利率(税后)×1.3+1.1%</t>
-  </si>
-  <si>
     <t>中债综合财富指数收益率</t>
   </si>
   <si>
@@ -884,13 +860,145 @@
   </si>
   <si>
     <t>中债企业债总指数收益率×90%+银行活期存款利率(税后)×10%</t>
+  </si>
+  <si>
+    <t>广发沪深300ETF联接C (002987)</t>
+  </si>
+  <si>
+    <t>002987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费率</t>
+  </si>
+  <si>
+    <t>0.50%（每年）</t>
+  </si>
+  <si>
+    <t>托管费率</t>
+  </si>
+  <si>
+    <t>0.10%（每年）</t>
+  </si>
+  <si>
+    <t>销售服务费率</t>
+  </si>
+  <si>
+    <t>0.20%（每年）</t>
+  </si>
+  <si>
+    <t>中金MSCI中国A股红利指数C (006352)</t>
+  </si>
+  <si>
+    <t>006352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.70%（每年）</t>
+  </si>
+  <si>
+    <t>0.15%（每年）</t>
+  </si>
+  <si>
+    <t>0.25%（每年）</t>
+  </si>
+  <si>
+    <t>最高认购费率</t>
+  </si>
+  <si>
+    <t>0.00%（前端）</t>
+  </si>
+  <si>
+    <t>大成中证红利指数证券投资基金</t>
+  </si>
+  <si>
+    <t>0.75%（每年）</t>
+  </si>
+  <si>
+    <t>090010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果市盈率的数值低于股息率的数值，这是投资股票的大好机会。</t>
+  </si>
+  <si>
+    <t>270045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债类比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +1059,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1043,8 +1152,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF33353C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,8 +1186,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1110,6 +1263,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1120,7 +1288,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1413,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,7 +1751,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1662,9 +1863,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="F16" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,7 +1880,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1705,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>17</v>
@@ -1714,7 +1913,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1770,7 +1969,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8">
         <v>510880</v>
@@ -1803,7 +2002,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>510900</v>
@@ -1823,35 +2022,35 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2306,19 +2505,19 @@
     <row r="22" spans="8:20">
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="8:20">
@@ -2594,15 +2793,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N23"/>
+  <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="4" width="14.125" style="23" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -2611,53 +2810,53 @@
     <col min="14" max="14" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1">
+    <row r="1" spans="2:21" ht="17.25" thickBot="1">
       <c r="B1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="M1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" s="14" customFormat="1" ht="16.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" s="14" customFormat="1" ht="16.5">
       <c r="B2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="36">
         <v>519976</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="37">
         <v>40998</v>
@@ -2681,18 +2880,18 @@
         <v>1.1455</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="14" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" s="14" customFormat="1">
       <c r="B3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="41">
@@ -2702,18 +2901,18 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" s="14" customFormat="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="14" customFormat="1">
       <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="41">
         <v>39974</v>
@@ -2737,12 +2936,12 @@
         <v>1.3714999999999999</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="14" customFormat="1" ht="16.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="14" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="36">
         <v>340001</v>
@@ -2756,416 +2955,469 @@
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="N5" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" s="14" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="N6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="N7" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+    </row>
+    <row r="8" spans="2:21" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B8" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="N8" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="43" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="16.5">
-      <c r="B6" t="s">
+      <c r="R8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="16.5">
+      <c r="B9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="18">
+        <v>38833</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G9" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.1139</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.5514</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" s="24" customFormat="1" ht="16.5">
+      <c r="B10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="18">
-        <v>38833</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G6" s="19">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0.1139</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.5514</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="24" customFormat="1" ht="16.5">
-      <c r="B7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="E10" s="26">
         <v>41255</v>
-      </c>
-      <c r="F7" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G7" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H7" s="27">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I7" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J7" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="18">
-        <v>41429</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="16.5">
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="18">
-        <v>41519</v>
-      </c>
-      <c r="F9" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="I9" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="24" customFormat="1" ht="16.5">
-      <c r="B10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="28">
-        <v>41341</v>
       </c>
       <c r="F10" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G10" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J10" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I11" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="16.5">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" s="24" customFormat="1" ht="16.5">
+      <c r="B13" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F13" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G13" s="27">
         <v>1.84E-2</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H13" s="27">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I13" s="27">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J13" s="27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K13" s="27">
         <v>0.25140000000000001</v>
       </c>
-      <c r="N10" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="16.5">
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="N13" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="16.5">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="19.5">
+      <c r="B15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="18">
-        <v>41478</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="J11" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="19.5">
-      <c r="B12" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="18">
         <v>42268</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F15" s="19">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G15" s="19">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H15" s="19">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I15" s="19">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J15" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K15" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="16.5">
-      <c r="B13" s="23" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="16.5">
+      <c r="B16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="31">
+        <v>42744</v>
+      </c>
+      <c r="F16" s="20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I16" s="20">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="16.5">
+      <c r="B17" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="31">
-        <v>43236</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="G13" s="20">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="16.5">
-      <c r="B14" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="23">
-        <v>519972</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="31">
-        <v>41607</v>
-      </c>
-      <c r="F14" s="20">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="H14" s="20">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I14" s="20">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0.42480000000000001</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="16.5">
-      <c r="B15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="31">
-        <v>42744</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H15" s="20">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I15" s="20">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="16.5">
-      <c r="B16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="C17" s="23">
         <v>485011</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="31">
         <v>40406</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F17" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G17" s="20">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H17" s="20">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I17" s="20">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J17" s="20">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K17" s="20">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N16" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="20.25">
-      <c r="B17" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="G23" s="19"/>
-      <c r="H23" s="19">
-        <f>AVERAGE(H2:H16)</f>
-        <v>3.5523076923076921E-2</v>
-      </c>
-      <c r="I23" s="19"/>
+      <c r="N17" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="20.25">
+      <c r="B18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19">
+        <f>AVERAGE(H2:H17)</f>
+        <v>3.4172727272727271E-2</v>
+      </c>
+      <c r="I24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3175,7 +3427,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="81">
       <c r="B2" s="34" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="14.25">
+      <c r="B6" s="46" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3183,4 +3440,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E17:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="17" spans="5:18">
+      <c r="E17" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="51">
+        <v>15</v>
+      </c>
+      <c r="N17" s="51">
+        <v>20</v>
+      </c>
+      <c r="O17" s="51">
+        <v>25</v>
+      </c>
+      <c r="P17" s="51">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>35</v>
+      </c>
+      <c r="R17" s="51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18">
+      <c r="E18" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="51">
+        <v>70</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="7">
+        <v>55</v>
+      </c>
+      <c r="J18" s="51">
+        <v>50</v>
+      </c>
+      <c r="K18" s="51">
+        <v>45</v>
+      </c>
+      <c r="L18" s="51">
+        <v>40</v>
+      </c>
+      <c r="M18" s="51">
+        <v>35</v>
+      </c>
+      <c r="N18" s="51">
+        <v>30</v>
+      </c>
+      <c r="O18" s="52">
+        <v>25</v>
+      </c>
+      <c r="P18" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="51">
+        <v>30</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="51">
+        <v>40</v>
+      </c>
+      <c r="I19" s="7">
+        <v>45</v>
+      </c>
+      <c r="J19" s="51">
+        <v>50</v>
+      </c>
+      <c r="K19" s="51">
+        <v>55</v>
+      </c>
+      <c r="L19" s="51">
+        <v>60</v>
+      </c>
+      <c r="M19" s="51">
+        <v>65</v>
+      </c>
+      <c r="N19" s="51">
+        <v>70</v>
+      </c>
+      <c r="O19" s="52">
+        <v>75</v>
+      </c>
+      <c r="P19" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="52">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -942,18 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,23 +958,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1445,7 +1417,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3444,143 +3416,107 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E17:R19"/>
+  <dimension ref="E17:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:14">
       <c r="E17" s="51" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="I17" s="51">
+        <v>15</v>
+      </c>
+      <c r="J17" s="51">
+        <v>20</v>
+      </c>
+      <c r="K17" s="51">
+        <v>25</v>
+      </c>
+      <c r="L17" s="51">
+        <v>30</v>
       </c>
       <c r="M17" s="51">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N17" s="51">
-        <v>20</v>
-      </c>
-      <c r="O17" s="51">
-        <v>25</v>
-      </c>
-      <c r="P17" s="51">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="51">
-        <v>35</v>
-      </c>
-      <c r="R17" s="51">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="5:14">
       <c r="E18" s="51" t="s">
         <v>118</v>
       </c>
       <c r="F18" s="51">
         <v>70</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="51">
+        <v>50</v>
+      </c>
+      <c r="H18" s="51">
+        <v>40</v>
+      </c>
+      <c r="I18" s="51">
+        <v>35</v>
+      </c>
+      <c r="J18" s="51">
+        <v>30</v>
+      </c>
+      <c r="K18" s="52">
+        <v>25</v>
+      </c>
+      <c r="L18" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="7">
-        <v>55</v>
-      </c>
-      <c r="J18" s="51">
-        <v>50</v>
-      </c>
-      <c r="K18" s="51">
-        <v>45</v>
-      </c>
-      <c r="L18" s="51">
-        <v>40</v>
-      </c>
-      <c r="M18" s="51">
-        <v>35</v>
-      </c>
-      <c r="N18" s="51">
-        <v>30</v>
-      </c>
-      <c r="O18" s="52">
-        <v>25</v>
-      </c>
-      <c r="P18" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="R18" s="52">
+      <c r="M18" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:18">
+    <row r="19" spans="5:14">
       <c r="E19" s="51" t="s">
         <v>119</v>
       </c>
       <c r="F19" s="51">
         <v>30</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="51">
+        <v>50</v>
+      </c>
+      <c r="H19" s="51">
+        <v>60</v>
+      </c>
+      <c r="I19" s="51">
+        <v>65</v>
+      </c>
+      <c r="J19" s="51">
+        <v>70</v>
+      </c>
+      <c r="K19" s="52">
+        <v>75</v>
+      </c>
+      <c r="L19" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="51">
-        <v>40</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45</v>
-      </c>
-      <c r="J19" s="51">
-        <v>50</v>
-      </c>
-      <c r="K19" s="51">
-        <v>55</v>
-      </c>
-      <c r="L19" s="51">
-        <v>60</v>
-      </c>
-      <c r="M19" s="51">
-        <v>65</v>
-      </c>
-      <c r="N19" s="51">
-        <v>70</v>
-      </c>
-      <c r="O19" s="52">
-        <v>75</v>
-      </c>
-      <c r="P19" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="51" t="s">
+      <c r="M19" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="52">
+      <c r="N19" s="52">
         <v>100</v>
       </c>
     </row>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -749,9 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>004220</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,13 +961,57 @@
   <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Kelly Criterion
+Kelly % = W – [(1 – W) / R] [1] 
+Where:
+　　W = Winning probability
+　　R = Win/loss ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发双债添利债券C</t>
+  </si>
+  <si>
+    <t>中债企业债总全价指数收益率×45%+中信标普可转债指数收益率×45%+中债国债总指数收益率×10%</t>
+  </si>
+  <si>
+    <t>中国债券总指数</t>
+  </si>
+  <si>
+    <t>大成债券投资基金</t>
+  </si>
+  <si>
+    <t>博时天颐债券C</t>
+  </si>
+  <si>
+    <t>三年期定期存款利率(税后)+1%</t>
+  </si>
+  <si>
+    <t>三年期银行定期存款收益率(税后)+1.0%</t>
+  </si>
+  <si>
+    <t>易方达安心回报债券B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,13 +1130,6 @@
       <color rgb="FF005CBF"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1260,7 +1294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,22 +1385,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1381,31 +1412,31 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1419,6 +1450,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2767,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2816,571 +2859,609 @@
       <c r="M1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>84</v>
+      <c r="N1" s="32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:21" s="14" customFormat="1" ht="16.5">
       <c r="B2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>519976</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>40998</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="37">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="38">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="38">
         <v>-4.58E-2</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <v>-0.16250000000000001</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="38">
         <v>1.1455</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="40" t="s">
-        <v>88</v>
+      <c r="N2" s="39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:21" s="14" customFormat="1">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="41">
+      <c r="D3" s="35"/>
+      <c r="E3" s="40">
         <v>43406</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:21" s="14" customFormat="1">
       <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>39974</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>1.8E-3</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <v>4.53E-2</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="38">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="38">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="38">
         <v>1.3714999999999999</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:21" s="14" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="35">
+        <v>340001</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="N5" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="36">
-        <v>340001</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="N5" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" s="14" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B6" s="47" t="s">
+    </row>
+    <row r="6" spans="2:21" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B6" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="N6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="N6" s="42" t="s">
+      <c r="P6" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="N7" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+    </row>
+    <row r="8" spans="2:21" s="14" customFormat="1" ht="14.25">
+      <c r="B8" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="N8" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" s="14" customFormat="1" ht="14.25">
+      <c r="B9" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="N9" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" s="14" customFormat="1" ht="15" thickBot="1">
+      <c r="B10" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="N10" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="N11" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" s="42" t="s">
+      <c r="P11" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="42" t="s">
+      <c r="R11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="U6" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="N7" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="2:21" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="N8" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="16.5">
-      <c r="B9" s="49" t="s">
+    </row>
+    <row r="12" spans="2:21" ht="16.5">
+      <c r="B12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E12" s="18">
         <v>38833</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F12" s="19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G12" s="19">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H12" s="19">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I12" s="19">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J12" s="19">
         <v>0.1139</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K12" s="19">
         <v>0.5514</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" s="24" customFormat="1" ht="16.5">
-      <c r="B10" s="24" t="s">
+      <c r="N12" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" s="24" customFormat="1" ht="16.5">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E13" s="26">
         <v>41255</v>
-      </c>
-      <c r="F10" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="H10" s="27">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I10" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J10" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="18">
-        <v>41429</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="H11" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="16.5">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="18">
-        <v>41519</v>
-      </c>
-      <c r="F12" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="H12" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="I12" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" s="24" customFormat="1" ht="16.5">
-      <c r="B13" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="28">
-        <v>41341</v>
       </c>
       <c r="F13" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G13" s="27">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H13" s="27">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I13" s="27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J13" s="27">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="18">
+        <v>41429</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.1108</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="16.5">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="18">
+        <v>41519</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.1229</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" s="24" customFormat="1" ht="16.5">
+      <c r="B16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="28">
+        <v>41341</v>
+      </c>
+      <c r="F16" s="27">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="27">
         <v>1.84E-2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H16" s="27">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I16" s="27">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J16" s="27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K16" s="27">
         <v>0.25140000000000001</v>
       </c>
-      <c r="N13" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="16.5">
-      <c r="B14" t="s">
+      <c r="N16" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="16.5">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="18">
+        <v>41478</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I17" s="19">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J17" s="19">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19.5">
+      <c r="B18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="18">
-        <v>41478</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="G14" s="20">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="J14" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="19.5">
-      <c r="B15" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="E18" s="18">
+        <v>42268</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="16.5">
+      <c r="B19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="18">
-        <v>42268</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H15" s="19">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="I15" s="19">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="16.5">
-      <c r="B16" s="23" t="s">
+      <c r="E19" s="30">
+        <v>42744</v>
+      </c>
+      <c r="F19" s="20">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I19" s="20">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16.5">
+      <c r="B20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C20" s="23">
+        <v>485011</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="31">
-        <v>42744</v>
-      </c>
-      <c r="F16" s="20">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H16" s="20">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I16" s="20">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="16.5">
-      <c r="B17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="23">
-        <v>485011</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="E20" s="30">
         <v>40406</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F20" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G20" s="20">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H20" s="20">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I20" s="20">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J20" s="20">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K20" s="20">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N17" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="20.25">
-      <c r="B18" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>116</v>
+      <c r="N20" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="14.25">
+      <c r="B21" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="G24" s="19"/>
-      <c r="H24" s="19">
-        <f>AVERAGE(H2:H17)</f>
-        <v>3.4172727272727271E-2</v>
-      </c>
+      <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
+    <hyperlink ref="B21" r:id="rId2" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B9" r:id="rId3" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3398,13 +3479,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="81">
-      <c r="B2" s="34" t="s">
-        <v>86</v>
+      <c r="B2" s="33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="14.25">
-      <c r="B6" s="46" t="s">
-        <v>115</v>
+      <c r="B6" s="45" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3416,112 +3497,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E17:N19"/>
+  <dimension ref="E17:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="5:14">
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="50">
+        <v>15</v>
+      </c>
+      <c r="J17" s="50">
+        <v>20</v>
+      </c>
+      <c r="K17" s="50">
+        <v>25</v>
+      </c>
+      <c r="L17" s="50">
+        <v>30</v>
+      </c>
+      <c r="M17" s="50">
+        <v>35</v>
+      </c>
+      <c r="N17" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F18" s="50">
+        <v>70</v>
+      </c>
+      <c r="G18" s="50">
+        <v>50</v>
+      </c>
+      <c r="H18" s="50">
+        <v>40</v>
+      </c>
+      <c r="I18" s="50">
+        <v>35</v>
+      </c>
+      <c r="J18" s="50">
+        <v>30</v>
+      </c>
+      <c r="K18" s="51">
+        <v>25</v>
+      </c>
+      <c r="L18" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="M18" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="50">
+        <v>30</v>
+      </c>
+      <c r="G19" s="50">
+        <v>50</v>
+      </c>
+      <c r="H19" s="50">
+        <v>60</v>
+      </c>
+      <c r="I19" s="50">
+        <v>65</v>
+      </c>
+      <c r="J19" s="50">
+        <v>70</v>
+      </c>
+      <c r="K19" s="51">
+        <v>75</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" ht="123" customHeight="1">
+      <c r="E28" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="51">
-        <v>15</v>
-      </c>
-      <c r="J17" s="51">
-        <v>20</v>
-      </c>
-      <c r="K17" s="51">
-        <v>25</v>
-      </c>
-      <c r="L17" s="51">
-        <v>30</v>
-      </c>
-      <c r="M17" s="51">
-        <v>35</v>
-      </c>
-      <c r="N17" s="51">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="51">
-        <v>70</v>
-      </c>
-      <c r="G18" s="51">
-        <v>50</v>
-      </c>
-      <c r="H18" s="51">
-        <v>40</v>
-      </c>
-      <c r="I18" s="51">
-        <v>35</v>
-      </c>
-      <c r="J18" s="51">
-        <v>30</v>
-      </c>
-      <c r="K18" s="52">
-        <v>25</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="51">
-        <v>30</v>
-      </c>
-      <c r="G19" s="51">
-        <v>50</v>
-      </c>
-      <c r="H19" s="51">
-        <v>60</v>
-      </c>
-      <c r="I19" s="51">
-        <v>65</v>
-      </c>
-      <c r="J19" s="51">
-        <v>70</v>
-      </c>
-      <c r="K19" s="52">
-        <v>75</v>
-      </c>
-      <c r="L19" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" s="52">
-        <v>100</v>
-      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E28:K28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -1005,6 +1006,10 @@
   </si>
   <si>
     <t>易方达安心回报债券B</t>
+  </si>
+  <si>
+    <t>投入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2808,24 +2813,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U24"/>
+  <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="3" max="5" width="14.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.25" thickBot="1">
+    <row r="1" spans="2:22" ht="17.25" thickBot="1">
       <c r="B1" s="21" t="s">
         <v>40</v>
       </c>
@@ -2833,75 +2838,79 @@
         <v>41</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="14" customFormat="1" ht="16.5">
+    <row r="2" spans="2:22" s="14" customFormat="1" ht="16.5">
       <c r="B2" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="35">
         <v>519976</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="36">
+      <c r="F2" s="36">
         <v>40998</v>
       </c>
-      <c r="F2" s="37">
+      <c r="G2" s="37">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="G2" s="37">
+      <c r="H2" s="37">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="H2" s="38">
+      <c r="I2" s="38">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="I2" s="38">
+      <c r="J2" s="38">
         <v>-4.58E-2</v>
       </c>
-      <c r="J2" s="38">
+      <c r="K2" s="38">
         <v>-0.16250000000000001</v>
       </c>
-      <c r="K2" s="38">
+      <c r="L2" s="38">
         <v>1.1455</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="14" customFormat="1">
+    <row r="3" spans="2:22" s="14" customFormat="1">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
@@ -2909,52 +2918,54 @@
         <v>44</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="40">
+      <c r="E3" s="35"/>
+      <c r="F3" s="40">
         <v>43406</v>
       </c>
-      <c r="F3" s="38">
+      <c r="G3" s="38">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="14" customFormat="1">
+    <row r="4" spans="2:22" s="14" customFormat="1">
       <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40">
+      <c r="F4" s="40">
         <v>39974</v>
       </c>
-      <c r="F4" s="38">
+      <c r="G4" s="38">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="G4" s="38">
+      <c r="H4" s="38">
         <v>1.8E-3</v>
       </c>
-      <c r="H4" s="38">
+      <c r="I4" s="38">
         <v>4.53E-2</v>
       </c>
-      <c r="I4" s="38">
+      <c r="J4" s="38">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J4" s="38">
+      <c r="K4" s="38">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="K4" s="38">
+      <c r="L4" s="38">
         <v>1.3714999999999999</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:21" s="14" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:22" s="14" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="14" t="s">
         <v>93</v>
       </c>
@@ -2962,18 +2973,19 @@
         <v>340001</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="N5" s="39" t="s">
+      <c r="L5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+    <row r="6" spans="2:22" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="46" t="s">
         <v>104</v>
       </c>
@@ -2981,39 +2993,40 @@
         <v>105</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="38"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="38"/>
+      <c r="O6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="P6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="Q6" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="R6" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="S6" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="T6" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="U6" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="V6" s="42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:21" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="2:22" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="47" t="s">
         <v>111</v>
       </c>
@@ -3021,31 +3034,32 @@
         <v>113</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
-      <c r="N7" s="41" t="s">
+      <c r="L7" s="38"/>
+      <c r="O7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="P7" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="Q7" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="R7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-    </row>
-    <row r="8" spans="2:21" s="14" customFormat="1" ht="14.25">
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="44"/>
+    </row>
+    <row r="8" spans="2:22" s="14" customFormat="1" ht="14.25">
       <c r="B8" s="47" t="s">
         <v>134</v>
       </c>
@@ -3053,11 +3067,12 @@
         <v>128</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="N8" s="47" t="s">
+      <c r="E8" s="35"/>
+      <c r="O8" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:21" s="14" customFormat="1" ht="14.25">
+    <row r="9" spans="2:22" s="14" customFormat="1" ht="14.25">
       <c r="B9" s="54" t="s">
         <v>137</v>
       </c>
@@ -3065,11 +3080,12 @@
         <v>129</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="N9" s="47" t="s">
+      <c r="E9" s="35"/>
+      <c r="O9" s="47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:21" s="14" customFormat="1" ht="15" thickBot="1">
+    <row r="10" spans="2:22" s="14" customFormat="1" ht="14.25">
       <c r="B10" s="47" t="s">
         <v>133</v>
       </c>
@@ -3077,387 +3093,401 @@
         <v>127</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="N10" s="47" t="s">
+      <c r="E10" s="35"/>
+      <c r="O10" s="47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="2:22" s="14" customFormat="1" ht="15" thickBot="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="35">
+        <v>519062</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="2:22" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C12" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="N11" s="41" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="O12" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="P12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="Q12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="R12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="S12" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="T12" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="16.5">
-      <c r="B12" s="48" t="s">
+    <row r="13" spans="2:22" ht="16.5">
+      <c r="B13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F13" s="18">
         <v>38833</v>
       </c>
-      <c r="F12" s="19">
+      <c r="G13" s="19">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H13" s="19">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I13" s="19">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="J13" s="19">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="K13" s="19">
         <v>0.1139</v>
       </c>
-      <c r="K12" s="19">
+      <c r="L13" s="19">
         <v>0.5514</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="N13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="O13" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:21" s="24" customFormat="1" ht="16.5">
-      <c r="B13" s="24" t="s">
+    <row r="14" spans="2:22" s="24" customFormat="1" ht="16.5">
+      <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="26">
+      <c r="F14" s="26">
         <v>41255</v>
       </c>
-      <c r="F13" s="27">
+      <c r="G14" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G13" s="27">
+      <c r="H14" s="27">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="I14" s="27">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="I13" s="27">
+      <c r="J14" s="27">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="J13" s="27">
+      <c r="K14" s="27">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="K13" s="27">
+      <c r="L14" s="27">
         <v>0.39169999999999999</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="M14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="N14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="O14" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="49" t="s">
+    <row r="15" spans="2:22">
+      <c r="B15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F15" s="18">
         <v>41429</v>
       </c>
-      <c r="F14" s="19">
+      <c r="G15" s="19">
         <v>2.8E-3</v>
       </c>
-      <c r="G14" s="19">
+      <c r="H15" s="19">
         <v>1.37E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I15" s="19">
         <v>4.53E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J15" s="19">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="K15" s="19">
         <v>0.1108</v>
       </c>
-      <c r="K14" s="19">
+      <c r="L15" s="19">
         <v>0.53739999999999999</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="16.5">
-      <c r="B15" t="s">
+    <row r="16" spans="2:22" ht="16.5">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F16" s="18">
         <v>41519</v>
       </c>
-      <c r="F15" s="19">
+      <c r="G16" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H16" s="19">
         <v>2.76E-2</v>
       </c>
-      <c r="H15" s="19">
+      <c r="I16" s="19">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="I15" s="19">
+      <c r="J16" s="19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="K16" s="19">
         <v>0.1229</v>
       </c>
-      <c r="K15" s="19">
+      <c r="L16" s="19">
         <v>0.34060000000000001</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="O16" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:21" s="24" customFormat="1" ht="16.5">
-      <c r="B16" s="48" t="s">
+    <row r="17" spans="2:15" s="24" customFormat="1" ht="16.5">
+      <c r="B17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="28">
+      <c r="F17" s="28">
         <v>41341</v>
       </c>
-      <c r="F16" s="27">
+      <c r="G17" s="27">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G16" s="27">
+      <c r="H17" s="27">
         <v>1.84E-2</v>
       </c>
-      <c r="H16" s="27">
+      <c r="I17" s="27">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="I16" s="27">
+      <c r="J17" s="27">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="J16" s="27">
+      <c r="K17" s="27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="K16" s="27">
+      <c r="L17" s="27">
         <v>0.25140000000000001</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="O17" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="16.5">
-      <c r="B17" t="s">
+    <row r="18" spans="2:15" ht="16.5">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F18" s="18">
         <v>41478</v>
       </c>
-      <c r="F17" s="19">
+      <c r="G18" s="19">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G17" s="20">
+      <c r="H18" s="20">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="I18" s="19">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="I17" s="19">
+      <c r="J18" s="19">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="J17" s="19">
+      <c r="K18" s="19">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="L18" s="19">
         <v>0.35639999999999999</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="O18" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="19.5">
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="2:15" ht="19.5">
+      <c r="B19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F19" s="18">
         <v>42268</v>
       </c>
-      <c r="F18" s="19">
+      <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="H19" s="19">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="I19" s="19">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="J19" s="19">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="K19" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="K18" s="20">
+      <c r="L19" s="20">
         <v>0.13619999999999999</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="34" t="s">
+      <c r="N19" s="29"/>
+      <c r="O19" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="16.5">
-      <c r="B19" s="23" t="s">
+    <row r="20" spans="2:15" ht="16.5">
+      <c r="B20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="30">
+      <c r="F20" s="30">
         <v>42744</v>
       </c>
-      <c r="F19" s="20">
+      <c r="G20" s="20">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G19" s="20">
+      <c r="H20" s="20">
         <v>0.02</v>
       </c>
-      <c r="H19" s="20">
+      <c r="I20" s="20">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I19" s="20">
+      <c r="J20" s="20">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="O20" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="16.5">
-      <c r="B20" s="23" t="s">
+    <row r="21" spans="2:15" ht="16.5">
+      <c r="B21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C21" s="23">
         <v>485011</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="30">
+      <c r="F21" s="30">
         <v>40406</v>
       </c>
-      <c r="F20" s="20">
+      <c r="G21" s="20">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H21" s="20">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I21" s="20">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="J21" s="20">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K21" s="20">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K20" s="20">
+      <c r="L21" s="20">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="O21" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="14.25">
-      <c r="B21" s="52" t="s">
+    <row r="22" spans="2:15" ht="14.25">
+      <c r="B22" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="O22" s="53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+    <row r="25" spans="2:15">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
-    <hyperlink ref="B21" r:id="rId2" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B22" r:id="rId2" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B9" r:id="rId3" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3620,4 +3650,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G7:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="7" spans="7:9">
+      <c r="G7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9">
+      <c r="G8">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9">
+      <c r="G9">
+        <v>2500</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9">
+      <c r="G10">
+        <v>2400</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9">
+      <c r="G11">
+        <v>2300</v>
+      </c>
+      <c r="H11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12">
+        <v>2200</v>
+      </c>
+      <c r="H12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13">
+        <v>2100</v>
+      </c>
+      <c r="H13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>6000</v>
+      </c>
+      <c r="I14">
+        <f>SUM(H9:H14)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15">
+        <v>1900</v>
+      </c>
+      <c r="H15">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16">
+        <v>1800</v>
+      </c>
+      <c r="H16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17">
+        <v>1700</v>
+      </c>
+      <c r="H17">
+        <v>9000</v>
+      </c>
+      <c r="I17">
+        <f>SUM(H11:H19)</f>
+        <v>42000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="151">
   <si>
     <r>
       <rPr>
@@ -1011,12 +1011,59 @@
     <t>投入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0.35%（每年）</t>
+  </si>
+  <si>
+    <t>最高申购费率</t>
+  </si>
+  <si>
+    <t>最高赎回费率</t>
+  </si>
+  <si>
+    <t>1.50%（前端）</t>
+  </si>
+  <si>
+    <t>0.80%（每年）</t>
+  </si>
+  <si>
+    <t>0.40%（每年）</t>
+  </si>
+  <si>
+    <t>2.00%（前端）</t>
+  </si>
+  <si>
+    <t>1.30%（每年）</t>
+  </si>
+  <si>
+    <t>---（每年）</t>
+  </si>
+  <si>
+    <t>0.80%（前端）</t>
+  </si>
+  <si>
+    <t>1.00%（前端）</t>
+  </si>
+  <si>
+    <r>
+      <t>天天基金优惠费率：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.10%（前端）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,6 +1230,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1222,7 +1282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1289,6 +1349,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1299,7 +1385,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1552,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2813,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V25"/>
+  <dimension ref="B1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2830,7 +2934,7 @@
     <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="17.25" thickBot="1">
+    <row r="1" spans="2:27" ht="17.25" thickBot="1">
       <c r="B1" s="21" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2975,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:22" s="14" customFormat="1" ht="16.5">
+    <row r="2" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
       <c r="B2" s="14" t="s">
         <v>62</v>
       </c>
@@ -2909,8 +3013,44 @@
       <c r="O2" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" s="14" customFormat="1">
+      <c r="P2" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA2" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
@@ -2928,8 +3068,44 @@
       <c r="O3" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" s="14" customFormat="1">
+      <c r="P3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
@@ -2964,8 +3140,44 @@
       <c r="O4" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" s="14" customFormat="1" ht="17.25" thickBot="1">
+      <c r="P4" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="14" t="s">
         <v>93</v>
       </c>
@@ -2984,8 +3196,32 @@
       <c r="O5" s="39" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="P5" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="46" t="s">
         <v>104</v>
       </c>
@@ -3001,32 +3237,32 @@
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
-      <c r="O6" s="41" t="s">
+      <c r="P6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="Q6" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="R6" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="S6" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="T6" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="U6" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="V6" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="W6" s="42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:22" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="2:27" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B7" s="47" t="s">
         <v>111</v>
       </c>
@@ -3042,24 +3278,24 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
-      <c r="O7" s="41" t="s">
+      <c r="P7" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="Q7" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="R7" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="S7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44"/>
-    </row>
-    <row r="8" spans="2:22" s="14" customFormat="1" ht="14.25">
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+    </row>
+    <row r="8" spans="2:27" s="14" customFormat="1" ht="14.25">
       <c r="B8" s="47" t="s">
         <v>134</v>
       </c>
@@ -3072,7 +3308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:22" s="14" customFormat="1" ht="14.25">
+    <row r="9" spans="2:27" s="14" customFormat="1" ht="14.25">
       <c r="B9" s="54" t="s">
         <v>137</v>
       </c>
@@ -3085,7 +3321,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:22" s="14" customFormat="1" ht="14.25">
+    <row r="10" spans="2:27" s="14" customFormat="1" ht="14.25">
       <c r="B10" s="47" t="s">
         <v>133</v>
       </c>
@@ -3098,7 +3334,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:22" s="14" customFormat="1" ht="15" thickBot="1">
+    <row r="11" spans="2:27" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="B11" s="47"/>
       <c r="C11" s="35">
         <v>519062</v>
@@ -3107,7 +3343,7 @@
       <c r="E11" s="35"/>
       <c r="O11" s="47"/>
     </row>
-    <row r="12" spans="2:22" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="2:27" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="46" t="s">
         <v>96</v>
       </c>
@@ -3123,26 +3359,26 @@
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="O12" s="41" t="s">
+      <c r="P12" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="Q12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="41" t="s">
+      <c r="R12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="S12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="T12" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="U12" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="16.5">
+    <row r="13" spans="2:27" ht="16.5">
       <c r="B13" s="48" t="s">
         <v>46</v>
       </c>
@@ -3180,7 +3416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:22" s="24" customFormat="1" ht="16.5">
+    <row r="14" spans="2:27" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
@@ -3222,7 +3458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:27">
       <c r="B15" s="49" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="16.5">
+    <row r="16" spans="2:27" ht="16.5">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -3654,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G7:I17"/>
+  <dimension ref="G7:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3740,7 +3976,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
+    <row r="17" spans="7:18">
       <c r="G17">
         <v>1700</v>
       </c>
@@ -3752,7 +3988,35 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="29" spans="7:18" ht="14.25" thickBot="1"/>
+    <row r="30" spans="7:18" ht="28.5">
+      <c r="O30" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="7:18" ht="72" thickBot="1">
+      <c r="O31" s="59"/>
+      <c r="P31" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="61"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <r>
       <rPr>
@@ -577,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aim_all_price</t>
   </si>
   <si>
@@ -1008,10 +1004,6 @@
     <t>易方达安心回报债券B</t>
   </si>
   <si>
-    <t>投入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.35%（每年）</t>
   </si>
   <si>
@@ -1042,28 +1034,70 @@
     <t>0.80%（前端）</t>
   </si>
   <si>
-    <t>1.00%（前端）</t>
-  </si>
-  <si>
-    <r>
-      <t>天天基金优惠费率：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.10%（前端）</t>
-    </r>
+    <t>海富通阿尔法对冲混合</t>
+  </si>
+  <si>
+    <t>纯债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投入B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减仓数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,21 +1264,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,8 +1302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1349,32 +1376,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD3D3D3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1385,7 +1386,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,12 +1423,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1551,26 +1546,59 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A3:T46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2019,68 +2047,7 @@
     <col min="20" max="20" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8">
-        <v>501029</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="D2" s="8">
-        <f>C2*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="E2" s="8">
-        <v>19500</v>
-      </c>
-      <c r="F2" s="8">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8">
-        <v>159905</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C3*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>7500</v>
-      </c>
-      <c r="F3" s="8">
-        <v>10380</v>
-      </c>
+    <row r="3" spans="8:20">
       <c r="J3" t="s">
         <v>19</v>
       </c>
@@ -2091,19 +2058,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8">
-        <v>510880</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14" t="s">
+    <row r="4" spans="8:20">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="9">
@@ -2111,9 +2067,9 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="7"/>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="9">
@@ -2124,60 +2080,41 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8">
-        <v>510900</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.177</v>
-      </c>
-      <c r="D5" s="8">
-        <f>C5*1.05</f>
-        <v>1.2358500000000001</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11770</v>
-      </c>
+    <row r="5" spans="8:20">
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="8:20">
       <c r="H6" s="7">
         <v>1</v>
       </c>
@@ -2190,7 +2127,7 @@
       <c r="K6" s="7">
         <v>1.16003999999999</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>8000</v>
       </c>
       <c r="M6" s="7"/>
@@ -2211,7 +2148,7 @@
       </c>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="8:20">
       <c r="H7" s="7">
         <v>2</v>
       </c>
@@ -2224,7 +2161,7 @@
       <c r="K7" s="7">
         <v>1.2097559999999901</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <v>8000</v>
       </c>
       <c r="M7" s="7"/>
@@ -2245,7 +2182,7 @@
       </c>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="8:20">
       <c r="H8" s="7">
         <v>3</v>
       </c>
@@ -2258,7 +2195,7 @@
       <c r="K8" s="7">
         <v>1.2594719999999999</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>8000</v>
       </c>
       <c r="M8" s="7"/>
@@ -2279,7 +2216,7 @@
       </c>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="8:20">
       <c r="H9" s="7">
         <v>4</v>
       </c>
@@ -2292,7 +2229,7 @@
       <c r="K9" s="7">
         <v>1.309188</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <v>8000</v>
       </c>
       <c r="M9" s="7"/>
@@ -2313,7 +2250,7 @@
       </c>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="8:20">
       <c r="H10" s="7">
         <v>5</v>
       </c>
@@ -2326,7 +2263,7 @@
       <c r="K10" s="7">
         <v>1.3589039999999999</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <v>8000</v>
       </c>
       <c r="M10" s="7"/>
@@ -2347,7 +2284,7 @@
       </c>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="8:20">
       <c r="H11" s="7">
         <v>6</v>
       </c>
@@ -2360,7 +2297,7 @@
       <c r="K11" s="7">
         <v>1.40862</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <v>8000</v>
       </c>
       <c r="M11" s="7"/>
@@ -2381,7 +2318,7 @@
       </c>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="8:20">
       <c r="H12" s="7">
         <v>7</v>
       </c>
@@ -2394,7 +2331,7 @@
       <c r="K12" s="7">
         <v>1.4583359999999901</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="14">
         <v>8000</v>
       </c>
       <c r="M12" s="7"/>
@@ -2410,12 +2347,12 @@
       <c r="R12" s="7">
         <v>0.94406399999999902</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <v>15000</v>
       </c>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="8:20">
       <c r="H13" s="7">
         <v>8</v>
       </c>
@@ -2428,7 +2365,7 @@
       <c r="K13" s="7">
         <v>1.5080519999999999</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="14">
         <v>8000</v>
       </c>
       <c r="M13" s="7"/>
@@ -2449,7 +2386,7 @@
       </c>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="8:20">
       <c r="H14" s="7">
         <v>9</v>
       </c>
@@ -2462,7 +2399,7 @@
       <c r="K14" s="7">
         <v>1.55776799999999</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="14">
         <v>8000</v>
       </c>
       <c r="M14" s="7"/>
@@ -2483,7 +2420,7 @@
       </c>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="8:20">
       <c r="H15" s="7">
         <v>10</v>
       </c>
@@ -2496,7 +2433,7 @@
       <c r="K15" s="7">
         <v>1.6074839999999999</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="14">
         <v>8000</v>
       </c>
       <c r="M15" s="7"/>
@@ -2517,7 +2454,7 @@
       </c>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="8:20">
       <c r="H16" s="7">
         <v>11</v>
       </c>
@@ -2530,7 +2467,7 @@
       <c r="K16" s="7">
         <v>1.6572</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14">
         <v>8000</v>
       </c>
       <c r="M16" s="8">
@@ -2548,14 +2485,14 @@
       <c r="R16" s="7">
         <v>1.0728</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="14">
         <v>10000</v>
       </c>
       <c r="T16" s="8">
         <v>19500</v>
       </c>
     </row>
-    <row r="17" spans="8:20">
+    <row r="17" spans="7:20">
       <c r="H17" s="7">
         <v>12</v>
       </c>
@@ -2584,7 +2521,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="8:20">
+    <row r="18" spans="7:20">
       <c r="H18" s="7">
         <v>13</v>
       </c>
@@ -2613,12 +2550,12 @@
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="8:20">
-      <c r="J19" s="16">
+    <row r="19" spans="7:20">
+      <c r="J19" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="8:20">
+    <row r="21" spans="7:20">
       <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
@@ -2626,25 +2563,28 @@
         <v>510900</v>
       </c>
     </row>
-    <row r="22" spans="8:20">
+    <row r="22" spans="7:20">
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="7" t="s">
+    </row>
+    <row r="23" spans="7:20">
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="8:20">
       <c r="H23" s="7">
         <v>1</v>
       </c>
@@ -2658,11 +2598,14 @@
         <v>0.82389999999999997</v>
       </c>
       <c r="L23" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="8:20">
+    <row r="24" spans="7:20">
+      <c r="G24">
+        <v>27</v>
+      </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
@@ -2676,11 +2619,14 @@
         <v>0.85921000000000003</v>
       </c>
       <c r="L24" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="8:20">
+    <row r="25" spans="7:20">
+      <c r="G25">
+        <v>24</v>
+      </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
@@ -2694,11 +2640,14 @@
         <v>0.89451999999999998</v>
       </c>
       <c r="L25" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="8:20">
+    <row r="26" spans="7:20">
+      <c r="G26">
+        <v>21</v>
+      </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
@@ -2712,11 +2661,14 @@
         <v>0.92983000000000005</v>
       </c>
       <c r="L26" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="8:20">
+    <row r="27" spans="7:20">
+      <c r="G27">
+        <v>18</v>
+      </c>
       <c r="H27" s="7">
         <v>5</v>
       </c>
@@ -2730,11 +2682,14 @@
         <v>0.96514</v>
       </c>
       <c r="L27" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="8:20">
+    <row r="28" spans="7:20">
+      <c r="G28">
+        <v>15</v>
+      </c>
       <c r="H28" s="7">
         <v>6</v>
       </c>
@@ -2748,47 +2703,60 @@
         <v>1.0004500000000001</v>
       </c>
       <c r="L28" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="8:20">
-      <c r="H29" s="7">
+    <row r="29" spans="7:20">
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" s="54">
         <v>7</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="54">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="54">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="54">
         <v>1.03576</v>
       </c>
       <c r="L29" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="8:20">
-      <c r="H30" s="7">
+        <v>3000</v>
+      </c>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+    </row>
+    <row r="30" spans="7:20">
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" s="54">
         <v>8</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="54">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="54">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="54">
         <v>1.07107</v>
       </c>
       <c r="L30" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="8:20">
+        <v>3000</v>
+      </c>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+    </row>
+    <row r="31" spans="7:20">
+      <c r="G31">
+        <v>6</v>
+      </c>
       <c r="H31" s="7">
         <v>9</v>
       </c>
@@ -2802,11 +2770,14 @@
         <v>1.1063799999999999</v>
       </c>
       <c r="L31" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="8:20">
+    <row r="32" spans="7:20">
+      <c r="G32">
+        <v>3</v>
+      </c>
       <c r="H32" s="7">
         <v>10</v>
       </c>
@@ -2820,11 +2791,14 @@
         <v>1.1416900000000001</v>
       </c>
       <c r="L32" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:17">
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="H33" s="7">
         <v>11</v>
       </c>
@@ -2838,7 +2812,7 @@
         <v>1.177</v>
       </c>
       <c r="L33" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M33" s="8">
         <v>10000</v>
@@ -2858,7 +2832,7 @@
         <v>1.21231</v>
       </c>
       <c r="L34" s="7">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="M34" s="7"/>
     </row>
@@ -2898,10 +2872,10 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="P46" s="16">
+      <c r="P46" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q46" s="16">
+      <c r="Q46" s="14">
         <v>0.03</v>
       </c>
     </row>
@@ -2917,807 +2891,1048 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AA25"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="5" width="14.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="17.25" thickBot="1">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:28" ht="17.25" thickBot="1">
+      <c r="B1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="33">
+        <v>519976</v>
+      </c>
+      <c r="D2" s="70">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="70">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="34">
+        <v>40998</v>
+      </c>
+      <c r="H2" s="35">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="I2" s="60">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="J2" s="36">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="K2" s="36">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="L2" s="36">
+        <v>-0.16250000000000001</v>
+      </c>
+      <c r="M2" s="36">
+        <v>1.1455</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="Z2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="70">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="38">
+        <v>43406</v>
+      </c>
+      <c r="H3" s="36">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="P3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="21" t="s">
+      <c r="D4" s="70">
+        <v>1864</v>
+      </c>
+      <c r="E4" s="70">
+        <v>1004</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="38">
+        <v>39974</v>
+      </c>
+      <c r="H4" s="36">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="I4" s="62">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J4" s="36">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K4" s="36">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L4" s="36">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M4" s="36">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="33">
+        <v>340001</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="P5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B6" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="Q6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="Q7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="U7" s="39"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B8" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="I8" s="61"/>
+      <c r="P8" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B9" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="33"/>
+      <c r="I9" s="61"/>
+      <c r="P9" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B10" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="33"/>
+      <c r="I10" s="61"/>
+      <c r="P10" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B11" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="33">
+        <v>519062</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="33"/>
+      <c r="I11" s="61"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="Q12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="16.5">
+      <c r="B13" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="58">
+        <v>500</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="16">
+        <v>38833</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I13" s="63">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K13" s="17">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.1139</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.5514</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="P13" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="58">
+        <v>2637</v>
+      </c>
+      <c r="E14" s="58">
+        <v>4152</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="24">
+        <v>41255</v>
+      </c>
+      <c r="H14" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I14" s="64">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J14" s="25">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K14" s="25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L14" s="25">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58">
+        <v>5144</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16">
+        <v>41429</v>
+      </c>
+      <c r="H15" s="17">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.1108</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="35">
-        <v>519976</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="36">
-        <v>40998</v>
-      </c>
-      <c r="G2" s="37">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="H2" s="37">
-        <v>-5.4300000000000001E-2</v>
-      </c>
-      <c r="I2" s="38">
-        <v>-1.0800000000000001E-2</v>
-      </c>
-      <c r="J2" s="38">
-        <v>-4.58E-2</v>
-      </c>
-      <c r="K2" s="38">
-        <v>-0.16250000000000001</v>
-      </c>
-      <c r="L2" s="38">
-        <v>1.1455</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="X2" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z2" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA2" s="42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="40">
-        <v>43406</v>
-      </c>
-      <c r="G3" s="38">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="W3" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="X3" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z3" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
+    <row r="16" spans="2:28" ht="16.5">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="40">
-        <v>39974</v>
-      </c>
-      <c r="G4" s="38">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="H4" s="38">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I4" s="38">
-        <v>4.53E-2</v>
-      </c>
-      <c r="J4" s="38">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="K4" s="38">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="L4" s="38">
-        <v>1.3714999999999999</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y4" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA4" s="42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" s="14" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="35">
-        <v>340001</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="O5" s="39" t="s">
+      <c r="D16" s="58">
+        <v>5362</v>
+      </c>
+      <c r="E16" s="58">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="63">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K16" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="22" customFormat="1" ht="16.5">
+      <c r="B17" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="58">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="26">
+        <v>41341</v>
+      </c>
+      <c r="H17" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I17" s="64">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J17" s="25">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K17" s="25">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L17" s="25">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="58">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="58">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I18" s="65">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L18" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="19.5">
+      <c r="B19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="16">
+        <v>42268</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K19" s="17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="V5" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="W5" s="42" t="s">
+    </row>
+    <row r="20" spans="2:16" ht="16.5">
+      <c r="B20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="28">
+        <v>42744</v>
+      </c>
+      <c r="H20" s="18">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0.02</v>
+      </c>
+      <c r="J20" s="18">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K20" s="18">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16.5">
+      <c r="B21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21">
+        <v>485011</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="28">
+        <v>40406</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I21" s="65">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J21" s="18">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K21" s="18">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="14.25">
+      <c r="B22" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="58">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="58">
+        <v>2000</v>
+      </c>
+      <c r="P22" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="I25" s="63"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="67"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="8">
+        <v>501029</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D39" s="8">
+        <f>C39*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G39" s="69">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8">
+        <v>159905</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="D40" s="8">
+        <f>C40*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G40" s="69">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="8">
+        <v>510880</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="69">
+        <v>0</v>
+      </c>
+      <c r="I41" s="68"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="8">
+        <v>510900</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1.177</v>
+      </c>
+      <c r="D42" s="8">
+        <f>C42*1.05</f>
+        <v>1.2358500000000001</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="69">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="H47" s="7"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="H48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="69">
+        <v>100000</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B6" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="P6" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="V6" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="P7" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-    </row>
-    <row r="8" spans="2:27" s="14" customFormat="1" ht="14.25">
-      <c r="B8" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="O8" s="47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" s="14" customFormat="1" ht="14.25">
-      <c r="B9" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="O9" s="47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" s="14" customFormat="1" ht="14.25">
-      <c r="B10" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="O10" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" s="14" customFormat="1" ht="15" thickBot="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="35">
-        <v>519062</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="O11" s="47"/>
-    </row>
-    <row r="12" spans="2:27" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="P12" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="16.5">
-      <c r="B13" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="18">
-        <v>38833</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="H13" s="19">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="I13" s="19">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="J13" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0.1139</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.5514</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" s="24" customFormat="1" ht="16.5">
-      <c r="B14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="26">
-        <v>41255</v>
-      </c>
-      <c r="G14" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H14" s="27">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="I14" s="27">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="J14" s="27">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="K14" s="27">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="L14" s="27">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="18">
-        <v>41429</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2.8E-3</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I15" s="19">
-        <v>4.53E-2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.1108</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" ht="16.5">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="18">
-        <v>41519</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2.76E-2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0.1229</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" s="24" customFormat="1" ht="16.5">
-      <c r="B17" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="28">
-        <v>41341</v>
-      </c>
-      <c r="G17" s="27">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1.84E-2</v>
-      </c>
-      <c r="I17" s="27">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="J17" s="27">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="K17" s="27">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="L17" s="27">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="16.5">
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="18">
-        <v>41478</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="I18" s="19">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="J18" s="19">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="19.5">
-      <c r="B19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="18">
-        <v>42268</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="I19" s="19">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="J19" s="19">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="L19" s="20">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="16.5">
-      <c r="B20" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="30">
-        <v>42744</v>
-      </c>
-      <c r="G20" s="20">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="I20" s="20">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="J20" s="20">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="16.5">
-      <c r="B21" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="23">
-        <v>485011</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="30">
-        <v>40406</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="H21" s="20">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="I21" s="20">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="J21" s="20">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0.79490000000000005</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="14.25">
-      <c r="B22" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="I49" s="57">
+        <f>SUM(D13:E22)</f>
+        <v>29995</v>
+      </c>
+      <c r="J49">
+        <f>I49/I48</f>
+        <v>0.29994999999999999</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="57">
+        <f>SUM(D2:E12)</f>
+        <v>7368</v>
+      </c>
+      <c r="J50" s="7">
+        <f>I50/I48</f>
+        <v>7.3679999999999995E-2</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="66">
+        <f>SUM(G39:G42)</f>
+        <v>39700</v>
+      </c>
+      <c r="J51" s="7">
+        <f>I51/I48</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3745,13 +3960,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="81">
-      <c r="B2" s="33" t="s">
-        <v>85</v>
+      <c r="B2" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="14.25">
-      <c r="B6" s="45" t="s">
-        <v>114</v>
+      <c r="B6" s="43" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3763,113 +3978,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E17:N28"/>
+  <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="17" spans="5:14">
-      <c r="E17" s="50" t="s">
+    <row r="17" spans="3:14">
+      <c r="E17" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="48">
+        <v>15</v>
+      </c>
+      <c r="J17" s="48">
+        <v>20</v>
+      </c>
+      <c r="K17" s="48">
+        <v>25</v>
+      </c>
+      <c r="L17" s="48">
+        <v>30</v>
+      </c>
+      <c r="M17" s="48">
+        <v>35</v>
+      </c>
+      <c r="N17" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="E18" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="50" t="s">
+      <c r="F18" s="48">
+        <v>70</v>
+      </c>
+      <c r="G18" s="48">
+        <v>50</v>
+      </c>
+      <c r="H18" s="48">
+        <v>40</v>
+      </c>
+      <c r="I18" s="48">
+        <v>35</v>
+      </c>
+      <c r="J18" s="48">
+        <v>30</v>
+      </c>
+      <c r="K18" s="49">
+        <v>25</v>
+      </c>
+      <c r="L18" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="M18" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="E19" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="48">
+        <v>30</v>
+      </c>
+      <c r="G19" s="48">
+        <v>50</v>
+      </c>
+      <c r="H19" s="48">
+        <v>60</v>
+      </c>
+      <c r="I19" s="48">
+        <v>65</v>
+      </c>
+      <c r="J19" s="48">
+        <v>70</v>
+      </c>
+      <c r="K19" s="49">
+        <v>75</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
+        <v>40</v>
+      </c>
+      <c r="F20" s="48">
+        <v>35</v>
+      </c>
+      <c r="G20" s="48">
+        <v>30</v>
+      </c>
+      <c r="H20" s="49">
+        <v>25</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="123" customHeight="1">
+      <c r="E28" s="55" t="s">
         <v>125</v>
-      </c>
-      <c r="I17" s="50">
-        <v>15</v>
-      </c>
-      <c r="J17" s="50">
-        <v>20</v>
-      </c>
-      <c r="K17" s="50">
-        <v>25</v>
-      </c>
-      <c r="L17" s="50">
-        <v>30</v>
-      </c>
-      <c r="M17" s="50">
-        <v>35</v>
-      </c>
-      <c r="N17" s="50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="50">
-        <v>70</v>
-      </c>
-      <c r="G18" s="50">
-        <v>50</v>
-      </c>
-      <c r="H18" s="50">
-        <v>40</v>
-      </c>
-      <c r="I18" s="50">
-        <v>35</v>
-      </c>
-      <c r="J18" s="50">
-        <v>30</v>
-      </c>
-      <c r="K18" s="51">
-        <v>25</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="N18" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="50">
-        <v>30</v>
-      </c>
-      <c r="G19" s="50">
-        <v>50</v>
-      </c>
-      <c r="H19" s="50">
-        <v>60</v>
-      </c>
-      <c r="I19" s="50">
-        <v>65</v>
-      </c>
-      <c r="J19" s="50">
-        <v>70</v>
-      </c>
-      <c r="K19" s="51">
-        <v>75</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="N19" s="51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" ht="123" customHeight="1">
-      <c r="E28" s="55" t="s">
-        <v>126</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -3890,134 +4130,336 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G7:R31"/>
+  <dimension ref="J9:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:N30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="7" spans="7:9">
-      <c r="G7">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="8" spans="7:9">
-      <c r="G8">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="9" spans="7:9">
-      <c r="G9">
+    <row r="9" spans="10:16">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="10:16">
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="10:16">
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11">
+        <v>6500</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="10:16">
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12">
+        <v>6000</v>
+      </c>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="10:16">
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13">
+        <v>5500</v>
+      </c>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="10:16">
+      <c r="J14" s="7">
+        <v>5</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14">
+        <v>5000</v>
+      </c>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="10:16">
+      <c r="J15" s="7">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4500</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15">
+        <f>SUM(M15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="10:16">
+      <c r="J16" s="7">
+        <v>7</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>4500</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" ref="M16:M23" si="0">K16*L16</f>
+        <v>13950</v>
+      </c>
+      <c r="N16">
+        <v>4000</v>
+      </c>
+      <c r="O16" s="7">
+        <f>SUM(L15:L16)</f>
+        <v>4500</v>
+      </c>
+      <c r="P16">
+        <f>SUM(M15:M16)</f>
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16">
+      <c r="J17" s="7">
+        <v>8</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="L17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="N17">
+        <v>3500</v>
+      </c>
+      <c r="O17" s="7">
+        <f>SUM(L15:L17)</f>
+        <v>9500</v>
+      </c>
+      <c r="P17">
+        <f>SUM(M15:M17)</f>
+        <v>27950</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16">
+      <c r="J18" s="7">
+        <v>9</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="7">
+        <v>5500</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>13750</v>
+      </c>
+      <c r="N18">
+        <v>3000</v>
+      </c>
+      <c r="O18" s="7">
+        <f>SUM(L15:L18)</f>
+        <v>15000</v>
+      </c>
+      <c r="P18">
+        <f>SUM(M15:M18)</f>
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16">
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L19" s="7">
+        <v>6000</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="0"/>
+        <v>13200.000000000002</v>
+      </c>
+      <c r="N19">
         <v>2500</v>
       </c>
-      <c r="H9">
+      <c r="O19" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>21000</v>
+      </c>
+      <c r="P19">
+        <f>SUM(M15:M19)</f>
+        <v>54900</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16">
+      <c r="J20" s="7">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6500</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="0"/>
+        <v>12350</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20" s="7">
+        <f>SUM(L15:L20)</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="21" spans="10:16">
+      <c r="J21" s="7">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="L21" s="7">
+        <v>7000</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+      <c r="N21">
+        <v>1500</v>
+      </c>
+      <c r="O21" s="7">
+        <f>SUM(L15:L21)</f>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16">
+      <c r="J22" s="7">
+        <v>13</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="L22" s="7">
+        <v>7500</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+      <c r="N22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="7:9">
-      <c r="G10">
-        <v>2400</v>
-      </c>
-      <c r="H10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9">
-      <c r="G11">
-        <v>2300</v>
-      </c>
-      <c r="H11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9">
-      <c r="G12">
-        <v>2200</v>
-      </c>
-      <c r="H12">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9">
-      <c r="G13">
-        <v>2100</v>
-      </c>
-      <c r="H13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9">
-      <c r="G14">
-        <v>2000</v>
-      </c>
-      <c r="H14">
-        <v>6000</v>
-      </c>
-      <c r="I14">
-        <f>SUM(H9:H14)</f>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9">
-      <c r="G15">
-        <v>1900</v>
-      </c>
-      <c r="H15">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9">
-      <c r="G16">
-        <v>1800</v>
-      </c>
-      <c r="H16">
+      <c r="O22" s="7">
+        <f>SUM(L15:L22)</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="23" spans="10:16">
+      <c r="J23" s="7">
+        <v>14</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
         <v>8000</v>
       </c>
-    </row>
-    <row r="17" spans="7:18">
-      <c r="G17">
-        <v>1700</v>
-      </c>
-      <c r="H17">
-        <v>9000</v>
-      </c>
-      <c r="I17">
-        <f>SUM(H11:H19)</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="29" spans="7:18" ht="14.25" thickBot="1"/>
-    <row r="30" spans="7:18" ht="28.5">
-      <c r="O30" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="P30" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="R30" s="60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="7:18" ht="72" thickBot="1">
-      <c r="O31" s="59"/>
-      <c r="P31" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="61"/>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="O23" s="7">
+        <f>SUM(L15:L23)</f>
+        <v>50000</v>
+      </c>
+      <c r="P23">
+        <f>SUM(M15:M23)</f>
+        <v>96200</v>
+      </c>
+    </row>
+    <row r="24" spans="10:16">
+      <c r="J24" s="7">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-  </mergeCells>
+  <sortState ref="N15:N22">
+    <sortCondition ref="N16"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4133,7 +4133,7 @@
   <dimension ref="J9:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4180,9 +4180,6 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11">
-        <v>6500</v>
-      </c>
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="10:16">
@@ -4195,7 +4192,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O12" s="7"/>
     </row>
@@ -4209,7 +4206,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O13" s="7"/>
     </row>
@@ -4223,7 +4220,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O14" s="7"/>
     </row>
@@ -4241,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15">
@@ -4264,7 +4261,7 @@
         <v>13950</v>
       </c>
       <c r="N16">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O16" s="7">
         <f>SUM(L15:L16)</f>
@@ -4290,7 +4287,7 @@
         <v>14000</v>
       </c>
       <c r="N17">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O17" s="7">
         <f>SUM(L15:L17)</f>
@@ -4316,7 +4313,7 @@
         <v>13750</v>
       </c>
       <c r="N18">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O18" s="7">
         <f>SUM(L15:L18)</f>
@@ -4342,7 +4339,7 @@
         <v>13200.000000000002</v>
       </c>
       <c r="N19">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O19" s="7">
         <f>SUM(L15:L19)</f>
@@ -4368,7 +4365,7 @@
         <v>12350</v>
       </c>
       <c r="N20">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O20" s="7">
         <f>SUM(L15:L20)</f>
@@ -4390,7 +4387,7 @@
         <v>11200</v>
       </c>
       <c r="N21">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="O21" s="7">
         <f>SUM(L15:L21)</f>
@@ -4410,9 +4407,6 @@
       <c r="M22" s="7">
         <f t="shared" si="0"/>
         <v>9750</v>
-      </c>
-      <c r="N22">
-        <v>1000</v>
       </c>
       <c r="O22" s="7">
         <f>SUM(L15:L22)</f>
@@ -4455,7 +4449,7 @@
       <c r="O24" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="N15:N22">
+  <sortState ref="N16:N23">
     <sortCondition ref="N16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="记录" sheetId="1" r:id="rId1"/>
     <sheet name="交易记录" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="定投" sheetId="3" r:id="rId3"/>
+    <sheet name="笔记" sheetId="4" r:id="rId4"/>
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -662,10 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,10 +964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>092002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>050123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,6 +1078,45 @@
   </si>
   <si>
     <t>网格仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资于固定收益类资产的比例不低于基金资产的 80%，其中对可转债（含可分离交易可转债）的投资比例不低于基金固定收益类 资产的 80%；对权益类资产的投资比例不高于基金资产的 20%，现金（不包括结 算备付金、存出保证金、应收申购款等） 或者到期日在一年以内的政府债券不低 于基金资产净值的 5%。</t>
+  </si>
+  <si>
+    <t>投资策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本基金不从二级市场买入股票或权证,也不参与一级市场新股申购、股票增发,持有的因可转换债券转股所形成的股票、因所持股票所派发的权证和因投资分离交易可转债所形成的权证将在其可交易之日起的90个交易日内卖出. 本基金对固定收益类资产的投资比例不低于基金资产的80%;投资于信用债和可转债的比例合计不低于固定收益类资产的80%.现金和到期日不超过一年的政府债券不低于基金资产净值的5%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券（含可转换债券）等固定收益类资产占基金资产的比例不低于 80％，股票等权益类资产占基金资产的比例不超过 20％，基金持有现金及到期日在一年以内的政府债券占基金资产净值的比例不低于 5%，其中现金不包括结算备付金、存出保证金和应收申购款等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券资产占基金资产的比例不低于 80%；每个交易日日终在扣除国债期货合约需缴纳的交易保证金后，本基金持有的现金（不包括结算备付金、存出保证金、应收申购款等） 及到期日在一年以内的政府债券占基金资产净值的比例不低于 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实纯债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,11 +1124,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,8 +1296,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,12 +1333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1420,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,9 +1562,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1546,59 +1577,77 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,6 +1662,51 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1" descr="https://www.jisilu.cn/uploads/questions/20150913/260b9dd3393169e780c8b4bfb9e04f6f.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="342900"/>
+          <a:ext cx="7639050" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1900,10 +1994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2029,10 +2124,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2711,47 +2807,47 @@
       <c r="G29">
         <v>12</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="53">
         <v>7</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="53">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="53">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K29" s="53">
         <v>1.03576</v>
       </c>
       <c r="L29" s="7">
         <v>3000</v>
       </c>
-      <c r="M29" s="54"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
     </row>
     <row r="30" spans="7:20">
       <c r="G30">
         <v>9</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <v>8</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="53">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="53">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="54">
+      <c r="K30" s="53">
         <v>1.07107</v>
       </c>
       <c r="L30" s="7">
         <v>3000</v>
       </c>
-      <c r="M30" s="54"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
     </row>
     <row r="31" spans="7:20">
       <c r="G31">
@@ -2891,21 +2987,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB51"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:AB53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="57" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="55" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="64" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
@@ -2918,14 +3015,14 @@
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>154</v>
+      <c r="D1" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>152</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>33</v>
@@ -2933,7 +3030,7 @@
       <c r="H1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -2948,28 +3045,31 @@
       <c r="M1" s="19" t="s">
         <v>38</v>
       </c>
+      <c r="N1" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="O1" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="33">
         <v>519976</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="66">
         <v>1500</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="66">
         <v>1000</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="34">
         <v>40998</v>
@@ -2977,7 +3077,7 @@
       <c r="H2" s="35">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="58">
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="J2" s="36">
@@ -2992,954 +3092,1005 @@
       <c r="M2" s="36">
         <v>1.1455</v>
       </c>
+      <c r="N2" s="71" t="s">
+        <v>161</v>
+      </c>
       <c r="O2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="W2" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="39" t="s">
+      <c r="AB2" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="Z2" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB2" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B3" s="12" t="s">
-        <v>42</v>
+    </row>
+    <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B3" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="70">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="70"/>
+        <v>126</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="38">
-        <v>43406</v>
-      </c>
-      <c r="H3" s="36">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I3" s="61"/>
-      <c r="P3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="W3" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y3" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA3" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB3" s="40" t="s">
-        <v>143</v>
+      <c r="I3" s="59"/>
+      <c r="P3" s="45" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="70">
-        <v>1864</v>
-      </c>
-      <c r="E4" s="70">
-        <v>1004</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="38">
-        <v>39974</v>
-      </c>
-      <c r="H4" s="36">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="I4" s="62">
-        <v>1.8E-3</v>
-      </c>
-      <c r="J4" s="36">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K4" s="36">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="L4" s="36">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="M4" s="36">
-        <v>1.3714999999999999</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="C4" s="33">
+        <v>340001</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="P4" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V4" s="40" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="W4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB4" s="40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="33">
-        <v>340001</v>
-      </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
+        <v>42</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="66">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="66"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="P5" s="37" t="s">
-        <v>93</v>
+      <c r="G5" s="38">
+        <v>43406</v>
+      </c>
+      <c r="H5" s="36">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="P5" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="W5" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="X5" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB5" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="66">
+        <v>1864</v>
+      </c>
+      <c r="E6" s="66">
+        <v>1004</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="38">
+        <v>39974</v>
+      </c>
+      <c r="H6" s="36">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="I6" s="60">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J6" s="36">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K6" s="36">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L6" s="36">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M6" s="36">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="V5" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="W5" s="39" t="s">
+      <c r="U6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="Y6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B7" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="Q6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="33"/>
       <c r="G7" s="38"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="62"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="Q7" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R7" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="S7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T7" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B8" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="Q8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" s="39"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="42"/>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B9" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66">
         <v>1000</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="I8" s="61"/>
-      <c r="P8" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B9" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
       <c r="F9" s="33"/>
-      <c r="I9" s="61"/>
+      <c r="I9" s="59"/>
       <c r="P9" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:28" s="12" customFormat="1" ht="14.25">
       <c r="B10" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+        <v>159</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="33"/>
-      <c r="I10" s="61"/>
+      <c r="I10" s="59"/>
       <c r="P10" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B11" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="33">
         <v>519062</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="33"/>
-      <c r="I11" s="61"/>
+      <c r="I11" s="59"/>
       <c r="P11" s="45"/>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="33"/>
       <c r="G12" s="38"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="62"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="Q12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="S12" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="T12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="U12" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="39" t="s">
+      <c r="V12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="V12" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" ht="16.5">
-      <c r="B13" s="46" t="s">
+    </row>
+    <row r="13" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B13" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="33">
+        <v>485011</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="73">
+        <v>40406</v>
+      </c>
+      <c r="H13" s="74">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I13" s="75">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J13" s="74">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K13" s="74">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M13" s="74">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="12" customFormat="1">
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72">
+        <v>5144</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="38">
+        <v>41429</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I14" s="60">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J14" s="36">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K14" s="36">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L14" s="36">
+        <v>0.1108</v>
+      </c>
+      <c r="M14" s="36">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="16.5">
+      <c r="B15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="58">
+      <c r="C15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="56">
         <v>500</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="23" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="16">
+        <v>38833</v>
+      </c>
+      <c r="H15" s="17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I15" s="61">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.1139</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.5514</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="56">
+        <v>2637</v>
+      </c>
+      <c r="E16" s="56">
+        <v>4152</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="16">
-        <v>38833</v>
-      </c>
-      <c r="H13" s="17">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="I13" s="63">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="K13" s="17">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L13" s="17">
-        <v>0.1139</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0.5514</v>
-      </c>
-      <c r="O13" s="22" t="s">
+      <c r="G16" s="24">
+        <v>41255</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I16" s="62">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J16" s="25">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K16" s="25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L16" s="25">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P16" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="58">
-        <v>2637</v>
-      </c>
-      <c r="E14" s="58">
-        <v>4152</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="24">
-        <v>41255</v>
-      </c>
-      <c r="H14" s="25">
+    <row r="17" spans="2:16" ht="16.5">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="56">
+        <v>5362</v>
+      </c>
+      <c r="E17" s="56">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="61">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="22" customFormat="1" ht="16.5">
+      <c r="B18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="56">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="26">
+        <v>41341</v>
+      </c>
+      <c r="H18" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I14" s="64">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="I18" s="62">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J18" s="25">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K18" s="25">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L18" s="25">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.5">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="56">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="56">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J19" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K14" s="25">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L14" s="25">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M14" s="25">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28">
-      <c r="B15" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="K19" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="19.5">
+      <c r="B20" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58">
-        <v>5144</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="16">
-        <v>41429</v>
-      </c>
-      <c r="H15" s="17">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I15" s="63">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J15" s="17">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K15" s="17">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0.1108</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="16.5">
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="58">
-        <v>5362</v>
-      </c>
-      <c r="E16" s="58">
-        <v>4000</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="16">
-        <v>41519</v>
-      </c>
-      <c r="H16" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="63">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J16" s="17">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0.1229</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="22" customFormat="1" ht="16.5">
-      <c r="B17" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="58">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="26">
-        <v>41341</v>
-      </c>
-      <c r="H17" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I17" s="64">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J17" s="25">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K17" s="25">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L17" s="25">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M17" s="25">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.5">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="58">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="58">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H18" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I18" s="65">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J18" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="19.5">
-      <c r="B19" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>42268</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>0</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I20" s="61">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K20" s="17">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L20" s="17">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M20" s="18">
         <v>0.13619999999999999</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="16.5">
-      <c r="B20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="28">
-        <v>42744</v>
-      </c>
-      <c r="H20" s="18">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I20" s="65">
-        <v>0.02</v>
-      </c>
-      <c r="J20" s="18">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K20" s="18">
-        <v>4.9799999999999997E-2</v>
-      </c>
+      <c r="O20" s="27"/>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5">
       <c r="B21" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21">
-        <v>485011</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" s="28">
-        <v>40406</v>
+        <v>42744</v>
       </c>
       <c r="H21" s="18">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I21" s="65">
-        <v>2.5700000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I21" s="63">
+        <v>0.02</v>
       </c>
       <c r="J21" s="18">
-        <v>4.8399999999999999E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="K21" s="18">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M21" s="18">
-        <v>0.79490000000000005</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="50" t="s">
-        <v>129</v>
+      <c r="B22" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="58">
+        <v>113</v>
+      </c>
+      <c r="D22" s="56">
         <v>1200</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="56">
         <v>2000</v>
       </c>
-      <c r="P22" s="51" t="s">
-        <v>130</v>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="14.25">
+      <c r="B23" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="P23" s="50"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="E24" s="56">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="I25" s="63"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="I26" s="61"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="67"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="8">
+      <c r="C38" s="8">
         <v>501029</v>
       </c>
+      <c r="D38" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F38" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G38" s="65">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C39" s="8">
-        <v>0.89400000000000002</v>
+        <v>159905</v>
       </c>
       <c r="D39" s="8">
-        <f>C39*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>1.381</v>
+      </c>
+      <c r="E39" s="8">
+        <f>D39*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
       <c r="F39" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G39" s="69">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="8">
-        <v>159905</v>
+        <v>7500</v>
+      </c>
+      <c r="G39" s="65">
+        <v>10380</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C40" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="D40" s="8">
-        <f>C40*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
+        <v>510880</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G40" s="69">
-        <v>10380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="8">
-        <v>510880</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="69">
+      <c r="F40" s="8"/>
+      <c r="G40" s="65">
         <v>0</v>
       </c>
-      <c r="I41" s="68"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="8" t="s">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="8">
+      <c r="C41" s="8">
         <v>510900</v>
       </c>
-      <c r="C42" s="8">
+      <c r="D41" s="8">
         <v>1.177</v>
       </c>
-      <c r="D42" s="8">
-        <f>C42*1.05</f>
+      <c r="E41" s="8">
+        <f>D41*1.05</f>
         <v>1.2358500000000001</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8">
+      <c r="F41" s="8">
         <v>10000</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G41" s="65">
         <v>11770</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="H47" s="7"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="H48" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="69">
-        <v>100000</v>
-      </c>
-      <c r="J48" s="7"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="I44"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="H48" s="7"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I49" s="57">
-        <f>SUM(D13:E22)</f>
-        <v>29995</v>
-      </c>
-      <c r="J49">
-        <f>I49/I48</f>
-        <v>0.29994999999999999</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I49" s="67">
+        <v>100000</v>
+      </c>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I50" s="57">
-        <f>SUM(D2:E12)</f>
-        <v>7368</v>
-      </c>
-      <c r="J50" s="7">
-        <f>I50/I48</f>
-        <v>7.3679999999999995E-2</v>
+        <v>146</v>
+      </c>
+      <c r="I50" s="69">
+        <f>SUM(D15:E25)</f>
+        <v>24851</v>
+      </c>
+      <c r="J50">
+        <f>I50/I49</f>
+        <v>0.24851000000000001</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I51" s="66">
-        <f>SUM(G39:G42)</f>
+        <v>147</v>
+      </c>
+      <c r="I51" s="69">
+        <f>SUM(D2:E14)</f>
+        <v>12512</v>
+      </c>
+      <c r="J51" s="7">
+        <f>I51/I49</f>
+        <v>0.12512000000000001</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11">
+      <c r="H52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="69">
+        <f>SUM(D2:E5)</f>
+        <v>3500</v>
+      </c>
+      <c r="J52" s="7">
+        <f>SUM(J50:J51)</f>
+        <v>0.37363000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="68">
+        <f>SUM(G38:G41)</f>
         <v>39700</v>
       </c>
-      <c r="J51" s="7">
-        <f>I51/I48</f>
+      <c r="J53" s="7">
+        <f>I53/I49</f>
         <v>0.39700000000000002</v>
       </c>
-      <c r="K51">
+      <c r="K53">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
     <hyperlink ref="B22" r:id="rId2" display="http://fund.eastmoney.com/270045.html"/>
-    <hyperlink ref="B9" r:id="rId3" display="http://fund.eastmoney.com/110028.html"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -3948,10 +4099,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3961,12 +4113,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="81">
       <c r="B2" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="14.25">
       <c r="B6" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3978,145 +4130,146 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="3:14">
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="47">
+        <v>15</v>
+      </c>
+      <c r="J17" s="47">
+        <v>20</v>
+      </c>
+      <c r="K17" s="47">
+        <v>25</v>
+      </c>
+      <c r="L17" s="47">
+        <v>30</v>
+      </c>
+      <c r="M17" s="47">
+        <v>35</v>
+      </c>
+      <c r="N17" s="47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="E18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="48" t="s">
+      <c r="F18" s="47">
+        <v>70</v>
+      </c>
+      <c r="G18" s="47">
+        <v>50</v>
+      </c>
+      <c r="H18" s="47">
+        <v>40</v>
+      </c>
+      <c r="I18" s="47">
+        <v>35</v>
+      </c>
+      <c r="J18" s="47">
+        <v>30</v>
+      </c>
+      <c r="K18" s="48">
+        <v>25</v>
+      </c>
+      <c r="L18" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="M18" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="E19" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="47">
+        <v>30</v>
+      </c>
+      <c r="G19" s="47">
+        <v>50</v>
+      </c>
+      <c r="H19" s="47">
+        <v>60</v>
+      </c>
+      <c r="I19" s="47">
+        <v>65</v>
+      </c>
+      <c r="J19" s="47">
+        <v>70</v>
+      </c>
+      <c r="K19" s="48">
+        <v>75</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47">
+        <v>40</v>
+      </c>
+      <c r="F20" s="47">
+        <v>35</v>
+      </c>
+      <c r="G20" s="47">
+        <v>30</v>
+      </c>
+      <c r="H20" s="48">
+        <v>25</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="123" customHeight="1">
+      <c r="E28" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="48">
-        <v>15</v>
-      </c>
-      <c r="J17" s="48">
-        <v>20</v>
-      </c>
-      <c r="K17" s="48">
-        <v>25</v>
-      </c>
-      <c r="L17" s="48">
-        <v>30</v>
-      </c>
-      <c r="M17" s="48">
-        <v>35</v>
-      </c>
-      <c r="N17" s="48">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="E18" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="48">
-        <v>70</v>
-      </c>
-      <c r="G18" s="48">
-        <v>50</v>
-      </c>
-      <c r="H18" s="48">
-        <v>40</v>
-      </c>
-      <c r="I18" s="48">
-        <v>35</v>
-      </c>
-      <c r="J18" s="48">
-        <v>30</v>
-      </c>
-      <c r="K18" s="49">
-        <v>25</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="E19" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="48">
-        <v>30</v>
-      </c>
-      <c r="G19" s="48">
-        <v>50</v>
-      </c>
-      <c r="H19" s="48">
-        <v>60</v>
-      </c>
-      <c r="I19" s="48">
-        <v>65</v>
-      </c>
-      <c r="J19" s="48">
-        <v>70</v>
-      </c>
-      <c r="K19" s="49">
-        <v>75</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="N19" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48">
-        <v>40</v>
-      </c>
-      <c r="F20" s="48">
-        <v>35</v>
-      </c>
-      <c r="G20" s="48">
-        <v>30</v>
-      </c>
-      <c r="H20" s="49">
-        <v>25</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4125,41 +4278,43 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J9:P24"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="H9:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="9" spans="10:16">
+    <row r="9" spans="8:16">
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="10:16">
+    </row>
+    <row r="10" spans="8:16">
       <c r="J10" s="7">
         <v>1</v>
       </c>
@@ -4171,7 +4326,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="10:16">
+    <row r="11" spans="8:16">
       <c r="J11" s="7">
         <v>2</v>
       </c>
@@ -4182,7 +4337,7 @@
       <c r="M11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="10:16">
+    <row r="12" spans="8:16">
       <c r="J12" s="7">
         <v>3</v>
       </c>
@@ -4196,7 +4351,7 @@
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="10:16">
+    <row r="13" spans="8:16">
       <c r="J13" s="7">
         <v>4</v>
       </c>
@@ -4210,7 +4365,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="10:16">
+    <row r="14" spans="8:16">
       <c r="J14" s="7">
         <v>5</v>
       </c>
@@ -4224,7 +4379,7 @@
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="10:16">
+    <row r="15" spans="8:16">
       <c r="J15" s="7">
         <v>6</v>
       </c>
@@ -4246,7 +4401,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:16">
+    <row r="16" spans="8:16">
+      <c r="H16">
+        <v>2500</v>
+      </c>
       <c r="J16" s="7">
         <v>7</v>
       </c>
@@ -4272,7 +4430,10 @@
         <v>13950</v>
       </c>
     </row>
-    <row r="17" spans="10:16">
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>2300</v>
+      </c>
       <c r="J17" s="7">
         <v>8</v>
       </c>
@@ -4298,7 +4459,10 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="18" spans="10:16">
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>2100</v>
+      </c>
       <c r="J18" s="7">
         <v>9</v>
       </c>
@@ -4324,7 +4488,10 @@
         <v>41700</v>
       </c>
     </row>
-    <row r="19" spans="10:16">
+    <row r="19" spans="8:16">
+      <c r="H19">
+        <v>1900</v>
+      </c>
       <c r="J19" s="7">
         <v>10</v>
       </c>
@@ -4350,7 +4517,10 @@
         <v>54900</v>
       </c>
     </row>
-    <row r="20" spans="10:16">
+    <row r="20" spans="8:16">
+      <c r="H20">
+        <v>1700</v>
+      </c>
       <c r="J20" s="7">
         <v>11</v>
       </c>
@@ -4372,7 +4542,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="21" spans="10:16">
+    <row r="21" spans="8:16">
       <c r="J21" s="7">
         <v>12</v>
       </c>
@@ -4394,7 +4564,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="22" spans="10:16">
+    <row r="22" spans="8:16">
       <c r="J22" s="7">
         <v>13</v>
       </c>
@@ -4413,7 +4583,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="23" spans="10:16">
+    <row r="23" spans="8:16">
       <c r="J23" s="7">
         <v>14</v>
       </c>
@@ -4436,7 +4606,7 @@
         <v>96200</v>
       </c>
     </row>
-    <row r="24" spans="10:16">
+    <row r="24" spans="8:16">
       <c r="J24" s="7">
         <v>15</v>
       </c>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="164">
   <si>
     <r>
       <rPr>
@@ -877,19 +877,9 @@
     <t>0.20%（每年）</t>
   </si>
   <si>
-    <t>中金MSCI中国A股红利指数C (006352)</t>
-  </si>
-  <si>
-    <t>006352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.70%（每年）</t>
   </si>
   <si>
-    <t>0.15%（每年）</t>
-  </si>
-  <si>
     <t>0.25%（每年）</t>
   </si>
   <si>
@@ -897,16 +887,6 @@
   </si>
   <si>
     <t>0.00%（前端）</t>
-  </si>
-  <si>
-    <t>大成中证红利指数证券投资基金</t>
-  </si>
-  <si>
-    <t>0.75%（每年）</t>
-  </si>
-  <si>
-    <t>090010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如果市盈率的数值低于股息率的数值，这是投资股票的大好机会。</t>
@@ -981,9 +961,6 @@
     <t>中国债券总指数</t>
   </si>
   <si>
-    <t>大成债券投资基金</t>
-  </si>
-  <si>
     <t>博时天颐债券C</t>
   </si>
   <si>
@@ -1026,9 +1003,6 @@
     <t>0.80%（前端）</t>
   </si>
   <si>
-    <t>海富通阿尔法对冲混合</t>
-  </si>
-  <si>
     <t>纯债</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,10 +1055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>091002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,6 +1087,40 @@
   </si>
   <si>
     <t>可转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海通货币B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大成债券投资基金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1133,7 @@
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1308,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1420,7 +1431,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1544,12 +1555,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1631,23 +1636,23 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2807,47 +2812,47 @@
       <c r="G29">
         <v>12</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="51">
         <v>7</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="51">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="51">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="51">
         <v>1.03576</v>
       </c>
       <c r="L29" s="7">
         <v>3000</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="7:20">
       <c r="G30">
         <v>9</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="51">
         <v>8</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="51">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="51">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="51">
         <v>1.07107</v>
       </c>
       <c r="L30" s="7">
         <v>3000</v>
       </c>
-      <c r="M30" s="53"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
     </row>
     <row r="31" spans="7:20">
       <c r="G31">
@@ -2988,21 +2993,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB53"/>
+  <dimension ref="B1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="55" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="53" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="62" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
@@ -3015,11 +3020,11 @@
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>152</v>
+      <c r="D1" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>144</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>49</v>
@@ -3030,7 +3035,7 @@
       <c r="H1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -3046,7 +3051,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>66</v>
@@ -3062,10 +3067,10 @@
       <c r="C2" s="33">
         <v>519976</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="64">
         <v>1500</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="64">
         <v>1000</v>
       </c>
       <c r="F2" s="33" t="s">
@@ -3077,7 +3082,7 @@
       <c r="H2" s="35">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="56">
         <v>-5.4300000000000001E-2</v>
       </c>
       <c r="J2" s="36">
@@ -3092,8 +3097,8 @@
       <c r="M2" s="36">
         <v>1.1455</v>
       </c>
-      <c r="N2" s="71" t="s">
-        <v>161</v>
+      <c r="N2" s="68" t="s">
+        <v>152</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>65</v>
@@ -3105,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S2" s="39" t="s">
         <v>98</v>
@@ -3117,40 +3122,40 @@
         <v>100</v>
       </c>
       <c r="V2" s="40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X2" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AB2" s="40" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B3" s="51" t="s">
-        <v>134</v>
+      <c r="B3" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="33"/>
+      <c r="I3" s="57"/>
+      <c r="P3" s="43" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="33"/>
-      <c r="I3" s="59"/>
-      <c r="P3" s="45" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
@@ -3160,12 +3165,12 @@
       <c r="C4" s="33">
         <v>340001</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="33"/>
       <c r="G4" s="38"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="60"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
@@ -3177,25 +3182,25 @@
         <v>96</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="S4" s="39" t="s">
         <v>98</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U4" s="39" t="s">
         <v>100</v>
       </c>
       <c r="V4" s="40" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="W4" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X4" s="40" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
@@ -3205,10 +3210,10 @@
       <c r="C5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="64">
         <v>1000</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="33"/>
       <c r="G5" s="38">
         <v>43406</v>
@@ -3216,7 +3221,7 @@
       <c r="H5" s="36">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="57"/>
       <c r="P5" s="12" t="s">
         <v>86</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>96</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S5" s="39" t="s">
         <v>98</v>
@@ -3236,25 +3241,25 @@
         <v>100</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="W5" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
@@ -3264,10 +3269,10 @@
       <c r="C6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="64">
         <v>1864</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <v>1004</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -3279,7 +3284,7 @@
       <c r="H6" s="36">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="58">
         <v>1.8E-3</v>
       </c>
       <c r="J6" s="36">
@@ -3301,7 +3306,7 @@
         <v>96</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S6" s="39" t="s">
         <v>98</v>
@@ -3313,787 +3318,707 @@
         <v>100</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Z6" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B7" s="44" t="s">
-        <v>102</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B7" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+        <v>119</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64">
+        <v>1000</v>
+      </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="Q7" s="39" t="s">
+      <c r="I7" s="57"/>
+      <c r="P7" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="33"/>
+      <c r="I8" s="57"/>
+      <c r="P8" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="Q9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="S7" s="39" t="s">
+      <c r="R9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="U7" s="39" t="s">
+      <c r="T9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="Q8" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="39"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="42"/>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B9" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66">
+      <c r="V9" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="33">
+        <v>485011</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="70">
+        <v>40406</v>
+      </c>
+      <c r="H10" s="71">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I10" s="72">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J10" s="71">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K10" s="71">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L10" s="71">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M10" s="71">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69">
+        <v>5144</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="38">
+        <v>41429</v>
+      </c>
+      <c r="H11" s="36">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I11" s="58">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J11" s="36">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K11" s="36">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0.1108</v>
+      </c>
+      <c r="M11" s="36">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="16.5">
+      <c r="B12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="54">
+        <v>500</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="16">
+        <v>38833</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I12" s="59">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K12" s="17">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0.1139</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.5514</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="54">
+        <v>2637</v>
+      </c>
+      <c r="E13" s="54">
+        <v>4152</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="24">
+        <v>41255</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I13" s="60">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J13" s="25">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K13" s="25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L13" s="25">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16.5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="54">
+        <v>5362</v>
+      </c>
+      <c r="E14" s="54">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="59">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="54">
         <v>1000</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="I9" s="59"/>
-      <c r="P9" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B10" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="33"/>
-      <c r="I10" s="59"/>
-      <c r="P10" s="45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B11" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="33">
-        <v>519062</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="33"/>
-      <c r="I11" s="59"/>
-      <c r="P11" s="45"/>
-    </row>
-    <row r="12" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="Q12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T12" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B13" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="33">
-        <v>485011</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="73">
-        <v>40406</v>
-      </c>
-      <c r="H13" s="74">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I13" s="75">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J13" s="74">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="K13" s="74">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L13" s="74">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M13" s="74">
-        <v>0.79490000000000005</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" s="12" customFormat="1">
-      <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72">
-        <v>5144</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="38">
-        <v>41429</v>
-      </c>
-      <c r="H14" s="36">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I14" s="60">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J14" s="36">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K14" s="36">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L14" s="36">
-        <v>0.1108</v>
-      </c>
-      <c r="M14" s="36">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P14" s="12" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="26">
+        <v>41341</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I15" s="60">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J15" s="25">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K15" s="25">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L15" s="25">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="16.5">
-      <c r="B15" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="56">
-        <v>500</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="16">
-        <v>38833</v>
-      </c>
-      <c r="H15" s="17">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="I15" s="61">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="K15" s="17">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0.1139</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.5514</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="56">
-        <v>2637</v>
-      </c>
-      <c r="E16" s="56">
-        <v>4152</v>
+    <row r="16" spans="2:28" ht="16.5">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="54">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="54">
+        <v>2000</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="24">
-        <v>41255</v>
-      </c>
-      <c r="H16" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I16" s="62">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J16" s="25">
+        <v>74</v>
+      </c>
+      <c r="G16" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H16" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I16" s="61">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J16" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K16" s="25">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L16" s="25">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M16" s="25">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>68</v>
+      <c r="K16" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.35639999999999999</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="16.5">
-      <c r="B17" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="19.5">
+      <c r="B17" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="56">
-        <v>5362</v>
-      </c>
-      <c r="E17" s="56">
-        <v>4000</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G17" s="16">
-        <v>41519</v>
+        <v>42268</v>
       </c>
       <c r="H17" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I17" s="61">
-        <v>2.76E-2</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="J17" s="17">
-        <v>4.7699999999999999E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="K17" s="17">
-        <v>9.6000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L17" s="17">
-        <v>0.1229</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.34060000000000001</v>
-      </c>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="O17" s="27"/>
       <c r="P17" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" s="22" customFormat="1" ht="16.5">
-      <c r="B18" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="56">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="56"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="26">
-        <v>41341</v>
-      </c>
-      <c r="H18" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I18" s="62">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J18" s="25">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K18" s="25">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L18" s="25">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M18" s="25">
-        <v>0.25140000000000001</v>
+        <v>76</v>
+      </c>
+      <c r="G18" s="28">
+        <v>42744</v>
+      </c>
+      <c r="H18" s="18">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="18">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K18" s="18">
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="16.5">
-      <c r="B19" t="s">
-        <v>56</v>
+    <row r="19" spans="2:16" ht="14.25">
+      <c r="B19" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="56">
+        <v>107</v>
+      </c>
+      <c r="D19" s="54">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="54">
         <v>2000</v>
       </c>
-      <c r="E19" s="56">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H19" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I19" s="63">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K19" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L19" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="19.5">
-      <c r="B20" s="29" t="s">
-        <v>80</v>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25">
+      <c r="B20" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="16">
-        <v>42268</v>
-      </c>
-      <c r="H20" s="17">
+        <v>158</v>
+      </c>
+      <c r="D20" s="54">
+        <v>500</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="54">
         <v>0</v>
       </c>
-      <c r="I20" s="61">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="K20" s="17">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="16.5">
-      <c r="B21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="28">
-        <v>42744</v>
-      </c>
-      <c r="H21" s="18">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I21" s="63">
-        <v>0.02</v>
-      </c>
-      <c r="J21" s="18">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K21" s="18">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="56">
-        <v>1200</v>
-      </c>
-      <c r="E22" s="56">
-        <v>2000</v>
-      </c>
-      <c r="N22" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="14.25">
-      <c r="B23" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="P23" s="50"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="E24" s="56">
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="56">
+    <row r="23" spans="2:16">
+      <c r="I23" s="59"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E35" s="8">
+        <f>D35*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F35" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G35" s="63">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="8">
+        <v>159905</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E36" s="8">
+        <f>D36*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F36" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G36" s="63">
+        <v>10380</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="63">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="I26" s="61"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C38" s="8">
-        <v>501029</v>
+        <v>510900</v>
       </c>
       <c r="D38" s="8">
-        <v>0.89400000000000002</v>
+        <v>1.177</v>
       </c>
       <c r="E38" s="8">
         <f>D38*1.05</f>
-        <v>0.93870000000000009</v>
+        <v>1.2358500000000001</v>
       </c>
       <c r="F38" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G38" s="65">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E39" s="8">
-        <f>D39*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F39" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G39" s="65">
-        <v>10380</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G38" s="63">
+        <v>11770</v>
+      </c>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="2:11">
       <c r="I39"/>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="65">
-        <v>0</v>
-      </c>
+    <row r="40" spans="2:11">
       <c r="I40"/>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1.177</v>
-      </c>
-      <c r="E41" s="8">
-        <f>D41*1.05</f>
-        <v>1.2358500000000001</v>
-      </c>
-      <c r="F41" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G41" s="65">
-        <v>11770</v>
-      </c>
+    <row r="41" spans="2:11">
       <c r="I41"/>
     </row>
-    <row r="42" spans="2:10">
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="I44"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="H48" s="7"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="7" t="s">
-        <v>148</v>
+    <row r="45" spans="2:11">
+      <c r="H45" s="7"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="H46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="65">
+        <v>100000</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="H47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="67">
+        <f>SUM(D12:E22)</f>
+        <v>25351</v>
+      </c>
+      <c r="J47">
+        <f>I47/I46</f>
+        <v>0.25351000000000001</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="H48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="67">
+        <f>SUM(D2:E11)</f>
+        <v>13512</v>
+      </c>
+      <c r="J48" s="7">
+        <f>I48/I46</f>
+        <v>0.13511999999999999</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I49" s="67">
-        <v>100000</v>
-      </c>
-      <c r="J49" s="7"/>
+        <f>SUM(D2:E5)</f>
+        <v>3500</v>
+      </c>
+      <c r="J49" s="7">
+        <f>SUM(J47:J48)</f>
+        <v>0.38863000000000003</v>
+      </c>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="69">
-        <f>SUM(D15:E25)</f>
-        <v>24851</v>
-      </c>
-      <c r="J50">
-        <f>I50/I49</f>
-        <v>0.24851000000000001</v>
+        <v>142</v>
+      </c>
+      <c r="I50" s="66">
+        <f>SUM(G35:G38)</f>
+        <v>39700</v>
+      </c>
+      <c r="J50" s="7">
+        <f>I50/I46</f>
+        <v>0.39700000000000002</v>
       </c>
       <c r="K50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="69">
-        <f>SUM(D2:E14)</f>
-        <v>12512</v>
-      </c>
-      <c r="J51" s="7">
-        <f>I51/I49</f>
-        <v>0.12512000000000001</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I52" s="69">
-        <f>SUM(D2:E5)</f>
-        <v>3500</v>
-      </c>
-      <c r="J52" s="7">
-        <f>SUM(J50:J51)</f>
-        <v>0.37363000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" s="68">
-        <f>SUM(G38:G41)</f>
-        <v>39700</v>
-      </c>
-      <c r="J53" s="7">
-        <f>I53/I49</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="K53">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://fund.eastmoney.com/006352.html"/>
-    <hyperlink ref="B22" r:id="rId2" display="http://fund.eastmoney.com/270045.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://fund.eastmoney.com/110028.html"/>
+    <hyperlink ref="B19" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4117,8 +4042,8 @@
       </c>
     </row>
     <row r="6" spans="2:2" ht="14.25">
-      <c r="B6" s="43" t="s">
-        <v>112</v>
+      <c r="B6" s="41" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4140,136 +4065,136 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="3:14">
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="45">
+        <v>15</v>
+      </c>
+      <c r="J17" s="45">
+        <v>20</v>
+      </c>
+      <c r="K17" s="45">
+        <v>25</v>
+      </c>
+      <c r="L17" s="45">
+        <v>30</v>
+      </c>
+      <c r="M17" s="45">
+        <v>35</v>
+      </c>
+      <c r="N17" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="E18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="45">
+        <v>70</v>
+      </c>
+      <c r="G18" s="45">
+        <v>50</v>
+      </c>
+      <c r="H18" s="45">
+        <v>40</v>
+      </c>
+      <c r="I18" s="45">
+        <v>35</v>
+      </c>
+      <c r="J18" s="45">
+        <v>30</v>
+      </c>
+      <c r="K18" s="46">
+        <v>25</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="E19" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="45">
+        <v>30</v>
+      </c>
+      <c r="G19" s="45">
+        <v>50</v>
+      </c>
+      <c r="H19" s="45">
+        <v>60</v>
+      </c>
+      <c r="I19" s="45">
+        <v>65</v>
+      </c>
+      <c r="J19" s="45">
+        <v>70</v>
+      </c>
+      <c r="K19" s="46">
+        <v>75</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="47" t="s">
+      <c r="M19" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45">
+        <v>40</v>
+      </c>
+      <c r="F20" s="45">
+        <v>35</v>
+      </c>
+      <c r="G20" s="45">
+        <v>30</v>
+      </c>
+      <c r="H20" s="46">
+        <v>25</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="123" customHeight="1">
+      <c r="E28" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="47">
-        <v>15</v>
-      </c>
-      <c r="J17" s="47">
-        <v>20</v>
-      </c>
-      <c r="K17" s="47">
-        <v>25</v>
-      </c>
-      <c r="L17" s="47">
-        <v>30</v>
-      </c>
-      <c r="M17" s="47">
-        <v>35</v>
-      </c>
-      <c r="N17" s="47">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="E18" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="47">
-        <v>70</v>
-      </c>
-      <c r="G18" s="47">
-        <v>50</v>
-      </c>
-      <c r="H18" s="47">
-        <v>40</v>
-      </c>
-      <c r="I18" s="47">
-        <v>35</v>
-      </c>
-      <c r="J18" s="47">
-        <v>30</v>
-      </c>
-      <c r="K18" s="48">
-        <v>25</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="E19" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="47">
-        <v>30</v>
-      </c>
-      <c r="G19" s="47">
-        <v>50</v>
-      </c>
-      <c r="H19" s="47">
-        <v>60</v>
-      </c>
-      <c r="I19" s="47">
-        <v>65</v>
-      </c>
-      <c r="J19" s="47">
-        <v>70</v>
-      </c>
-      <c r="K19" s="48">
-        <v>75</v>
-      </c>
-      <c r="L19" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47">
-        <v>40</v>
-      </c>
-      <c r="F20" s="47">
-        <v>35</v>
-      </c>
-      <c r="G20" s="47">
-        <v>30</v>
-      </c>
-      <c r="H20" s="48">
-        <v>25</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4296,22 +4221,22 @@
     <row r="9" spans="8:16">
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="8:16">

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -2995,8 +2995,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3150,7 +3150,9 @@
       <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="64">
+        <v>500</v>
+      </c>
       <c r="E3" s="64"/>
       <c r="F3" s="33"/>
       <c r="I3" s="57"/>
@@ -3416,7 +3418,9 @@
       <c r="C10" s="33">
         <v>485011</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="69">
+        <v>1000</v>
+      </c>
       <c r="E10" s="69"/>
       <c r="F10" s="33" t="s">
         <v>77</v>
@@ -3499,7 +3503,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="54">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="23" t="s">
@@ -3798,7 +3802,7 @@
         <v>158</v>
       </c>
       <c r="D20" s="54">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="54"/>
       <c r="P20" s="48"/>
@@ -3972,11 +3976,11 @@
       </c>
       <c r="I48" s="67">
         <f>SUM(D2:E11)</f>
-        <v>13512</v>
+        <v>15012</v>
       </c>
       <c r="J48" s="7">
         <f>I48/I46</f>
-        <v>0.13511999999999999</v>
+        <v>0.15012</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3988,11 +3992,11 @@
       </c>
       <c r="I49" s="67">
         <f>SUM(D2:E5)</f>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="J49" s="7">
         <f>SUM(J47:J48)</f>
-        <v>0.38863000000000003</v>
+        <v>0.40363000000000004</v>
       </c>
     </row>
     <row r="50" spans="8:11">

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
   <si>
     <r>
       <rPr>
@@ -814,11 +814,6 @@
     <t>中债综合指数</t>
   </si>
   <si>
-    <t>本基金的投资范围为具有良好流动性的金融工具，包括国内依法发行上市的股票（包括中小板、创业板及其他经中国证监会核准上市的股票）、债券、货币市场工具、权证、资产支持证券及法律法规或中国证监会允许基金投资的其他金融工具，但须符合中国证监会的相关规定。 本基金为债券型基金，主要投资于固定收益类金融工具，具体包括企业债、公司债、国债、央行票据、金融债、地方政府债、次级债券、可转换债券、分离交易可转债、短期融资券、超级短期融资券、中期票据、中小企业私募债券、资产支持证券、债券回购及银行存款等。 本基金不从二级市场买入股票或权证，但可参与一级市场新股申购、股票增发，还可持有因可转换债券转股所形成的股票、因所持股票进行股票配售及派发所形成的股票和因投资分离交易可转债所形成的权证。因上述原因持有的股票和权证等资产，基金将在其可交易之日起的60个交易日内卖出。 如法律法规或监管机构以后允许基金投资其他品种，基金管理人在履行适当程序后，可以将其纳入投资范围，其投资比例遵循届时有效法律法规或相关规定。 
-如法律法规或监管机构以后允许基金投资其他品种，基金管理人在履行适当程序后，可以将其纳入投资范围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国债券总指数收益率×90%+沪深300指数收益率×10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1121,6 +1116,29 @@
       </rPr>
       <t>C</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方天天利B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券价格的涨跌与利率成反向关系。如果有降息、存准率下调的的动作时，债券价格就会有上涨，债券基金的收益也会上升，反之如果利率上升，债券价格便会下滑。在近年央行连续降息后，国内利率下行，对债券是有利的哦。</t>
+  </si>
+  <si>
+    <t>易方达增强回报债券B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达信用债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1151,7 @@
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,8 +1333,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,6 +1374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,9 +1555,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1627,9 +1654,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1652,7 +1676,40 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2002,7 +2059,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2812,47 +2869,47 @@
       <c r="G29">
         <v>12</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="50">
         <v>7</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="50">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="50">
         <v>1.03576</v>
       </c>
       <c r="L29" s="7">
         <v>3000</v>
       </c>
-      <c r="M29" s="51"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="7:20">
       <c r="G30">
         <v>9</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="50">
         <v>8</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="50">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="50">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="50">
         <v>1.07107</v>
       </c>
       <c r="L30" s="7">
         <v>3000</v>
       </c>
-      <c r="M30" s="51"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="7:20">
       <c r="G31">
@@ -2993,21 +3050,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB50"/>
+  <dimension ref="B1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="53" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="52" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="61" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
@@ -3020,11 +3077,11 @@
       <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>144</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>49</v>
@@ -3035,7 +3092,7 @@
       <c r="H1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -3051,7 +3108,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>66</v>
@@ -3064,961 +3121,1012 @@
       <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>519976</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="63">
         <v>1500</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="63">
         <v>1000</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>40998</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="55">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="35">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>-4.58E-2</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>-0.16250000000000001</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <v>1.1455</v>
       </c>
-      <c r="N2" s="68" t="s">
-        <v>152</v>
+      <c r="N2" s="66" t="s">
+        <v>151</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" s="40" t="s">
+      <c r="P2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="S2" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="U2" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="Z2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="39" t="s">
+      <c r="AA2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AB2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="40" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B3" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="64">
+      <c r="B3" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="63">
         <v>500</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="33"/>
-      <c r="I3" s="57"/>
-      <c r="P3" s="43" t="s">
-        <v>126</v>
+      <c r="E3" s="63"/>
+      <c r="F3" s="32"/>
+      <c r="I3" s="56"/>
+      <c r="P3" s="42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="32">
+        <v>340001</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="P4" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="33">
-        <v>340001</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="P4" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="40" t="s">
+      <c r="W4" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="U4" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="40" t="s">
+      <c r="X4" s="39" t="s">
         <v>136</v>
-      </c>
-      <c r="W4" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="X4" s="40" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>1000</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="38">
+      <c r="E5" s="63"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="37">
         <v>43406</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="56"/>
       <c r="P5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="S5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="40" t="s">
+      <c r="W5" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" s="39" t="s">
         <v>133</v>
-      </c>
-      <c r="W5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB5" s="40" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>1864</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>1004</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>39974</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <v>1.8E-3</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>4.53E-2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>1.3714999999999999</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B7" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="I7" s="56"/>
+      <c r="P7" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B8" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="32"/>
+      <c r="I8" s="56"/>
+      <c r="P8" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="Q9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" s="39" t="s">
+      <c r="S9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="39" t="s">
+      <c r="U9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="V6" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="W6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y6" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB6" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64">
+    </row>
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B10" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="32">
+        <v>485011</v>
+      </c>
+      <c r="D10" s="67">
         <v>1000</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="I7" s="57"/>
-      <c r="P7" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B8" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="64">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="33"/>
-      <c r="I8" s="57"/>
-      <c r="P8" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="Q9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B10" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="33">
-        <v>485011</v>
-      </c>
-      <c r="D10" s="69">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="68">
         <v>40406</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="69">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="69">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="69">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="69">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="69">
         <v>0.79490000000000005</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>90</v>
+        <v>154</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:28" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67">
         <v>5144</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>41429</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>2.8E-3</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="57">
         <v>1.37E-2</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>4.53E-2</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>9.5500000000000002E-2</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>0.1108</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>0.53739999999999999</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="16.5">
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="2:28" s="12" customFormat="1">
+      <c r="B12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="32">
+        <v>110018</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:28" s="74" customFormat="1" ht="16.5">
+      <c r="B13" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D13" s="76">
         <v>0</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="23" t="s">
+      <c r="E13" s="76"/>
+      <c r="F13" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="77">
         <v>38833</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="78">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I13" s="79">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="78">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="78">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L13" s="78">
         <v>0.1139</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="78">
         <v>0.5514</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O13" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P13" s="80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="53">
+        <v>2637</v>
+      </c>
+      <c r="E14" s="53">
+        <v>4152</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="24">
+        <v>41255</v>
+      </c>
+      <c r="H14" s="25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I14" s="59">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J14" s="25">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K14" s="25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L14" s="25">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="54">
-        <v>2637</v>
-      </c>
-      <c r="E13" s="54">
-        <v>4152</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="24">
-        <v>41255</v>
-      </c>
-      <c r="H13" s="25">
+    <row r="15" spans="2:28" ht="16.5">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="53">
+        <v>5362</v>
+      </c>
+      <c r="E15" s="53">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="58">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K15" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B16" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="26">
+        <v>41341</v>
+      </c>
+      <c r="H16" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I13" s="60">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J13" s="25">
+      <c r="I16" s="59">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J16" s="25">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K16" s="25">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L16" s="25">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.5">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I17" s="60">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J17" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K13" s="25">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L13" s="25">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" ht="16.5">
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="54">
-        <v>5362</v>
-      </c>
-      <c r="E14" s="54">
-        <v>4000</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="16">
-        <v>41519</v>
-      </c>
-      <c r="H14" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I14" s="59">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J14" s="17">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K14" s="17">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0.1229</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B15" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="54">
+      <c r="K17" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="19.5">
+      <c r="B18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="16">
+        <v>42268</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="58">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.5">
+      <c r="B19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="28">
+        <v>42744</v>
+      </c>
+      <c r="H19" s="18">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I19" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="J19" s="18">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K19" s="18">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25">
+      <c r="B20" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="53">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="53">
+        <v>2000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="14.25">
+      <c r="B21" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.25">
+      <c r="B22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="53">
         <v>1000</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="26">
-        <v>41341</v>
-      </c>
-      <c r="H15" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I15" s="60">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J15" s="25">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K15" s="25">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L15" s="25">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="16.5">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="54">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="54">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I16" s="61">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J16" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L16" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="19.5">
-      <c r="B17" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="16">
-        <v>42268</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="E22" s="53"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="53">
         <v>0</v>
       </c>
-      <c r="I17" s="59">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="J17" s="17">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="K17" s="17">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.5">
-      <c r="B18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="28">
-        <v>42744</v>
-      </c>
-      <c r="H18" s="18">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I18" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="J18" s="18">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K18" s="18">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="14.25">
-      <c r="B19" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="54">
-        <v>1200</v>
-      </c>
-      <c r="E19" s="54">
-        <v>2000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="14.25">
-      <c r="B20" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="54">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="54">
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
-      <c r="B22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="I23" s="59"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+    <row r="26" spans="2:16">
+      <c r="I26" s="58"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="8" t="s">
+    <row r="38" spans="2:10">
+      <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C38" s="8">
         <v>501029</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D38" s="8">
         <v>0.89400000000000002</v>
-      </c>
-      <c r="E35" s="8">
-        <f>D35*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F35" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G35" s="63">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E36" s="8">
-        <f>D36*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F36" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G36" s="63">
-        <v>10380</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="63">
-        <v>0</v>
-      </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1.177</v>
       </c>
       <c r="E38" s="8">
         <f>D38*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F38" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G38" s="62">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="8">
+        <v>159905</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E39" s="8">
+        <f>D39*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F39" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G39" s="62">
+        <v>10380</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="62">
+        <v>0</v>
+      </c>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="8">
+        <v>510900</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.177</v>
+      </c>
+      <c r="E41" s="8">
+        <f>D41*1.05</f>
         <v>1.2358500000000001</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F41" s="8">
         <v>10000</v>
       </c>
-      <c r="G38" s="63">
+      <c r="G41" s="62">
         <v>11770</v>
       </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="2:11">
       <c r="I41"/>
     </row>
-    <row r="45" spans="2:11">
-      <c r="H45" s="7"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="H46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46" s="65">
-        <v>100000</v>
-      </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="H47" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="67">
-        <f>SUM(D12:E22)</f>
-        <v>25351</v>
-      </c>
-      <c r="J47">
-        <f>I47/I46</f>
-        <v>0.25351000000000001</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="H48" s="7" t="s">
+    <row r="42" spans="2:10">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="I44"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="H48" s="7"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="I48" s="67">
-        <f>SUM(D2:E11)</f>
-        <v>15012</v>
-      </c>
-      <c r="J48" s="7">
-        <f>I48/I46</f>
-        <v>0.15012</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="67">
+        <v>140</v>
+      </c>
+      <c r="I49" s="82">
+        <f>SUM(I50:I54)</f>
+        <v>90063</v>
+      </c>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="65">
+        <f>SUM(D13:E22)</f>
+        <v>25351</v>
+      </c>
+      <c r="J50" s="71">
+        <f>I50/I49</f>
+        <v>0.28148074125889655</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="65">
+        <f>SUM(D6:E11)</f>
+        <v>11012</v>
+      </c>
+      <c r="J51" s="72">
+        <f>I51/I49</f>
+        <v>0.12226996657895028</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11">
+      <c r="H52" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I52" s="65">
         <f>SUM(D2:E5)</f>
         <v>4000</v>
       </c>
-      <c r="J49" s="7">
-        <f>SUM(J47:J48)</f>
-        <v>0.40363000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="66">
-        <f>SUM(G35:G38)</f>
+      <c r="J52" s="72">
+        <f>I52/I49</f>
+        <v>4.4413355095877328E-2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="64">
+        <f>SUM(G38:G41)</f>
         <v>39700</v>
       </c>
-      <c r="J50" s="7">
-        <f>I50/I46</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="K50">
-        <v>4</v>
+      <c r="J53" s="72">
+        <f>I53/I49</f>
+        <v>0.44080254932658253</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11">
+      <c r="H54" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="65">
+        <f>SUM(D23:D24)</f>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B20" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4029,10 +4137,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:B6"/>
+  <dimension ref="B5:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4040,14 +4148,14 @@
     <col min="2" max="2" width="185.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="81">
-      <c r="B2" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="14.25">
-      <c r="B6" s="41" t="s">
-        <v>106</v>
+    <row r="5" spans="2:2" ht="14.25">
+      <c r="B5" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="81" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4062,136 +4170,136 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="3:14">
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="44">
+        <v>15</v>
+      </c>
+      <c r="J17" s="44">
+        <v>20</v>
+      </c>
+      <c r="K17" s="44">
+        <v>25</v>
+      </c>
+      <c r="L17" s="44">
+        <v>30</v>
+      </c>
+      <c r="M17" s="44">
+        <v>35</v>
+      </c>
+      <c r="N17" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="E18" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="F18" s="44">
+        <v>70</v>
+      </c>
+      <c r="G18" s="44">
+        <v>50</v>
+      </c>
+      <c r="H18" s="44">
+        <v>40</v>
+      </c>
+      <c r="I18" s="44">
+        <v>35</v>
+      </c>
+      <c r="J18" s="44">
+        <v>30</v>
+      </c>
+      <c r="K18" s="45">
+        <v>25</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="45">
-        <v>15</v>
-      </c>
-      <c r="J17" s="45">
-        <v>20</v>
-      </c>
-      <c r="K17" s="45">
+      <c r="M18" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="E19" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="44">
+        <v>30</v>
+      </c>
+      <c r="G19" s="44">
+        <v>50</v>
+      </c>
+      <c r="H19" s="44">
+        <v>60</v>
+      </c>
+      <c r="I19" s="44">
+        <v>65</v>
+      </c>
+      <c r="J19" s="44">
+        <v>70</v>
+      </c>
+      <c r="K19" s="45">
+        <v>75</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44">
+        <v>40</v>
+      </c>
+      <c r="F20" s="44">
+        <v>35</v>
+      </c>
+      <c r="G20" s="44">
+        <v>30</v>
+      </c>
+      <c r="H20" s="45">
         <v>25</v>
       </c>
-      <c r="L17" s="45">
-        <v>30</v>
-      </c>
-      <c r="M17" s="45">
-        <v>35</v>
-      </c>
-      <c r="N17" s="45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="E18" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="45">
-        <v>70</v>
-      </c>
-      <c r="G18" s="45">
-        <v>50</v>
-      </c>
-      <c r="H18" s="45">
-        <v>40</v>
-      </c>
-      <c r="I18" s="45">
-        <v>35</v>
-      </c>
-      <c r="J18" s="45">
-        <v>30</v>
-      </c>
-      <c r="K18" s="46">
-        <v>25</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="E19" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="45">
-        <v>30</v>
-      </c>
-      <c r="G19" s="45">
-        <v>50</v>
-      </c>
-      <c r="H19" s="45">
-        <v>60</v>
-      </c>
-      <c r="I19" s="45">
-        <v>65</v>
-      </c>
-      <c r="J19" s="45">
-        <v>70</v>
-      </c>
-      <c r="K19" s="46">
-        <v>75</v>
-      </c>
-      <c r="L19" s="45" t="s">
+      <c r="I20" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="M19" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" s="46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45">
-        <v>40</v>
-      </c>
-      <c r="F20" s="45">
-        <v>35</v>
-      </c>
-      <c r="G20" s="45">
-        <v>30</v>
-      </c>
-      <c r="H20" s="46">
-        <v>25</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
       <c r="E28" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
@@ -4216,8 +4324,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="H9:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4225,22 +4333,22 @@
     <row r="9" spans="8:16">
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="8:16">

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -1681,35 +1681,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2189,8 +2189,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3052,8 +3052,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3570,45 +3570,45 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="2:28" s="74" customFormat="1" ht="16.5">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="2:28" s="73" customFormat="1" ht="16.5">
+      <c r="B13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>0</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="76">
         <v>38833</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="77">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="78">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="77">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="77">
         <v>0.1139</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="77">
         <v>0.5514</v>
       </c>
-      <c r="O13" s="74" t="s">
+      <c r="O13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="80" t="s">
+      <c r="P13" s="79" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       <c r="H49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="82">
+      <c r="I49" s="81">
         <f>SUM(I50:I54)</f>
         <v>90063</v>
       </c>
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4298,15 +4298,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -1141,15 +1141,56 @@
     <t>货基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>aim_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出步长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前最低总仓位（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1461,7 +1502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,6 +1751,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2189,8 +2239,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2727,7 +2777,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -4322,342 +4372,708 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="H9:P24"/>
+  <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="7" width="9" style="83"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="8:16">
-      <c r="J9" s="7"/>
+    <row r="9" spans="7:13">
+      <c r="G9" s="84"/>
+      <c r="H9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="K9" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="M9" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="8:16">
-      <c r="J10" s="7">
+    <row r="10" spans="7:13">
+      <c r="G10" s="84">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="H10" s="7">
         <v>4.9000000000000004</v>
       </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="8:16">
-      <c r="J11" s="7">
+    </row>
+    <row r="11" spans="7:13">
+      <c r="G11" s="84">
         <v>2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="H11" s="7">
         <v>4.5999999999999996</v>
       </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="8:16">
-      <c r="J12" s="7">
+    </row>
+    <row r="12" spans="7:13">
+      <c r="G12" s="84">
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="H12" s="7">
         <v>4.3</v>
       </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12">
+        <v>6500</v>
+      </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12">
-        <v>6500</v>
-      </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="8:16">
-      <c r="J13" s="7">
+    </row>
+    <row r="13" spans="7:13">
+      <c r="G13" s="84">
         <v>4</v>
       </c>
-      <c r="K13" s="7">
+      <c r="H13" s="7">
         <v>4</v>
       </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13">
+        <v>6000</v>
+      </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13">
-        <v>6000</v>
-      </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="8:16">
-      <c r="J14" s="7">
+    </row>
+    <row r="14" spans="7:13">
+      <c r="G14" s="84">
         <v>5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="H14" s="7">
         <v>3.7</v>
       </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14">
+        <v>5500</v>
+      </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14">
-        <v>5500</v>
-      </c>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="8:16">
+    </row>
+    <row r="15" spans="7:13">
+      <c r="G15" s="84">
+        <v>6</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
       <c r="J15" s="7">
-        <v>6</v>
-      </c>
-      <c r="K15" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="7">
+      <c r="K15">
+        <v>5000</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15">
+        <f>SUM(J15)</f>
         <v>0</v>
       </c>
-      <c r="N15">
+    </row>
+    <row r="16" spans="7:13">
+      <c r="G16" s="84">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4500</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" ref="J16:J23" si="0">H16*I16</f>
+        <v>13950</v>
+      </c>
+      <c r="K16">
+        <v>4500</v>
+      </c>
+      <c r="L16" s="7">
+        <f>SUM(I15:I16)</f>
+        <v>4500</v>
+      </c>
+      <c r="M16">
+        <f>SUM(J15:J16)</f>
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="G17" s="84">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="I17" s="7">
         <v>5000</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15">
-        <f>SUM(M15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="8:16">
-      <c r="H16">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="7">
-        <v>7</v>
-      </c>
-      <c r="K16" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="L16" s="7">
-        <v>4500</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" ref="M16:M23" si="0">K16*L16</f>
-        <v>13950</v>
-      </c>
-      <c r="N16">
-        <v>4500</v>
-      </c>
-      <c r="O16" s="7">
-        <f>SUM(L15:L16)</f>
-        <v>4500</v>
-      </c>
-      <c r="P16">
-        <f>SUM(M15:M16)</f>
-        <v>13950</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17">
-        <v>2300</v>
-      </c>
       <c r="J17" s="7">
-        <v>8</v>
-      </c>
-      <c r="K17" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="L17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="M17" s="7">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="N17">
+      <c r="K17">
         <v>4000</v>
       </c>
-      <c r="O17" s="7">
-        <f>SUM(L15:L17)</f>
+      <c r="L17" s="7">
+        <f>SUM(I15:I17)</f>
         <v>9500</v>
       </c>
-      <c r="P17">
-        <f>SUM(M15:M17)</f>
+      <c r="M17">
+        <f>SUM(J15:J17)</f>
         <v>27950</v>
       </c>
     </row>
-    <row r="18" spans="8:16">
-      <c r="H18">
-        <v>2100</v>
+    <row r="18" spans="1:13">
+      <c r="G18" s="84">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5500</v>
       </c>
       <c r="J18" s="7">
-        <v>9</v>
-      </c>
-      <c r="K18" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="L18" s="7">
-        <v>5500</v>
-      </c>
-      <c r="M18" s="7">
         <f t="shared" si="0"/>
         <v>13750</v>
       </c>
-      <c r="N18">
+      <c r="K18">
         <v>3500</v>
       </c>
-      <c r="O18" s="7">
-        <f>SUM(L15:L18)</f>
+      <c r="L18" s="7">
+        <f>SUM(I15:I18)</f>
         <v>15000</v>
       </c>
-      <c r="P18">
-        <f>SUM(M15:M18)</f>
+      <c r="M18">
+        <f>SUM(J15:J18)</f>
         <v>41700</v>
       </c>
     </row>
-    <row r="19" spans="8:16">
-      <c r="H19">
-        <v>1900</v>
+    <row r="19" spans="1:13">
+      <c r="G19" s="84">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6000</v>
       </c>
       <c r="J19" s="7">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L19" s="7">
-        <v>6000</v>
-      </c>
-      <c r="M19" s="7">
         <f t="shared" si="0"/>
         <v>13200.000000000002</v>
       </c>
-      <c r="N19">
+      <c r="K19">
         <v>3000</v>
       </c>
-      <c r="O19" s="7">
-        <f>SUM(L15:L19)</f>
+      <c r="L19" s="7">
+        <f>SUM(I15:I19)</f>
         <v>21000</v>
       </c>
-      <c r="P19">
-        <f>SUM(M15:M19)</f>
+      <c r="M19">
+        <f>SUM(J15:J19)</f>
         <v>54900</v>
       </c>
     </row>
-    <row r="20" spans="8:16">
-      <c r="H20">
-        <v>1700</v>
+    <row r="20" spans="1:13">
+      <c r="G20" s="84">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6500</v>
       </c>
       <c r="J20" s="7">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="L20" s="7">
-        <v>6500</v>
-      </c>
-      <c r="M20" s="7">
         <f t="shared" si="0"/>
         <v>12350</v>
       </c>
-      <c r="N20">
+      <c r="K20">
         <v>2500</v>
       </c>
-      <c r="O20" s="7">
-        <f>SUM(L15:L20)</f>
+      <c r="L20" s="7">
+        <f>SUM(I15:I20)</f>
         <v>27500</v>
       </c>
     </row>
-    <row r="21" spans="8:16">
+    <row r="21" spans="1:13">
+      <c r="G21" s="84">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7000</v>
+      </c>
       <c r="J21" s="7">
-        <v>12</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="L21" s="7">
-        <v>7000</v>
-      </c>
-      <c r="M21" s="7">
         <f t="shared" si="0"/>
         <v>11200</v>
       </c>
-      <c r="N21">
+      <c r="K21">
         <v>2000</v>
       </c>
-      <c r="O21" s="7">
-        <f>SUM(L15:L21)</f>
+      <c r="L21" s="7">
+        <f>SUM(I15:I21)</f>
         <v>34500</v>
       </c>
     </row>
-    <row r="22" spans="8:16">
+    <row r="22" spans="1:13">
+      <c r="G22" s="84">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7500</v>
+      </c>
       <c r="J22" s="7">
-        <v>13</v>
-      </c>
-      <c r="K22" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="L22" s="7">
-        <v>7500</v>
-      </c>
-      <c r="M22" s="7">
         <f t="shared" si="0"/>
         <v>9750</v>
       </c>
-      <c r="O22" s="7">
-        <f>SUM(L15:L22)</f>
+      <c r="L22" s="7">
+        <f>SUM(I15:I22)</f>
         <v>42000</v>
       </c>
     </row>
-    <row r="23" spans="8:16">
+    <row r="23" spans="1:13">
+      <c r="G23" s="84">
+        <v>14</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>8000</v>
+      </c>
       <c r="J23" s="7">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>8000</v>
-      </c>
-      <c r="M23" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="O23" s="7">
-        <f>SUM(L15:L23)</f>
+      <c r="L23" s="7">
+        <f>SUM(I15:I23)</f>
         <v>50000</v>
       </c>
-      <c r="P23">
-        <f>SUM(M15:M23)</f>
+      <c r="M23">
+        <f>SUM(J15:J23)</f>
         <v>96200</v>
       </c>
     </row>
-    <row r="24" spans="8:16">
-      <c r="J24" s="7">
+    <row r="24" spans="1:13">
+      <c r="G24" s="84">
         <v>15</v>
       </c>
-      <c r="K24" s="7">
+      <c r="H24" s="7">
         <v>0.7</v>
       </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9">
+        <v>510900</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="50">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="C30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="84">
+        <f>$D$29*(1+E36*$D$30)</f>
+        <v>1.2829300000000001</v>
+      </c>
+      <c r="G36" s="84">
+        <f>F36*(1+$D$31)</f>
+        <v>1.3470765000000002</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I36" s="7">
+        <f>SUM(H36)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="84">
+        <f t="shared" ref="F37:F51" si="1">$D$29*(1+E37*$D$30)</f>
+        <v>1.2476200000000002</v>
+      </c>
+      <c r="G37" s="84">
+        <f t="shared" ref="G37:G51" si="2">F37*(1+$D$31)</f>
+        <v>1.3100010000000002</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I37" s="7">
+        <f>SUM($H$36:H37)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="84">
+        <f t="shared" si="1"/>
+        <v>1.21231</v>
+      </c>
+      <c r="G38" s="84">
+        <f t="shared" si="2"/>
+        <v>1.2729255000000002</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I38" s="7">
+        <f>SUM($H$36:H38)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="84">
+        <f t="shared" si="1"/>
+        <v>1.177</v>
+      </c>
+      <c r="G39" s="84">
+        <f t="shared" si="2"/>
+        <v>1.2358500000000001</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I39" s="7">
+        <f>SUM($H$36:H39)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="84">
+        <f t="shared" si="1"/>
+        <v>1.1416900000000001</v>
+      </c>
+      <c r="G40" s="84">
+        <f t="shared" si="2"/>
+        <v>1.1987745000000001</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I40" s="7">
+        <f>SUM($H$36:H40)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F41" s="84">
+        <f t="shared" si="1"/>
+        <v>1.1063799999999999</v>
+      </c>
+      <c r="G41" s="84">
+        <f t="shared" si="2"/>
+        <v>1.161699</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I41" s="7">
+        <f>SUM($H$36:H41)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F42" s="84">
+        <f t="shared" si="1"/>
+        <v>1.0710700000000002</v>
+      </c>
+      <c r="G42" s="84">
+        <f t="shared" si="2"/>
+        <v>1.1246235000000002</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="7">
+        <f>SUM($H$36:H42)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" s="7">
+        <v>-4</v>
+      </c>
+      <c r="F43" s="84">
+        <f t="shared" si="1"/>
+        <v>1.03576</v>
+      </c>
+      <c r="G43" s="84">
+        <f t="shared" si="2"/>
+        <v>1.087548</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I43" s="7">
+        <f>SUM($H$36:H43)</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F44" s="84">
+        <f t="shared" si="1"/>
+        <v>1.0004500000000001</v>
+      </c>
+      <c r="G44" s="84">
+        <f t="shared" si="2"/>
+        <v>1.0504725000000001</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I44" s="7">
+        <f>SUM($H$36:H44)</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" s="7">
+        <v>-6</v>
+      </c>
+      <c r="F45" s="84">
+        <f t="shared" si="1"/>
+        <v>0.96514000000000011</v>
+      </c>
+      <c r="G45" s="84">
+        <f t="shared" si="2"/>
+        <v>1.0133970000000001</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I45" s="7">
+        <f>SUM($H$36:H45)</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" s="7">
+        <v>-7</v>
+      </c>
+      <c r="F46" s="84">
+        <f t="shared" si="1"/>
+        <v>0.92983000000000005</v>
+      </c>
+      <c r="G46" s="84">
+        <f t="shared" si="2"/>
+        <v>0.97632150000000006</v>
+      </c>
+      <c r="H46" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I46" s="7">
+        <f>SUM($H$36:H46)</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" s="7">
+        <v>-8</v>
+      </c>
+      <c r="F47" s="84">
+        <f t="shared" si="1"/>
+        <v>0.89452000000000009</v>
+      </c>
+      <c r="G47" s="84">
+        <f t="shared" si="2"/>
+        <v>0.93924600000000014</v>
+      </c>
+      <c r="H47" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I47" s="7">
+        <f>SUM($H$36:H47)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" s="7">
+        <v>-9</v>
+      </c>
+      <c r="F48" s="84">
+        <f t="shared" si="1"/>
+        <v>0.85921000000000003</v>
+      </c>
+      <c r="G48" s="84">
+        <f t="shared" si="2"/>
+        <v>0.9021705000000001</v>
+      </c>
+      <c r="H48" s="7">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="7">
+        <f>SUM($H$36:H48)</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F49" s="84">
+        <f t="shared" si="1"/>
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="G49" s="84">
+        <f t="shared" si="2"/>
+        <v>0.86509499999999995</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I49" s="7">
+        <f>SUM($H$36:H49)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" s="7">
+        <v>-11</v>
+      </c>
+      <c r="F50" s="84">
+        <f t="shared" si="1"/>
+        <v>0.78859000000000012</v>
+      </c>
+      <c r="G50" s="84">
+        <f t="shared" si="2"/>
+        <v>0.82801950000000013</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I50" s="7">
+        <f>SUM($H$36:H50)</f>
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" s="85">
+        <v>-12</v>
+      </c>
+      <c r="F51" s="84">
+        <f t="shared" si="1"/>
+        <v>0.75328000000000006</v>
+      </c>
+      <c r="G51" s="84">
+        <f t="shared" si="2"/>
+        <v>0.79094400000000009</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5000</v>
+      </c>
+      <c r="I51" s="7">
+        <f>SUM($H$36:H51)</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
+      <c r="H52">
+        <f>SUM(H36:H51)</f>
+        <v>54000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="N16:N23">
-    <sortCondition ref="N16"/>
+  <sortState ref="K16:K23">
+    <sortCondition ref="K16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="180">
   <si>
     <r>
       <rPr>
@@ -1178,7 +1178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前最低总仓位（元）</t>
+    <t>当前盈余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前仓位（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1492,6 +1496,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1502,7 +1519,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1749,17 +1766,20 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4348,15 +4368,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4374,19 +4394,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="9" style="83"/>
+    <col min="6" max="7" width="9" style="82"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:13">
-      <c r="G9" s="84"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="7" t="s">
         <v>146</v>
       </c>
@@ -4407,7 +4427,7 @@
       </c>
     </row>
     <row r="10" spans="7:13">
-      <c r="G10" s="84">
+      <c r="G10" s="83">
         <v>1</v>
       </c>
       <c r="H10" s="7">
@@ -4419,7 +4439,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="7:13">
-      <c r="G11" s="84">
+      <c r="G11" s="83">
         <v>2</v>
       </c>
       <c r="H11" s="7">
@@ -4430,7 +4450,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="7:13">
-      <c r="G12" s="84">
+      <c r="G12" s="83">
         <v>3</v>
       </c>
       <c r="H12" s="7">
@@ -4444,7 +4464,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="7:13">
-      <c r="G13" s="84">
+      <c r="G13" s="83">
         <v>4</v>
       </c>
       <c r="H13" s="7">
@@ -4458,7 +4478,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="7:13">
-      <c r="G14" s="84">
+      <c r="G14" s="83">
         <v>5</v>
       </c>
       <c r="H14" s="7">
@@ -4472,7 +4492,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="7:13">
-      <c r="G15" s="84">
+      <c r="G15" s="83">
         <v>6</v>
       </c>
       <c r="H15" s="7">
@@ -4494,7 +4514,7 @@
       </c>
     </row>
     <row r="16" spans="7:13">
-      <c r="G16" s="84">
+      <c r="G16" s="83">
         <v>7</v>
       </c>
       <c r="H16" s="7">
@@ -4520,7 +4540,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="G17" s="84">
+      <c r="G17" s="83">
         <v>8</v>
       </c>
       <c r="H17" s="7">
@@ -4546,7 +4566,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="G18" s="84">
+      <c r="G18" s="83">
         <v>9</v>
       </c>
       <c r="H18" s="7">
@@ -4572,7 +4592,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="G19" s="84">
+      <c r="G19" s="83">
         <v>10</v>
       </c>
       <c r="H19" s="7">
@@ -4598,7 +4618,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="G20" s="84">
+      <c r="G20" s="83">
         <v>11</v>
       </c>
       <c r="H20" s="7">
@@ -4620,7 +4640,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="G21" s="84">
+      <c r="G21" s="83">
         <v>12</v>
       </c>
       <c r="H21" s="7">
@@ -4642,7 +4662,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="G22" s="84">
+      <c r="G22" s="83">
         <v>13</v>
       </c>
       <c r="H22" s="7">
@@ -4661,7 +4681,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="G23" s="84">
+      <c r="G23" s="83">
         <v>14</v>
       </c>
       <c r="H23" s="7">
@@ -4684,7 +4704,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="G24" s="84">
+      <c r="G24" s="83">
         <v>15</v>
       </c>
       <c r="H24" s="7">
@@ -4699,7 +4719,7 @@
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="85">
         <v>510900</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4728,32 +4748,40 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="32" spans="1:13">
+      <c r="C32" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="84">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="5:9">
       <c r="E35" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="83" t="s">
         <v>176</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="85" t="s">
-        <v>178</v>
+      <c r="I35" s="84" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="84">
+      <c r="F36" s="83">
         <f>$D$29*(1+E36*$D$30)</f>
         <v>1.2829300000000001</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="83">
         <f>F36*(1+$D$31)</f>
         <v>1.3470765000000002</v>
       </c>
@@ -4761,7 +4789,7 @@
         <v>2000</v>
       </c>
       <c r="I36" s="7">
-        <f>SUM(H36)</f>
+        <f>SUM($H$36:H36)+$D$32</f>
         <v>2000</v>
       </c>
     </row>
@@ -4769,11 +4797,11 @@
       <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="84">
+      <c r="F37" s="83">
         <f t="shared" ref="F37:F51" si="1">$D$29*(1+E37*$D$30)</f>
         <v>1.2476200000000002</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="83">
         <f t="shared" ref="G37:G51" si="2">F37*(1+$D$31)</f>
         <v>1.3100010000000002</v>
       </c>
@@ -4781,7 +4809,7 @@
         <v>2000</v>
       </c>
       <c r="I37" s="7">
-        <f>SUM($H$36:H37)</f>
+        <f>SUM($H$36:H37)+$D$32</f>
         <v>4000</v>
       </c>
     </row>
@@ -4789,11 +4817,11 @@
       <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="83">
         <f t="shared" si="1"/>
         <v>1.21231</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="83">
         <f t="shared" si="2"/>
         <v>1.2729255000000002</v>
       </c>
@@ -4801,7 +4829,7 @@
         <v>2000</v>
       </c>
       <c r="I38" s="7">
-        <f>SUM($H$36:H38)</f>
+        <f>SUM($H$36:H38)+$D$32</f>
         <v>6000</v>
       </c>
     </row>
@@ -4809,11 +4837,11 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="83">
         <f t="shared" si="1"/>
         <v>1.177</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="83">
         <f t="shared" si="2"/>
         <v>1.2358500000000001</v>
       </c>
@@ -4821,7 +4849,7 @@
         <v>2000</v>
       </c>
       <c r="I39" s="7">
-        <f>SUM($H$36:H39)</f>
+        <f>SUM($H$36:H39)+$D$32</f>
         <v>8000</v>
       </c>
     </row>
@@ -4829,11 +4857,11 @@
       <c r="E40" s="7">
         <v>-1</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="83">
         <f t="shared" si="1"/>
         <v>1.1416900000000001</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="83">
         <f t="shared" si="2"/>
         <v>1.1987745000000001</v>
       </c>
@@ -4841,7 +4869,7 @@
         <v>2000</v>
       </c>
       <c r="I40" s="7">
-        <f>SUM($H$36:H40)</f>
+        <f>SUM($H$36:H40)+$D$32</f>
         <v>10000</v>
       </c>
     </row>
@@ -4849,11 +4877,11 @@
       <c r="E41" s="7">
         <v>-2</v>
       </c>
-      <c r="F41" s="84">
+      <c r="F41" s="83">
         <f t="shared" si="1"/>
         <v>1.1063799999999999</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="83">
         <f t="shared" si="2"/>
         <v>1.161699</v>
       </c>
@@ -4861,7 +4889,7 @@
         <v>3000</v>
       </c>
       <c r="I41" s="7">
-        <f>SUM($H$36:H41)</f>
+        <f>SUM($H$36:H41)+$D$32</f>
         <v>13000</v>
       </c>
     </row>
@@ -4869,11 +4897,11 @@
       <c r="E42" s="7">
         <v>-3</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="83">
         <f t="shared" si="1"/>
         <v>1.0710700000000002</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="83">
         <f t="shared" si="2"/>
         <v>1.1246235000000002</v>
       </c>
@@ -4881,7 +4909,7 @@
         <v>3000</v>
       </c>
       <c r="I42" s="7">
-        <f>SUM($H$36:H42)</f>
+        <f>SUM($H$36:H42)+$D$32</f>
         <v>16000</v>
       </c>
     </row>
@@ -4889,11 +4917,11 @@
       <c r="E43" s="7">
         <v>-4</v>
       </c>
-      <c r="F43" s="84">
+      <c r="F43" s="83">
         <f t="shared" si="1"/>
         <v>1.03576</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="83">
         <f t="shared" si="2"/>
         <v>1.087548</v>
       </c>
@@ -4901,7 +4929,7 @@
         <v>3000</v>
       </c>
       <c r="I43" s="7">
-        <f>SUM($H$36:H43)</f>
+        <f>SUM($H$36:H43)+$D$32</f>
         <v>19000</v>
       </c>
     </row>
@@ -4909,11 +4937,11 @@
       <c r="E44" s="7">
         <v>-5</v>
       </c>
-      <c r="F44" s="84">
+      <c r="F44" s="83">
         <f t="shared" si="1"/>
         <v>1.0004500000000001</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="83">
         <f t="shared" si="2"/>
         <v>1.0504725000000001</v>
       </c>
@@ -4921,7 +4949,7 @@
         <v>4000</v>
       </c>
       <c r="I44" s="7">
-        <f>SUM($H$36:H44)</f>
+        <f>SUM($H$36:H44)+$D$32</f>
         <v>23000</v>
       </c>
     </row>
@@ -4929,11 +4957,11 @@
       <c r="E45" s="7">
         <v>-6</v>
       </c>
-      <c r="F45" s="84">
+      <c r="F45" s="83">
         <f t="shared" si="1"/>
         <v>0.96514000000000011</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="83">
         <f t="shared" si="2"/>
         <v>1.0133970000000001</v>
       </c>
@@ -4941,7 +4969,7 @@
         <v>4000</v>
       </c>
       <c r="I45" s="7">
-        <f>SUM($H$36:H45)</f>
+        <f>SUM($H$36:H45)+$D$32</f>
         <v>27000</v>
       </c>
     </row>
@@ -4949,11 +4977,11 @@
       <c r="E46" s="7">
         <v>-7</v>
       </c>
-      <c r="F46" s="84">
+      <c r="F46" s="83">
         <f t="shared" si="1"/>
         <v>0.92983000000000005</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="83">
         <f t="shared" si="2"/>
         <v>0.97632150000000006</v>
       </c>
@@ -4961,7 +4989,7 @@
         <v>4000</v>
       </c>
       <c r="I46" s="7">
-        <f>SUM($H$36:H46)</f>
+        <f>SUM($H$36:H46)+$D$32</f>
         <v>31000</v>
       </c>
     </row>
@@ -4969,11 +4997,11 @@
       <c r="E47" s="7">
         <v>-8</v>
       </c>
-      <c r="F47" s="84">
+      <c r="F47" s="83">
         <f t="shared" si="1"/>
         <v>0.89452000000000009</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="83">
         <f t="shared" si="2"/>
         <v>0.93924600000000014</v>
       </c>
@@ -4981,7 +5009,7 @@
         <v>4000</v>
       </c>
       <c r="I47" s="7">
-        <f>SUM($H$36:H47)</f>
+        <f>SUM($H$36:H47)+$D$32</f>
         <v>35000</v>
       </c>
     </row>
@@ -4989,11 +5017,11 @@
       <c r="E48" s="7">
         <v>-9</v>
       </c>
-      <c r="F48" s="84">
+      <c r="F48" s="83">
         <f t="shared" si="1"/>
         <v>0.85921000000000003</v>
       </c>
-      <c r="G48" s="84">
+      <c r="G48" s="83">
         <f t="shared" si="2"/>
         <v>0.9021705000000001</v>
       </c>
@@ -5001,7 +5029,7 @@
         <v>4000</v>
       </c>
       <c r="I48" s="7">
-        <f>SUM($H$36:H48)</f>
+        <f>SUM($H$36:H48)+$D$32</f>
         <v>39000</v>
       </c>
     </row>
@@ -5009,11 +5037,11 @@
       <c r="E49" s="7">
         <v>-10</v>
       </c>
-      <c r="F49" s="84">
+      <c r="F49" s="83">
         <f t="shared" si="1"/>
         <v>0.82389999999999997</v>
       </c>
-      <c r="G49" s="84">
+      <c r="G49" s="83">
         <f t="shared" si="2"/>
         <v>0.86509499999999995</v>
       </c>
@@ -5021,7 +5049,7 @@
         <v>5000</v>
       </c>
       <c r="I49" s="7">
-        <f>SUM($H$36:H49)</f>
+        <f>SUM($H$36:H49)+$D$32</f>
         <v>44000</v>
       </c>
     </row>
@@ -5029,11 +5057,11 @@
       <c r="E50" s="7">
         <v>-11</v>
       </c>
-      <c r="F50" s="84">
+      <c r="F50" s="83">
         <f t="shared" si="1"/>
         <v>0.78859000000000012</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="83">
         <f t="shared" si="2"/>
         <v>0.82801950000000013</v>
       </c>
@@ -5041,19 +5069,19 @@
         <v>5000</v>
       </c>
       <c r="I50" s="7">
-        <f>SUM($H$36:H50)</f>
+        <f>SUM($H$36:H50)+$D$32</f>
         <v>49000</v>
       </c>
     </row>
     <row r="51" spans="5:9">
-      <c r="E51" s="85">
+      <c r="E51" s="84">
         <v>-12</v>
       </c>
-      <c r="F51" s="84">
+      <c r="F51" s="83">
         <f t="shared" si="1"/>
         <v>0.75328000000000006</v>
       </c>
-      <c r="G51" s="84">
+      <c r="G51" s="83">
         <f t="shared" si="2"/>
         <v>0.79094400000000009</v>
       </c>
@@ -5061,7 +5089,7 @@
         <v>5000</v>
       </c>
       <c r="I51" s="7">
-        <f>SUM($H$36:H51)</f>
+        <f>SUM($H$36:H51)+$D$32</f>
         <v>54000</v>
       </c>
     </row>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -2259,7 +2259,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
@@ -3122,8 +3122,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3195,7 +3195,7 @@
         <v>519976</v>
       </c>
       <c r="D2" s="63">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E2" s="63">
         <v>1000</v>
@@ -3278,7 +3278,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="63">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="32"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="I49" s="81">
         <f>SUM(I50:I54)</f>
-        <v>90063</v>
+        <v>93063</v>
       </c>
       <c r="J49" s="7"/>
     </row>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="J50" s="71">
         <f>I50/I49</f>
-        <v>0.28148074125889655</v>
+        <v>0.27240686416728455</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="J51" s="72">
         <f>I51/I49</f>
-        <v>0.12226996657895028</v>
+        <v>0.11832844417222742</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4158,11 +4158,11 @@
       </c>
       <c r="I52" s="65">
         <f>SUM(D2:E5)</f>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="72">
         <f>I52/I49</f>
-        <v>4.4413355095877328E-2</v>
+        <v>7.5217863167961488E-2</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="J53" s="72">
         <f>I53/I49</f>
-        <v>0.44080254932658253</v>
+        <v>0.42659273825258159</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -4394,7 +4394,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="笔记" sheetId="4" r:id="rId4"/>
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="182">
   <si>
     <r>
       <rPr>
@@ -1183,6 +1184,14 @@
   </si>
   <si>
     <t>当前仓位（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投300额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（上一年最高指数-当前指数）/当前指数*100+涨跌系数*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,7 +1528,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1712,12 +1721,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1733,9 +1736,6 @@
     <xf numFmtId="10" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1778,8 +1778,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2130,7 +2136,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2260,7 +2266,7 @@
   <dimension ref="A3:T46"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I21"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3122,8 +3128,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3195,7 +3201,7 @@
         <v>519976</v>
       </c>
       <c r="D2" s="63">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="63">
         <v>1000</v>
@@ -3224,7 +3230,7 @@
       <c r="M2" s="35">
         <v>1.1455</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="64" t="s">
         <v>151</v>
       </c>
       <c r="O2" s="12" t="s">
@@ -3278,7 +3284,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="63">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="32"/>
@@ -3509,7 +3515,9 @@
       <c r="C9" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="63">
+        <v>25</v>
+      </c>
       <c r="E9" s="63"/>
       <c r="F9" s="32"/>
       <c r="G9" s="37"/>
@@ -3545,32 +3553,32 @@
       <c r="C10" s="32">
         <v>485011</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="65">
         <v>1000</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="66">
         <v>40406</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="67">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="68">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="67">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="67">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="67">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="67">
         <v>0.79490000000000005</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -3587,8 +3595,8 @@
       <c r="C11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65">
         <v>5144</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -3629,8 +3637,8 @@
       <c r="C12" s="32">
         <v>110018</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="32"/>
       <c r="G12" s="37"/>
       <c r="H12" s="35"/>
@@ -3640,45 +3648,45 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="2:28" s="73" customFormat="1" ht="16.5">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="2:28" s="70" customFormat="1" ht="16.5">
+      <c r="B13" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="72">
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="74" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="73">
         <v>38833</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="74">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="75">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="74">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="74">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="74">
         <v>0.1139</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="74">
         <v>0.5514</v>
       </c>
-      <c r="O13" s="73" t="s">
+      <c r="O13" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="79" t="s">
+      <c r="P13" s="76" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4114,9 +4122,9 @@
       <c r="H49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="81">
+      <c r="I49" s="78">
         <f>SUM(I50:I54)</f>
-        <v>93063</v>
+        <v>90088</v>
       </c>
       <c r="J49" s="7"/>
     </row>
@@ -4124,13 +4132,13 @@
       <c r="H50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I50" s="65">
+      <c r="I50" s="78">
         <f>SUM(D13:E22)</f>
         <v>25351</v>
       </c>
-      <c r="J50" s="71">
+      <c r="J50" s="69">
         <f>I50/I49</f>
-        <v>0.27240686416728455</v>
+        <v>0.28140262854098214</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4140,13 +4148,13 @@
       <c r="H51" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="65">
+      <c r="I51" s="78">
         <f>SUM(D6:E11)</f>
-        <v>11012</v>
-      </c>
-      <c r="J51" s="72">
+        <v>11037</v>
+      </c>
+      <c r="J51" s="69">
         <f>I51/I49</f>
-        <v>0.11832844417222742</v>
+        <v>0.12251354231418168</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -4156,13 +4164,13 @@
       <c r="H52" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="65">
+      <c r="I52" s="78">
         <f>SUM(D2:E5)</f>
-        <v>7000</v>
-      </c>
-      <c r="J52" s="72">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="69">
         <f>I52/I49</f>
-        <v>7.5217863167961488E-2</v>
+        <v>4.4401030103898412E-2</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4172,26 +4180,27 @@
       <c r="H53" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I53" s="64">
+      <c r="I53" s="83">
         <f>SUM(G38:G41)</f>
         <v>39700</v>
       </c>
-      <c r="J53" s="72">
+      <c r="J53" s="69">
         <f>I53/I49</f>
-        <v>0.42659273825258159</v>
+        <v>0.4406802237811917</v>
       </c>
       <c r="K53">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="8:11">
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="I54" s="65">
+      <c r="I54" s="78">
         <f>SUM(D23:D24)</f>
         <v>10000</v>
       </c>
+      <c r="J54" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4224,7 +4233,7 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="77" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4240,11 +4249,14 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="17" spans="3:14">
       <c r="E17" s="44" t="s">
@@ -4367,16 +4379,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="3:14">
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="E23">
+        <f>(4000-3180)/3180</f>
+        <v>0.25786163522012578</v>
+      </c>
+    </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4394,19 +4420,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="9" style="82"/>
+    <col min="6" max="7" width="9" style="79"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:13">
-      <c r="G9" s="83"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="7" t="s">
         <v>146</v>
       </c>
@@ -4427,7 +4453,7 @@
       </c>
     </row>
     <row r="10" spans="7:13">
-      <c r="G10" s="83">
+      <c r="G10" s="80">
         <v>1</v>
       </c>
       <c r="H10" s="7">
@@ -4439,7 +4465,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="7:13">
-      <c r="G11" s="83">
+      <c r="G11" s="80">
         <v>2</v>
       </c>
       <c r="H11" s="7">
@@ -4450,7 +4476,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="7:13">
-      <c r="G12" s="83">
+      <c r="G12" s="80">
         <v>3</v>
       </c>
       <c r="H12" s="7">
@@ -4464,7 +4490,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="7:13">
-      <c r="G13" s="83">
+      <c r="G13" s="80">
         <v>4</v>
       </c>
       <c r="H13" s="7">
@@ -4478,7 +4504,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="7:13">
-      <c r="G14" s="83">
+      <c r="G14" s="80">
         <v>5</v>
       </c>
       <c r="H14" s="7">
@@ -4492,7 +4518,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="7:13">
-      <c r="G15" s="83">
+      <c r="G15" s="80">
         <v>6</v>
       </c>
       <c r="H15" s="7">
@@ -4514,7 +4540,7 @@
       </c>
     </row>
     <row r="16" spans="7:13">
-      <c r="G16" s="83">
+      <c r="G16" s="80">
         <v>7</v>
       </c>
       <c r="H16" s="7">
@@ -4540,7 +4566,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="G17" s="83">
+      <c r="G17" s="80">
         <v>8</v>
       </c>
       <c r="H17" s="7">
@@ -4566,7 +4592,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="G18" s="83">
+      <c r="G18" s="80">
         <v>9</v>
       </c>
       <c r="H18" s="7">
@@ -4592,7 +4618,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="G19" s="83">
+      <c r="G19" s="80">
         <v>10</v>
       </c>
       <c r="H19" s="7">
@@ -4618,7 +4644,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="G20" s="83">
+      <c r="G20" s="80">
         <v>11</v>
       </c>
       <c r="H20" s="7">
@@ -4640,7 +4666,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="G21" s="83">
+      <c r="G21" s="80">
         <v>12</v>
       </c>
       <c r="H21" s="7">
@@ -4662,7 +4688,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="G22" s="83">
+      <c r="G22" s="80">
         <v>13</v>
       </c>
       <c r="H22" s="7">
@@ -4681,7 +4707,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="G23" s="83">
+      <c r="G23" s="80">
         <v>14</v>
       </c>
       <c r="H23" s="7">
@@ -4704,7 +4730,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="G24" s="83">
+      <c r="G24" s="80">
         <v>15</v>
       </c>
       <c r="H24" s="7">
@@ -4719,7 +4745,7 @@
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="82">
         <v>510900</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4749,10 +4775,10 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="81">
         <v>0</v>
       </c>
     </row>
@@ -4760,16 +4786,16 @@
       <c r="E35" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="80" t="s">
         <v>176</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="84" t="s">
+      <c r="I35" s="81" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4777,11 +4803,11 @@
       <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="83">
+      <c r="F36" s="80">
         <f>$D$29*(1+E36*$D$30)</f>
         <v>1.2829300000000001</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="80">
         <f>F36*(1+$D$31)</f>
         <v>1.3470765000000002</v>
       </c>
@@ -4797,11 +4823,11 @@
       <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F37" s="80">
         <f t="shared" ref="F37:F51" si="1">$D$29*(1+E37*$D$30)</f>
         <v>1.2476200000000002</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="80">
         <f t="shared" ref="G37:G51" si="2">F37*(1+$D$31)</f>
         <v>1.3100010000000002</v>
       </c>
@@ -4817,11 +4843,11 @@
       <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="F38" s="83">
+      <c r="F38" s="80">
         <f t="shared" si="1"/>
         <v>1.21231</v>
       </c>
-      <c r="G38" s="83">
+      <c r="G38" s="80">
         <f t="shared" si="2"/>
         <v>1.2729255000000002</v>
       </c>
@@ -4837,11 +4863,11 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="80">
         <f t="shared" si="1"/>
         <v>1.177</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="80">
         <f t="shared" si="2"/>
         <v>1.2358500000000001</v>
       </c>
@@ -4857,11 +4883,11 @@
       <c r="E40" s="7">
         <v>-1</v>
       </c>
-      <c r="F40" s="83">
+      <c r="F40" s="80">
         <f t="shared" si="1"/>
         <v>1.1416900000000001</v>
       </c>
-      <c r="G40" s="83">
+      <c r="G40" s="80">
         <f t="shared" si="2"/>
         <v>1.1987745000000001</v>
       </c>
@@ -4877,11 +4903,11 @@
       <c r="E41" s="7">
         <v>-2</v>
       </c>
-      <c r="F41" s="83">
+      <c r="F41" s="80">
         <f t="shared" si="1"/>
         <v>1.1063799999999999</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G41" s="80">
         <f t="shared" si="2"/>
         <v>1.161699</v>
       </c>
@@ -4897,11 +4923,11 @@
       <c r="E42" s="7">
         <v>-3</v>
       </c>
-      <c r="F42" s="83">
+      <c r="F42" s="80">
         <f t="shared" si="1"/>
         <v>1.0710700000000002</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="80">
         <f t="shared" si="2"/>
         <v>1.1246235000000002</v>
       </c>
@@ -4917,11 +4943,11 @@
       <c r="E43" s="7">
         <v>-4</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F43" s="80">
         <f t="shared" si="1"/>
         <v>1.03576</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G43" s="80">
         <f t="shared" si="2"/>
         <v>1.087548</v>
       </c>
@@ -4937,11 +4963,11 @@
       <c r="E44" s="7">
         <v>-5</v>
       </c>
-      <c r="F44" s="83">
+      <c r="F44" s="80">
         <f t="shared" si="1"/>
         <v>1.0004500000000001</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="80">
         <f t="shared" si="2"/>
         <v>1.0504725000000001</v>
       </c>
@@ -4957,11 +4983,11 @@
       <c r="E45" s="7">
         <v>-6</v>
       </c>
-      <c r="F45" s="83">
+      <c r="F45" s="80">
         <f t="shared" si="1"/>
         <v>0.96514000000000011</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="80">
         <f t="shared" si="2"/>
         <v>1.0133970000000001</v>
       </c>
@@ -4977,11 +5003,11 @@
       <c r="E46" s="7">
         <v>-7</v>
       </c>
-      <c r="F46" s="83">
+      <c r="F46" s="80">
         <f t="shared" si="1"/>
         <v>0.92983000000000005</v>
       </c>
-      <c r="G46" s="83">
+      <c r="G46" s="80">
         <f t="shared" si="2"/>
         <v>0.97632150000000006</v>
       </c>
@@ -4997,11 +5023,11 @@
       <c r="E47" s="7">
         <v>-8</v>
       </c>
-      <c r="F47" s="83">
+      <c r="F47" s="80">
         <f t="shared" si="1"/>
         <v>0.89452000000000009</v>
       </c>
-      <c r="G47" s="83">
+      <c r="G47" s="80">
         <f t="shared" si="2"/>
         <v>0.93924600000000014</v>
       </c>
@@ -5017,11 +5043,11 @@
       <c r="E48" s="7">
         <v>-9</v>
       </c>
-      <c r="F48" s="83">
+      <c r="F48" s="80">
         <f t="shared" si="1"/>
         <v>0.85921000000000003</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="80">
         <f t="shared" si="2"/>
         <v>0.9021705000000001</v>
       </c>
@@ -5037,11 +5063,11 @@
       <c r="E49" s="7">
         <v>-10</v>
       </c>
-      <c r="F49" s="83">
+      <c r="F49" s="80">
         <f t="shared" si="1"/>
         <v>0.82389999999999997</v>
       </c>
-      <c r="G49" s="83">
+      <c r="G49" s="80">
         <f t="shared" si="2"/>
         <v>0.86509499999999995</v>
       </c>
@@ -5057,11 +5083,11 @@
       <c r="E50" s="7">
         <v>-11</v>
       </c>
-      <c r="F50" s="83">
+      <c r="F50" s="80">
         <f t="shared" si="1"/>
         <v>0.78859000000000012</v>
       </c>
-      <c r="G50" s="83">
+      <c r="G50" s="80">
         <f t="shared" si="2"/>
         <v>0.82801950000000013</v>
       </c>
@@ -5074,14 +5100,14 @@
       </c>
     </row>
     <row r="51" spans="5:9">
-      <c r="E51" s="84">
+      <c r="E51" s="81">
         <v>-12</v>
       </c>
-      <c r="F51" s="83">
+      <c r="F51" s="80">
         <f t="shared" si="1"/>
         <v>0.75328000000000006</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="80">
         <f t="shared" si="2"/>
         <v>0.79094400000000009</v>
       </c>
@@ -5107,4 +5133,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="16">
+        <v>43486</v>
+      </c>
+      <c r="C1">
+        <f>(4000-3180)/3180+0*10</f>
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="D1">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -1781,11 +1781,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,7 +2135,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4249,8 +4249,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4383,7 +4383,7 @@
       <c r="D22" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="84" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4394,15 +4394,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4420,7 +4420,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -5139,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5163,5 +5163,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -1191,7 +1191,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（上一年最高指数-当前指数）/当前指数*100+涨跌系数*10</t>
+    <t>年平均指数的平方/当前指数的平方*25+涨跌系数*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2135,7 +2151,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4249,8 +4265,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:K28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5137,27 +5153,72 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="16">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1">
+        <v>3089</v>
+      </c>
+      <c r="D1" s="16">
         <v>43486</v>
       </c>
-      <c r="C1">
-        <f>(4000-3180)/3180+0*10</f>
-        <v>0.25786163522012578</v>
-      </c>
-      <c r="D1">
+      <c r="E1">
+        <f>(3561^2)*25/(3400^2)+3085/3185*10</f>
+        <v>37.109732842231921</v>
+      </c>
+      <c r="F1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3">
+        <f>3189*0.95</f>
+        <v>3029.5499999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5">
+        <f>B1^2*25/B3^2</f>
+        <v>25.990795742994155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="52">
+        <f>(B1-B3)/3</f>
+        <v>19.816666666666759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="52">
+        <f>B5+B6</f>
+        <v>45.807462409660914</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -5156,7 +5156,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5170,7 +5170,7 @@
         <v>182</v>
       </c>
       <c r="B1">
-        <v>3089</v>
+        <v>3121</v>
       </c>
       <c r="D1" s="16">
         <v>43486</v>
@@ -5188,7 +5188,7 @@
         <v>183</v>
       </c>
       <c r="B2">
-        <v>3561</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5196,8 +5196,7 @@
         <v>184</v>
       </c>
       <c r="B3">
-        <f>3189*0.95</f>
-        <v>3029.5499999999997</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5205,20 +5204,20 @@
         <v>185</v>
       </c>
       <c r="B5">
-        <f>B1^2*25/B3^2</f>
-        <v>25.990795742994155</v>
+        <f>B1^2*20/B3^2</f>
+        <v>21.732712809274751</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="52">
-        <f>(B1-B3)/3</f>
-        <v>19.816666666666759</v>
+        <f>(B2-B3)/5</f>
+        <v>122.2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="52">
         <f>B5+B6</f>
-        <v>45.807462409660914</v>
+        <v>143.93271280927476</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -5204,20 +5204,20 @@
         <v>185</v>
       </c>
       <c r="B5">
-        <f>B1^2*20/B3^2</f>
-        <v>21.732712809274751</v>
+        <f>B1^2*25/B3^2</f>
+        <v>27.165891011593438</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="52">
-        <f>(B2-B3)/5</f>
-        <v>122.2</v>
+        <f>(B2-B3)/6</f>
+        <v>101.83333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="52">
         <f>B5+B6</f>
-        <v>143.93271280927476</v>
+        <v>128.99922434492677</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -5156,7 +5156,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5196,7 +5196,7 @@
         <v>184</v>
       </c>
       <c r="B3">
-        <v>2994</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5205,19 +5205,19 @@
       </c>
       <c r="B5">
         <f>B1^2*25/B3^2</f>
-        <v>27.165891011593438</v>
+        <v>19.87885918367347</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="52">
         <f>(B2-B3)/6</f>
-        <v>101.83333333333333</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="52">
         <f>B5+B6</f>
-        <v>128.99922434492677</v>
+        <v>37.37885918367347</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -1208,6 +1208,22 @@
   </si>
   <si>
     <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M日均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1544,7 +1560,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,6 +1818,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3145,7 +3170,7 @@
   <dimension ref="B1:AB54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5153,71 +5178,103 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="87" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="52" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="E1" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>182</v>
       </c>
-      <c r="B1">
-        <v>3121</v>
-      </c>
-      <c r="D1" s="16">
+      <c r="B2">
+        <v>3089</v>
+      </c>
+      <c r="D2" s="16">
         <v>43486</v>
       </c>
-      <c r="E1">
-        <f>(3561^2)*25/(3400^2)+3085/3185*10</f>
-        <v>37.109732842231921</v>
-      </c>
-      <c r="F1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="E2" s="87">
+        <v>3185</v>
+      </c>
+      <c r="F2" s="88">
+        <v>3089</v>
+      </c>
+      <c r="G2" s="52">
+        <v>3561</v>
+      </c>
+      <c r="H2">
+        <f>F2^10/E2^10*25</f>
+        <v>18.408768020944365</v>
+      </c>
+      <c r="I2" s="52">
+        <f>(G2-E2)/6</f>
+        <v>62.666666666666664</v>
+      </c>
+      <c r="J2" s="52">
+        <f>H2+I2</f>
+        <v>81.075434687611022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>183</v>
       </c>
-      <c r="B2">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>184</v>
       </c>
-      <c r="B3">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B4">
+        <f>3089*0.9</f>
+        <v>2780.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>185</v>
       </c>
-      <c r="B5">
-        <f>B1^2*25/B3^2</f>
-        <v>19.87885918367347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="52">
-        <f>(B2-B3)/6</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6">
+        <f>B2^10*25/(B4*0.98)^10</f>
+        <v>87.751420883694834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="52">
-        <f>B5+B6</f>
-        <v>37.37885918367347</v>
+        <f>(B3-B4)/6</f>
+        <v>130.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="52">
+        <f>B6+B7</f>
+        <v>217.90142088369484</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -1224,6 +1224,10 @@
   </si>
   <si>
     <t>定投额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发货币B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3167,10 +3171,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB54"/>
+  <dimension ref="B1:AB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4024,224 +4028,233 @@
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="53">
-        <v>10000</v>
+      <c r="B24" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="21">
+        <v>270014</v>
       </c>
       <c r="E24" s="53"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E26" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
-      <c r="I26" s="58"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
+    <row r="27" spans="2:16">
+      <c r="I27" s="58"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="2:9">
+      <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>501029</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>0.89400000000000002</v>
-      </c>
-      <c r="E38" s="8">
-        <f>D38*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F38" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G38" s="62">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1.381</v>
       </c>
       <c r="E39" s="8">
         <f>D39*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F39" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G39" s="62">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="8">
+        <v>159905</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40*1.05</f>
         <v>1.4500500000000001</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>7500</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G40" s="62">
         <v>10380</v>
       </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="8" t="s">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C41" s="8">
         <v>510880</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="62">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="62">
         <v>0</v>
       </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="8" t="s">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="8">
         <v>510900</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>1.177</v>
       </c>
-      <c r="E41" s="8">
-        <f>D41*1.05</f>
+      <c r="E42" s="8">
+        <f>D42*1.05</f>
         <v>1.2358500000000001</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>10000</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G42" s="62">
         <v>11770</v>
       </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="2:10">
       <c r="I42"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:9">
       <c r="I43"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:9">
       <c r="I44"/>
     </row>
-    <row r="48" spans="2:10">
-      <c r="H48" s="7"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="7" t="s">
+    <row r="45" spans="2:9">
+      <c r="I45"/>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="7"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" s="78">
-        <f>SUM(I50:I54)</f>
-        <v>90088</v>
-      </c>
-      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="78">
+        <f>SUM(I51:I55)</f>
+        <v>90088</v>
+      </c>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I50" s="78">
+      <c r="I51" s="78">
         <f>SUM(D13:E22)</f>
         <v>25351</v>
       </c>
-      <c r="J50" s="69">
-        <f>I50/I49</f>
+      <c r="J51" s="69">
+        <f>I51/I50</f>
         <v>0.28140262854098214</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="7" t="s">
+    <row r="52" spans="8:11">
+      <c r="H52" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="78">
+      <c r="I52" s="78">
         <f>SUM(D6:E11)</f>
         <v>11037</v>
       </c>
-      <c r="J51" s="69">
-        <f>I51/I49</f>
+      <c r="J52" s="69">
+        <f>I52/I50</f>
         <v>0.12251354231418168</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="7" t="s">
+    <row r="53" spans="8:11">
+      <c r="H53" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="78">
+      <c r="I53" s="78">
         <f>SUM(D2:E5)</f>
         <v>4000</v>
       </c>
-      <c r="J52" s="69">
-        <f>I52/I49</f>
+      <c r="J53" s="69">
+        <f>I53/I50</f>
         <v>4.4401030103898412E-2</v>
       </c>
-      <c r="K52">
+      <c r="K53">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="7" t="s">
+    <row r="54" spans="8:11">
+      <c r="H54" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I53" s="83">
-        <f>SUM(G38:G41)</f>
+      <c r="I54" s="83">
+        <f>SUM(G39:G42)</f>
         <v>39700</v>
       </c>
-      <c r="J53" s="69">
-        <f>I53/I49</f>
+      <c r="J54" s="69">
+        <f>I54/I50</f>
         <v>0.4406802237811917</v>
       </c>
-      <c r="K53">
+      <c r="K54">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="81" t="s">
+    <row r="55" spans="8:11">
+      <c r="H55" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="I54" s="78">
-        <f>SUM(D23:D24)</f>
+      <c r="I55" s="78">
+        <f>SUM(D23:D25)</f>
         <v>10000</v>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J55" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5180,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
   <si>
     <r>
       <rPr>
@@ -1219,15 +1219,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M日均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定投额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广发货币B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投300要同时定投相同比例债基对冲不够对冲则停止定投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5日均价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1820,17 +1828,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3173,8 +3181,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4029,7 +4037,7 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="21">
         <v>270014</v>
@@ -4303,7 +4311,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -4448,15 +4456,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4474,8 +4482,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5191,36 +5199,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" style="87" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="86" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="52" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1" s="86" t="s">
+    <row r="1" spans="1:17">
+      <c r="E1" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5230,10 +5238,10 @@
       <c r="D2" s="16">
         <v>43486</v>
       </c>
-      <c r="E2" s="87">
-        <v>3185</v>
-      </c>
-      <c r="F2" s="88">
+      <c r="E2" s="86">
+        <v>3160</v>
+      </c>
+      <c r="F2" s="87">
         <v>3089</v>
       </c>
       <c r="G2" s="52">
@@ -5241,26 +5249,58 @@
       </c>
       <c r="H2">
         <f>F2^10/E2^10*25</f>
-        <v>18.408768020944365</v>
+        <v>19.918116375935551</v>
       </c>
       <c r="I2" s="52">
-        <f>(G2-E2)/6</f>
-        <v>62.666666666666664</v>
+        <f>(G2-E2)/11</f>
+        <v>36.454545454545453</v>
       </c>
       <c r="J2" s="52">
         <f>H2+I2</f>
-        <v>81.075434687611022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>56.372661830481007</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>183</v>
       </c>
       <c r="B3">
         <v>3561</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="D3" s="16">
+        <v>43487</v>
+      </c>
+      <c r="E3" s="86">
+        <v>3154</v>
+      </c>
+      <c r="F3" s="86">
+        <v>3089</v>
+      </c>
+      <c r="G3" s="52">
+        <v>3557</v>
+      </c>
+      <c r="H3">
+        <f>F3^10/E3^10*25</f>
+        <v>20.300288115406293</v>
+      </c>
+      <c r="I3" s="52">
+        <f>(G3-E3)/11</f>
+        <v>36.636363636363633</v>
+      </c>
+      <c r="J3" s="52">
+        <f>H3+I3</f>
+        <v>56.936651751769929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -5268,8 +5308,52 @@
         <f>3089*0.9</f>
         <v>2780.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="D4" s="16">
+        <v>43488</v>
+      </c>
+      <c r="E4" s="86">
+        <v>3149</v>
+      </c>
+      <c r="F4" s="86">
+        <v>3088</v>
+      </c>
+      <c r="G4" s="52">
+        <v>3552</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H32" si="0">F4^10/E4^10*25</f>
+        <v>20.55825832756922</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" ref="I4:I32" si="1">(G4-E4)/11</f>
+        <v>36.636363636363633</v>
+      </c>
+      <c r="J4" s="52">
+        <f t="shared" ref="J4:J32" si="2">H4+I4</f>
+        <v>57.194621963932853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -5277,17 +5361,389 @@
         <f>B2^10*25/(B4*0.98)^10</f>
         <v>87.751420883694834</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="B7" s="52">
-        <f>(B3-B4)/6</f>
-        <v>130.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>(B3-B4)/B5</f>
+        <v>65.075000000000003</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="B8" s="52">
         <f>B6+B7</f>
-        <v>217.90142088369484</v>
+        <v>152.82642088369482</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="H9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="H10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="H11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="H12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="H14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="H15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="H16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
+      <c r="H30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10">
+      <c r="H31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -1227,15 +1227,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定投300要同时定投相同比例债基对冲不够对冲则停止定投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M5日均价</t>
+    <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3181,8 +3173,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4311,7 +4303,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -4482,8 +4474,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5199,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N10" sqref="N10:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5214,9 +5206,9 @@
     <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:11">
       <c r="E1" s="85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F1" s="85" t="s">
         <v>187</v>
@@ -5228,7 +5220,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5239,36 +5231,28 @@
         <v>43486</v>
       </c>
       <c r="E2" s="86">
-        <v>3160</v>
+        <v>3182</v>
       </c>
       <c r="F2" s="87">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="G2" s="52">
-        <v>3561</v>
+        <v>3565</v>
       </c>
       <c r="H2">
         <f>F2^10/E2^10*25</f>
-        <v>19.918116375935551</v>
+        <v>18.343826718444443</v>
       </c>
       <c r="I2" s="52">
-        <f>(G2-E2)/11</f>
-        <v>36.454545454545453</v>
+        <f>(G2-E2)/12</f>
+        <v>31.916666666666668</v>
       </c>
       <c r="J2" s="52">
         <f>H2+I2</f>
-        <v>56.372661830481007</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17">
+        <v>50.260493385111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -5279,28 +5263,28 @@
         <v>43487</v>
       </c>
       <c r="E3" s="86">
-        <v>3154</v>
+        <v>3147</v>
       </c>
       <c r="F3" s="86">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="G3" s="52">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="H3">
-        <f>F3^10/E3^10*25</f>
-        <v>20.300288115406293</v>
+        <f t="shared" ref="H3:H13" si="0">F3^10/E3^10*25</f>
+        <v>20.689285667598796</v>
       </c>
       <c r="I3" s="52">
-        <f>(G3-E3)/11</f>
-        <v>36.636363636363633</v>
+        <f t="shared" ref="I3:I13" si="1">(G3-E3)/12</f>
+        <v>34.083333333333336</v>
       </c>
       <c r="J3" s="52">
-        <f>H3+I3</f>
-        <v>56.936651751769929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <f t="shared" ref="J3:J13" si="2">H3+I3</f>
+        <v>54.772619000932131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -5321,25 +5305,20 @@
         <v>3552</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H32" si="0">F4^10/E4^10*25</f>
+        <f t="shared" si="0"/>
         <v>20.55825832756922</v>
       </c>
       <c r="I4" s="52">
-        <f t="shared" ref="I4:I32" si="1">(G4-E4)/11</f>
-        <v>36.636363636363633</v>
+        <f t="shared" si="1"/>
+        <v>33.583333333333336</v>
       </c>
       <c r="J4" s="52">
-        <f t="shared" ref="J4:J32" si="2">H4+I4</f>
-        <v>57.194621963932853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>54.141591660902556</v>
+      </c>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="H5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5353,7 +5332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -5374,10 +5353,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:11">
       <c r="B7" s="52">
-        <f>(B3-B4)/B5</f>
-        <v>65.075000000000003</v>
+        <f>(B3-B4)/6</f>
+        <v>130.15</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="0"/>
@@ -5392,10 +5371,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:11">
       <c r="B8" s="52">
         <f>B6+B7</f>
-        <v>152.82642088369482</v>
+        <v>217.90142088369484</v>
       </c>
       <c r="H8" t="e">
         <f t="shared" si="0"/>
@@ -5410,7 +5389,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:11">
       <c r="H9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5424,7 +5403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:11">
       <c r="H10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5438,7 +5417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:11">
       <c r="H11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5452,7 +5431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:11">
       <c r="H12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5466,7 +5445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:11">
       <c r="H13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5476,272 +5455,6 @@
         <v>0</v>
       </c>
       <c r="J13" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="H14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="H15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="H16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10">
-      <c r="H17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10">
-      <c r="H18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10">
-      <c r="H19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10">
-      <c r="H21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10">
-      <c r="H22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10">
-      <c r="H23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10">
-      <c r="H24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10">
-      <c r="H25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="H26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10">
-      <c r="H27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="8:10">
-      <c r="H28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="8:10">
-      <c r="H29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="8:10">
-      <c r="H30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="8:10">
-      <c r="H31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="8:10">
-      <c r="H32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -1847,6 +1847,402 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>M5</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>m30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>定投额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.260493385111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.772619000932131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.141591660902556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.002567748997876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="123710848"/>
+        <c:axId val="128267392"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="123710848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="128267392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="128267392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123710848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1887,6 +2283,41 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3173,7 +3604,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4303,8 +4734,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5193,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5272,15 +5703,15 @@
         <v>3556</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="0">F3^10/E3^10*25</f>
+        <f t="shared" ref="H3:H5" si="0">F3^10/E3^10*25</f>
         <v>20.689285667598796</v>
       </c>
       <c r="I3" s="52">
-        <f t="shared" ref="I3:I13" si="1">(G3-E3)/12</f>
+        <f t="shared" ref="I3:I5" si="1">(G3-E3)/12</f>
         <v>34.083333333333336</v>
       </c>
       <c r="J3" s="52">
-        <f t="shared" ref="J3:J13" si="2">H3+I3</f>
+        <f t="shared" ref="J3:J5" si="2">H3+I3</f>
         <v>54.772619000932131</v>
       </c>
     </row>
@@ -5319,17 +5750,29 @@
       <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="H5" t="e">
+      <c r="D5" s="16">
+        <v>43489</v>
+      </c>
+      <c r="E5" s="86">
+        <v>3154</v>
+      </c>
+      <c r="F5" s="86">
+        <v>3087</v>
+      </c>
+      <c r="G5" s="52">
+        <v>3548</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>20.169234415664537</v>
       </c>
       <c r="I5" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="52" t="e">
+        <v>32.833333333333336</v>
+      </c>
+      <c r="J5" s="52">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>53.002567748997876</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5340,128 +5783,49 @@
         <f>B2^10*25/(B4*0.98)^10</f>
         <v>87.751420883694834</v>
       </c>
-      <c r="H6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="52">
         <f>(B3-B4)/6</f>
         <v>130.15</v>
       </c>
-      <c r="H7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="52">
         <f>B6+B7</f>
         <v>217.90142088369484</v>
       </c>
-      <c r="H8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="H9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="H10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="H11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="H12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="H13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="52" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="笔记" sheetId="4" r:id="rId4"/>
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="300" sheetId="10" r:id="rId7"/>
+    <sheet name="500" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -1215,10 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定投额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,6 +1225,14 @@
   </si>
   <si>
     <t>M5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证500ETF联接(LOF)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +1874,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'300'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1890,7 +1895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>'300'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -1930,7 +1935,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'300'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1951,21 +1956,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>'300'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3085</c:v>
+                  <c:v>3225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3088</c:v>
+                  <c:v>3222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3088</c:v>
+                  <c:v>3218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3087</c:v>
+                  <c:v>3215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +1981,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>'300'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1990,7 +1995,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'300'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2011,7 +2016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>'300'!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -2036,7 +2041,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>'300'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,7 +2055,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'300'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2071,32 +2076,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>'300'!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50.260493385111111</c:v>
+                  <c:v>38.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.772619000932131</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.141591660902556</c:v>
+                  <c:v>42.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.002567748997876</c:v>
+                  <c:v>41.363636363636367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123710848"/>
-        <c:axId val="128267392"/>
+        <c:axId val="60060416"/>
+        <c:axId val="60062336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="123710848"/>
+        <c:axId val="60060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,14 +2133,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128267392"/>
+        <c:crossAx val="60062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128267392"/>
+        <c:axId val="60062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2176,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123710848"/>
+        <c:crossAx val="60060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,7 +2242,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3602,10 +3607,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB55"/>
+  <dimension ref="B1:AB56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3984,25 +3989,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="41" t="s">
-        <v>93</v>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B9" s="42" t="s">
+        <v>191</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="63">
-        <v>25</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="63"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="I9" s="56"/>
+      <c r="P9" s="42"/>
       <c r="Q9" s="38" t="s">
         <v>95</v>
       </c>
@@ -4022,572 +4020,607 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="63">
+        <v>25</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="Q10" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C11" s="32">
         <v>485011</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D11" s="65">
         <v>1000</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="32" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G11" s="66">
         <v>40406</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H11" s="67">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I11" s="68">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J11" s="67">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K11" s="67">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L11" s="67">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M11" s="67">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="P11" s="36" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" s="12" customFormat="1">
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65">
-        <v>5144</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="37">
-        <v>41429</v>
-      </c>
-      <c r="H11" s="35">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I11" s="57">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J11" s="35">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K11" s="35">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L11" s="35">
-        <v>0.1108</v>
-      </c>
-      <c r="M11" s="35">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65">
+        <v>5144</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="37">
+        <v>41429</v>
+      </c>
+      <c r="H12" s="35">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I12" s="57">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J12" s="35">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K12" s="35">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0.1108</v>
+      </c>
+      <c r="M12" s="35">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="12" customFormat="1">
+      <c r="B13" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C13" s="32">
         <v>110018</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="2:28" s="70" customFormat="1" ht="16.5">
-      <c r="B13" s="70" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:28" s="70" customFormat="1" ht="16.5">
+      <c r="B14" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C14" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D14" s="72">
         <v>0</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="71" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G14" s="73">
         <v>38833</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H14" s="74">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I14" s="75">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J14" s="74">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K14" s="74">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L14" s="74">
         <v>0.1139</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M14" s="74">
         <v>0.5514</v>
       </c>
-      <c r="O13" s="70" t="s">
+      <c r="O14" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="76" t="s">
+      <c r="P14" s="76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B14" s="22" t="s">
+    <row r="15" spans="2:28" s="22" customFormat="1" ht="16.5">
+      <c r="B15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D15" s="53">
         <v>2637</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E15" s="53">
         <v>4152</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G15" s="24">
         <v>41255</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H15" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I15" s="59">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J15" s="25">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L15" s="25">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M15" s="25">
         <v>0.39169999999999999</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P15" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="16.5">
-      <c r="B15" t="s">
+    <row r="16" spans="2:28" ht="16.5">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D16" s="53">
         <v>5362</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E16" s="53">
         <v>4000</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>41519</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I16" s="58">
         <v>2.76E-2</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K16" s="17">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L16" s="17">
         <v>0.1229</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M16" s="17">
         <v>0.34060000000000001</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P16" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B16" s="43" t="s">
+    <row r="17" spans="2:16" s="22" customFormat="1" ht="16.5">
+      <c r="B17" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D17" s="53">
         <v>1000</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="23" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G17" s="26">
         <v>41341</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H17" s="25">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I17" s="59">
         <v>1.84E-2</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J17" s="25">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="25">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L17" s="25">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M17" s="25">
         <v>0.25140000000000001</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="16.5">
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I17" s="60">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J17" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K17" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L17" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.35639999999999999</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="19.5">
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="53">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I18" s="60">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L18" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="19.5">
+      <c r="B19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="16">
-        <v>42268</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="58">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="J18" s="17">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="16.5">
-      <c r="B19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="16">
+        <v>42268</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="58">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K19" s="17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16.5">
+      <c r="B20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G20" s="28">
         <v>42744</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I20" s="60">
         <v>0.02</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="18">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="18">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P20" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="14.25">
-      <c r="B20" s="46" t="s">
+    <row r="21" spans="2:16" ht="14.25">
+      <c r="B21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D21" s="53">
         <v>1200</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E21" s="53">
         <v>2000</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.25">
-      <c r="B21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="P21" s="47"/>
     </row>
     <row r="22" spans="2:16" ht="14.25">
       <c r="B22" s="21" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="53">
-        <v>1000</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="P22" s="47"/>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" t="s">
+    <row r="23" spans="2:16" ht="14.25">
+      <c r="B23" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="53">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E24" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="21">
+    <row r="25" spans="2:16">
+      <c r="B25" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="21">
         <v>270014</v>
-      </c>
-      <c r="E24" s="53"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="53">
-        <v>10000</v>
       </c>
       <c r="E25" s="53"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E27" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
-      <c r="I27" s="58"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
+    <row r="28" spans="2:16">
+      <c r="I28" s="58"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="8">
-        <v>501029</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="E39" s="8">
-        <f>D39*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F39" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G39" s="62">
-        <v>17550</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="8">
-        <v>159905</v>
+        <v>501029</v>
       </c>
       <c r="D40" s="8">
-        <v>1.381</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="E40" s="8">
         <f>D40*1.05</f>
-        <v>1.4500500000000001</v>
+        <v>0.93870000000000009</v>
       </c>
       <c r="F40" s="8">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="G40" s="62">
-        <v>10380</v>
-      </c>
-      <c r="I40"/>
+        <v>17550</v>
+      </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C41" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+        <v>159905</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E41" s="8">
+        <f>D41*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F41" s="8">
+        <v>7500</v>
+      </c>
       <c r="G41" s="62">
-        <v>0</v>
+        <v>10380</v>
       </c>
       <c r="I41"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="62">
+        <v>0</v>
+      </c>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C43" s="8">
         <v>510900</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>1.177</v>
       </c>
-      <c r="E42" s="8">
-        <f>D42*1.05</f>
+      <c r="E43" s="8">
+        <f>D43*1.05</f>
         <v>1.2358500000000001</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="8">
         <v>10000</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G43" s="62">
         <v>11770</v>
       </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="2:9">
       <c r="I43"/>
     </row>
     <row r="44" spans="2:9">
@@ -4596,101 +4629,104 @@
     <row r="45" spans="2:9">
       <c r="I45"/>
     </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="7"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="7" t="s">
+    <row r="46" spans="2:9">
+      <c r="I46"/>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="7"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="78">
-        <f>SUM(I51:I55)</f>
-        <v>90088</v>
-      </c>
-      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I51" s="78">
-        <f>SUM(D13:E22)</f>
-        <v>25351</v>
-      </c>
-      <c r="J51" s="69">
-        <f>I51/I50</f>
-        <v>0.28140262854098214</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
+        <f>SUM(I52:I56)</f>
+        <v>90088</v>
+      </c>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="8:11">
       <c r="H52" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I52" s="78">
-        <f>SUM(D6:E11)</f>
-        <v>11037</v>
+        <f>SUM(D14:E23)</f>
+        <v>25351</v>
       </c>
       <c r="J52" s="69">
-        <f>I52/I50</f>
-        <v>0.12251354231418168</v>
+        <f>I52/I51</f>
+        <v>0.28140262854098214</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="8:11">
       <c r="H53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" s="78">
+        <f>SUM(D6:E12)</f>
+        <v>11037</v>
+      </c>
+      <c r="J53" s="69">
+        <f>I53/I51</f>
+        <v>0.12251354231418168</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11">
+      <c r="H54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="78">
+      <c r="I54" s="78">
         <f>SUM(D2:E5)</f>
         <v>4000</v>
       </c>
-      <c r="J53" s="69">
-        <f>I53/I50</f>
+      <c r="J54" s="69">
+        <f>I54/I51</f>
         <v>4.4401030103898412E-2</v>
       </c>
-      <c r="K53">
+      <c r="K54">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="7" t="s">
+    <row r="55" spans="8:11">
+      <c r="H55" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I54" s="83">
-        <f>SUM(G39:G42)</f>
+      <c r="I55" s="83">
+        <f>SUM(G40:G43)</f>
         <v>39700</v>
       </c>
-      <c r="J54" s="69">
-        <f>I54/I50</f>
+      <c r="J55" s="69">
+        <f>I55/I51</f>
         <v>0.4406802237811917</v>
       </c>
-      <c r="K54">
+      <c r="K55">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="81" t="s">
+    <row r="56" spans="8:11">
+      <c r="H56" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="I55" s="78">
-        <f>SUM(D23:D25)</f>
+      <c r="I56" s="78">
+        <f>SUM(D24:D26)</f>
         <v>10000</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J56" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5624,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5634,21 +5670,22 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="86" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="52" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="E1" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="85" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>187</v>
       </c>
       <c r="G1" s="85" t="s">
         <v>186</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5665,22 +5702,22 @@
         <v>3182</v>
       </c>
       <c r="F2" s="87">
-        <v>3085</v>
+        <v>3225</v>
       </c>
       <c r="G2" s="52">
         <v>3565</v>
       </c>
-      <c r="H2">
-        <f>F2^10/E2^10*25</f>
-        <v>18.343826718444443</v>
+      <c r="H2" s="52">
+        <f>F2-E2</f>
+        <v>43</v>
       </c>
       <c r="I2" s="52">
-        <f>(G2-E2)/12</f>
-        <v>31.916666666666668</v>
+        <f>(G2-E2)</f>
+        <v>383</v>
       </c>
       <c r="J2" s="52">
-        <f>H2+I2</f>
-        <v>50.260493385111111</v>
+        <f>(H2+I2)/11</f>
+        <v>38.727272727272727</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5697,22 +5734,22 @@
         <v>3147</v>
       </c>
       <c r="F3" s="86">
-        <v>3088</v>
+        <v>3222</v>
       </c>
       <c r="G3" s="52">
         <v>3556</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">F3^10/E3^10*25</f>
-        <v>20.689285667598796</v>
+      <c r="H3" s="52">
+        <f t="shared" ref="H3:H6" si="0">F3-E3</f>
+        <v>75</v>
       </c>
       <c r="I3" s="52">
-        <f t="shared" ref="I3:I5" si="1">(G3-E3)/12</f>
-        <v>34.083333333333336</v>
+        <f t="shared" ref="I3:I6" si="1">(G3-E3)</f>
+        <v>409</v>
       </c>
       <c r="J3" s="52">
-        <f t="shared" ref="J3:J5" si="2">H3+I3</f>
-        <v>54.772619000932131</v>
+        <f t="shared" ref="J3:J6" si="2">(H3+I3)/11</f>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5730,22 +5767,22 @@
         <v>3149</v>
       </c>
       <c r="F4" s="86">
-        <v>3088</v>
+        <v>3218</v>
       </c>
       <c r="G4" s="52">
         <v>3552</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="52">
         <f t="shared" si="0"/>
-        <v>20.55825832756922</v>
+        <v>69</v>
       </c>
       <c r="I4" s="52">
         <f t="shared" si="1"/>
-        <v>33.583333333333336</v>
+        <v>403</v>
       </c>
       <c r="J4" s="52">
         <f t="shared" si="2"/>
-        <v>54.141591660902556</v>
+        <v>42.909090909090907</v>
       </c>
       <c r="K4" s="52"/>
     </row>
@@ -5757,22 +5794,22 @@
         <v>3154</v>
       </c>
       <c r="F5" s="86">
-        <v>3087</v>
+        <v>3215</v>
       </c>
       <c r="G5" s="52">
         <v>3548</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="52">
         <f t="shared" si="0"/>
-        <v>20.169234415664537</v>
+        <v>61</v>
       </c>
       <c r="I5" s="52">
         <f t="shared" si="1"/>
-        <v>32.833333333333336</v>
+        <v>394</v>
       </c>
       <c r="J5" s="52">
         <f t="shared" si="2"/>
-        <v>53.002567748997876</v>
+        <v>41.363636363636367</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5783,8 +5820,30 @@
         <f>B2^10*25/(B4*0.98)^10</f>
         <v>87.751420883694834</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="D6" s="16">
+        <v>43490</v>
+      </c>
+      <c r="E6" s="86">
+        <v>3161</v>
+      </c>
+      <c r="F6" s="86">
+        <v>3213</v>
+      </c>
+      <c r="G6" s="52">
+        <v>3544</v>
+      </c>
+      <c r="H6" s="52">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="J6" s="52">
+        <f t="shared" si="2"/>
+        <v>39.545454545454547</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="52">
@@ -5828,4 +5887,67 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="B1" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="47">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16">
+        <v>43491</v>
+      </c>
+      <c r="B2" s="86">
+        <v>4330</v>
+      </c>
+      <c r="C2" s="87">
+        <v>4523</v>
+      </c>
+      <c r="D2" s="52">
+        <v>5180</v>
+      </c>
+      <c r="E2" s="52">
+        <f>(C2-B2)</f>
+        <v>193</v>
+      </c>
+      <c r="F2" s="52">
+        <f>(D2-B2)</f>
+        <v>850</v>
+      </c>
+      <c r="G2" s="52">
+        <f>(E2+F2)/17</f>
+        <v>61.352941176470587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -14,14 +14,14 @@
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
     <sheet name="300" sheetId="10" r:id="rId7"/>
-    <sheet name="500" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -1087,14 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>519506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海通货币B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>092002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,6 +1225,26 @@
   </si>
   <si>
     <t>广发中证500ETF联接(LOF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m250-m5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m120-m5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1447,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,6 +1487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1587,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1624,9 +1642,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1649,15 +1664,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1834,8 +1840,50 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2081,27 +2129,27 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38.727272727272727</c:v>
+                  <c:v>55.426917510853833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>60.7275426874536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.909090909090907</c:v>
+                  <c:v>59.747961452928095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.363636363636367</c:v>
+                  <c:v>58.197932053175776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60060416"/>
-        <c:axId val="60062336"/>
+        <c:axId val="114599040"/>
+        <c:axId val="114600576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="60060416"/>
+        <c:axId val="114599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,14 +2181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60062336"/>
+        <c:crossAx val="114600576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60062336"/>
+        <c:axId val="114600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2224,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60060416"/>
+        <c:crossAx val="114599040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,7 +2290,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2297,13 +2345,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>438151</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -3284,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -3426,47 +3474,47 @@
       <c r="G29">
         <v>12</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="46">
         <v>7</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="46">
         <v>1.1393359999999999</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="46">
         <v>1.087548</v>
       </c>
-      <c r="K29" s="50">
+      <c r="K29" s="46">
         <v>1.03576</v>
       </c>
       <c r="L29" s="7">
         <v>3000</v>
       </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
     </row>
     <row r="30" spans="7:20">
       <c r="G30">
         <v>9</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="46">
         <v>8</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="46">
         <v>1.178177</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="46">
         <v>1.1246235</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30" s="46">
         <v>1.07107</v>
       </c>
       <c r="L30" s="7">
         <v>3000</v>
       </c>
-      <c r="M30" s="50"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
     </row>
     <row r="31" spans="7:20">
       <c r="G31">
@@ -3607,70 +3655,70 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB56"/>
+  <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:V9"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="21" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="20" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="20" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="57" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="17.25" thickBot="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3678,1055 +3726,1064 @@
       <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="28">
         <v>519976</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="59">
         <v>1500</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="59">
         <v>1000</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="29">
         <v>40998</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="30">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="51">
         <v>-5.4300000000000001E-2</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="31">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="31">
         <v>-4.58E-2</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="31">
         <v>-0.16250000000000001</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="31">
         <v>1.1455</v>
       </c>
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="60" t="s">
         <v>151</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="63">
-        <v>500</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="32"/>
-      <c r="I3" s="56"/>
-      <c r="P3" s="42" t="s">
+      <c r="D3" s="59">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="28"/>
+      <c r="I3" s="52"/>
+      <c r="P3" s="38" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="32">
-        <v>340001</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="P4" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="59">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="33">
+        <v>43406</v>
+      </c>
+      <c r="H4" s="31">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="P4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="38" t="s">
+      <c r="R4" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" s="38" t="s">
+      <c r="T4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="38" t="s">
+      <c r="V4" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="X4" s="39" t="s">
-        <v>136</v>
+      <c r="X4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="63">
+        <v>51</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1864</v>
+      </c>
+      <c r="E5" s="59">
+        <v>1004</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="33">
+        <v>39974</v>
+      </c>
+      <c r="H5" s="31">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="I5" s="53">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K5" s="31">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L5" s="31">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M5" s="31">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B6" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59">
         <v>1000</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37">
-        <v>43406</v>
-      </c>
-      <c r="H5" s="35">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="P5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="38" t="s">
+      <c r="F6" s="28"/>
+      <c r="I6" s="52"/>
+      <c r="P6" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B7" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="59">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="28"/>
+      <c r="I7" s="52"/>
+      <c r="P7" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B8" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="28"/>
+      <c r="I8" s="52"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" s="38" t="s">
+      <c r="R8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="38" t="s">
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="59">
+        <v>25</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="Q9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="W5" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB5" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="63">
-        <v>1864</v>
-      </c>
-      <c r="E6" s="63">
-        <v>1004</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="37">
-        <v>39974</v>
-      </c>
-      <c r="H6" s="35">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="I6" s="57">
-        <v>1.8E-3</v>
-      </c>
-      <c r="J6" s="35">
+      <c r="V9" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28">
+        <v>485011</v>
+      </c>
+      <c r="D10" s="61">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="62">
+        <v>40406</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I10" s="64">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J10" s="63">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K10" s="63">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L10" s="63">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M10" s="63">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
+        <v>5144</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="33">
+        <v>41429</v>
+      </c>
+      <c r="H11" s="31">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I11" s="53">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J11" s="31">
         <v>4.53E-2</v>
       </c>
-      <c r="K6" s="35">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="L6" s="35">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="M6" s="35">
-        <v>1.3714999999999999</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="W6" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="X6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB6" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B7" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="I7" s="56"/>
-      <c r="P7" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B8" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="63">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="32"/>
-      <c r="I8" s="56"/>
-      <c r="P8" s="42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B9" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="32"/>
-      <c r="I9" s="56"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="63">
-        <v>25</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="Q10" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="32">
-        <v>485011</v>
-      </c>
-      <c r="D11" s="65">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="66">
-        <v>40406</v>
-      </c>
-      <c r="H11" s="67">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I11" s="68">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J11" s="67">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="K11" s="67">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L11" s="67">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M11" s="67">
-        <v>0.79490000000000005</v>
+      <c r="K11" s="31">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.1108</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.53739999999999999</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>89</v>
+        <v>155</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65">
-        <v>5144</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="37">
-        <v>41429</v>
-      </c>
-      <c r="H12" s="35">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I12" s="57">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J12" s="35">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K12" s="35">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L12" s="35">
-        <v>0.1108</v>
-      </c>
-      <c r="M12" s="35">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="28">
+        <v>110018</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2637</v>
+      </c>
+      <c r="E13" s="49">
+        <v>4152</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="23">
+        <v>41255</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I13" s="55">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J13" s="24">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L13" s="24">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16.5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="49">
+        <v>5362</v>
+      </c>
+      <c r="E14" s="49">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="54">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="25">
+        <v>41341</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L15" s="24">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P15" s="27" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" s="12" customFormat="1">
-      <c r="B13" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="32">
-        <v>110018</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="2:28" s="70" customFormat="1" ht="16.5">
-      <c r="B14" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="72">
-        <v>0</v>
-      </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="73">
-        <v>38833</v>
-      </c>
-      <c r="H14" s="74">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="I14" s="75">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="J14" s="74">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="K14" s="74">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L14" s="74">
-        <v>0.1139</v>
-      </c>
-      <c r="M14" s="74">
-        <v>0.5514</v>
-      </c>
-      <c r="O14" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" s="22" customFormat="1" ht="16.5">
-      <c r="B15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="53">
-        <v>2637</v>
-      </c>
-      <c r="E15" s="53">
-        <v>4152</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="24">
-        <v>41255</v>
-      </c>
-      <c r="H15" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I15" s="59">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J15" s="25">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K15" s="25">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L15" s="25">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M15" s="25">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="16.5">
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="53">
-        <v>5362</v>
-      </c>
-      <c r="E16" s="53">
-        <v>4000</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="49">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="49">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="16">
-        <v>41519</v>
+        <v>41478</v>
       </c>
       <c r="H16" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="58">
-        <v>2.76E-2</v>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I16" s="56">
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="J16" s="17">
-        <v>4.7699999999999999E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="K16" s="17">
-        <v>9.6000000000000002E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="L16" s="17">
-        <v>0.1229</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="M16" s="17">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="22" customFormat="1" ht="16.5">
-      <c r="B17" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="53">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="14.25">
+      <c r="B17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14.25">
+      <c r="B18" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="P18" s="43"/>
+    </row>
+    <row r="19" spans="2:16" ht="14.25">
+      <c r="B19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="49">
         <v>1000</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="26">
-        <v>41341</v>
-      </c>
-      <c r="H17" s="25">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I17" s="59">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J17" s="25">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K17" s="25">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L17" s="25">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M17" s="25">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.5">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="53">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H18" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I18" s="60">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J18" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P18" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="19.5">
-      <c r="B19" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="16">
-        <v>42268</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="E19" s="49"/>
+      <c r="P19" s="43"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="20">
+        <v>270014</v>
+      </c>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="49">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="49">
         <v>0</v>
       </c>
-      <c r="I19" s="58">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="K19" s="17">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="M19" s="18">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="16.5">
-      <c r="B20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="28">
-        <v>42744</v>
-      </c>
-      <c r="H20" s="18">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I20" s="60">
-        <v>0.02</v>
-      </c>
-      <c r="J20" s="18">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K20" s="18">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.25">
-      <c r="B21" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="53">
-        <v>1200</v>
-      </c>
-      <c r="E21" s="53">
-        <v>2000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="21" t="s">
+    </row>
+    <row r="23" spans="2:16">
+      <c r="I23" s="54"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E35" s="8">
+        <f>D35*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F35" s="8">
+        <v>19500</v>
+      </c>
+      <c r="G35" s="58">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="8">
+        <v>159905</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E36" s="8">
+        <f>D36*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F36" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G36" s="58">
+        <v>10380</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="58">
+        <v>0</v>
+      </c>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="8">
+        <v>510900</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.177</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*1.05</f>
+        <v>1.2358500000000001</v>
+      </c>
+      <c r="F38" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G38" s="58">
+        <v>11770</v>
+      </c>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="I41"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="H45" s="7"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="H46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="74">
+        <f>SUM(I47:I51)</f>
+        <v>91888</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="H47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="74">
+        <f>SUM(D13:E19)</f>
+        <v>26651</v>
+      </c>
+      <c r="J47" s="65">
+        <f>I47/I46</f>
+        <v>0.29003787219223404</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="H48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" s="74">
+        <f>SUM(D5:E11)</f>
+        <v>11037</v>
+      </c>
+      <c r="J48" s="65">
+        <f>I48/I46</f>
+        <v>0.12011361657670207</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="H49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="74">
+        <f>SUM(D2:E4)</f>
+        <v>4500</v>
+      </c>
+      <c r="J49" s="65">
+        <f>I49/I46</f>
+        <v>4.8972662371582799E-2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="H50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="79">
+        <f>SUM(G35:G38)</f>
+        <v>39700</v>
+      </c>
+      <c r="J50" s="65">
+        <f>I50/I46</f>
+        <v>0.43204771025596378</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="H51" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="2:16" ht="14.25">
-      <c r="B23" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="53">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="53">
+      <c r="I51" s="74">
+        <f>SUM(D20:D21)</f>
+        <v>10000</v>
+      </c>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="84">
+        <v>2559</v>
+      </c>
+      <c r="E63" s="84"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="7"/>
+      <c r="C64" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="84">
+        <v>2520</v>
+      </c>
+      <c r="E64" s="84">
+        <f>MIN(IFERROR(D64-D63,0),0)*100*$C$61/(D63-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="7"/>
+      <c r="C65" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="84">
+        <v>2547</v>
+      </c>
+      <c r="E65" s="84">
+        <f>(D65-D63)*100*$C$61/(D63-1800)</f>
+        <v>-34.782608695652172</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="E66" s="84">
+        <f>(D65+D64-D63*2)*100*$C$61/(D63-1800)</f>
+        <v>-147.82608695652175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="84">
+        <v>1277</v>
+      </c>
+      <c r="E68" s="84"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7"/>
+      <c r="C69" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="84">
+        <v>1359</v>
+      </c>
+      <c r="E69" s="84">
+        <f>MIN(IFERROR(D69-D68,0),0)*100*$C$61/(D68-1800)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="21" t="s">
+      <c r="F69" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="7"/>
+      <c r="C70" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="84">
+        <v>1537</v>
+      </c>
+      <c r="E70" s="84">
+        <f>(D70-D68)*100*$C$61/(D68-1000)</f>
+        <v>2064.9819494584835</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="E71" s="84">
+        <f>(D70+D69-D68*2)*100*$C$61/(D68-1000)</f>
+        <v>2716.2454873646211</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="84">
+        <v>869</v>
+      </c>
+      <c r="E73" s="84"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="7"/>
+      <c r="C74" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="21">
-        <v>270014</v>
-      </c>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="53">
-        <v>10000</v>
-      </c>
-      <c r="E26" s="53"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="53">
+      <c r="D74" s="84">
+        <v>877</v>
+      </c>
+      <c r="E74" s="84">
+        <f>MIN(IFERROR(D74-D73,0),0)*100*$C$61/(D73-1800)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="I28" s="58"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="8">
-        <v>501029</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="E40" s="8">
-        <f>D40*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F40" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G40" s="62">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E41" s="8">
-        <f>D41*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F41" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G41" s="62">
-        <v>10380</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="62">
-        <v>0</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1.177</v>
-      </c>
-      <c r="E43" s="8">
-        <f>D43*1.05</f>
-        <v>1.2358500000000001</v>
-      </c>
-      <c r="F43" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G43" s="62">
-        <v>11770</v>
-      </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="I46"/>
-    </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="7"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="78">
-        <f>SUM(I52:I56)</f>
-        <v>90088</v>
-      </c>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="78">
-        <f>SUM(D14:E23)</f>
-        <v>25351</v>
-      </c>
-      <c r="J52" s="69">
-        <f>I52/I51</f>
-        <v>0.28140262854098214</v>
-      </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I53" s="78">
-        <f>SUM(D6:E12)</f>
-        <v>11037</v>
-      </c>
-      <c r="J53" s="69">
-        <f>I53/I51</f>
-        <v>0.12251354231418168</v>
-      </c>
-      <c r="K53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I54" s="78">
-        <f>SUM(D2:E5)</f>
-        <v>4000</v>
-      </c>
-      <c r="J54" s="69">
-        <f>I54/I51</f>
-        <v>4.4401030103898412E-2</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I55" s="83">
-        <f>SUM(G40:G43)</f>
-        <v>39700</v>
-      </c>
-      <c r="J55" s="69">
-        <f>I55/I51</f>
-        <v>0.4406802237811917</v>
-      </c>
-      <c r="K55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="I56" s="78">
-        <f>SUM(D24:D26)</f>
-        <v>10000</v>
-      </c>
-      <c r="J56" s="7"/>
+      <c r="F74" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="7"/>
+      <c r="C75" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="84">
+        <v>958</v>
+      </c>
+      <c r="E75" s="84">
+        <f>(D75-D73)*100*$C$61/(D73-800)</f>
+        <v>2837.68115942029</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="E76" s="84">
+        <f>(D75+D74-D73*2)*100*$C$61/(D73-800)</f>
+        <v>3092.753623188406</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="C77"/>
+      <c r="D77" s="57"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="C78"/>
+      <c r="D78" s="57"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="I78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B17" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4749,13 +4806,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:2" ht="14.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="77" t="s">
-        <v>164</v>
+      <c r="B6" s="73" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4827,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4780,132 +4837,132 @@
   </cols>
   <sheetData>
     <row r="17" spans="3:14">
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="40">
         <v>15</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="40">
         <v>20</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="40">
         <v>25</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="40">
         <v>30</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="40">
         <v>35</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="40">
         <v>70</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>50</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="40">
         <v>40</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>35</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="40">
         <v>30</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="41">
         <v>25</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="40">
         <v>30</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="40">
         <v>50</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="40">
         <v>60</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="40">
         <v>65</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="40">
         <v>70</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="41">
         <v>75</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="41">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40">
         <v>40</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="40">
         <v>35</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="40">
         <v>30</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>25</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="D22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -4915,15 +4972,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4941,19 +4998,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="7" width="9" style="79"/>
+    <col min="6" max="7" width="9" style="75"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:13">
-      <c r="G9" s="80"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="7" t="s">
         <v>146</v>
       </c>
@@ -4974,7 +5031,7 @@
       </c>
     </row>
     <row r="10" spans="7:13">
-      <c r="G10" s="80">
+      <c r="G10" s="76">
         <v>1</v>
       </c>
       <c r="H10" s="7">
@@ -4986,7 +5043,7 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="7:13">
-      <c r="G11" s="80">
+      <c r="G11" s="76">
         <v>2</v>
       </c>
       <c r="H11" s="7">
@@ -4997,7 +5054,7 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="7:13">
-      <c r="G12" s="80">
+      <c r="G12" s="76">
         <v>3</v>
       </c>
       <c r="H12" s="7">
@@ -5011,7 +5068,7 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="7:13">
-      <c r="G13" s="80">
+      <c r="G13" s="76">
         <v>4</v>
       </c>
       <c r="H13" s="7">
@@ -5025,7 +5082,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="7:13">
-      <c r="G14" s="80">
+      <c r="G14" s="76">
         <v>5</v>
       </c>
       <c r="H14" s="7">
@@ -5039,7 +5096,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="7:13">
-      <c r="G15" s="80">
+      <c r="G15" s="76">
         <v>6</v>
       </c>
       <c r="H15" s="7">
@@ -5061,7 +5118,7 @@
       </c>
     </row>
     <row r="16" spans="7:13">
-      <c r="G16" s="80">
+      <c r="G16" s="76">
         <v>7</v>
       </c>
       <c r="H16" s="7">
@@ -5087,7 +5144,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="G17" s="80">
+      <c r="G17" s="76">
         <v>8</v>
       </c>
       <c r="H17" s="7">
@@ -5113,7 +5170,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="G18" s="80">
+      <c r="G18" s="76">
         <v>9</v>
       </c>
       <c r="H18" s="7">
@@ -5139,7 +5196,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="G19" s="80">
+      <c r="G19" s="76">
         <v>10</v>
       </c>
       <c r="H19" s="7">
@@ -5165,7 +5222,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="G20" s="80">
+      <c r="G20" s="76">
         <v>11</v>
       </c>
       <c r="H20" s="7">
@@ -5187,7 +5244,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="G21" s="80">
+      <c r="G21" s="76">
         <v>12</v>
       </c>
       <c r="H21" s="7">
@@ -5209,7 +5266,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="G22" s="80">
+      <c r="G22" s="76">
         <v>13</v>
       </c>
       <c r="H22" s="7">
@@ -5228,7 +5285,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="G23" s="80">
+      <c r="G23" s="76">
         <v>14</v>
       </c>
       <c r="H23" s="7">
@@ -5251,7 +5308,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="G24" s="80">
+      <c r="G24" s="76">
         <v>15</v>
       </c>
       <c r="H24" s="7">
@@ -5266,69 +5323,69 @@
       <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="82">
+      <c r="B29" s="78">
         <v>510900</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="50">
+        <v>168</v>
+      </c>
+      <c r="D29" s="46">
         <v>1.177</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="C30" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="7">
         <v>0.03</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D31" s="7">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="C32" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="81">
+      <c r="C32" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="H35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="77" t="s">
         <v>177</v>
-      </c>
-      <c r="I35" s="81" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="76">
         <f>$D$29*(1+E36*$D$30)</f>
         <v>1.2829300000000001</v>
       </c>
-      <c r="G36" s="80">
+      <c r="G36" s="76">
         <f>F36*(1+$D$31)</f>
         <v>1.3470765000000002</v>
       </c>
@@ -5344,11 +5401,11 @@
       <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="76">
         <f t="shared" ref="F37:F51" si="1">$D$29*(1+E37*$D$30)</f>
         <v>1.2476200000000002</v>
       </c>
-      <c r="G37" s="80">
+      <c r="G37" s="76">
         <f t="shared" ref="G37:G51" si="2">F37*(1+$D$31)</f>
         <v>1.3100010000000002</v>
       </c>
@@ -5364,11 +5421,11 @@
       <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="76">
         <f t="shared" si="1"/>
         <v>1.21231</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="76">
         <f t="shared" si="2"/>
         <v>1.2729255000000002</v>
       </c>
@@ -5384,11 +5441,11 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="76">
         <f t="shared" si="1"/>
         <v>1.177</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="76">
         <f t="shared" si="2"/>
         <v>1.2358500000000001</v>
       </c>
@@ -5404,11 +5461,11 @@
       <c r="E40" s="7">
         <v>-1</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="76">
         <f t="shared" si="1"/>
         <v>1.1416900000000001</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="76">
         <f t="shared" si="2"/>
         <v>1.1987745000000001</v>
       </c>
@@ -5424,11 +5481,11 @@
       <c r="E41" s="7">
         <v>-2</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="76">
         <f t="shared" si="1"/>
         <v>1.1063799999999999</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="76">
         <f t="shared" si="2"/>
         <v>1.161699</v>
       </c>
@@ -5444,11 +5501,11 @@
       <c r="E42" s="7">
         <v>-3</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="76">
         <f t="shared" si="1"/>
         <v>1.0710700000000002</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="76">
         <f t="shared" si="2"/>
         <v>1.1246235000000002</v>
       </c>
@@ -5464,11 +5521,11 @@
       <c r="E43" s="7">
         <v>-4</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="76">
         <f t="shared" si="1"/>
         <v>1.03576</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="76">
         <f t="shared" si="2"/>
         <v>1.087548</v>
       </c>
@@ -5484,11 +5541,11 @@
       <c r="E44" s="7">
         <v>-5</v>
       </c>
-      <c r="F44" s="80">
+      <c r="F44" s="76">
         <f t="shared" si="1"/>
         <v>1.0004500000000001</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="76">
         <f t="shared" si="2"/>
         <v>1.0504725000000001</v>
       </c>
@@ -5504,11 +5561,11 @@
       <c r="E45" s="7">
         <v>-6</v>
       </c>
-      <c r="F45" s="80">
+      <c r="F45" s="76">
         <f t="shared" si="1"/>
         <v>0.96514000000000011</v>
       </c>
-      <c r="G45" s="80">
+      <c r="G45" s="76">
         <f t="shared" si="2"/>
         <v>1.0133970000000001</v>
       </c>
@@ -5524,11 +5581,11 @@
       <c r="E46" s="7">
         <v>-7</v>
       </c>
-      <c r="F46" s="80">
+      <c r="F46" s="76">
         <f t="shared" si="1"/>
         <v>0.92983000000000005</v>
       </c>
-      <c r="G46" s="80">
+      <c r="G46" s="76">
         <f t="shared" si="2"/>
         <v>0.97632150000000006</v>
       </c>
@@ -5544,11 +5601,11 @@
       <c r="E47" s="7">
         <v>-8</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="76">
         <f t="shared" si="1"/>
         <v>0.89452000000000009</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="76">
         <f t="shared" si="2"/>
         <v>0.93924600000000014</v>
       </c>
@@ -5564,11 +5621,11 @@
       <c r="E48" s="7">
         <v>-9</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="76">
         <f t="shared" si="1"/>
         <v>0.85921000000000003</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="76">
         <f t="shared" si="2"/>
         <v>0.9021705000000001</v>
       </c>
@@ -5584,11 +5641,11 @@
       <c r="E49" s="7">
         <v>-10</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="76">
         <f t="shared" si="1"/>
         <v>0.82389999999999997</v>
       </c>
-      <c r="G49" s="80">
+      <c r="G49" s="76">
         <f t="shared" si="2"/>
         <v>0.86509499999999995</v>
       </c>
@@ -5604,11 +5661,11 @@
       <c r="E50" s="7">
         <v>-11</v>
       </c>
-      <c r="F50" s="80">
+      <c r="F50" s="76">
         <f t="shared" si="1"/>
         <v>0.78859000000000012</v>
       </c>
-      <c r="G50" s="80">
+      <c r="G50" s="76">
         <f t="shared" si="2"/>
         <v>0.82801950000000013</v>
       </c>
@@ -5621,14 +5678,14 @@
       </c>
     </row>
     <row r="51" spans="5:9">
-      <c r="E51" s="81">
+      <c r="E51" s="77">
         <v>-12</v>
       </c>
-      <c r="F51" s="80">
+      <c r="F51" s="76">
         <f t="shared" si="1"/>
         <v>0.75328000000000006</v>
       </c>
-      <c r="G51" s="80">
+      <c r="G51" s="76">
         <f t="shared" si="2"/>
         <v>0.79094400000000009</v>
       </c>
@@ -5658,39 +5715,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" style="86" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="52" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="82" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="48" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="E1" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="52" t="s">
+    <row r="1" spans="1:10">
+      <c r="E1" s="81" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="F1" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>3089</v>
@@ -5698,31 +5755,31 @@
       <c r="D2" s="16">
         <v>43486</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="82">
         <v>3182</v>
       </c>
-      <c r="F2" s="87">
+      <c r="F2" s="83">
         <v>3225</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="48">
         <v>3565</v>
       </c>
-      <c r="H2" s="52">
-        <f>F2-E2</f>
-        <v>43</v>
-      </c>
-      <c r="I2" s="52">
+      <c r="H2" s="48">
+        <f>MIN(IFERROR(F2-E2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
         <f>(G2-E2)</f>
         <v>383</v>
       </c>
-      <c r="J2" s="52">
-        <f>(H2+I2)/11</f>
-        <v>38.727272727272727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="48">
+        <f>(H2+I2)*100/(E2-1800)*2</f>
+        <v>55.426917510853833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>3561</v>
@@ -5730,31 +5787,31 @@
       <c r="D3" s="16">
         <v>43487</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="82">
         <v>3147</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="82">
         <v>3222</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="48">
         <v>3556</v>
       </c>
-      <c r="H3" s="52">
-        <f t="shared" ref="H3:H6" si="0">F3-E3</f>
-        <v>75</v>
-      </c>
-      <c r="I3" s="52">
-        <f t="shared" ref="I3:I6" si="1">(G3-E3)</f>
+      <c r="H3" s="48">
+        <f t="shared" ref="H3:H9" si="0">MIN(IFERROR(F3-E3,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="48">
+        <f t="shared" ref="I3:I9" si="1">(G3-E3)</f>
         <v>409</v>
       </c>
-      <c r="J3" s="52">
-        <f t="shared" ref="J3:J6" si="2">(H3+I3)/11</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="48">
+        <f t="shared" ref="J3:J9" si="2">(H3+I3)*100/(E3-1800)*2</f>
+        <v>60.7275426874536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <f>3089*0.9</f>
@@ -5763,58 +5820,57 @@
       <c r="D4" s="16">
         <v>43488</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="82">
         <v>3149</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="82">
         <v>3218</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="48">
         <v>3552</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="48">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="I4" s="52">
+        <v>0</v>
+      </c>
+      <c r="I4" s="48">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="J4" s="52">
+      <c r="J4" s="48">
         <f t="shared" si="2"/>
-        <v>42.909090909090907</v>
-      </c>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11">
+        <v>59.747961452928095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="D5" s="16">
         <v>43489</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="82">
         <v>3154</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="82">
         <v>3215</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="48">
         <v>3548</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="48">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
         <f t="shared" si="1"/>
         <v>394</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="48">
         <f t="shared" si="2"/>
-        <v>41.363636363636367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>58.197932053175776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <f>B2^10*25/(B4*0.98)^10</f>
@@ -5823,63 +5879,111 @@
       <c r="D6" s="16">
         <v>43490</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="82">
         <v>3161</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="82">
         <v>3213</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="48">
         <v>3544</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="48">
         <f t="shared" si="1"/>
         <v>383</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="48">
         <f t="shared" si="2"/>
-        <v>39.545454545454547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="52">
+        <v>56.282145481263775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="48">
         <f>(B3-B4)/6</f>
         <v>130.15</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="52">
+      <c r="D7" s="16">
+        <v>43491</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="48">
         <f>B6+B7</f>
         <v>217.90142088369484</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="D8" s="16">
+        <v>43492</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="16">
+        <v>43493</v>
+      </c>
+      <c r="E9" s="82">
+        <v>3169</v>
+      </c>
+      <c r="F9" s="82">
+        <v>3211</v>
+      </c>
+      <c r="G9" s="48">
+        <v>3539</v>
+      </c>
+      <c r="H9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="J9" s="48">
+        <f t="shared" si="2"/>
+        <v>54.054054054054056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5891,59 +5995,171 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
-      <c r="B1" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="47">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="16">
-        <v>43491</v>
-      </c>
-      <c r="B2" s="86">
-        <v>4330</v>
-      </c>
-      <c r="C2" s="87">
-        <v>4523</v>
-      </c>
-      <c r="D2" s="52">
-        <v>5180</v>
-      </c>
-      <c r="E2" s="52">
-        <f>(C2-B2)</f>
-        <v>193</v>
-      </c>
-      <c r="F2" s="52">
-        <f>(D2-B2)</f>
-        <v>850</v>
-      </c>
-      <c r="G2" s="52">
-        <f>(E2+F2)/17</f>
-        <v>61.352941176470587</v>
+    <row r="1" spans="2:24" s="94" customFormat="1" ht="19.5">
+      <c r="B1" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="90">
+        <v>42268</v>
+      </c>
+      <c r="H1" s="91">
+        <v>0</v>
+      </c>
+      <c r="I1" s="92">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="J1" s="91">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K1" s="91">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L1" s="91">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M1" s="93">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24" s="94" customFormat="1" ht="16.5">
+      <c r="B2" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="97">
+        <v>42744</v>
+      </c>
+      <c r="H2" s="93">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I2" s="98">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="93">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K2" s="93">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="P2" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" s="66" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B3" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="68">
+        <v>0</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="69">
+        <v>38833</v>
+      </c>
+      <c r="H3" s="70">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I3" s="71">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="J3" s="70">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="K3" s="70">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L3" s="70">
+        <v>0.1139</v>
+      </c>
+      <c r="M3" s="70">
+        <v>0.5514</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="28">
+        <v>340001</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="P4" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
   <si>
     <r>
       <rPr>
@@ -1245,6 +1245,14 @@
   </si>
   <si>
     <t>7.3亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,47 +1851,47 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,9 +1912,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2145,11 +2151,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114599040"/>
-        <c:axId val="114600576"/>
+        <c:axId val="113386624"/>
+        <c:axId val="113337088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114599040"/>
+        <c:axId val="113386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,14 +2187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114600576"/>
+        <c:crossAx val="113337088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114600576"/>
+        <c:axId val="113337088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,9 +2213,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
@@ -2224,14 +2228,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114599040"/>
+        <c:crossAx val="113386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2290,7 +2293,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2795,7 +2798,7 @@
   <dimension ref="A3:T46"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3234,7 +3237,7 @@
         <v>8000</v>
       </c>
       <c r="M16" s="8">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
         <v>11</v>
@@ -3657,8 +3660,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3733,7 +3736,7 @@
         <v>1500</v>
       </c>
       <c r="E2" s="59">
-        <v>1000</v>
+        <v>5068</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>61</v>
@@ -3815,7 +3818,9 @@
       <c r="D3" s="59">
         <v>1000</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="59">
+        <v>6000</v>
+      </c>
       <c r="F3" s="28"/>
       <c r="I3" s="52"/>
       <c r="P3" s="38" t="s">
@@ -4410,7 +4415,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:10">
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -4428,7 +4433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:10">
       <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
@@ -4446,10 +4451,11 @@
         <v>19500</v>
       </c>
       <c r="G35" s="58">
-        <v>17550</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <f>D35*F35</f>
+        <v>17433</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -4464,14 +4470,14 @@
         <v>1.4500500000000001</v>
       </c>
       <c r="F36" s="8">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G36" s="58">
-        <v>10380</v>
+        <v>0</v>
       </c>
       <c r="I36"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:10">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4492,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:10">
       <c r="B38" s="8" t="s">
         <v>25</v>
       </c>
@@ -4494,111 +4500,102 @@
         <v>510900</v>
       </c>
       <c r="D38" s="8">
-        <v>1.177</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="E38" s="8">
         <f>D38*1.05</f>
-        <v>1.2358500000000001</v>
+        <v>1.36395</v>
       </c>
       <c r="F38" s="8">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="58">
-        <v>11770</v>
+        <f>D38*F38</f>
+        <v>5196</v>
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:10">
       <c r="I39"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:10">
       <c r="I40"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:10">
       <c r="I41"/>
     </row>
-    <row r="45" spans="2:11">
-      <c r="H45" s="7"/>
+    <row r="45" spans="2:10">
+      <c r="H45" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="I45" s="58"/>
       <c r="J45" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:10">
       <c r="H46" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I46" s="74">
         <f>SUM(I47:I51)</f>
-        <v>91888</v>
+        <v>54517</v>
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:10">
       <c r="H47" s="7" t="s">
         <v>137</v>
       </c>
       <c r="I47" s="74">
-        <f>SUM(D13:E19)</f>
-        <v>26651</v>
+        <f>SUM(D13:D19)</f>
+        <v>14499</v>
       </c>
       <c r="J47" s="65">
         <f>I47/I46</f>
-        <v>0.29003787219223404</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
+        <v>0.26595373920061632</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="H48" s="7" t="s">
         <v>138</v>
       </c>
       <c r="I48" s="74">
-        <f>SUM(D5:E11)</f>
-        <v>11037</v>
+        <f>SUM(D5:D12)</f>
+        <v>3889</v>
       </c>
       <c r="J48" s="65">
         <f>I48/I46</f>
-        <v>0.12011361657670207</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
+        <v>7.1335546710200481E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="H49" s="7" t="s">
         <v>158</v>
       </c>
       <c r="I49" s="74">
-        <f>SUM(D2:E4)</f>
-        <v>4500</v>
+        <f>SUM(D2:D4)</f>
+        <v>3500</v>
       </c>
       <c r="J49" s="65">
         <f>I49/I46</f>
-        <v>4.8972662371582799E-2</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
+        <v>6.4200157748959041E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="H50" s="7" t="s">
         <v>141</v>
       </c>
       <c r="I50" s="79">
         <f>SUM(G35:G38)</f>
-        <v>39700</v>
+        <v>22629</v>
       </c>
       <c r="J50" s="65">
         <f>I50/I46</f>
-        <v>0.43204771025596378</v>
-      </c>
-      <c r="K50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
+        <v>0.41508153420034116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="H51" s="77" t="s">
         <v>166</v>
       </c>
@@ -4608,15 +4605,94 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="55" spans="2:10">
+      <c r="H55" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" s="58"/>
+      <c r="J55" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="H56" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="74">
+        <f>SUM(I57:I61)</f>
+        <v>30368</v>
+      </c>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="H57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="74">
+        <f>SUM(E13:E19)</f>
+        <v>12152</v>
+      </c>
+      <c r="J57" s="65">
+        <f>I57/I56</f>
+        <v>0.40015806111696522</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="H58" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="74">
+        <f>SUM(E5:E12)</f>
+        <v>7148</v>
+      </c>
+      <c r="J58" s="65">
+        <f>I58/I56</f>
+        <v>0.23537934668071656</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="H59" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="74">
+        <f>SUM(E2:E4)</f>
+        <v>11068</v>
+      </c>
+      <c r="J59" s="65">
+        <f>I59/I56</f>
+        <v>0.36446259220231825</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="H60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" s="79">
+        <f>SUM(G45:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="65">
+        <f>I60/I56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="86">
+      <c r="C61" s="85">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="2:11">
+      <c r="H61" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="74">
+        <f>SUM(D30:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
@@ -4628,7 +4704,7 @@
       </c>
       <c r="E63" s="84"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:10">
       <c r="B64" s="7"/>
       <c r="C64" s="40" t="s">
         <v>188</v>
@@ -4827,7 +4903,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4972,15 +5048,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4998,8 +5074,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A9:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5715,9 +5791,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -5995,6 +6072,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6006,72 +6084,72 @@
     <col min="2" max="2" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" s="94" customFormat="1" ht="19.5">
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="2:24" s="93" customFormat="1" ht="19.5">
+      <c r="B1" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="88" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="90">
+      <c r="G1" s="89">
         <v>42268</v>
       </c>
-      <c r="H1" s="91">
+      <c r="H1" s="90">
         <v>0</v>
       </c>
-      <c r="I1" s="92">
+      <c r="I1" s="91">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="J1" s="91">
+      <c r="J1" s="90">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="K1" s="91">
+      <c r="K1" s="90">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="L1" s="91">
+      <c r="L1" s="90">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M1" s="93">
+      <c r="M1" s="92">
         <v>0.13619999999999999</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="96" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="2:24" s="94" customFormat="1" ht="16.5">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="2:24" s="93" customFormat="1" ht="16.5">
+      <c r="B2" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="97">
+      <c r="G2" s="96">
         <v>42744</v>
       </c>
-      <c r="H2" s="93">
+      <c r="H2" s="92">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I2" s="98">
+      <c r="I2" s="97">
         <v>0.02</v>
       </c>
-      <c r="J2" s="93">
+      <c r="J2" s="92">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="K2" s="93">
+      <c r="K2" s="92">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="P2" s="95" t="s">
         <v>82</v>
       </c>
     </row>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -3660,8 +3660,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3736,7 +3736,8 @@
         <v>1500</v>
       </c>
       <c r="E2" s="59">
-        <v>5068</v>
+        <f>4068+1025</f>
+        <v>5093</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>61</v>
@@ -3897,7 +3898,7 @@
         <v>1864</v>
       </c>
       <c r="E5" s="59">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>52</v>
@@ -3970,9 +3971,11 @@
       <c r="C6" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="59">
+        <v>0</v>
+      </c>
       <c r="E6" s="59">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F6" s="28"/>
       <c r="I6" s="52"/>
@@ -3990,7 +3993,9 @@
       <c r="D7" s="59">
         <v>1000</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="59">
+        <v>0</v>
+      </c>
       <c r="F7" s="28"/>
       <c r="I7" s="52"/>
       <c r="P7" s="38" t="s">
@@ -4004,8 +4009,12 @@
       <c r="C8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="59">
+        <v>0</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0</v>
+      </c>
       <c r="F8" s="28"/>
       <c r="I8" s="52"/>
       <c r="P8" s="38"/>
@@ -4038,7 +4047,9 @@
       <c r="D9" s="59">
         <v>25</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
       <c r="F9" s="28"/>
       <c r="G9" s="33"/>
       <c r="H9" s="31"/>
@@ -4117,7 +4128,7 @@
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>64</v>
@@ -4181,7 +4192,7 @@
         <v>2637</v>
       </c>
       <c r="E13" s="49">
-        <v>4152</v>
+        <v>4091</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>63</v>
@@ -4228,7 +4239,7 @@
         <v>5362</v>
       </c>
       <c r="E14" s="49">
-        <v>4000</v>
+        <v>3997</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>72</v>
@@ -4268,7 +4279,9 @@
       <c r="D15" s="49">
         <v>1000</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
       <c r="F15" s="22" t="s">
         <v>73</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>2000</v>
       </c>
       <c r="E16" s="49">
-        <v>2000</v>
+        <v>1880</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>74</v>
@@ -4349,7 +4362,7 @@
         <v>1200</v>
       </c>
       <c r="E17" s="49">
-        <v>2000</v>
+        <v>2583</v>
       </c>
       <c r="N17" t="s">
         <v>153</v>
@@ -4415,7 +4428,96 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="25" spans="2:16">
+      <c r="I25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="I26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="74">
+        <f>SUM(J27:J31)</f>
+        <v>56381</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="I27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="74">
+        <f>SUM(D13:D19)</f>
+        <v>14499</v>
+      </c>
+      <c r="K27" s="65">
+        <f>J27/J26</f>
+        <v>0.25716110037069223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="I28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="74">
+        <f>SUM(D5:D12)</f>
+        <v>3889</v>
+      </c>
+      <c r="K28" s="65">
+        <f>J28/J26</f>
+        <v>6.8977137688228302E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="I29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="74">
+        <f>SUM(D2:D5)</f>
+        <v>5364</v>
+      </c>
+      <c r="K29" s="65">
+        <f>J29/J26</f>
+        <v>9.513843316010713E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="I30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="79">
+        <f>SUM(G35:G38)</f>
+        <v>22629</v>
+      </c>
+      <c r="K30" s="65">
+        <f>J30/J26</f>
+        <v>0.40135861371738707</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="I31" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="74">
+        <f>SUM(D20:D21)</f>
+        <v>10000</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="I32"/>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="I33"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
         <v>15</v>
@@ -4432,8 +4534,10 @@
       <c r="G34" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="I34"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
@@ -4454,8 +4558,15 @@
         <f>D35*F35</f>
         <v>17433</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="I35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -4475,9 +4586,16 @@
       <c r="G36" s="58">
         <v>0</v>
       </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="I36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="74">
+        <f>SUM(J37:J41)</f>
+        <v>30815</v>
+      </c>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -4490,9 +4608,19 @@
       <c r="G37" s="58">
         <v>0</v>
       </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="I37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="74">
+        <f>SUM(E13:E19)</f>
+        <v>12551</v>
+      </c>
+      <c r="K37" s="65">
+        <f>J37/J36</f>
+        <v>0.40730163881226678</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
         <v>25</v>
       </c>
@@ -4513,186 +4641,62 @@
         <f>D38*F38</f>
         <v>5196</v>
       </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="I41"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="H45" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="H46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="74">
-        <f>SUM(I47:I51)</f>
-        <v>54517</v>
-      </c>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="H47" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="74">
-        <f>SUM(D13:D19)</f>
-        <v>14499</v>
-      </c>
-      <c r="J47" s="65">
-        <f>I47/I46</f>
-        <v>0.26595373920061632</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="H48" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="74">
-        <f>SUM(D5:D12)</f>
-        <v>3889</v>
-      </c>
-      <c r="J48" s="65">
-        <f>I48/I46</f>
-        <v>7.1335546710200481E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="H49" s="7" t="s">
+      <c r="J38" s="74">
+        <f>SUM(E5:E12)</f>
+        <v>7171</v>
+      </c>
+      <c r="K38" s="65">
+        <f>J38/J36</f>
+        <v>0.23271134187895506</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="I39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I49" s="74">
-        <f>SUM(D2:D4)</f>
-        <v>3500</v>
-      </c>
-      <c r="J49" s="65">
-        <f>I49/I46</f>
-        <v>6.4200157748959041E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="H50" s="7" t="s">
+      <c r="J39" s="74">
+        <f>SUM(E2:E3)</f>
+        <v>11093</v>
+      </c>
+      <c r="K39" s="65">
+        <f>J39/J36</f>
+        <v>0.35998701930877819</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="I40" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I50" s="79">
-        <f>SUM(G35:G38)</f>
-        <v>22629</v>
-      </c>
-      <c r="J50" s="65">
-        <f>I50/I46</f>
-        <v>0.41508153420034116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="H51" s="77" t="s">
+      <c r="J40" s="79">
+        <v>0</v>
+      </c>
+      <c r="K40" s="65">
+        <f>J40/J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="I41" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="I51" s="74">
-        <f>SUM(D20:D21)</f>
-        <v>10000</v>
-      </c>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="H55" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="H56" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="74">
-        <f>SUM(I57:I61)</f>
-        <v>30368</v>
-      </c>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="H57" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="74">
-        <f>SUM(E13:E19)</f>
-        <v>12152</v>
-      </c>
-      <c r="J57" s="65">
-        <f>I57/I56</f>
-        <v>0.40015806111696522</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="H58" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="74">
-        <f>SUM(E5:E12)</f>
-        <v>7148</v>
-      </c>
-      <c r="J58" s="65">
-        <f>I58/I56</f>
-        <v>0.23537934668071656</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="H59" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I59" s="74">
-        <f>SUM(E2:E4)</f>
-        <v>11068</v>
-      </c>
-      <c r="J59" s="65">
-        <f>I59/I56</f>
-        <v>0.36446259220231825</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="H60" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I60" s="79">
-        <f>SUM(G45:G48)</f>
+      <c r="J41" s="74">
+        <f>SUM(D30:D31)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="65">
-        <f>I60/I56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="65" t="s">
         <v>193</v>
       </c>
       <c r="C61" s="85">
         <v>22</v>
       </c>
-      <c r="H61" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="I61" s="74">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="63" spans="2:10">
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
@@ -4704,7 +4708,7 @@
       </c>
       <c r="E63" s="84"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:6">
       <c r="B64" s="7"/>
       <c r="C64" s="40" t="s">
         <v>188</v>
@@ -4864,6 +4868,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J28" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -1912,7 +1912,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2151,11 +2153,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113386624"/>
-        <c:axId val="113337088"/>
+        <c:axId val="101207424"/>
+        <c:axId val="101344384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="113386624"/>
+        <c:axId val="101207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,14 +2189,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113337088"/>
+        <c:crossAx val="101344384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113337088"/>
+        <c:axId val="101344384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2215,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title/>
+        <c:title>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
@@ -2228,13 +2232,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113386624"/>
+        <c:crossAx val="101207424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2293,7 +2298,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3660,8 +3665,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4443,7 +4448,7 @@
       </c>
       <c r="J26" s="74">
         <f>SUM(J27:J31)</f>
-        <v>56381</v>
+        <v>54517</v>
       </c>
       <c r="K26" s="7"/>
     </row>
@@ -4457,7 +4462,7 @@
       </c>
       <c r="K27" s="65">
         <f>J27/J26</f>
-        <v>0.25716110037069223</v>
+        <v>0.26595373920061632</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -4470,7 +4475,7 @@
       </c>
       <c r="K28" s="65">
         <f>J28/J26</f>
-        <v>6.8977137688228302E-2</v>
+        <v>7.1335546710200481E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -4478,12 +4483,12 @@
         <v>158</v>
       </c>
       <c r="J29" s="74">
-        <f>SUM(D2:D5)</f>
-        <v>5364</v>
+        <f>SUM(D2:D4)</f>
+        <v>3500</v>
       </c>
       <c r="K29" s="65">
         <f>J29/J26</f>
-        <v>9.513843316010713E-2</v>
+        <v>6.4200157748959041E-2</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -4496,7 +4501,7 @@
       </c>
       <c r="K30" s="65">
         <f>J30/J26</f>
-        <v>0.40135861371738707</v>
+        <v>0.41508153420034116</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -5801,8 +5806,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5881,15 +5886,15 @@
         <v>3556</v>
       </c>
       <c r="H3" s="48">
-        <f t="shared" ref="H3:H9" si="0">MIN(IFERROR(F3-E3,0),0)</f>
+        <f t="shared" ref="H3:H10" si="0">MIN(IFERROR(F3-E3,0),0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="48">
-        <f t="shared" ref="I3:I9" si="1">(G3-E3)</f>
+        <f t="shared" ref="I3:I10" si="1">(G3-E3)</f>
         <v>409</v>
       </c>
       <c r="J3" s="48">
-        <f t="shared" ref="J3:J9" si="2">(H3+I3)*100/(E3-1800)*2</f>
+        <f t="shared" ref="J3:J10" si="2">(H3+I3)*100/(E3-1800)*2</f>
         <v>60.7275426874536</v>
       </c>
     </row>
@@ -6054,8 +6059,30 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="D10" s="16">
+        <v>43494</v>
+      </c>
+      <c r="E10" s="82">
+        <v>3169</v>
+      </c>
+      <c r="F10" s="82">
+        <v>3209</v>
+      </c>
+      <c r="G10" s="48">
+        <v>3535</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="48">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="J10" s="48">
+        <f t="shared" si="2"/>
+        <v>53.469685902118336</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="I11" s="48"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
     <sheet name="300" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="500" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <r>
       <rPr>
@@ -1253,6 +1254,14 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002903</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2353,14 +2362,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -3665,8 +3674,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4012,7 +4021,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="D8" s="59">
         <v>0</v>
@@ -4448,7 +4457,7 @@
       </c>
       <c r="J26" s="74">
         <f>SUM(J27:J31)</f>
-        <v>54517</v>
+        <v>54896</v>
       </c>
       <c r="K26" s="7"/>
     </row>
@@ -4462,7 +4471,7 @@
       </c>
       <c r="K27" s="65">
         <f>J27/J26</f>
-        <v>0.26595373920061632</v>
+        <v>0.26411760419702712</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -4475,7 +4484,7 @@
       </c>
       <c r="K28" s="65">
         <f>J28/J26</f>
-        <v>7.1335546710200481E-2</v>
+        <v>7.0843048673856018E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16">
@@ -4488,7 +4497,7 @@
       </c>
       <c r="K29" s="65">
         <f>J29/J26</f>
-        <v>6.4200157748959041E-2</v>
+        <v>6.3756922180122411E-2</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -4496,12 +4505,12 @@
         <v>141</v>
       </c>
       <c r="J30" s="79">
-        <f>SUM(G35:G38)</f>
-        <v>22629</v>
+        <f>SUM(G35:G39)</f>
+        <v>23008</v>
       </c>
       <c r="K30" s="65">
         <f>J30/J26</f>
-        <v>0.41508153420034116</v>
+        <v>0.4191197901486447</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -4659,6 +4668,18 @@
       </c>
     </row>
     <row r="39" spans="2:11">
+      <c r="B39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39">
+        <v>379</v>
+      </c>
       <c r="I39" s="7" t="s">
         <v>158</v>
       </c>
@@ -5806,8 +5827,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5886,15 +5907,15 @@
         <v>3556</v>
       </c>
       <c r="H3" s="48">
-        <f t="shared" ref="H3:H10" si="0">MIN(IFERROR(F3-E3,0),0)</f>
+        <f t="shared" ref="H3:H13" si="0">MIN(IFERROR(F3-E3,0),0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="48">
-        <f t="shared" ref="I3:I10" si="1">(G3-E3)</f>
+        <f t="shared" ref="I3:I13" si="1">(G3-E3)</f>
         <v>409</v>
       </c>
       <c r="J3" s="48">
-        <f t="shared" ref="J3:J10" si="2">(H3+I3)*100/(E3-1800)*2</f>
+        <f t="shared" ref="J3:J13" si="2">(H3+I3)*100/(E3-1800)*2</f>
         <v>60.7275426874536</v>
       </c>
     </row>
@@ -6085,16 +6106,82 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="D11" s="16">
+        <v>43495</v>
+      </c>
+      <c r="E11" s="82">
+        <v>3179</v>
+      </c>
+      <c r="F11" s="82">
+        <v>3208</v>
+      </c>
+      <c r="G11" s="48">
+        <v>3531</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="J11" s="48">
+        <f t="shared" si="2"/>
+        <v>51.051486584481509</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="D12" s="16">
+        <v>43496</v>
+      </c>
+      <c r="E12" s="82">
+        <v>3183</v>
+      </c>
+      <c r="F12" s="82">
+        <v>3207</v>
+      </c>
+      <c r="G12" s="48">
+        <v>3526</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="48">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="J12" s="48">
+        <f t="shared" si="2"/>
+        <v>49.602313810556758</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="D13" s="16">
+        <v>43497</v>
+      </c>
+      <c r="E13" s="82">
+        <v>3192</v>
+      </c>
+      <c r="F13" s="82">
+        <v>3206</v>
+      </c>
+      <c r="G13" s="48">
+        <v>3521</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="J13" s="48">
+        <f t="shared" si="2"/>
+        <v>47.270114942528735</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6105,6 +6192,110 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="7" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="E1" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>3089</v>
+      </c>
+      <c r="D2" s="16">
+        <v>43495</v>
+      </c>
+      <c r="E2" s="82">
+        <v>4285</v>
+      </c>
+      <c r="F2" s="82">
+        <v>4504</v>
+      </c>
+      <c r="G2" s="48">
+        <v>5156</v>
+      </c>
+      <c r="H2" s="48">
+        <f t="shared" ref="H2" si="0">MIN(IFERROR(F2-E2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
+        <f t="shared" ref="I2" si="1">(G2-E2)</f>
+        <v>871</v>
+      </c>
+      <c r="J2" s="48">
+        <f>(H2+I2)*100/(E2-1500)*2</f>
+        <v>62.549371633752244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4">
+        <f>3089*0.9</f>
+        <v>2780.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <f>B2^10*25/(B4*0.98)^10</f>
+        <v>87.751420883694834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="48">
+        <f>(B3-B4)/6</f>
+        <v>130.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="48">
+        <f>B6+B7</f>
+        <v>217.90142088369484</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:X4"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -1262,6 +1262,14 @@
   </si>
   <si>
     <t>002903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时信用债券B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2162,11 +2170,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101207424"/>
-        <c:axId val="101344384"/>
+        <c:axId val="91931776"/>
+        <c:axId val="91933312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101207424"/>
+        <c:axId val="91931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,14 +2206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101344384"/>
+        <c:crossAx val="91933312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101344384"/>
+        <c:axId val="91933312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101207424"/>
+        <c:crossAx val="91931776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,7 +2315,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2681,7 +2689,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3672,10 +3680,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB78"/>
+  <dimension ref="B1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3901,177 +3909,163 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+    <row r="5" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="52"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D6" s="59">
         <v>1864</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E6" s="59">
         <v>1019</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G6" s="33">
         <v>39974</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H6" s="31">
         <v>-1.3100000000000001E-2</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I6" s="53">
         <v>1.8E-3</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J6" s="31">
         <v>4.53E-2</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K6" s="31">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L6" s="31">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M6" s="31">
         <v>1.3714999999999999</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R6" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S6" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U6" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W6" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X6" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y6" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z6" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA6" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" s="35" t="s">
+      <c r="AB6" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:28" s="12" customFormat="1" ht="14.25">
-      <c r="B6" s="38" t="s">
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="59">
-        <v>0</v>
-      </c>
-      <c r="E6" s="59">
+      <c r="D7" s="59">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59">
         <v>1004</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="I6" s="52"/>
-      <c r="P6" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B7" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="59">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="59">
-        <v>0</v>
       </c>
       <c r="F7" s="28"/>
       <c r="I7" s="52"/>
       <c r="P7" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B8" s="38" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D8" s="59">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="59">
         <v>0</v>
       </c>
       <c r="F8" s="28"/>
       <c r="I8" s="52"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="37" t="s">
-        <v>93</v>
+      <c r="P8" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B9" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="D9" s="59">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E9" s="59">
         <v>0</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="I9" s="52"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="34" t="s">
         <v>95</v>
       </c>
@@ -4091,793 +4085,826 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="59">
+        <v>25</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="Q10" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C11" s="28">
         <v>485011</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D11" s="61">
         <v>1000</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="28" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G11" s="62">
         <v>40406</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H11" s="63">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I11" s="64">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J11" s="63">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K11" s="63">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L11" s="63">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M11" s="63">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P11" s="32" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" s="12" customFormat="1">
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61">
-        <v>5148</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="33">
-        <v>41429</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I11" s="53">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J11" s="31">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K11" s="31">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0.1108</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61">
+        <v>5148</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="33">
+        <v>41429</v>
+      </c>
+      <c r="H12" s="31">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I12" s="53">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J12" s="31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K12" s="31">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0.1108</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" s="12" customFormat="1">
+      <c r="B13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C13" s="28">
         <v>110018</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="28" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B13" s="21" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D14" s="49">
         <v>2637</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E14" s="49">
         <v>4091</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G14" s="23">
         <v>41255</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H14" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I14" s="55">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J14" s="24">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K14" s="24">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L14" s="24">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M14" s="24">
         <v>0.39169999999999999</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P14" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="16.5">
-      <c r="B14" t="s">
+    <row r="15" spans="2:28" ht="16.5">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D15" s="49">
         <v>5362</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E15" s="49">
         <v>3997</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>41519</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I15" s="54">
         <v>2.76E-2</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L15" s="17">
         <v>0.1229</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="17">
         <v>0.34060000000000001</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P15" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B15" s="39" t="s">
+    <row r="16" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D16" s="49">
         <v>1000</v>
       </c>
-      <c r="E15" s="61">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E16" s="61">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G16" s="25">
         <v>41341</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H16" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I16" s="55">
         <v>1.84E-2</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J16" s="24">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K16" s="24">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L16" s="24">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M16" s="24">
         <v>0.25140000000000001</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="16.5">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="49">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="49">
-        <v>1880</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I16" s="56">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J16" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L16" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0.35639999999999999</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="14.25">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:16" ht="16.5">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="49">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="49">
+        <v>1880</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I17" s="56">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J17" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14.25">
+      <c r="B18" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D18" s="49">
         <v>1200</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E18" s="49">
         <v>2583</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>153</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P18" s="43" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" ht="14.25">
-      <c r="B18" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="49">
-        <v>1300</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="2:16" ht="14.25">
       <c r="B19" s="20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D19" s="49">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="49"/>
       <c r="P19" s="43"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" ht="14.25">
       <c r="B20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="49">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="P20" s="43"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C21" s="20">
         <v>270014</v>
-      </c>
-      <c r="E20" s="49"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="49">
-        <v>10000</v>
       </c>
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="49">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="49"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="I23" s="54"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="I25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="I24" s="54"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="26" spans="2:16">
       <c r="I26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="74">
-        <f>SUM(J27:J31)</f>
-        <v>54896</v>
-      </c>
-      <c r="K26" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="J26" s="58"/>
+      <c r="K26" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="27" spans="2:16">
       <c r="I27" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J27" s="74">
-        <f>SUM(D13:D19)</f>
-        <v>14499</v>
-      </c>
-      <c r="K27" s="65">
-        <f>J27/J26</f>
-        <v>0.26411760419702712</v>
-      </c>
+        <f>SUM(J28:J32)</f>
+        <v>54896</v>
+      </c>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="I28" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J28" s="74">
-        <f>SUM(D5:D12)</f>
-        <v>3889</v>
+        <f>SUM(D14:D20)</f>
+        <v>14499</v>
       </c>
       <c r="K28" s="65">
-        <f>J28/J26</f>
-        <v>7.0843048673856018E-2</v>
+        <f>J28/J27</f>
+        <v>0.26411760419702712</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="I29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="74">
+        <f>SUM(D6:D13)</f>
+        <v>3889</v>
+      </c>
+      <c r="K29" s="65">
+        <f>J29/J27</f>
+        <v>7.0843048673856018E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="I30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="74">
+      <c r="J30" s="74">
         <f>SUM(D2:D4)</f>
         <v>3500</v>
       </c>
-      <c r="K29" s="65">
-        <f>J29/J26</f>
+      <c r="K30" s="65">
+        <f>J30/J27</f>
         <v>6.3756922180122411E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
-      <c r="I30" s="7" t="s">
+    <row r="31" spans="2:16">
+      <c r="I31" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="79">
-        <f>SUM(G35:G39)</f>
+      <c r="J31" s="79">
+        <f>SUM(G36:G40)</f>
         <v>23008</v>
       </c>
-      <c r="K30" s="65">
-        <f>J30/J26</f>
+      <c r="K31" s="65">
+        <f>J31/J27</f>
         <v>0.4191197901486447</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
-      <c r="I31" s="77" t="s">
+    <row r="32" spans="2:16">
+      <c r="I32" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="74">
-        <f>SUM(D20:D21)</f>
+      <c r="J32" s="74">
+        <f>SUM(D21:D22)</f>
         <v>10000</v>
       </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="I32"/>
-      <c r="J32" s="57"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11">
       <c r="I33"/>
       <c r="J33" s="57"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I34"/>
       <c r="J34" s="57"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="8">
-        <v>501029</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="E35" s="8">
-        <f>D35*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F35" s="8">
-        <v>19500</v>
-      </c>
-      <c r="G35" s="58">
-        <f>D35*F35</f>
-        <v>17433</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="8">
-        <v>159905</v>
+        <v>501029</v>
       </c>
       <c r="D36" s="8">
-        <v>1.381</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="E36" s="8">
         <f>D36*1.05</f>
-        <v>1.4500500000000001</v>
+        <v>0.93870000000000009</v>
       </c>
       <c r="F36" s="8">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="G36" s="58">
-        <v>0</v>
+        <f>D36*F36</f>
+        <v>17433</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="74">
-        <f>SUM(J37:J41)</f>
-        <v>30815</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="J36" s="58"/>
+      <c r="K36" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C37" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+        <v>159905</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E37" s="8">
+        <f>D37*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
       <c r="G37" s="58">
         <v>0</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J37" s="74">
-        <f>SUM(E13:E19)</f>
-        <v>12551</v>
-      </c>
-      <c r="K37" s="65">
-        <f>J37/J36</f>
-        <v>0.40730163881226678</v>
-      </c>
+        <f>SUM(J38:J42)</f>
+        <v>30815</v>
+      </c>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="58">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="74">
+        <f>SUM(E14:E20)</f>
+        <v>12551</v>
+      </c>
+      <c r="K38" s="65">
+        <f>J38/J37</f>
+        <v>0.40730163881226678</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>510900</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>1.2989999999999999</v>
       </c>
-      <c r="E38" s="8">
-        <f>D38*1.05</f>
+      <c r="E39" s="8">
+        <f>D39*1.05</f>
         <v>1.36395</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>4000</v>
       </c>
-      <c r="G38" s="58">
-        <f>D38*F38</f>
+      <c r="G39" s="58">
+        <f>D39*F39</f>
         <v>5196</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="74">
-        <f>SUM(E5:E12)</f>
+      <c r="J39" s="74">
+        <f>SUM(E6:E13)</f>
         <v>7171</v>
       </c>
-      <c r="K38" s="65">
-        <f>J38/J36</f>
+      <c r="K39" s="65">
+        <f>J39/J37</f>
         <v>0.23271134187895506</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="37" t="s">
+    <row r="40" spans="2:11">
+      <c r="B40" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F40" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>379</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J40" s="74">
         <f>SUM(E2:E3)</f>
         <v>11093</v>
       </c>
-      <c r="K39" s="65">
-        <f>J39/J36</f>
+      <c r="K40" s="65">
+        <f>J40/J37</f>
         <v>0.35998701930877819</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="I40" s="7" t="s">
+    <row r="41" spans="2:11">
+      <c r="I41" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="79">
-        <v>0</v>
-      </c>
-      <c r="K40" s="65">
-        <f>J40/J36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="I41" s="77" t="s">
+      <c r="J41" s="79">
+        <v>0</v>
+      </c>
+      <c r="K41" s="65">
+        <f>J41/J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="I42" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="74">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="65" t="s">
+      <c r="J42" s="74">
+        <f>SUM(D31:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="85">
+      <c r="C62" s="85">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="8" t="s">
+    <row r="64" spans="2:5">
+      <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C64" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="84">
+      <c r="D64" s="84">
         <v>2559</v>
       </c>
-      <c r="E63" s="84"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="7"/>
-      <c r="C64" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="84">
-        <v>2520</v>
-      </c>
-      <c r="E64" s="84">
-        <f>MIN(IFERROR(D64-D63,0),0)*100*$C$61/(D63-1800)</f>
-        <v>-113.04347826086956</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="E64" s="84"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7"/>
       <c r="C65" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="84">
+        <v>2520</v>
+      </c>
+      <c r="E65" s="84">
+        <f>MIN(IFERROR(D65-D64,0),0)*100*$C$62/(D64-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="7"/>
+      <c r="C66" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="84">
+      <c r="D66" s="84">
         <v>2547</v>
       </c>
-      <c r="E65" s="84">
-        <f>(D65-D63)*100*$C$61/(D63-1800)</f>
+      <c r="E66" s="84">
+        <f>(D66-D64)*100*$C$62/(D64-1800)</f>
         <v>-34.782608695652172</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F66" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="E66" s="84">
-        <f>(D65+D64-D63*2)*100*$C$61/(D63-1800)</f>
+    <row r="67" spans="2:9">
+      <c r="E67" s="84">
+        <f>(D66+D65-D64*2)*100*$C$62/(D64-1800)</f>
         <v>-147.82608695652175</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="8" t="s">
+    <row r="69" spans="2:9">
+      <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C69" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D69" s="84">
         <v>1277</v>
       </c>
-      <c r="E68" s="84"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="7"/>
-      <c r="C69" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="84">
-        <v>1359</v>
-      </c>
-      <c r="E69" s="84">
-        <f>MIN(IFERROR(D69-D68,0),0)*100*$C$61/(D68-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7"/>
       <c r="C70" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="84">
+        <v>1359</v>
+      </c>
+      <c r="E70" s="84">
+        <f>MIN(IFERROR(D70-D69,0),0)*100*$C$62/(D69-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7"/>
+      <c r="C71" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="84">
+      <c r="D71" s="84">
         <v>1537</v>
       </c>
-      <c r="E70" s="84">
-        <f>(D70-D68)*100*$C$61/(D68-1000)</f>
+      <c r="E71" s="84">
+        <f>(D71-D69)*100*$C$62/(D69-1000)</f>
         <v>2064.9819494584835</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F71" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="E71" s="84">
-        <f>(D70+D69-D68*2)*100*$C$61/(D68-1000)</f>
+    <row r="72" spans="2:9">
+      <c r="E72" s="84">
+        <f>(D71+D70-D69*2)*100*$C$62/(D69-1000)</f>
         <v>2716.2454873646211</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="8" t="s">
+    <row r="74" spans="2:9">
+      <c r="B74" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C74" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D74" s="84">
         <v>869</v>
       </c>
-      <c r="E73" s="84"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="7"/>
-      <c r="C74" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="84">
-        <v>877</v>
-      </c>
-      <c r="E74" s="84">
-        <f>MIN(IFERROR(D74-D73,0),0)*100*$C$61/(D73-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="E74" s="84"/>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="7"/>
       <c r="C75" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="84">
+        <v>877</v>
+      </c>
+      <c r="E75" s="84">
+        <f>MIN(IFERROR(D75-D74,0),0)*100*$C$62/(D74-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="7"/>
+      <c r="C76" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="84">
+      <c r="D76" s="84">
         <v>958</v>
       </c>
-      <c r="E75" s="84">
-        <f>(D75-D73)*100*$C$61/(D73-800)</f>
+      <c r="E76" s="84">
+        <f>(D76-D74)*100*$C$62/(D74-800)</f>
         <v>2837.68115942029</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F76" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="E76" s="84">
-        <f>(D75+D74-D73*2)*100*$C$61/(D73-800)</f>
+    <row r="77" spans="2:9">
+      <c r="E77" s="84">
+        <f>(D76+D75-D74*2)*100*$C$62/(D74-800)</f>
         <v>3092.753623188406</v>
       </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="C77"/>
-      <c r="D77" s="57"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="I77"/>
     </row>
     <row r="78" spans="2:9">
       <c r="C78"/>
@@ -4886,16 +4913,23 @@
       <c r="F78"/>
       <c r="I78"/>
     </row>
+    <row r="79" spans="2:9">
+      <c r="C79"/>
+      <c r="D79" s="57"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="I79"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B18" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="J28" formulaRange="1"/>
+    <ignoredError sqref="J29" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5825,10 +5859,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5907,15 +5941,15 @@
         <v>3556</v>
       </c>
       <c r="H3" s="48">
-        <f t="shared" ref="H3:H13" si="0">MIN(IFERROR(F3-E3,0),0)</f>
+        <f t="shared" ref="H3:H23" si="0">MIN(IFERROR(F3-E3,0),0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="48">
-        <f t="shared" ref="I3:I13" si="1">(G3-E3)</f>
+        <f t="shared" ref="I3:I23" si="1">(G3-E3)</f>
         <v>409</v>
       </c>
       <c r="J3" s="48">
-        <f t="shared" ref="J3:J13" si="2">(H3+I3)*100/(E3-1800)*2</f>
+        <f t="shared" ref="J3:J23" si="2">(H3+I3)*100/(E3-1800)*2</f>
         <v>60.7275426874536</v>
       </c>
     </row>
@@ -6181,6 +6215,185 @@
       <c r="J13" s="48">
         <f t="shared" si="2"/>
         <v>47.270114942528735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="16">
+        <v>43498</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="16">
+        <v>43499</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="16">
+        <v>43500</v>
+      </c>
+      <c r="H16" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="16">
+        <v>43501</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="16">
+        <v>43502</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="16">
+        <v>43503</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="16">
+        <v>43504</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="16">
+        <v>43505</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="16">
+        <v>43506</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="16">
+        <v>43507</v>
+      </c>
+      <c r="E23" s="82">
+        <v>3213</v>
+      </c>
+      <c r="F23" s="82">
+        <v>3206</v>
+      </c>
+      <c r="G23" s="48">
+        <v>3517</v>
+      </c>
+      <c r="H23" s="48">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="I23" s="48">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="J23" s="48">
+        <f t="shared" si="2"/>
+        <v>42.038216560509554</v>
       </c>
     </row>
   </sheetData>
@@ -6468,5 +6681,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <r>
       <rPr>
@@ -1262,14 +1262,6 @@
   </si>
   <si>
     <t>002903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时信用债券B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,11 +2162,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91931776"/>
-        <c:axId val="91933312"/>
+        <c:axId val="201894144"/>
+        <c:axId val="128516480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91931776"/>
+        <c:axId val="201894144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,14 +2198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91933312"/>
+        <c:crossAx val="128516480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91933312"/>
+        <c:axId val="128516480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91931776"/>
+        <c:crossAx val="201894144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2315,7 +2307,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2689,7 +2681,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3680,10 +3672,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB79"/>
+  <dimension ref="B1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3755,7 +3747,7 @@
         <v>519976</v>
       </c>
       <c r="D2" s="59">
-        <v>1500</v>
+        <v>9500</v>
       </c>
       <c r="E2" s="59">
         <f>4068+1025</f>
@@ -3839,7 +3831,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="59">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="E3" s="59">
         <v>6000</v>
@@ -3909,163 +3901,177 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+    <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="52"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1864</v>
+      </c>
+      <c r="E5" s="59">
+        <v>1019</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="33">
+        <v>39974</v>
+      </c>
+      <c r="H5" s="31">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="I5" s="53">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J5" s="31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K5" s="31">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L5" s="31">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M5" s="31">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" s="12" customFormat="1" ht="14.25">
+      <c r="B6" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D6" s="59">
-        <v>1864</v>
+        <v>0</v>
       </c>
       <c r="E6" s="59">
-        <v>1019</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="33">
-        <v>39974</v>
-      </c>
-      <c r="H6" s="31">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="I6" s="53">
-        <v>1.8E-3</v>
-      </c>
-      <c r="J6" s="31">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K6" s="31">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="L6" s="31">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="M6" s="31">
-        <v>1.3714999999999999</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="X6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA6" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB6" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="14.25">
+        <v>1004</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="I6" s="52"/>
+      <c r="P6" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B7" s="38" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D7" s="59">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="59">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="F7" s="28"/>
       <c r="I7" s="52"/>
       <c r="P7" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B8" s="38" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D8" s="59">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="59">
         <v>0</v>
       </c>
       <c r="F8" s="28"/>
       <c r="I8" s="52"/>
-      <c r="P8" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B9" s="38" t="s">
-        <v>189</v>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D9" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9" s="59">
         <v>0</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="I9" s="52"/>
-      <c r="P9" s="38"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="Q9" s="34" t="s">
         <v>95</v>
       </c>
@@ -4085,826 +4091,793 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="59">
-        <v>25</v>
-      </c>
-      <c r="E10" s="59">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="Q10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B11" s="28" t="s">
+    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C10" s="28">
         <v>485011</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D10" s="61">
         <v>1000</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="62">
+        <v>40406</v>
+      </c>
+      <c r="H10" s="63">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I10" s="64">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J10" s="63">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K10" s="63">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L10" s="63">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M10" s="63">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61">
+        <v>5148</v>
+      </c>
       <c r="F11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="62">
-        <v>40406</v>
-      </c>
-      <c r="H11" s="63">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I11" s="64">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J11" s="63">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="K11" s="63">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L11" s="63">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M11" s="63">
-        <v>0.79490000000000005</v>
+        <v>64</v>
+      </c>
+      <c r="G11" s="33">
+        <v>41429</v>
+      </c>
+      <c r="H11" s="31">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I11" s="53">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J11" s="31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K11" s="31">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.1108</v>
+      </c>
+      <c r="M11" s="31">
+        <v>0.53739999999999999</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>155</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>79</v>
+        <v>163</v>
+      </c>
+      <c r="C12" s="28">
+        <v>110018</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="61">
-        <v>5148</v>
-      </c>
+      <c r="E12" s="61"/>
       <c r="F12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="33">
-        <v>41429</v>
-      </c>
-      <c r="H12" s="31">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I12" s="53">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J12" s="31">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K12" s="31">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L12" s="31">
-        <v>0.1108</v>
-      </c>
-      <c r="M12" s="31">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2637</v>
+      </c>
+      <c r="E13" s="49">
+        <v>4091</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="23">
+        <v>41255</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I13" s="55">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J13" s="24">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L13" s="24">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16.5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="49">
+        <v>5362</v>
+      </c>
+      <c r="E14" s="49">
+        <v>3997</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="54">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" s="21" customFormat="1" ht="16.5">
+      <c r="B15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="25">
+        <v>41341</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I15" s="55">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L15" s="24">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P15" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:28" s="12" customFormat="1">
-      <c r="B13" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="28">
-        <v>110018</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="49">
-        <v>2637</v>
-      </c>
-      <c r="E14" s="49">
-        <v>4091</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="23">
-        <v>41255</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I14" s="55">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J14" s="24">
+    <row r="16" spans="2:28" ht="16.5">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="49">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1880</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H16" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I16" s="56">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J16" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K14" s="24">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L14" s="24">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" ht="16.5">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="49">
-        <v>5362</v>
-      </c>
-      <c r="E15" s="49">
-        <v>3997</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="16">
-        <v>41519</v>
-      </c>
-      <c r="H15" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I15" s="54">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J15" s="17">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K15" s="17">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0.1229</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B16" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="61">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="25">
-        <v>41341</v>
-      </c>
-      <c r="H16" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I16" s="55">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J16" s="24">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K16" s="24">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L16" s="24">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M16" s="24">
-        <v>0.25140000000000001</v>
+      <c r="K16" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.35639999999999999</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="16.5">
-      <c r="B17" t="s">
-        <v>56</v>
+    <row r="17" spans="2:16" ht="14.25">
+      <c r="B17" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D17" s="49">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="49">
-        <v>1880</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I17" s="56">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J17" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K17" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L17" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>82</v>
+        <v>2583</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25">
-      <c r="B18" s="42" t="s">
-        <v>120</v>
+      <c r="B18" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D18" s="49">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="49">
-        <v>2583</v>
-      </c>
-      <c r="N18" t="s">
-        <v>153</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="2:16" ht="14.25">
       <c r="B19" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D19" s="49">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="49"/>
       <c r="P19" s="43"/>
     </row>
-    <row r="20" spans="2:16" ht="14.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="49">
-        <v>1000</v>
+        <v>186</v>
+      </c>
+      <c r="C20" s="20">
+        <v>270014</v>
       </c>
       <c r="E20" s="49"/>
-      <c r="P20" s="43"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="20">
-        <v>270014</v>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="49">
+        <v>5000</v>
       </c>
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="49">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="49"/>
+        <v>150</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="I24" s="54"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="I25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="2:16">
       <c r="I26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J26" s="74">
+        <f>SUM(J27:J31)</f>
+        <v>48463</v>
+      </c>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="I27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J27" s="74">
-        <f>SUM(J28:J32)</f>
-        <v>54896</v>
-      </c>
-      <c r="K27" s="7"/>
+        <f>SUM(D13:D19)</f>
+        <v>14499</v>
+      </c>
+      <c r="K27" s="65">
+        <f>J27/J26</f>
+        <v>0.29917669149660564</v>
+      </c>
     </row>
     <row r="28" spans="2:16">
       <c r="I28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="74">
-        <f>SUM(D14:D20)</f>
-        <v>14499</v>
+        <f>SUM(D5:D12)</f>
+        <v>3889</v>
       </c>
       <c r="K28" s="65">
-        <f>J28/J27</f>
-        <v>0.26411760419702712</v>
+        <f>J28/J26</f>
+        <v>8.0246786208034993E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="I29" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="J29" s="74">
-        <f>SUM(D6:D13)</f>
-        <v>3889</v>
+        <f>SUM(D2:D4)</f>
+        <v>19500</v>
       </c>
       <c r="K29" s="65">
-        <f>J29/J27</f>
-        <v>7.0843048673856018E-2</v>
+        <f>J29/J26</f>
+        <v>0.40236881744836267</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="I30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" s="74">
-        <f>SUM(D2:D4)</f>
-        <v>3500</v>
+        <v>141</v>
+      </c>
+      <c r="J30" s="79">
+        <f>SUM(G35:G39)</f>
+        <v>5575</v>
       </c>
       <c r="K30" s="65">
-        <f>J30/J27</f>
-        <v>6.3756922180122411E-2</v>
+        <f>J30/J26</f>
+        <v>0.11503621319357035</v>
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="I31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="79">
-        <f>SUM(G36:G40)</f>
-        <v>23008</v>
-      </c>
-      <c r="K31" s="65">
-        <f>J31/J27</f>
-        <v>0.4191197901486447</v>
-      </c>
+      <c r="I31" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="74">
+        <f>SUM(D20:D21)</f>
+        <v>5000</v>
+      </c>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="I32" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="J32" s="74">
-        <f>SUM(D21:D22)</f>
-        <v>10000</v>
-      </c>
-      <c r="K32" s="7"/>
+      <c r="I32"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33" spans="2:11">
       <c r="I33"/>
       <c r="J33" s="57"/>
     </row>
     <row r="34" spans="2:11">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I34"/>
       <c r="J34" s="57"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35" s="57"/>
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E35" s="8">
+        <f>D35*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="58">
+        <f>D35*F35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="58"/>
+      <c r="K35" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="8">
-        <v>501029</v>
+        <v>159905</v>
       </c>
       <c r="D36" s="8">
-        <v>0.89400000000000002</v>
+        <v>1.381</v>
       </c>
       <c r="E36" s="8">
         <f>D36*1.05</f>
-        <v>0.93870000000000009</v>
+        <v>1.4500500000000001</v>
       </c>
       <c r="F36" s="8">
-        <v>19500</v>
+        <v>0</v>
       </c>
       <c r="G36" s="58">
-        <f>D36*F36</f>
-        <v>17433</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J36" s="58"/>
-      <c r="K36" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J36" s="74">
+        <f>SUM(J37:J41)</f>
+        <v>30815</v>
+      </c>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C37" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E37" s="8">
-        <f>D37*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
+        <v>510880</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="58">
         <v>0</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J37" s="74">
-        <f>SUM(J38:J42)</f>
-        <v>30815</v>
-      </c>
-      <c r="K37" s="7"/>
+        <f>SUM(E13:E19)</f>
+        <v>12551</v>
+      </c>
+      <c r="K37" s="65">
+        <f>J37/J36</f>
+        <v>0.40730163881226678</v>
+      </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+        <v>510900</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*1.05</f>
+        <v>1.36395</v>
+      </c>
+      <c r="F38" s="8">
+        <v>4000</v>
+      </c>
       <c r="G38" s="58">
-        <v>0</v>
+        <f>D38*F38</f>
+        <v>5196</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J38" s="74">
-        <f>SUM(E14:E20)</f>
-        <v>12551</v>
+        <f>SUM(E5:E12)</f>
+        <v>7171</v>
       </c>
       <c r="K38" s="65">
-        <f>J38/J37</f>
-        <v>0.40730163881226678</v>
+        <f>J38/J36</f>
+        <v>0.23271134187895506</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="E39" s="8">
-        <f>D39*1.05</f>
-        <v>1.36395</v>
-      </c>
-      <c r="F39" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G39" s="58">
-        <f>D39*F39</f>
-        <v>5196</v>
+      <c r="B39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39">
+        <v>379</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="J39" s="74">
-        <f>SUM(E6:E13)</f>
-        <v>7171</v>
-      </c>
-      <c r="K39" s="65">
-        <f>J39/J37</f>
-        <v>0.23271134187895506</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40">
-        <v>379</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="74">
         <f>SUM(E2:E3)</f>
         <v>11093</v>
       </c>
+      <c r="K39" s="65">
+        <f>J39/J36</f>
+        <v>0.35998701930877819</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="I40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="79">
+        <v>0</v>
+      </c>
       <c r="K40" s="65">
-        <f>J40/J37</f>
-        <v>0.35998701930877819</v>
+        <f>J40/J36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="I41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J41" s="79">
-        <v>0</v>
-      </c>
-      <c r="K41" s="65">
-        <f>J41/J37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="I42" s="77" t="s">
+      <c r="I41" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="74">
-        <f>SUM(D31:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="65" t="s">
+      <c r="J41" s="74">
+        <f>SUM(D30:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="85">
+      <c r="C61" s="85">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="8" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="C63" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="84">
+        <v>2559</v>
+      </c>
+      <c r="E63" s="84"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="7"/>
       <c r="C64" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="84">
-        <v>2559</v>
-      </c>
-      <c r="E64" s="84"/>
+        <v>2520</v>
+      </c>
+      <c r="E64" s="84">
+        <f>MIN(IFERROR(D64-D63,0),0)*100*$C$61/(D63-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="7"/>
       <c r="C65" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="84">
+        <v>2547</v>
+      </c>
+      <c r="E65" s="84">
+        <f>(D65-D63)*100*$C$61/(D63-1800)</f>
+        <v>-34.782608695652172</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="E66" s="84">
+        <f>(D65+D64-D63*2)*100*$C$61/(D63-1800)</f>
+        <v>-147.82608695652175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="84">
+        <v>1277</v>
+      </c>
+      <c r="E68" s="84"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7"/>
+      <c r="C69" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="84">
-        <v>2520</v>
-      </c>
-      <c r="E65" s="84">
-        <f>MIN(IFERROR(D65-D64,0),0)*100*$C$62/(D64-1800)</f>
-        <v>-113.04347826086956</v>
-      </c>
-      <c r="F65" s="20" t="s">
+      <c r="D69" s="84">
+        <v>1359</v>
+      </c>
+      <c r="E69" s="84">
+        <f>MIN(IFERROR(D69-D68,0),0)*100*$C$61/(D68-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="7"/>
-      <c r="C66" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="84">
-        <v>2547</v>
-      </c>
-      <c r="E66" s="84">
-        <f>(D66-D64)*100*$C$62/(D64-1800)</f>
-        <v>-34.782608695652172</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="E67" s="84">
-        <f>(D66+D65-D64*2)*100*$C$62/(D64-1800)</f>
-        <v>-147.82608695652175</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="84">
-        <v>1277</v>
-      </c>
-      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="7"/>
       <c r="C70" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="84">
+        <v>1537</v>
+      </c>
+      <c r="E70" s="84">
+        <f>(D70-D68)*100*$C$61/(D68-1000)</f>
+        <v>2064.9819494584835</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="E71" s="84">
+        <f>(D70+D69-D68*2)*100*$C$61/(D68-1000)</f>
+        <v>2716.2454873646211</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="84">
+        <v>869</v>
+      </c>
+      <c r="E73" s="84"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="7"/>
+      <c r="C74" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D70" s="84">
-        <v>1359</v>
-      </c>
-      <c r="E70" s="84">
-        <f>MIN(IFERROR(D70-D69,0),0)*100*$C$62/(D69-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="20" t="s">
+      <c r="D74" s="84">
+        <v>877</v>
+      </c>
+      <c r="E74" s="84">
+        <f>MIN(IFERROR(D74-D73,0),0)*100*$C$61/(D73-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="7"/>
-      <c r="C71" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D71" s="84">
-        <v>1537</v>
-      </c>
-      <c r="E71" s="84">
-        <f>(D71-D69)*100*$C$62/(D69-1000)</f>
-        <v>2064.9819494584835</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="E72" s="84">
-        <f>(D71+D70-D69*2)*100*$C$62/(D69-1000)</f>
-        <v>2716.2454873646211</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="84">
-        <v>869</v>
-      </c>
-      <c r="E74" s="84"/>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" s="7"/>
       <c r="C75" s="40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D75" s="84">
-        <v>877</v>
+        <v>958</v>
       </c>
       <c r="E75" s="84">
-        <f>MIN(IFERROR(D75-D74,0),0)*100*$C$62/(D74-1800)</f>
-        <v>0</v>
+        <f>(D75-D73)*100*$C$61/(D73-800)</f>
+        <v>2837.68115942029</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="7"/>
-      <c r="C76" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="84">
-        <v>958</v>
-      </c>
       <c r="E76" s="84">
-        <f>(D76-D74)*100*$C$62/(D74-800)</f>
-        <v>2837.68115942029</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>191</v>
+        <f>(D75+D74-D73*2)*100*$C$61/(D73-800)</f>
+        <v>3092.753623188406</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="E77" s="84">
-        <f>(D76+D75-D74*2)*100*$C$62/(D74-800)</f>
-        <v>3092.753623188406</v>
-      </c>
+      <c r="C77"/>
+      <c r="D77" s="57"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="I77"/>
     </row>
     <row r="78" spans="2:9">
       <c r="C78"/>
@@ -4913,24 +4886,14 @@
       <c r="F78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="2:9">
-      <c r="C79"/>
-      <c r="D79" s="57"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="I79"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B17" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J29" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4940,7 +4903,7 @@
   <dimension ref="B5:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5859,10 +5822,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5875,7 +5838,7 @@
     <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="E1" s="81" t="s">
         <v>187</v>
       </c>
@@ -5889,7 +5852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5920,8 +5883,12 @@
         <f>(H2+I2)*100/(E2-1800)*2</f>
         <v>55.426917510853833</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="48">
+        <f>100-J2</f>
+        <v>44.573082489146167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5941,19 +5908,23 @@
         <v>3556</v>
       </c>
       <c r="H3" s="48">
-        <f t="shared" ref="H3:H23" si="0">MIN(IFERROR(F3-E3,0),0)</f>
+        <f t="shared" ref="H3:H30" si="0">MIN(IFERROR(F3-E3,0),0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="48">
-        <f t="shared" ref="I3:I23" si="1">(G3-E3)</f>
+        <f t="shared" ref="I3:I30" si="1">(G3-E3)</f>
         <v>409</v>
       </c>
       <c r="J3" s="48">
-        <f t="shared" ref="J3:J23" si="2">(H3+I3)*100/(E3-1800)*2</f>
+        <f t="shared" ref="J3:J30" si="2">(H3+I3)*100/(E3-1800)*2</f>
         <v>60.7275426874536</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="48">
+        <f t="shared" ref="K3:K30" si="3">100-J3</f>
+        <v>39.2724573125464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5985,8 +5956,12 @@
         <f t="shared" si="2"/>
         <v>59.747961452928095</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="48">
+        <f t="shared" si="3"/>
+        <v>40.252038547071905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="D5" s="16">
         <v>43489</v>
       </c>
@@ -6011,8 +5986,12 @@
         <f t="shared" si="2"/>
         <v>58.197932053175776</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="48">
+        <f t="shared" si="3"/>
+        <v>41.802067946824224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -6044,8 +6023,12 @@
         <f t="shared" si="2"/>
         <v>56.282145481263775</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="48">
+        <f t="shared" si="3"/>
+        <v>43.717854518736225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="48">
         <f>(B3-B4)/6</f>
         <v>130.15</v>
@@ -6065,8 +6048,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="48">
         <f>B6+B7</f>
         <v>217.90142088369484</v>
@@ -6086,8 +6073,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="D9" s="16">
         <v>43493</v>
       </c>
@@ -6112,8 +6103,12 @@
         <f t="shared" si="2"/>
         <v>54.054054054054056</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="48">
+        <f t="shared" si="3"/>
+        <v>45.945945945945944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="D10" s="16">
         <v>43494</v>
       </c>
@@ -6138,8 +6133,12 @@
         <f t="shared" si="2"/>
         <v>53.469685902118336</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="48">
+        <f t="shared" si="3"/>
+        <v>46.530314097881664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="D11" s="16">
         <v>43495</v>
       </c>
@@ -6164,8 +6163,12 @@
         <f t="shared" si="2"/>
         <v>51.051486584481509</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="48">
+        <f t="shared" si="3"/>
+        <v>48.948513415518491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="D12" s="16">
         <v>43496</v>
       </c>
@@ -6190,8 +6193,12 @@
         <f t="shared" si="2"/>
         <v>49.602313810556758</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="48">
+        <f t="shared" si="3"/>
+        <v>50.397686189443242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="D13" s="16">
         <v>43497</v>
       </c>
@@ -6216,8 +6223,12 @@
         <f t="shared" si="2"/>
         <v>47.270114942528735</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="48">
+        <f t="shared" si="3"/>
+        <v>52.729885057471265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="D14" s="16">
         <v>43498</v>
       </c>
@@ -6233,8 +6244,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="D15" s="16">
         <v>43499</v>
       </c>
@@ -6250,8 +6262,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="D16" s="16">
         <v>43500</v>
       </c>
@@ -6267,8 +6280,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="4:10">
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="4:11">
       <c r="D17" s="16">
         <v>43501</v>
       </c>
@@ -6284,8 +6298,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:10">
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="4:11">
       <c r="D18" s="16">
         <v>43502</v>
       </c>
@@ -6301,8 +6316,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="4:10">
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="4:11">
       <c r="D19" s="16">
         <v>43503</v>
       </c>
@@ -6318,8 +6334,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="4:10">
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="4:11">
       <c r="D20" s="16">
         <v>43504</v>
       </c>
@@ -6335,8 +6352,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="4:10">
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="4:11">
       <c r="D21" s="16">
         <v>43505</v>
       </c>
@@ -6352,8 +6370,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="4:10">
+      <c r="K21" s="48"/>
+    </row>
+    <row r="22" spans="4:11">
       <c r="D22" s="16">
         <v>43506</v>
       </c>
@@ -6369,8 +6388,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="4:10">
+      <c r="K22" s="48"/>
+    </row>
+    <row r="23" spans="4:11">
       <c r="D23" s="16">
         <v>43507</v>
       </c>
@@ -6395,6 +6415,148 @@
         <f t="shared" si="2"/>
         <v>42.038216560509554</v>
       </c>
+      <c r="K23" s="48">
+        <f t="shared" si="3"/>
+        <v>57.961783439490446</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24" s="16">
+        <v>43508</v>
+      </c>
+      <c r="E24" s="82">
+        <v>3245</v>
+      </c>
+      <c r="F24" s="82">
+        <v>3205</v>
+      </c>
+      <c r="G24" s="48">
+        <v>3513</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="I24" s="48">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="J24" s="48">
+        <f t="shared" si="2"/>
+        <v>31.557093425605537</v>
+      </c>
+      <c r="K24" s="48">
+        <f t="shared" si="3"/>
+        <v>68.44290657439447</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25" s="16">
+        <v>43509</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26" s="16">
+        <v>43510</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27" s="16">
+        <v>43511</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28" s="16">
+        <v>43512</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="48"/>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29" s="16">
+        <v>43513</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="48"/>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30" s="16">
+        <v>43514</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
   <si>
     <r>
       <rPr>
@@ -1213,10 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广发货币B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1225,10 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广发中证500ETF联接(LOF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1261,7 +1253,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002903</t>
+    <t>博时宏观回报债券B</t>
+  </si>
+  <si>
+    <t>051016</t>
+  </si>
+  <si>
+    <t>易方达增强回报债券B</t>
+  </si>
+  <si>
+    <t>110018</t>
+  </si>
+  <si>
+    <t>易方达稳健收益债券B</t>
+  </si>
+  <si>
+    <t>110008</t>
+  </si>
+  <si>
+    <t>易方达信用债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>广发聚财信用债券B</t>
+  </si>
+  <si>
+    <t>270030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞稳健收益债券C类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1492,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,6 +1538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,7 +1638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,6 +1935,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3672,10 +3712,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB78"/>
+  <dimension ref="B1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3827,7 +3867,7 @@
       <c r="B3" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="59">
@@ -4001,7 +4041,7 @@
       <c r="B7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="100" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="59">
@@ -4016,22 +4056,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
-      <c r="B8" s="38" t="s">
-        <v>189</v>
+    <row r="8" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="D8" s="59">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8" s="59">
         <v>0</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="I8" s="52"/>
-      <c r="P8" s="38"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="Q8" s="34" t="s">
         <v>95</v>
       </c>
@@ -4051,142 +4096,118 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="59">
-        <v>25</v>
-      </c>
-      <c r="E9" s="59">
-        <v>0</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="Q9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" s="12" customFormat="1" ht="16.5">
-      <c r="B10" s="28" t="s">
+    <row r="9" spans="2:28" s="12" customFormat="1" ht="16.5">
+      <c r="B9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C9" s="100">
         <v>485011</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D9" s="61">
         <v>1000</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="62">
+        <v>40406</v>
+      </c>
+      <c r="H9" s="63">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I9" s="64">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J9" s="63">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K9" s="63">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L9" s="63">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M9" s="63">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="12" customFormat="1">
+      <c r="B10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61">
+        <v>5148</v>
+      </c>
       <c r="F10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="62">
-        <v>40406</v>
-      </c>
-      <c r="H10" s="63">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I10" s="64">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J10" s="63">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="K10" s="63">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L10" s="63">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M10" s="63">
-        <v>0.79490000000000005</v>
+        <v>64</v>
+      </c>
+      <c r="G10" s="33">
+        <v>41429</v>
+      </c>
+      <c r="H10" s="31">
+        <v>2.8E-3</v>
+      </c>
+      <c r="I10" s="53">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J10" s="31">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K10" s="31">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0.1108</v>
+      </c>
+      <c r="M10" s="31">
+        <v>0.53739999999999999</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>89</v>
+        <v>155</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:28" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>79</v>
+        <v>200</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>201</v>
       </c>
       <c r="D11" s="61"/>
-      <c r="E11" s="61">
-        <v>5148</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="33">
-        <v>41429</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I11" s="53">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J11" s="31">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K11" s="31">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0.1108</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="28">
-        <v>110018</v>
+        <v>198</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>199</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
-      <c r="F12" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="33"/>
       <c r="H12" s="31"/>
       <c r="I12" s="53"/>
@@ -4195,701 +4216,777 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
     </row>
-    <row r="13" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:28" s="12" customFormat="1">
+      <c r="B13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:28" s="12" customFormat="1">
+      <c r="B14" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:28" s="12" customFormat="1">
+      <c r="B15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="28">
+        <v>110018</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:28" s="21" customFormat="1">
+      <c r="B16" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:16" s="21" customFormat="1" ht="16.5">
+      <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C17" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D17" s="49">
         <v>2637</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E17" s="49">
         <v>4091</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G17" s="23">
         <v>41255</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H17" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I17" s="55">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J17" s="24">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K17" s="24">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L17" s="24">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M17" s="24">
         <v>0.39169999999999999</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P17" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="16.5">
-      <c r="B14" t="s">
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C18" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D18" s="49">
         <v>5362</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E18" s="49">
         <v>3997</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G18" s="16">
         <v>41519</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H18" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I18" s="54">
         <v>2.76E-2</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J18" s="17">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K18" s="17">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L18" s="17">
         <v>0.1229</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M18" s="17">
         <v>0.34060000000000001</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P18" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:28" s="21" customFormat="1" ht="16.5">
-      <c r="B15" s="39" t="s">
+    <row r="19" spans="2:16" s="21" customFormat="1" ht="16.5">
+      <c r="B19" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C19" s="100" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="25">
-        <v>41341</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I15" s="55">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J15" s="24">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K15" s="24">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L15" s="24">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M15" s="24">
-        <v>0.25140000000000001</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="16.5">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="49">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="49">
-        <v>1880</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I16" s="56">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J16" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K16" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L16" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="14.25">
-      <c r="B17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="49">
-        <v>1200</v>
-      </c>
-      <c r="E17" s="49">
-        <v>2583</v>
-      </c>
-      <c r="N17" t="s">
-        <v>153</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="14.25">
-      <c r="B18" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="49">
-        <v>1300</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="2:16" ht="14.25">
-      <c r="B19" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>157</v>
       </c>
       <c r="D19" s="49">
         <v>1000</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="20">
-        <v>270014</v>
-      </c>
-      <c r="E20" s="49"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" t="s">
+      <c r="E19" s="61">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="25">
+        <v>41341</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I19" s="55">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J19" s="24">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K19" s="24">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L19" s="24">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16.5">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="49">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1880</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H20" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I20" s="56">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L20" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="14.25">
+      <c r="B21" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="49">
+        <v>2583</v>
+      </c>
+      <c r="N21" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="14.25">
+      <c r="B22" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="2:16" ht="14.25">
+      <c r="B23" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="49">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" ht="14.25">
+      <c r="B24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="49">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D25" s="49">
         <v>5000</v>
       </c>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" t="s">
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="I23" s="54"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="I25" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="I26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="74">
-        <f>SUM(J27:J31)</f>
-        <v>48463</v>
-      </c>
-      <c r="K26" s="7"/>
+      <c r="E26" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="I27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="74">
-        <f>SUM(D13:D19)</f>
-        <v>14499</v>
-      </c>
-      <c r="K27" s="65">
-        <f>J27/J26</f>
-        <v>0.29917669149660564</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="I28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="74">
-        <f>SUM(D5:D12)</f>
-        <v>3889</v>
-      </c>
-      <c r="K28" s="65">
-        <f>J28/J26</f>
-        <v>8.0246786208034993E-2</v>
-      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="29" spans="2:16">
       <c r="I29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="58"/>
+      <c r="K29" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="I30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="74">
+        <f>SUM(J31:J35)</f>
+        <v>48463</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="I31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="74">
+        <f>SUM(D17:D24)</f>
+        <v>14499</v>
+      </c>
+      <c r="K31" s="65">
+        <f>J31/J30</f>
+        <v>0.29917669149660564</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="I32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="74">
+        <f>SUM(D5:D15)</f>
+        <v>3889</v>
+      </c>
+      <c r="K32" s="65">
+        <f>J32/J30</f>
+        <v>8.0246786208034993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="I33" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="74">
+      <c r="J33" s="74">
         <f>SUM(D2:D4)</f>
         <v>19500</v>
       </c>
-      <c r="K29" s="65">
-        <f>J29/J26</f>
+      <c r="K33" s="65">
+        <f>J33/J30</f>
         <v>0.40236881744836267</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
-      <c r="I30" s="7" t="s">
+    <row r="34" spans="2:11">
+      <c r="I34" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J30" s="79">
-        <f>SUM(G35:G39)</f>
+      <c r="J34" s="79">
+        <f>SUM(G39:G43)</f>
         <v>5575</v>
       </c>
-      <c r="K30" s="65">
-        <f>J30/J26</f>
+      <c r="K34" s="65">
+        <f>J34/J30</f>
         <v>0.11503621319357035</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
-      <c r="I31" s="77" t="s">
+    <row r="35" spans="2:11">
+      <c r="I35" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="74">
-        <f>SUM(D20:D21)</f>
+      <c r="J35" s="74">
+        <f>SUM(D25:D25)</f>
         <v>5000</v>
       </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="I32"/>
-      <c r="J32" s="57"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="I33"/>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="I36"/>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="I37"/>
+      <c r="J37" s="57"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I34"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="8" t="s">
+      <c r="I38"/>
+      <c r="J38" s="57"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C39" s="8">
         <v>501029</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D39" s="8">
         <v>0.89400000000000002</v>
       </c>
-      <c r="E35" s="8">
-        <f>D35*1.05</f>
+      <c r="E39" s="8">
+        <f>D39*1.05</f>
         <v>0.93870000000000009</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="58">
-        <f>D35*F35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="s">
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="58">
+        <f>D39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="58"/>
+      <c r="K39" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="8">
+        <v>159905</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.381</v>
+      </c>
+      <c r="E40" s="8">
+        <f>D40*1.05</f>
+        <v>1.4500500000000001</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="58">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="74">
+        <f>SUM(J41:J45)</f>
+        <v>30815</v>
+      </c>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="58">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="74">
+        <f>SUM(E17:E24)</f>
+        <v>12551</v>
+      </c>
+      <c r="K41" s="65">
+        <f>J41/J40</f>
+        <v>0.40730163881226678</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="8">
+        <v>510900</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="E42" s="8">
+        <f>D42*1.05</f>
+        <v>1.36395</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="58">
+        <f>D42*F42</f>
+        <v>5196</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="74">
+        <f>SUM(E5:E15)</f>
+        <v>7171</v>
+      </c>
+      <c r="K42" s="65">
+        <f>J42/J40</f>
+        <v>0.23271134187895506</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E36" s="8">
-        <f>D36*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="58">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="74">
-        <f>SUM(J37:J41)</f>
-        <v>30815</v>
-      </c>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="58">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="74">
-        <f>SUM(E13:E19)</f>
-        <v>12551</v>
-      </c>
-      <c r="K37" s="65">
-        <f>J37/J36</f>
-        <v>0.40730163881226678</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="E38" s="8">
-        <f>D38*1.05</f>
-        <v>1.36395</v>
-      </c>
-      <c r="F38" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G38" s="58">
-        <f>D38*F38</f>
-        <v>5196</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="74">
-        <f>SUM(E5:E12)</f>
-        <v>7171</v>
-      </c>
-      <c r="K38" s="65">
-        <f>J38/J36</f>
-        <v>0.23271134187895506</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39">
+      <c r="G43">
         <v>379</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J43" s="74">
         <f>SUM(E2:E3)</f>
         <v>11093</v>
       </c>
-      <c r="K39" s="65">
-        <f>J39/J36</f>
+      <c r="K43" s="65">
+        <f>J43/J40</f>
         <v>0.35998701930877819</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="I40" s="7" t="s">
+    <row r="44" spans="2:11">
+      <c r="I44" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="79">
-        <v>0</v>
-      </c>
-      <c r="K40" s="65">
-        <f>J40/J36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="I41" s="77" t="s">
+      <c r="J44" s="79">
+        <v>0</v>
+      </c>
+      <c r="K44" s="65">
+        <f>J44/J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="I45" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="74">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="85">
+      <c r="J45" s="74">
+        <f>SUM(D34:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="85">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="8" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="84">
+      <c r="C67" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="84">
         <v>2559</v>
       </c>
-      <c r="E63" s="84"/>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="7"/>
-      <c r="C64" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="84">
-        <v>2520</v>
-      </c>
-      <c r="E64" s="84">
-        <f>MIN(IFERROR(D64-D63,0),0)*100*$C$61/(D63-1800)</f>
-        <v>-113.04347826086956</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="7"/>
-      <c r="C65" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="84">
-        <v>2547</v>
-      </c>
-      <c r="E65" s="84">
-        <f>(D65-D63)*100*$C$61/(D63-1800)</f>
-        <v>-34.782608695652172</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="E66" s="84">
-        <f>(D65+D64-D63*2)*100*$C$61/(D63-1800)</f>
-        <v>-147.82608695652175</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E67" s="84"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="7"/>
       <c r="C68" s="40" t="s">
         <v>187</v>
       </c>
       <c r="D68" s="84">
-        <v>1277</v>
-      </c>
-      <c r="E68" s="84"/>
-    </row>
-    <row r="69" spans="2:9">
+        <v>2520</v>
+      </c>
+      <c r="E68" s="84">
+        <f>MIN(IFERROR(D68-D67,0),0)*100*$C$65/(D67-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="7"/>
       <c r="C69" s="40" t="s">
         <v>188</v>
       </c>
       <c r="D69" s="84">
-        <v>1359</v>
+        <v>2547</v>
       </c>
       <c r="E69" s="84">
-        <f>MIN(IFERROR(D69-D68,0),0)*100*$C$61/(D68-1800)</f>
-        <v>0</v>
+        <f>(D69-D67)*100*$C$65/(D67-1800)</f>
+        <v>-34.782608695652172</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="7"/>
-      <c r="C70" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="84">
-        <v>1537</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="E70" s="84">
-        <f>(D70-D68)*100*$C$61/(D68-1000)</f>
-        <v>2064.9819494584835</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="E71" s="84">
-        <f>(D70+D69-D68*2)*100*$C$61/(D68-1000)</f>
-        <v>2716.2454873646211</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="8" t="s">
-        <v>21</v>
-      </c>
+        <f>(D69+D68-D67*2)*100*$C$65/(D67-1800)</f>
+        <v>-147.82608695652175</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="84">
+        <v>1277</v>
+      </c>
+      <c r="E72" s="84"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="7"/>
       <c r="C73" s="40" t="s">
         <v>187</v>
       </c>
       <c r="D73" s="84">
-        <v>869</v>
-      </c>
-      <c r="E73" s="84"/>
-    </row>
-    <row r="74" spans="2:9">
+        <v>1359</v>
+      </c>
+      <c r="E73" s="84">
+        <f>MIN(IFERROR(D73-D72,0),0)*100*$C$65/(D72-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="7"/>
       <c r="C74" s="40" t="s">
         <v>188</v>
       </c>
       <c r="D74" s="84">
+        <v>1537</v>
+      </c>
+      <c r="E74" s="84">
+        <f>(D74-D72)*100*$C$65/(D72-1000)</f>
+        <v>2064.9819494584835</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="E75" s="84">
+        <f>(D74+D73-D72*2)*100*$C$65/(D72-1000)</f>
+        <v>2716.2454873646211</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="84">
+        <v>869</v>
+      </c>
+      <c r="E77" s="84"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="7"/>
+      <c r="C78" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="84">
         <v>877</v>
       </c>
-      <c r="E74" s="84">
-        <f>MIN(IFERROR(D74-D73,0),0)*100*$C$61/(D73-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="7"/>
-      <c r="C75" s="40" t="s">
+      <c r="E78" s="84">
+        <f>MIN(IFERROR(D78-D77,0),0)*100*$C$65/(D77-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="84">
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="7"/>
+      <c r="C79" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="84">
         <v>958</v>
       </c>
-      <c r="E75" s="84">
-        <f>(D75-D73)*100*$C$61/(D73-800)</f>
+      <c r="E79" s="84">
+        <f>(D79-D77)*100*$C$65/(D77-800)</f>
         <v>2837.68115942029</v>
       </c>
-      <c r="F75" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="E76" s="84">
-        <f>(D75+D74-D73*2)*100*$C$61/(D73-800)</f>
+      <c r="F79" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="E80" s="84">
+        <f>(D79+D78-D77*2)*100*$C$65/(D77-800)</f>
         <v>3092.753623188406</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="C77"/>
-      <c r="D77" s="57"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="I77"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="C78"/>
-      <c r="D78" s="57"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="I78"/>
+    <row r="81" spans="3:9">
+      <c r="C81"/>
+      <c r="D81" s="57"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82"/>
+      <c r="D82" s="57"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="I82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5840,10 +5937,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="E1" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>187</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>188</v>
       </c>
       <c r="G1" s="81" t="s">
         <v>184</v>
@@ -6582,10 +6679,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="E1" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>187</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>188</v>
       </c>
       <c r="G1" s="81" t="s">
         <v>184</v>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="209">
   <si>
     <r>
       <rPr>
@@ -1290,6 +1290,10 @@
   </si>
   <si>
     <t>460108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月增长低于1.7的不投</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3714,8 +3718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4549,6 +4553,9 @@
       </c>
     </row>
     <row r="30" spans="2:16">
+      <c r="B30" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="I30" s="7" t="s">
         <v>140</v>
       </c>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -661,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大成景兴信用债债券C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,10 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.03亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60%-%80机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +774,6 @@
   </si>
   <si>
     <t>070009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1069,10 +1057,6 @@
   </si>
   <si>
     <t>债券（含可转换债券）等固定收益类资产占基金资产的比例不低于 80％，股票等权益类资产占基金资产的比例不超过 20％，基金持有现金及到期日在一年以内的政府债券占基金资产净值的比例不低于 5%，其中现金不包括结算备付金、存出保证金和应收申购款等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>债券资产占基金资产的比例不低于 80%；每个交易日日终在扣除国债期货合约需缴纳的交易保证金后，本基金持有的现金（不包括结算备付金、存出保证金、应收申购款等） 及到期日在一年以内的政府债券占基金资产净值的比例不低于 5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3393,7 +3377,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -3716,10 +3700,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB82"/>
+  <dimension ref="B1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3744,13 +3728,13 @@
         <v>40</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>33</v>
@@ -3774,18 +3758,18 @@
         <v>38</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="28">
         <v>519976</v>
@@ -3798,7 +3782,7 @@
         <v>5093</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="29">
         <v>40998</v>
@@ -3822,57 +3806,57 @@
         <v>1.1455</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" s="35" t="s">
+      <c r="Y2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="X2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB2" s="35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B3" s="44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="59">
         <v>9000</v>
@@ -3883,7 +3867,7 @@
       <c r="F3" s="28"/>
       <c r="I3" s="52"/>
       <c r="P3" s="38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
@@ -3906,51 +3890,51 @@
       </c>
       <c r="I4" s="52"/>
       <c r="P4" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="U4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>103</v>
-      </c>
       <c r="X4" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Z4" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AA4" s="34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="59">
         <v>1864</v>
@@ -3959,7 +3943,7 @@
         <v>1019</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="33">
         <v>39974</v>
@@ -3983,51 +3967,51 @@
         <v>1.3714999999999999</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R5" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S5" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V5" s="35" t="s">
+      <c r="Y5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB5" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="W5" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB5" s="35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:28" s="12" customFormat="1" ht="14.25">
       <c r="B6" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="59">
         <v>0</v>
@@ -4038,15 +4022,15 @@
       <c r="F6" s="28"/>
       <c r="I6" s="52"/>
       <c r="P6" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B7" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="59">
         <v>1000</v>
@@ -4057,15 +4041,15 @@
       <c r="F7" s="28"/>
       <c r="I7" s="52"/>
       <c r="P7" s="38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="59">
         <v>25</v>
@@ -4082,27 +4066,27 @@
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="Q8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="U8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="V8" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:28" s="12" customFormat="1" ht="16.5">
       <c r="B9" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="100">
         <v>485011</v>
@@ -4112,7 +4096,7 @@
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="62">
         <v>40406</v>
@@ -4136,60 +4120,36 @@
         <v>0.79490000000000005</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:28" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>79</v>
+        <v>196</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>197</v>
       </c>
       <c r="D10" s="61"/>
-      <c r="E10" s="61">
-        <v>5148</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="33">
-        <v>41429</v>
-      </c>
-      <c r="H10" s="31">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I10" s="53">
-        <v>1.37E-2</v>
-      </c>
-      <c r="J10" s="31">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K10" s="31">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="L10" s="31">
-        <v>0.1108</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0.53739999999999999</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="2:28" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -4204,10 +4164,10 @@
     </row>
     <row r="12" spans="2:28" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -4222,10 +4182,10 @@
     </row>
     <row r="13" spans="2:28" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
@@ -4240,14 +4200,16 @@
     </row>
     <row r="14" spans="2:28" s="12" customFormat="1">
       <c r="B14" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>205</v>
+        <v>159</v>
+      </c>
+      <c r="C14" s="28">
+        <v>110018</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>188</v>
+      </c>
       <c r="G14" s="33"/>
       <c r="H14" s="31"/>
       <c r="I14" s="53"/>
@@ -4256,725 +4218,712 @@
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="2:28" s="12" customFormat="1">
-      <c r="B15" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="28">
-        <v>110018</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" spans="2:28" s="21" customFormat="1">
+    <row r="15" spans="2:28" s="21" customFormat="1">
+      <c r="B15" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="2:28" s="21" customFormat="1" ht="16.5">
       <c r="B16" s="21" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="2:16" s="21" customFormat="1" ht="16.5">
-      <c r="B17" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="49">
+        <v>2637</v>
+      </c>
+      <c r="E16" s="49">
+        <v>4091</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="23">
+        <v>41255</v>
+      </c>
+      <c r="H16" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I16" s="55">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K16" s="24">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L16" s="24">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.5">
+      <c r="B17" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" s="49">
-        <v>2637</v>
+        <v>5362</v>
       </c>
       <c r="E17" s="49">
-        <v>4091</v>
+        <v>3997</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="23">
-        <v>41255</v>
-      </c>
-      <c r="H17" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I17" s="55">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K17" s="24">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L17" s="24">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M17" s="24">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41519</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="54">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.1229</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.34060000000000001</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.5">
-      <c r="B18" t="s">
-        <v>57</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="21" customFormat="1" ht="16.5">
+      <c r="B18" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="49">
-        <v>5362</v>
-      </c>
-      <c r="E18" s="49">
-        <v>3997</v>
+        <v>1000</v>
+      </c>
+      <c r="E18" s="61">
+        <v>0</v>
       </c>
       <c r="F18" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="25">
+        <v>41341</v>
+      </c>
+      <c r="H18" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I18" s="55">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J18" s="24">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L18" s="24">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.5">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="49">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="49">
+        <v>1880</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="16">
-        <v>41519</v>
-      </c>
-      <c r="H18" s="17">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I18" s="54">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J18" s="17">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0.1229</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" s="21" customFormat="1" ht="16.5">
-      <c r="B19" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="25">
-        <v>41341</v>
-      </c>
-      <c r="H19" s="24">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I19" s="55">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J19" s="24">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K19" s="24">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L19" s="24">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M19" s="24">
-        <v>0.25140000000000001</v>
+      <c r="G19" s="16">
+        <v>41478</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I19" s="56">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K19" s="17">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L19" s="17">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.35639999999999999</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="16.5">
-      <c r="B20" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.25">
+      <c r="B20" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D20" s="49">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="49">
-        <v>1880</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="16">
-        <v>41478</v>
-      </c>
-      <c r="H20" s="17">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I20" s="56">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K20" s="17">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>82</v>
+        <v>2583</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25">
       <c r="B21" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="49">
-        <v>1200</v>
-      </c>
-      <c r="E21" s="49">
-        <v>2583</v>
-      </c>
-      <c r="N21" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>121</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="42" t="s">
-        <v>206</v>
+      <c r="B22" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="49"/>
+        <v>160</v>
+      </c>
+      <c r="D22" s="49">
+        <v>1300</v>
+      </c>
       <c r="E22" s="49"/>
       <c r="P22" s="43"/>
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>153</v>
       </c>
       <c r="D23" s="49">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="49"/>
       <c r="P23" s="43"/>
     </row>
-    <row r="24" spans="2:16" ht="14.25">
-      <c r="B24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="100" t="s">
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="49">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="49"/>
-      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="49">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="49"/>
+        <v>147</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="I27" s="54"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="I28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="2:16">
+      <c r="B29" s="12" t="s">
+        <v>204</v>
+      </c>
       <c r="I29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J29" s="74">
+        <f>SUM(J30:J34)</f>
+        <v>48463</v>
+      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="I30" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J30" s="74">
-        <f>SUM(J31:J35)</f>
-        <v>48463</v>
-      </c>
-      <c r="K30" s="7"/>
+        <f>SUM(D16:D23)</f>
+        <v>14499</v>
+      </c>
+      <c r="K30" s="65">
+        <f>J30/J29</f>
+        <v>0.29917669149660564</v>
+      </c>
     </row>
     <row r="31" spans="2:16">
       <c r="I31" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J31" s="74">
-        <f>SUM(D17:D24)</f>
-        <v>14499</v>
+        <f>SUM(D5:D14)</f>
+        <v>3889</v>
       </c>
       <c r="K31" s="65">
-        <f>J31/J30</f>
-        <v>0.29917669149660564</v>
+        <f>J31/J29</f>
+        <v>8.0246786208034993E-2</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="I32" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J32" s="74">
-        <f>SUM(D5:D15)</f>
-        <v>3889</v>
+        <f>SUM(D2:D4)</f>
+        <v>19500</v>
       </c>
       <c r="K32" s="65">
-        <f>J32/J30</f>
-        <v>8.0246786208034993E-2</v>
+        <f>J32/J29</f>
+        <v>0.40236881744836267</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="I33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="74">
-        <f>SUM(D2:D4)</f>
-        <v>19500</v>
+        <v>138</v>
+      </c>
+      <c r="J33" s="79">
+        <f>SUM(G38:G42)</f>
+        <v>5575</v>
       </c>
       <c r="K33" s="65">
-        <f>J33/J30</f>
-        <v>0.40236881744836267</v>
+        <f>J33/J29</f>
+        <v>0.11503621319357035</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="I34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="79">
-        <f>SUM(G39:G43)</f>
-        <v>5575</v>
-      </c>
-      <c r="K34" s="65">
-        <f>J34/J30</f>
-        <v>0.11503621319357035</v>
-      </c>
+      <c r="I34" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="74">
+        <f>SUM(D24:D24)</f>
+        <v>5000</v>
+      </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="I35" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="74">
-        <f>SUM(D25:D25)</f>
-        <v>5000</v>
-      </c>
-      <c r="K35" s="7"/>
+      <c r="I35"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="2:11">
       <c r="I36"/>
       <c r="J36" s="57"/>
     </row>
     <row r="37" spans="2:11">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I37"/>
       <c r="J37" s="57"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" s="57"/>
+      <c r="B38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58">
+        <f>D38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="58"/>
+      <c r="K38" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8">
-        <v>501029</v>
+        <v>159905</v>
       </c>
       <c r="D39" s="8">
-        <v>0.89400000000000002</v>
+        <v>1.381</v>
       </c>
       <c r="E39" s="8">
         <f>D39*1.05</f>
-        <v>0.93870000000000009</v>
+        <v>1.4500500000000001</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="58">
-        <f>D39*F39</f>
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="58"/>
-      <c r="K39" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J39" s="74">
+        <f>SUM(J40:J44)</f>
+        <v>25667</v>
+      </c>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C40" s="8">
-        <v>159905</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1.381</v>
-      </c>
-      <c r="E40" s="8">
-        <f>D40*1.05</f>
-        <v>1.4500500000000001</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
+        <v>510880</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="58">
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J40" s="74">
-        <f>SUM(J41:J45)</f>
-        <v>30815</v>
-      </c>
-      <c r="K40" s="7"/>
+        <f>SUM(E16:E23)</f>
+        <v>12551</v>
+      </c>
+      <c r="K40" s="65">
+        <f>J40/J39</f>
+        <v>0.48899364943312423</v>
+      </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8">
-        <v>510880</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+        <v>510900</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="E41" s="8">
+        <f>D41*1.05</f>
+        <v>1.36395</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4000</v>
+      </c>
       <c r="G41" s="58">
-        <v>0</v>
+        <f>D41*F41</f>
+        <v>5196</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J41" s="74">
-        <f>SUM(E17:E24)</f>
-        <v>12551</v>
+        <f>SUM(E5:E14)</f>
+        <v>2023</v>
       </c>
       <c r="K41" s="65">
-        <f>J41/J40</f>
-        <v>0.40730163881226678</v>
+        <f>J41/J39</f>
+        <v>7.8817158218724426E-2</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="E42" s="8">
-        <f>D42*1.05</f>
-        <v>1.36395</v>
-      </c>
-      <c r="F42" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G42" s="58">
-        <f>D42*F42</f>
-        <v>5196</v>
+      <c r="B42" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42">
+        <v>379</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J42" s="74">
-        <f>SUM(E5:E15)</f>
-        <v>7171</v>
-      </c>
-      <c r="K42" s="65">
-        <f>J42/J40</f>
-        <v>0.23271134187895506</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43">
-        <v>379</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="74">
         <f>SUM(E2:E3)</f>
         <v>11093</v>
       </c>
+      <c r="K42" s="65">
+        <f>J42/J39</f>
+        <v>0.43218919234815134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="I43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="79">
+        <v>0</v>
+      </c>
       <c r="K43" s="65">
-        <f>J43/J40</f>
-        <v>0.35998701930877819</v>
+        <f>J43/J39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="I44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" s="79">
-        <v>0</v>
-      </c>
-      <c r="K44" s="65">
-        <f>J44/J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="I45" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="74">
-        <f>SUM(D34:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="85">
+      <c r="I44" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="J44" s="74">
+        <f>SUM(D33:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="85">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="8" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="C66" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="84">
+        <v>2559</v>
+      </c>
+      <c r="E66" s="84"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="7"/>
       <c r="C67" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="84">
+        <v>2520</v>
+      </c>
+      <c r="E67" s="84">
+        <f>MIN(IFERROR(D67-D66,0),0)*100*$C$64/(D66-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="84">
-        <v>2559</v>
-      </c>
-      <c r="E67" s="84"/>
-    </row>
-    <row r="68" spans="2:6">
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" s="7"/>
       <c r="C68" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D68" s="84">
-        <v>2520</v>
+        <v>2547</v>
       </c>
       <c r="E68" s="84">
-        <f>MIN(IFERROR(D68-D67,0),0)*100*$C$65/(D67-1800)</f>
-        <v>-113.04347826086956</v>
+        <f>(D68-D66)*100*$C$64/(D66-1800)</f>
+        <v>-34.782608695652172</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="7"/>
-      <c r="C69" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="84">
-        <v>2547</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="E69" s="84">
-        <f>(D69-D67)*100*$C$65/(D67-1800)</f>
-        <v>-34.782608695652172</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="E70" s="84">
-        <f>(D69+D68-D67*2)*100*$C$65/(D67-1800)</f>
+        <f>(D68+D67-D66*2)*100*$C$64/(D66-1800)</f>
         <v>-147.82608695652175</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="8" t="s">
+    <row r="71" spans="2:9">
+      <c r="B71" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="C71" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="84">
+        <v>1277</v>
+      </c>
+      <c r="E71" s="84"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7"/>
       <c r="C72" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="84">
+        <v>1359</v>
+      </c>
+      <c r="E72" s="84">
+        <f>MIN(IFERROR(D72-D71,0),0)*100*$C$64/(D71-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="84">
-        <v>1277</v>
-      </c>
-      <c r="E72" s="84"/>
-    </row>
-    <row r="73" spans="2:6">
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" s="7"/>
       <c r="C73" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D73" s="84">
-        <v>1359</v>
+        <v>1537</v>
       </c>
       <c r="E73" s="84">
-        <f>MIN(IFERROR(D73-D72,0),0)*100*$C$65/(D72-1800)</f>
-        <v>0</v>
+        <f>(D73-D71)*100*$C$64/(D71-1000)</f>
+        <v>2064.9819494584835</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="7"/>
-      <c r="C74" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="84">
-        <v>1537</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="E74" s="84">
-        <f>(D74-D72)*100*$C$65/(D72-1000)</f>
-        <v>2064.9819494584835</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="E75" s="84">
-        <f>(D74+D73-D72*2)*100*$C$65/(D72-1000)</f>
+        <f>(D73+D72-D71*2)*100*$C$64/(D71-1000)</f>
         <v>2716.2454873646211</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="8" t="s">
+    <row r="76" spans="2:9">
+      <c r="B76" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="C76" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="84">
+        <v>869</v>
+      </c>
+      <c r="E76" s="84"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="7"/>
       <c r="C77" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="84">
+        <v>877</v>
+      </c>
+      <c r="E77" s="84">
+        <f>MIN(IFERROR(D77-D76,0),0)*100*$C$64/(D76-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="84">
-        <v>869</v>
-      </c>
-      <c r="E77" s="84"/>
-    </row>
-    <row r="78" spans="2:6">
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="7"/>
       <c r="C78" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D78" s="84">
-        <v>877</v>
+        <v>958</v>
       </c>
       <c r="E78" s="84">
-        <f>MIN(IFERROR(D78-D77,0),0)*100*$C$65/(D77-1800)</f>
-        <v>0</v>
+        <f>(D78-D76)*100*$C$64/(D76-800)</f>
+        <v>2837.68115942029</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="7"/>
-      <c r="C79" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="84">
-        <v>958</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="E79" s="84">
-        <f>(D79-D77)*100*$C$65/(D77-800)</f>
-        <v>2837.68115942029</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="E80" s="84">
-        <f>(D79+D78-D77*2)*100*$C$65/(D77-800)</f>
+        <f>(D78+D77-D76*2)*100*$C$64/(D76-800)</f>
         <v>3092.753623188406</v>
       </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="C80"/>
+      <c r="D80" s="57"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="3:9">
       <c r="C81"/>
@@ -4983,17 +4932,10 @@
       <c r="F81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="3:9">
-      <c r="C82"/>
-      <c r="D82" s="57"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="I82"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B20" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5017,12 +4959,12 @@
   <sheetData>
     <row r="5" spans="2:2" ht="14.25">
       <c r="B5" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="73" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5048,16 +4990,16 @@
   <sheetData>
     <row r="17" spans="3:14">
       <c r="E17" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I17" s="40">
         <v>15</v>
@@ -5080,7 +5022,7 @@
     </row>
     <row r="18" spans="3:14">
       <c r="E18" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="40">
         <v>70</v>
@@ -5101,10 +5043,10 @@
         <v>25</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N18" s="41">
         <v>0</v>
@@ -5112,7 +5054,7 @@
     </row>
     <row r="19" spans="3:14">
       <c r="E19" s="40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F19" s="40">
         <v>30</v>
@@ -5133,10 +5075,10 @@
         <v>75</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N19" s="41">
         <v>100</v>
@@ -5158,10 +5100,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K20" s="41">
         <v>0</v>
@@ -5169,10 +5111,10 @@
     </row>
     <row r="22" spans="3:14">
       <c r="D22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -5183,7 +5125,7 @@
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
       <c r="E28" s="98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F28" s="98"/>
       <c r="G28" s="98"/>
@@ -5222,22 +5164,22 @@
     <row r="9" spans="7:13">
       <c r="G9" s="76"/>
       <c r="H9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="10" spans="7:13">
@@ -5537,7 +5479,7 @@
         <v>510900</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D29" s="46">
         <v>1.177</v>
@@ -5545,18 +5487,18 @@
     </row>
     <row r="30" spans="1:13">
       <c r="C30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D30" s="7">
         <v>0.03</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="C31" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D31" s="7">
         <v>0.05</v>
@@ -5564,7 +5506,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="C32" s="77" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D32" s="77">
         <v>0</v>
@@ -5572,19 +5514,19 @@
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F35" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="77" t="s">
         <v>173</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="77" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36" spans="5:9">
@@ -5929,7 +5871,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K30"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5944,21 +5886,21 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="E1" s="81" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" s="81" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G1" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>3089</v>
@@ -5994,7 +5936,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>3561</v>
@@ -6030,7 +5972,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <f>3089*0.9</f>
@@ -6097,7 +6039,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <f>B2^10*25/(B4*0.98)^10</f>
@@ -6558,19 +6500,31 @@
       <c r="D25" s="16">
         <v>43509</v>
       </c>
+      <c r="E25" s="82">
+        <v>3287</v>
+      </c>
+      <c r="F25" s="82">
+        <v>3205</v>
+      </c>
+      <c r="G25" s="48">
+        <v>3509</v>
+      </c>
       <c r="H25" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J25" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="48"/>
+        <v>18.829858776059179</v>
+      </c>
+      <c r="K25" s="48">
+        <f t="shared" si="3"/>
+        <v>81.170141223940817</v>
+      </c>
     </row>
     <row r="26" spans="4:11">
       <c r="D26" s="16">
@@ -6588,7 +6542,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="48"/>
+      <c r="K26" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="4:11">
       <c r="D27" s="16">
@@ -6606,7 +6563,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="48"/>
+      <c r="K27" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="4:11">
       <c r="D28" s="16">
@@ -6624,7 +6584,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="48"/>
+      <c r="K28" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="4:11">
       <c r="D29" s="16">
@@ -6642,7 +6605,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="48"/>
+      <c r="K29" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="4:11">
       <c r="D30" s="16">
@@ -6660,7 +6626,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="48"/>
+      <c r="K30" s="48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6686,21 +6655,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="E1" s="81" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F1" s="81" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G1" s="81" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>3089</v>
@@ -6732,7 +6701,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>3561</v>
@@ -6740,7 +6709,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <f>3089*0.9</f>
@@ -6749,7 +6718,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B6">
         <f>B2^10*25/(B4*0.98)^10</f>
@@ -6790,15 +6759,15 @@
   <sheetData>
     <row r="1" spans="2:24" s="93" customFormat="1" ht="19.5">
       <c r="B1" s="86" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
       <c r="F1" s="87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="89">
         <v>42268</v>
@@ -6823,20 +6792,20 @@
       </c>
       <c r="O1" s="94"/>
       <c r="P1" s="95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:24" s="93" customFormat="1" ht="16.5">
       <c r="B2" s="87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
       <c r="F2" s="87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="96">
         <v>42744</v>
@@ -6854,7 +6823,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="P2" s="95" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="66" customFormat="1" ht="17.25" thickBot="1">
@@ -6862,14 +6831,14 @@
         <v>45</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="68">
         <v>0</v>
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="69">
         <v>38833</v>
@@ -6893,15 +6862,15 @@
         <v>0.5514</v>
       </c>
       <c r="O3" s="66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P3" s="72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28">
         <v>340001</v>
@@ -6917,31 +6886,31 @@
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
       <c r="P4" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W4" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,25 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="7"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
-    <sheet name="定投" sheetId="3" r:id="rId2"/>
-    <sheet name="笔记" sheetId="4" r:id="rId3"/>
-    <sheet name="古债平衡" sheetId="8" r:id="rId4"/>
-    <sheet name="H股ETF" sheetId="9" r:id="rId5"/>
-    <sheet name="红利ETF" sheetId="13" r:id="rId6"/>
-    <sheet name="300" sheetId="10" r:id="rId7"/>
-    <sheet name="500" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
+    <sheet name="定投" sheetId="3" r:id="rId3"/>
+    <sheet name="笔记" sheetId="4" r:id="rId4"/>
+    <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
+    <sheet name="H股ETF" sheetId="9" r:id="rId6"/>
+    <sheet name="红利ETF" sheetId="13" r:id="rId7"/>
+    <sheet name="300" sheetId="10" r:id="rId8"/>
+    <sheet name="500" sheetId="12" r:id="rId9"/>
+    <sheet name="cyb" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="251">
   <si>
     <r>
       <rPr>
@@ -1103,10 +1108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博时宏观回报债券B</t>
   </si>
   <si>
@@ -1214,6 +1215,218 @@
   </si>
   <si>
     <t>极度高估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>净值</t>
+  </si>
+  <si>
+    <t>累计净值</t>
+  </si>
+  <si>
+    <t>上日净值</t>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+  </si>
+  <si>
+    <t>净值日期</t>
+  </si>
+  <si>
+    <t>华夏上证50ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh511010</t>
+  </si>
+  <si>
+    <t>国泰上证5年期国债ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh511210</t>
+  </si>
+  <si>
+    <t>博时上证企债30ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh518800</t>
+  </si>
+  <si>
+    <t>国泰黄金ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh518880</t>
+  </si>
+  <si>
+    <t>华安黄金易(ETF)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510660</t>
+  </si>
+  <si>
+    <t>华夏医药ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510610</t>
+  </si>
+  <si>
+    <t>华夏能源ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510170</t>
+  </si>
+  <si>
+    <t>国联安商品ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510630</t>
+  </si>
+  <si>
+    <t>华夏消费ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510620</t>
+  </si>
+  <si>
+    <t>华夏材料ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh510230</t>
+  </si>
+  <si>
+    <t>金融ETF</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150118</t>
+  </si>
+  <si>
+    <t>国泰国证房地产行业指数分级B</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150019</t>
+  </si>
+  <si>
+    <t>银华锐进</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150144</t>
+  </si>
+  <si>
+    <t>银华中证转债指数增强分级B</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of163109</t>
+  </si>
+  <si>
+    <t>申万菱信深证成指分级</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150022</t>
+  </si>
+  <si>
+    <t>申万菱信深证成指分级收益</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150023</t>
+  </si>
+  <si>
+    <t>申万菱信深证成指分级进取</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of121099</t>
+  </si>
+  <si>
+    <t>瑞福分级</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of121007</t>
+  </si>
+  <si>
+    <t>瑞福优先</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz150001</t>
+  </si>
+  <si>
+    <t>瑞福进取</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sz163801</t>
+  </si>
+  <si>
+    <t>中银中国混合(LOF)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of040002</t>
+  </si>
+  <si>
+    <t>华安中国A股增强指数</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of202110</t>
+  </si>
+  <si>
+    <t>南方润元C</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of162703</t>
+  </si>
+  <si>
+    <t>广发小盘成长混合(LOF)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of070031</t>
+  </si>
+  <si>
+    <t>嘉实全球房地产(QDII)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>of202213</t>
+  </si>
+  <si>
+    <t>南方核心竞争混合</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh519976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1227,7 +1440,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1602,63 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1434,7 +1704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1505,8 +1775,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,8 +1793,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1753,12 +2035,43 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1769,393 +2082,6 @@
     </mruColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>M5</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'300'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>43486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'300'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3182</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3147</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3149</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3154</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>m30</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'300'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>43486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'300'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'300'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M250</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'300'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>43486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'300'!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3556</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3552</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3548</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'300'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>定投额</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'300'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>43486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43488</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43489</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'300'!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>64.505263157894731</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.914529914529908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.830059777967548</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.149552620366421</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="155247744"/>
-        <c:axId val="155249280"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="155247744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="155249280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="155249280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="155247744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2205,37 +2131,100 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="E:\kebie\tushare-git\data\ETF%E9%87%8F%E5%8C%96%E5%AE%9A%E6%8A%95v2.0 - %E9%9B%86%E6%80%9D%E5%BD%95_files\dfc2fd99746abb4235eba39f46fd8a6f.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685799" y="685799"/>
+          <a:ext cx="3267075" cy="3267075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267011</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="dfc2fd99746abb4235eba39f46fd8a6f.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="6000750"/>
+          <a:ext cx="3010211" cy="1677013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="股票指数"/>
+      <sheetName val="开放式基金"/>
+      <sheetName val="贵金属"/>
+      <sheetName val="鼎级行情"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="更新开放式基金净值"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2651,13 +2640,795 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14">
+        <v>43483</v>
+      </c>
+      <c r="B2" s="72">
+        <v>1356</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1529</v>
+      </c>
+      <c r="D2" s="45">
+        <f>(C2-B2)</f>
+        <v>173</v>
+      </c>
+      <c r="E2" s="45">
+        <f>MAX(10,(D2)*100/(B2-585)*1)</f>
+        <v>22.438391699092087</v>
+      </c>
+      <c r="F2" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="I6:J8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="6" spans="9:10">
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>318686</v>
+      </c>
+    </row>
+    <row r="7" spans="9:10">
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>53408</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10">
+      <c r="J8">
+        <v>27040</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="82">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D2" s="82">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="E2" s="82">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="F2" s="84">
+        <v>-2.2599999999999999E-2</v>
+      </c>
+      <c r="G2" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="82">
+        <v>117.00700000000001</v>
+      </c>
+      <c r="D3" s="82">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="E3" s="82">
+        <v>117.017</v>
+      </c>
+      <c r="F3" s="84">
+        <v>-1E-4</v>
+      </c>
+      <c r="G3" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
+      <c r="A4" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="82">
+        <v>112.619</v>
+      </c>
+      <c r="D4" s="82">
+        <v>1.1262000000000001</v>
+      </c>
+      <c r="E4" s="82">
+        <v>113.206</v>
+      </c>
+      <c r="F4" s="84">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="G4" s="85">
+        <v>43046</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="82">
+        <v>2.8393999999999999</v>
+      </c>
+      <c r="D5" s="82">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="E5" s="82">
+        <v>2.8206000000000002</v>
+      </c>
+      <c r="F5" s="86">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="G5" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="82">
+        <v>2.8607</v>
+      </c>
+      <c r="D6" s="82">
+        <v>1.0802</v>
+      </c>
+      <c r="E6" s="82">
+        <v>2.8418999999999999</v>
+      </c>
+      <c r="F6" s="86">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G6" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="82">
+        <v>1.5310999999999999</v>
+      </c>
+      <c r="D7" s="82">
+        <v>1.5310999999999999</v>
+      </c>
+      <c r="E7" s="82">
+        <v>1.5432999999999999</v>
+      </c>
+      <c r="F7" s="84">
+        <v>-7.9000000000000008E-3</v>
+      </c>
+      <c r="G7" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="82">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="D8" s="82">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="E8" s="82">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F8" s="84">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="G8" s="85">
+        <v>42457</v>
+      </c>
+      <c r="H8" s="82"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="82">
+        <v>1.536</v>
+      </c>
+      <c r="D9" s="82">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E9" s="82">
+        <v>1.548</v>
+      </c>
+      <c r="F9" s="84">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="G9" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="82">
+        <v>2.2151000000000001</v>
+      </c>
+      <c r="D10" s="82">
+        <v>2.2151000000000001</v>
+      </c>
+      <c r="E10" s="82">
+        <v>2.2515999999999998</v>
+      </c>
+      <c r="F10" s="84">
+        <v>-1.6199999999999999E-2</v>
+      </c>
+      <c r="G10" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="82">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="D11" s="82">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="E11" s="82">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F11" s="84">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="85">
+        <v>42457</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
+      <c r="A12" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="82">
+        <v>5.1424000000000003</v>
+      </c>
+      <c r="D12" s="82">
+        <v>1.6167</v>
+      </c>
+      <c r="E12" s="82">
+        <v>5.2587999999999999</v>
+      </c>
+      <c r="F12" s="84">
+        <v>-2.2100000000000002E-2</v>
+      </c>
+      <c r="G12" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="A13" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="82">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="D13" s="82">
+        <v>2.1576</v>
+      </c>
+      <c r="E13" s="82">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F13" s="84">
+        <v>-4.53E-2</v>
+      </c>
+      <c r="G13" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
+      <c r="A14" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="82">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="D14" s="82">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E14" s="82">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F14" s="84">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="G14" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="82">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D15" s="82">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="E15" s="82">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F15" s="84">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="G15" s="85">
+        <v>43512</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="82">
+        <v>0.4481</v>
+      </c>
+      <c r="D16" s="82">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F16" s="84">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="G16" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
+      <c r="A17" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="82">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="D17" s="82">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="E17" s="82">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F17" s="84">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="G17" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
+      <c r="A18" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="82">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="D18" s="82">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="E18" s="82">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F18" s="84">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="G18" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
+      <c r="A19" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="82">
+        <v>1.45</v>
+      </c>
+      <c r="D19" s="82">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="E19" s="82">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="F19" s="86">
+        <v>1.26E-2</v>
+      </c>
+      <c r="G19" s="85">
+        <v>42229</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="82">
+        <v>1.0285</v>
+      </c>
+      <c r="D20" s="82">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E20" s="82">
+        <v>1.028</v>
+      </c>
+      <c r="F20" s="86">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G20" s="85">
+        <v>42229</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25">
+      <c r="A21" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="82">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="D21" s="82">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="E21" s="82">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="G21" s="85">
+        <v>42229</v>
+      </c>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25">
+      <c r="A22" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="82">
+        <v>1.1076999999999999</v>
+      </c>
+      <c r="D22" s="82">
+        <v>4.0256999999999996</v>
+      </c>
+      <c r="E22" s="82">
+        <v>1.1191</v>
+      </c>
+      <c r="F22" s="84">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="G22" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
+      <c r="A23" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="82">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D23" s="82">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="E23" s="82">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F23" s="84">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="G23" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25">
+      <c r="A24" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="82">
+        <v>1.256</v>
+      </c>
+      <c r="D24" s="82">
+        <v>1.286</v>
+      </c>
+      <c r="E24" s="82">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="F24" s="86">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G24" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
+      <c r="A25" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="82">
+        <v>1.1344000000000001</v>
+      </c>
+      <c r="D25" s="82">
+        <v>3.4723999999999999</v>
+      </c>
+      <c r="E25" s="82">
+        <v>1.1518999999999999</v>
+      </c>
+      <c r="F25" s="84">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="G25" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25">
+      <c r="A26" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="82">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="D26" s="82">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="E26" s="82">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="F26" s="86">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G26" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25">
+      <c r="A27" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="82">
+        <v>1.0477000000000001</v>
+      </c>
+      <c r="D27" s="82">
+        <v>1.5986</v>
+      </c>
+      <c r="E27" s="82">
+        <v>1.0478000000000001</v>
+      </c>
+      <c r="F27" s="84">
+        <v>-1E-4</v>
+      </c>
+      <c r="G27" s="85">
+        <v>43511</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AB83"/>
+  <dimension ref="B1:AI83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2674,7 +3445,7 @@
     <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="17.25" thickBot="1">
+    <row r="1" spans="2:35" ht="17.25" thickBot="1">
       <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
@@ -2721,7 +3492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+    <row r="2" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -2729,7 +3500,7 @@
         <v>519976</v>
       </c>
       <c r="D2" s="56">
-        <v>11155</v>
+        <v>11355</v>
       </c>
       <c r="E2" s="56">
         <v>5307</v>
@@ -2782,29 +3553,36 @@
       <c r="U2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="AD2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="AF2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AH2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AI2" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B3" s="42" t="s">
         <v>100</v>
       </c>
@@ -2812,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="56">
-        <v>8819</v>
+        <v>9190</v>
       </c>
       <c r="E3" s="56">
         <v>6140</v>
@@ -2823,7 +3601,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+    <row r="4" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
@@ -2831,7 +3609,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="56">
-        <v>1000</v>
+        <v>2403</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="26"/>
@@ -2860,29 +3638,36 @@
       <c r="U4" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="AD4" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="AE4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="AF4" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AG4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AH4" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AI4" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="12" customFormat="1" ht="29.25" thickBot="1">
+    <row r="5" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
@@ -2890,7 +3675,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="56">
-        <v>1864</v>
+        <v>2064</v>
       </c>
       <c r="E5" s="56">
         <v>1046</v>
@@ -2937,29 +3722,36 @@
       <c r="U5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="AD5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="AE5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="AF5" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="AG5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AH5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AB5" s="33" t="s">
+      <c r="AI5" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:28" s="12" customFormat="1" ht="14.25">
+    <row r="6" spans="2:35" s="12" customFormat="1" ht="14.25">
       <c r="B6" s="36" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +3759,7 @@
         <v>92</v>
       </c>
       <c r="D6" s="56">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E6" s="56">
         <v>1004</v>
@@ -2978,7 +3770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:28" s="12" customFormat="1" ht="15" thickBot="1">
+    <row r="7" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
       <c r="B7" s="36" t="s">
         <v>130</v>
       </c>
@@ -2986,7 +3778,7 @@
         <v>129</v>
       </c>
       <c r="D7" s="56">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E7" s="56">
         <v>0</v>
@@ -2997,7 +3789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:28" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="35" t="s">
         <v>68</v>
       </c>
@@ -3005,7 +3797,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="56">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="E8" s="56">
         <v>0</v>
@@ -3033,11 +3825,18 @@
       <c r="U8" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="33" t="s">
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:28" s="12" customFormat="1" ht="16.5">
+    <row r="9" spans="2:35" s="12" customFormat="1" ht="16.5">
       <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
@@ -3079,14 +3878,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:28" s="12" customFormat="1">
+    <row r="10" spans="2:35" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="58">
+        <v>200</v>
+      </c>
       <c r="E10" s="58"/>
       <c r="F10" s="26"/>
       <c r="G10" s="31"/>
@@ -3097,14 +3898,16 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="2:28" s="12" customFormat="1">
+    <row r="11" spans="2:35" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="58">
+        <v>200</v>
+      </c>
       <c r="E11" s="58"/>
       <c r="F11" s="26"/>
       <c r="G11" s="31"/>
@@ -3115,14 +3918,16 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="2:28" s="12" customFormat="1">
+    <row r="12" spans="2:35" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="58">
+        <v>500</v>
+      </c>
       <c r="E12" s="58"/>
       <c r="F12" s="26"/>
       <c r="G12" s="31"/>
@@ -3133,14 +3938,16 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="2:28" s="12" customFormat="1">
+    <row r="13" spans="2:35" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="58">
+        <v>200</v>
+      </c>
       <c r="E13" s="58"/>
       <c r="F13" s="26"/>
       <c r="G13" s="31"/>
@@ -3151,14 +3958,16 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="2:28" s="12" customFormat="1">
+    <row r="14" spans="2:35" s="12" customFormat="1">
       <c r="B14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="58">
+        <v>1000</v>
+      </c>
       <c r="E14" s="58"/>
       <c r="F14" s="26"/>
       <c r="G14" s="31"/>
@@ -3169,14 +3978,16 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="2:28" s="12" customFormat="1">
+    <row r="15" spans="2:35" s="12" customFormat="1">
       <c r="B15" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="26">
         <v>110018</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="58">
+        <v>200</v>
+      </c>
       <c r="E15" s="58"/>
       <c r="F15" s="26" t="s">
         <v>157</v>
@@ -3189,12 +4000,12 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="2:28" s="12" customFormat="1">
+    <row r="16" spans="2:35" s="12" customFormat="1">
       <c r="B16" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58">
@@ -3211,10 +4022,10 @@
     </row>
     <row r="17" spans="2:16" s="19" customFormat="1">
       <c r="B17" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>168</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
@@ -3235,7 +4046,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="46">
-        <v>2637</v>
+        <v>1434</v>
       </c>
       <c r="E18" s="46">
         <v>4091</v>
@@ -3323,7 +4134,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="46">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="58">
         <v>0</v>
@@ -3419,12 +4230,14 @@
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="46">
+        <v>1000</v>
+      </c>
       <c r="E23" s="46"/>
       <c r="P23" s="41"/>
     </row>
@@ -3435,10 +4248,9 @@
       <c r="C24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="46">
+      <c r="E24" s="46">
         <v>1300</v>
       </c>
-      <c r="E24" s="46"/>
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="2:16" ht="14.25">
@@ -3459,13 +4271,16 @@
         <v>131</v>
       </c>
       <c r="D26" s="46">
-        <v>5000</v>
+        <v>3035</v>
       </c>
       <c r="E26" s="46"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" t="s">
         <v>121</v>
+      </c>
+      <c r="D27" s="46">
+        <v>4148</v>
       </c>
       <c r="E27" s="46">
         <v>0</v>
@@ -3487,14 +4302,14 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J31" s="64">
         <f>SUM(J32:J36)</f>
-        <v>50563</v>
+        <v>60908.6</v>
       </c>
       <c r="K31" s="7"/>
     </row>
@@ -3504,11 +4319,11 @@
       </c>
       <c r="J32" s="64">
         <f>SUM(D18:D25)</f>
-        <v>14550</v>
+        <v>13247</v>
       </c>
       <c r="K32" s="62">
         <f>J32/J31</f>
-        <v>0.28775982437750924</v>
+        <v>0.21748981260445979</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -3516,12 +4331,12 @@
         <v>109</v>
       </c>
       <c r="J33" s="64">
-        <f>SUM(D5:D15)</f>
-        <v>4464</v>
+        <f>SUM(D5:D16)</f>
+        <v>7692</v>
       </c>
       <c r="K33" s="62">
         <f>J33/J31</f>
-        <v>8.8285900757470878E-2</v>
+        <v>0.12628758500441645</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -3530,11 +4345,11 @@
       </c>
       <c r="J34" s="64">
         <f>SUM(D2:D4)</f>
-        <v>20974</v>
+        <v>22948</v>
       </c>
       <c r="K34" s="62">
         <f>J34/J31</f>
-        <v>0.41480924786899509</v>
+        <v>0.37676124553839691</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -3543,11 +4358,11 @@
       </c>
       <c r="J35" s="69">
         <f>SUM(G40:G44)</f>
-        <v>5575</v>
+        <v>9838.6</v>
       </c>
       <c r="K35" s="62">
         <f>J35/J31</f>
-        <v>0.11025848940925183</v>
+        <v>0.16153055561940352</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -3555,8 +4370,8 @@
         <v>136</v>
       </c>
       <c r="J36" s="64">
-        <f>SUM(D26:D26)</f>
-        <v>5000</v>
+        <f>SUM(D26:D27)</f>
+        <v>7183</v>
       </c>
       <c r="K36" s="7"/>
     </row>
@@ -3635,6 +4450,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="55">
+        <f t="shared" ref="G41:G44" si="0">D41*F41</f>
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -3642,7 +4458,7 @@
       </c>
       <c r="J41" s="64">
         <f>SUM(J42:J46)</f>
-        <v>26048</v>
+        <v>27348</v>
       </c>
       <c r="K41" s="7"/>
     </row>
@@ -3653,22 +4469,30 @@
       <c r="C42" s="8">
         <v>510880</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="D42" s="8">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="E42" s="8">
+        <f>D42*1.05</f>
+        <v>2.7698999999999998</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1000</v>
+      </c>
       <c r="G42" s="55">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2638</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>108</v>
       </c>
       <c r="J42" s="64">
         <f>SUM(E18:E25)</f>
-        <v>12551</v>
+        <v>13851</v>
       </c>
       <c r="K42" s="62">
         <f>J42/J41</f>
-        <v>0.48184121621621623</v>
+        <v>0.50647213690215009</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -3701,7 +4525,7 @@
       </c>
       <c r="K43" s="62">
         <f>J43/J41</f>
-        <v>7.8700859950859944E-2</v>
+        <v>7.4959777680269124E-2</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -3709,13 +4533,21 @@
         <v>68</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>69</v>
+        <v>250</v>
+      </c>
+      <c r="D44" s="45">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="E44" s="45">
+        <f>D44*1.05</f>
+        <v>3.5080500000000003</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44">
-        <v>379</v>
+        <v>249</v>
+      </c>
+      <c r="G44" s="55">
+        <f t="shared" si="0"/>
+        <v>2004.6000000000001</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>128</v>
@@ -3726,7 +4558,7 @@
       </c>
       <c r="K44" s="62">
         <f>J44/J41</f>
-        <v>0.43945792383292381</v>
+        <v>0.41856808541758084</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -3931,10 +4763,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B5:B6"/>
@@ -3965,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N49"/>
@@ -4115,59 +4948,59 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" t="s">
         <v>181</v>
-      </c>
-      <c r="G45" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" t="s">
         <v>183</v>
-      </c>
-      <c r="G46" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" t="s">
         <v>185</v>
-      </c>
-      <c r="G47" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" t="s">
         <v>187</v>
-      </c>
-      <c r="G48" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" t="s">
         <v>189</v>
-      </c>
-      <c r="G49" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:S26"/>
@@ -4873,11 +5706,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
@@ -4945,10 +5778,10 @@
         <v>144</v>
       </c>
       <c r="I9" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="78" t="s">
         <v>178</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5565,13 +6398,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5582,7 +6415,7 @@
     <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="B1" s="71" t="s">
         <v>151</v>
       </c>
@@ -5593,7 +6426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:15">
       <c r="A2" s="14">
         <v>43486</v>
       </c>
@@ -5608,15 +6441,11 @@
         <v>383</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(10,(D2)*100/(B2-807)*4)</f>
+        <f t="shared" ref="E2:E30" si="1">(D2)*100/(B2-807)*4</f>
         <v>64.505263157894731</v>
       </c>
-      <c r="F2" s="45">
-        <f>100-E2</f>
-        <v>35.494736842105269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="14">
         <v>43487</v>
       </c>
@@ -5631,15 +6460,11 @@
         <v>409</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:E30" si="1">MAX(10,(D3)*100/(B3-807)*4)</f>
+        <f t="shared" si="1"/>
         <v>69.914529914529908</v>
       </c>
-      <c r="F3" s="45">
-        <f t="shared" ref="F3:F30" si="2">100-E3</f>
-        <v>30.085470085470092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="14">
         <v>43488</v>
       </c>
@@ -5657,12 +6482,8 @@
         <f t="shared" si="1"/>
         <v>68.830059777967548</v>
       </c>
-      <c r="F4" s="45">
-        <f t="shared" si="2"/>
-        <v>31.169940222032452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="14">
         <v>43489</v>
       </c>
@@ -5680,12 +6501,8 @@
         <f t="shared" si="1"/>
         <v>67.149552620366421</v>
       </c>
-      <c r="F5" s="45">
-        <f t="shared" si="2"/>
-        <v>32.850447379633579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="14">
         <v>43490</v>
       </c>
@@ -5703,12 +6520,8 @@
         <f t="shared" si="1"/>
         <v>65.080713678844518</v>
       </c>
-      <c r="F6" s="45">
-        <f t="shared" si="2"/>
-        <v>34.919286321155482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14">
         <v>43491</v>
       </c>
@@ -5718,14 +6531,10 @@
       </c>
       <c r="E7" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F7" s="45">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="14">
         <v>43492</v>
       </c>
@@ -5735,14 +6544,10 @@
       </c>
       <c r="E8" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F8" s="45">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="14">
         <v>43493</v>
       </c>
@@ -5760,12 +6565,8 @@
         <f t="shared" si="1"/>
         <v>62.658763759525826</v>
       </c>
-      <c r="F9" s="45">
-        <f t="shared" si="2"/>
-        <v>37.341236240474174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="14">
         <v>43494</v>
       </c>
@@ -5783,12 +6584,8 @@
         <f t="shared" si="1"/>
         <v>61.981371718882301</v>
       </c>
-      <c r="F10" s="45">
-        <f t="shared" si="2"/>
-        <v>38.018628281117699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="14">
         <v>43495</v>
       </c>
@@ -5806,12 +6603,8 @@
         <f t="shared" si="1"/>
         <v>59.359190556492415</v>
       </c>
-      <c r="F11" s="45">
-        <f t="shared" si="2"/>
-        <v>40.640809443507585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="14">
         <v>43496</v>
       </c>
@@ -5829,12 +6622,8 @@
         <f t="shared" si="1"/>
         <v>57.744107744107744</v>
       </c>
-      <c r="F12" s="45">
-        <f t="shared" si="2"/>
-        <v>42.255892255892256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="14">
         <v>43497</v>
       </c>
@@ -5852,111 +6641,102 @@
         <f t="shared" si="1"/>
         <v>55.178197064989519</v>
       </c>
-      <c r="F13" s="45">
-        <f t="shared" si="2"/>
-        <v>44.821802935010481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="14">
         <v>43498</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="45">
+        <f>SUM(E2:E26)</f>
+        <v>789.7866542528011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="14">
         <v>43499</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="14">
         <v>43500</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="14">
         <v>43501</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="14">
         <v>43502</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="14">
         <v>43503</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="14">
         <v>43504</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="14">
         <v>43505</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="14">
         <v>43506</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="14">
         <v>43507</v>
       </c>
@@ -5967,19 +6747,15 @@
         <v>3517</v>
       </c>
       <c r="D23" s="45">
-        <f t="shared" ref="D23:D30" si="3">(C23-B23)</f>
+        <f t="shared" ref="D23:D43" si="2">(C23-B23)</f>
         <v>304</v>
       </c>
       <c r="E23" s="45">
         <f t="shared" si="1"/>
         <v>50.540315876974233</v>
       </c>
-      <c r="F23" s="45">
-        <f t="shared" si="2"/>
-        <v>49.459684123025767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="14">
         <v>43508</v>
       </c>
@@ -5990,19 +6766,15 @@
         <v>3513</v>
       </c>
       <c r="D24" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="E24" s="45">
         <f t="shared" si="1"/>
         <v>43.970467596390485</v>
       </c>
-      <c r="F24" s="45">
-        <f t="shared" si="2"/>
-        <v>56.029532403609515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="14">
         <v>43509</v>
       </c>
@@ -6013,19 +6785,15 @@
         <v>3509</v>
       </c>
       <c r="D25" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
         <v>35.806451612903224</v>
       </c>
-      <c r="F25" s="45">
-        <f t="shared" si="2"/>
-        <v>64.193548387096769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="14">
         <v>43510</v>
       </c>
@@ -6036,105 +6804,226 @@
         <v>3505</v>
       </c>
       <c r="D26" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="E26" s="45">
         <f t="shared" si="1"/>
         <v>27.06766917293233</v>
       </c>
-      <c r="F26" s="45">
-        <f t="shared" si="2"/>
-        <v>72.932330827067673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="14">
         <v>43511</v>
       </c>
       <c r="B27" s="72">
-        <v>3361</v>
+        <v>3280.0583486238502</v>
       </c>
       <c r="C27" s="45">
         <v>3502</v>
       </c>
       <c r="D27" s="45">
-        <f t="shared" si="3"/>
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>221.94165137614982</v>
       </c>
       <c r="E27" s="45">
         <f t="shared" si="1"/>
-        <v>22.083007047768206</v>
-      </c>
-      <c r="F27" s="45">
-        <f t="shared" si="2"/>
-        <v>77.916992952231794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>35.897519603554962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="14">
         <v>43512</v>
       </c>
+      <c r="B28" s="72">
+        <v>3354</v>
+      </c>
+      <c r="C28" s="45">
+        <v>3205</v>
+      </c>
       <c r="D28" s="45">
+        <f t="shared" si="2"/>
+        <v>-149</v>
+      </c>
+      <c r="E28" s="45">
+        <f t="shared" si="1"/>
+        <v>-23.400078523753436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14">
+        <v>43513</v>
+      </c>
+      <c r="D29" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14">
+        <v>43514</v>
+      </c>
+      <c r="B30" s="72">
+        <v>3371</v>
+      </c>
+      <c r="C30" s="45">
+        <v>3498</v>
+      </c>
+      <c r="D30" s="45">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="E30" s="45">
+        <f t="shared" si="1"/>
+        <v>19.812792511700469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="45">
+        <f t="shared" ref="E31:E43" si="3">(D31)*100/(B31-807)*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E28" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F28" s="45">
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="14">
-        <v>43513</v>
-      </c>
-      <c r="D29" s="45">
+        <v>0</v>
+      </c>
+      <c r="E33" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E29" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F29" s="45">
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14">
-        <v>43514</v>
-      </c>
-      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E34" s="45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E30" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F30" s="45">
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6144,7 +7033,7 @@
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="71" t="s">
         <v>151</v>
       </c>
@@ -6155,76 +7044,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="14">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="B2" s="72">
-        <v>4485</v>
+        <v>4507</v>
       </c>
       <c r="C2" s="45">
-        <v>5102</v>
+        <v>5095</v>
       </c>
       <c r="D2" s="45">
         <f>(C2-B2)</f>
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(10,(D2)*100/(B2-1500)*2)</f>
-        <v>41.340033500837521</v>
-      </c>
-      <c r="F2" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14">
-        <v>43486</v>
-      </c>
-      <c r="B2" s="72">
-        <v>1345</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1530</v>
-      </c>
-      <c r="D2" s="45">
-        <f>(C2-B2)</f>
-        <v>185</v>
-      </c>
-      <c r="E2" s="45">
-        <f>MAX(10,(D2)*100/(B2-585)*1)</f>
-        <v>24.342105263157894</v>
-      </c>
-      <c r="F2" s="45"/>
+        <f>MAX(-110,(D2)*100/(B2-1500)*2)</f>
+        <v>39.108746258729632</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,30 +4,28 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="6"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
-    <sheet name="定投" sheetId="3" r:id="rId3"/>
-    <sheet name="笔记" sheetId="4" r:id="rId4"/>
-    <sheet name="古债平衡" sheetId="8" r:id="rId5"/>
-    <sheet name="H股ETF" sheetId="9" r:id="rId6"/>
-    <sheet name="红利ETF" sheetId="13" r:id="rId7"/>
-    <sheet name="300" sheetId="10" r:id="rId8"/>
-    <sheet name="500" sheetId="12" r:id="rId9"/>
-    <sheet name="cyb" sheetId="14" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId11"/>
+    <sheet name="定投" sheetId="3" r:id="rId2"/>
+    <sheet name="笔记" sheetId="4" r:id="rId3"/>
+    <sheet name="古债平衡" sheetId="8" r:id="rId4"/>
+    <sheet name="H股ETF" sheetId="9" r:id="rId5"/>
+    <sheet name="红利ETF" sheetId="13" r:id="rId6"/>
+    <sheet name="300" sheetId="10" r:id="rId7"/>
+    <sheet name="500" sheetId="12" r:id="rId8"/>
+    <sheet name="cyb" sheetId="14" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -1218,210 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>净值</t>
-  </si>
-  <si>
-    <t>累计净值</t>
-  </si>
-  <si>
-    <t>上日净值</t>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-  </si>
-  <si>
-    <t>净值日期</t>
-  </si>
-  <si>
-    <t>华夏上证50ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh511010</t>
-  </si>
-  <si>
-    <t>国泰上证5年期国债ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh511210</t>
-  </si>
-  <si>
-    <t>博时上证企债30ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh518800</t>
-  </si>
-  <si>
-    <t>国泰黄金ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh518880</t>
-  </si>
-  <si>
-    <t>华安黄金易(ETF)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510660</t>
-  </si>
-  <si>
-    <t>华夏医药ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510610</t>
-  </si>
-  <si>
-    <t>华夏能源ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510170</t>
-  </si>
-  <si>
-    <t>国联安商品ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510630</t>
-  </si>
-  <si>
-    <t>华夏消费ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510620</t>
-  </si>
-  <si>
-    <t>华夏材料ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh510230</t>
-  </si>
-  <si>
-    <t>金融ETF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150118</t>
-  </si>
-  <si>
-    <t>国泰国证房地产行业指数分级B</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150019</t>
-  </si>
-  <si>
-    <t>银华锐进</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150144</t>
-  </si>
-  <si>
-    <t>银华中证转债指数增强分级B</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of163109</t>
-  </si>
-  <si>
-    <t>申万菱信深证成指分级</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150022</t>
-  </si>
-  <si>
-    <t>申万菱信深证成指分级收益</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150023</t>
-  </si>
-  <si>
-    <t>申万菱信深证成指分级进取</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of121099</t>
-  </si>
-  <si>
-    <t>瑞福分级</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of121007</t>
-  </si>
-  <si>
-    <t>瑞福优先</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz150001</t>
-  </si>
-  <si>
-    <t>瑞福进取</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sz163801</t>
-  </si>
-  <si>
-    <t>中银中国混合(LOF)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of040002</t>
-  </si>
-  <si>
-    <t>华安中国A股增强指数</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of202110</t>
-  </si>
-  <si>
-    <t>南方润元C</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of162703</t>
-  </si>
-  <si>
-    <t>广发小盘成长混合(LOF)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of070031</t>
-  </si>
-  <si>
-    <t>嘉实全球房地产(QDII)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>of202213</t>
-  </si>
-  <si>
-    <t>南方核心竞争混合</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sh519976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,7 +1234,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,48 +1404,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1704,7 +1456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1775,15 +1527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1797,7 +1540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2034,36 +1777,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2126,73 +1839,35 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="E:\kebie\tushare-git\data\ETF%E9%87%8F%E5%8C%96%E5%AE%9A%E6%8A%95v2.0 - %E9%9B%86%E6%80%9D%E5%BD%95_files\dfc2fd99746abb4235eba39f46fd8a6f.png"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685799" y="685799"/>
-          <a:ext cx="3267075" cy="3267075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267011</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590861</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>133963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="dfc2fd99746abb4235eba39f46fd8a6f.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="dfc2fd99746abb4235eba39f46fd8a6f.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="6000750"/>
+          <a:off x="2057400" y="6705600"/>
           <a:ext cx="3010211" cy="1677013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2212,7 +1887,6 @@
       <sheetName val="股票指数"/>
       <sheetName val="开放式基金"/>
       <sheetName val="贵金属"/>
-      <sheetName val="鼎级行情"/>
     </sheetNames>
     <definedNames>
       <definedName name="更新开放式基金净值"/>
@@ -2221,7 +1895,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2640,789 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14">
-        <v>43483</v>
-      </c>
-      <c r="B2" s="72">
-        <v>1356</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1529</v>
-      </c>
-      <c r="D2" s="45">
-        <f>(C2-B2)</f>
-        <v>173</v>
-      </c>
-      <c r="E2" s="45">
-        <f>MAX(10,(D2)*100/(B2-585)*1)</f>
-        <v>22.438391699092087</v>
-      </c>
-      <c r="F2" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I6:J8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="6" spans="9:10">
-      <c r="I6">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>318686</v>
-      </c>
-    </row>
-    <row r="7" spans="9:10">
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7">
-        <v>53408</v>
-      </c>
-    </row>
-    <row r="8" spans="9:10">
-      <c r="J8">
-        <v>27040</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
-      <c r="A1" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="82">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D2" s="82">
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="E2" s="82">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="F2" s="84">
-        <v>-2.2599999999999999E-2</v>
-      </c>
-      <c r="G2" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="82">
-        <v>117.00700000000001</v>
-      </c>
-      <c r="D3" s="82">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="E3" s="82">
-        <v>117.017</v>
-      </c>
-      <c r="F3" s="84">
-        <v>-1E-4</v>
-      </c>
-      <c r="G3" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="82">
-        <v>112.619</v>
-      </c>
-      <c r="D4" s="82">
-        <v>1.1262000000000001</v>
-      </c>
-      <c r="E4" s="82">
-        <v>113.206</v>
-      </c>
-      <c r="F4" s="84">
-        <v>-5.1999999999999998E-3</v>
-      </c>
-      <c r="G4" s="85">
-        <v>43046</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="82">
-        <v>2.8393999999999999</v>
-      </c>
-      <c r="D5" s="82">
-        <v>1.0741000000000001</v>
-      </c>
-      <c r="E5" s="82">
-        <v>2.8206000000000002</v>
-      </c>
-      <c r="F5" s="86">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="G5" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="82">
-        <v>2.8607</v>
-      </c>
-      <c r="D6" s="82">
-        <v>1.0802</v>
-      </c>
-      <c r="E6" s="82">
-        <v>2.8418999999999999</v>
-      </c>
-      <c r="F6" s="86">
-        <v>6.6E-3</v>
-      </c>
-      <c r="G6" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25">
-      <c r="A7" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="82">
-        <v>1.5310999999999999</v>
-      </c>
-      <c r="D7" s="82">
-        <v>1.5310999999999999</v>
-      </c>
-      <c r="E7" s="82">
-        <v>1.5432999999999999</v>
-      </c>
-      <c r="F7" s="84">
-        <v>-7.9000000000000008E-3</v>
-      </c>
-      <c r="G7" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="87"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
-      <c r="A8" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="82">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="D8" s="82">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="E8" s="82">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="F8" s="84">
-        <v>-7.3000000000000001E-3</v>
-      </c>
-      <c r="G8" s="85">
-        <v>42457</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="87"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="82">
-        <v>1.536</v>
-      </c>
-      <c r="D9" s="82">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E9" s="82">
-        <v>1.548</v>
-      </c>
-      <c r="F9" s="84">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="G9" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="82">
-        <v>2.2151000000000001</v>
-      </c>
-      <c r="D10" s="82">
-        <v>2.2151000000000001</v>
-      </c>
-      <c r="E10" s="82">
-        <v>2.2515999999999998</v>
-      </c>
-      <c r="F10" s="84">
-        <v>-1.6199999999999999E-2</v>
-      </c>
-      <c r="G10" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="82">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="D11" s="82">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="E11" s="82">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="F11" s="84">
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="G11" s="85">
-        <v>42457</v>
-      </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="82">
-        <v>5.1424000000000003</v>
-      </c>
-      <c r="D12" s="82">
-        <v>1.6167</v>
-      </c>
-      <c r="E12" s="82">
-        <v>5.2587999999999999</v>
-      </c>
-      <c r="F12" s="84">
-        <v>-2.2100000000000002E-2</v>
-      </c>
-      <c r="G12" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="82">
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="D13" s="82">
-        <v>2.1576</v>
-      </c>
-      <c r="E13" s="82">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="F13" s="84">
-        <v>-4.53E-2</v>
-      </c>
-      <c r="G13" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="82">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="D14" s="82">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="E14" s="82">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="F14" s="84">
-        <v>-3.9100000000000003E-2</v>
-      </c>
-      <c r="G14" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="82">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="D15" s="82">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="E15" s="82">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F15" s="84">
-        <v>-2.4799999999999999E-2</v>
-      </c>
-      <c r="G15" s="85">
-        <v>43512</v>
-      </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="82">
-        <v>0.4481</v>
-      </c>
-      <c r="D16" s="82">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="E16" s="82">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F16" s="84">
-        <v>-1.0800000000000001E-2</v>
-      </c>
-      <c r="G16" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25">
-      <c r="A17" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="82">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="D17" s="82">
-        <v>1.2168000000000001</v>
-      </c>
-      <c r="E17" s="82">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="F17" s="84">
-        <v>-1.0800000000000001E-2</v>
-      </c>
-      <c r="G17" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="82">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="D18" s="82">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="E18" s="82">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F18" s="84">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="G18" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="82">
-        <v>1.45</v>
-      </c>
-      <c r="D19" s="82">
-        <v>1.5329999999999999</v>
-      </c>
-      <c r="E19" s="82">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="F19" s="86">
-        <v>1.26E-2</v>
-      </c>
-      <c r="G19" s="85">
-        <v>42229</v>
-      </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25">
-      <c r="A20" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="82">
-        <v>1.0285</v>
-      </c>
-      <c r="D20" s="82">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="E20" s="82">
-        <v>1.028</v>
-      </c>
-      <c r="F20" s="86">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G20" s="85">
-        <v>42229</v>
-      </c>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="82">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="D21" s="82">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="E21" s="82">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="F21" s="86">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G21" s="85">
-        <v>42229</v>
-      </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="82">
-        <v>1.1076999999999999</v>
-      </c>
-      <c r="D22" s="82">
-        <v>4.0256999999999996</v>
-      </c>
-      <c r="E22" s="82">
-        <v>1.1191</v>
-      </c>
-      <c r="F22" s="84">
-        <v>-1.0200000000000001E-2</v>
-      </c>
-      <c r="G22" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25">
-      <c r="A23" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="82">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="D23" s="82">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="E23" s="82">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="F23" s="84">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="G23" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="82">
-        <v>1.256</v>
-      </c>
-      <c r="D24" s="82">
-        <v>1.286</v>
-      </c>
-      <c r="E24" s="82">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="F24" s="86">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G24" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25">
-      <c r="A25" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="82">
-        <v>1.1344000000000001</v>
-      </c>
-      <c r="D25" s="82">
-        <v>3.4723999999999999</v>
-      </c>
-      <c r="E25" s="82">
-        <v>1.1518999999999999</v>
-      </c>
-      <c r="F25" s="84">
-        <v>-1.52E-2</v>
-      </c>
-      <c r="G25" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25">
-      <c r="A26" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="82">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="D26" s="82">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="E26" s="82">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="F26" s="86">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G26" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25">
-      <c r="A27" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="82">
-        <v>1.0477000000000001</v>
-      </c>
-      <c r="D27" s="82">
-        <v>1.5986</v>
-      </c>
-      <c r="E27" s="82">
-        <v>1.0478000000000001</v>
-      </c>
-      <c r="F27" s="84">
-        <v>-1E-4</v>
-      </c>
-      <c r="G27" s="85">
-        <v>43511</v>
-      </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AI83"/>
@@ -4533,7 +3424,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="D44" s="45">
         <v>3.3410000000000002</v>
@@ -4543,7 +3434,7 @@
         <v>3.5080500000000003</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="G44" s="55">
         <f t="shared" si="0"/>
@@ -4767,7 +3658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B5:B6"/>
@@ -4798,13 +3689,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4948,15 +3839,15 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
@@ -5014,13 +3905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5706,11 +4597,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
@@ -6398,7 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O43"/>
@@ -7019,7 +5910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -7067,4 +5958,55 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14">
+        <v>43483</v>
+      </c>
+      <c r="B2" s="72">
+        <v>1356</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1529</v>
+      </c>
+      <c r="D2" s="45">
+        <f>(C2-B2)</f>
+        <v>173</v>
+      </c>
+      <c r="E2" s="45">
+        <f>MAX(10,(D2)*100/(B2-585)*1)</f>
+        <v>22.438391699092087</v>
+      </c>
+      <c r="F2" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -5294,8 +5294,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5332,8 +5332,8 @@
         <v>383</v>
       </c>
       <c r="E2" s="45">
-        <f t="shared" ref="E2:E30" si="1">(D2)*100/(B2-807)*4</f>
-        <v>64.505263157894731</v>
+        <f>(D2)*100/(B2-807)*6</f>
+        <v>96.757894736842104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5351,8 +5351,8 @@
         <v>409</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" si="1"/>
-        <v>69.914529914529908</v>
+        <f t="shared" ref="E3:E30" si="1">(D3)*100/(B3-807)*6</f>
+        <v>104.87179487179486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="E4" s="45">
         <f t="shared" si="1"/>
-        <v>68.830059777967548</v>
+        <v>103.24508966695132</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E5" s="45">
         <f t="shared" si="1"/>
-        <v>67.149552620366421</v>
+        <v>100.72432893054963</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" si="1"/>
-        <v>65.080713678844518</v>
+        <v>97.621070518266777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E9" s="45">
         <f t="shared" si="1"/>
-        <v>62.658763759525826</v>
+        <v>93.988145639288746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="E10" s="45">
         <f t="shared" si="1"/>
-        <v>61.981371718882301</v>
+        <v>92.972057578323444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="E11" s="45">
         <f t="shared" si="1"/>
-        <v>59.359190556492415</v>
+        <v>89.038785834738619</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="E12" s="45">
         <f t="shared" si="1"/>
-        <v>57.744107744107744</v>
+        <v>86.616161616161619</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E13" s="45">
         <f t="shared" si="1"/>
-        <v>55.178197064989519</v>
+        <v>82.767295597484278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="O14" s="45">
         <f>SUM(E2:E26)</f>
-        <v>789.7866542528011</v>
+        <v>1184.6799813792018</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="E23" s="45">
         <f t="shared" si="1"/>
-        <v>50.540315876974233</v>
+        <v>75.81047381546135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E24" s="45">
         <f t="shared" si="1"/>
-        <v>43.970467596390485</v>
+        <v>65.955701394585731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>35.806451612903224</v>
+        <v>53.709677419354833</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="E26" s="45">
         <f t="shared" si="1"/>
-        <v>27.06766917293233</v>
+        <v>40.601503759398497</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E27" s="45">
         <f t="shared" si="1"/>
-        <v>35.897519603554962</v>
+        <v>53.846279405332439</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E28" s="45">
         <f t="shared" si="1"/>
-        <v>-23.400078523753436</v>
+        <v>-35.100117785630154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="E30" s="45">
         <f t="shared" si="1"/>
-        <v>19.812792511700469</v>
+        <v>29.719188767550705</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="45">
-        <f t="shared" ref="E31:E43" si="3">(D31)*100/(B31-807)*4</f>
+        <f t="shared" ref="E3:E43" si="3">(D31)*100/(B31-807)*7</f>
         <v>0</v>
       </c>
     </row>
@@ -5950,8 +5950,8 @@
         <v>588</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(-110,(D2)*100/(B2-1500)*2)</f>
-        <v>39.108746258729632</v>
+        <f>MAX(-110,(D2)*100/(B2-1500)*3)</f>
+        <v>58.663119388094444</v>
       </c>
     </row>
   </sheetData>
@@ -5965,7 +5965,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -998,10 +998,6 @@
     <t>债券价格的涨跌与利率成反向关系。如果有降息、存准率下调的的动作时，债券价格就会有上涨，债券基金的收益也会上升，反之如果利率上升，债券价格便会下滑。在近年央行连续降息后，国内利率下行，对债券是有利的哦。</t>
   </si>
   <si>
-    <t>易方达增强回报债券B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000033</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,10 +1087,6 @@
   </si>
   <si>
     <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.3亿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2316,10 +2308,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AI83"/>
+  <dimension ref="B1:AI82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2473,7 +2465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="2:35" s="12" customFormat="1" ht="14.25">
       <c r="B3" s="42" t="s">
         <v>100</v>
       </c>
@@ -2492,117 +2484,53 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
+    <row r="4" spans="2:35" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="56">
-        <v>2403</v>
-      </c>
-      <c r="E4" s="56"/>
+        <v>172</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="58"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="31">
-        <v>43406</v>
-      </c>
-      <c r="H4" s="29">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="P4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG4" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="33" t="s">
-        <v>107</v>
-      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="56">
-        <v>2064</v>
-      </c>
-      <c r="E5" s="56">
-        <v>1046</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>42</v>
-      </c>
+        <v>2403</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="31">
-        <v>39974</v>
+        <v>43406</v>
       </c>
       <c r="H5" s="29">
-        <v>-1.3100000000000001E-2</v>
-      </c>
-      <c r="I5" s="50">
-        <v>1.8E-3</v>
-      </c>
-      <c r="J5" s="29">
-        <v>4.53E-2</v>
-      </c>
-      <c r="K5" s="29">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="L5" s="29">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="M5" s="29">
-        <v>1.3714999999999999</v>
-      </c>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I5" s="49"/>
       <c r="P5" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>70</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>72</v>
@@ -2621,7 +2549,7 @@
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
       <c r="AC5" s="33" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>77</v>
@@ -2639,155 +2567,219 @@
         <v>103</v>
       </c>
       <c r="AI5" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" s="12" customFormat="1" ht="29.25" thickBot="1">
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="56">
+        <v>2064</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1046</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="31">
+        <v>39974</v>
+      </c>
+      <c r="H6" s="29">
+        <v>-1.3100000000000001E-2</v>
+      </c>
+      <c r="I6" s="50">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4.53E-2</v>
+      </c>
+      <c r="K6" s="29">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L6" s="29">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1.3714999999999999</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI6" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:35" s="12" customFormat="1" ht="14.25">
-      <c r="B6" s="36" t="s">
+    <row r="7" spans="2:35" s="12" customFormat="1" ht="14.25">
+      <c r="B7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D7" s="56">
         <v>500</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E7" s="56">
         <v>1004</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="I6" s="49"/>
-      <c r="P6" s="36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="B7" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="56">
-        <v>1200</v>
-      </c>
-      <c r="E7" s="56">
-        <v>0</v>
       </c>
       <c r="F7" s="26"/>
       <c r="I7" s="49"/>
       <c r="P7" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
+      <c r="B8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="56">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="I8" s="49"/>
+      <c r="P8" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="35" t="s">
+    <row r="9" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D9" s="56">
         <v>628</v>
       </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="Q8" s="32" t="s">
+      <c r="E9" s="56">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="Q9" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="T9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U9" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33" t="s">
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="12" customFormat="1" ht="16.5">
-      <c r="B9" s="26" t="s">
+    <row r="10" spans="2:35" s="12" customFormat="1" ht="16.5">
+      <c r="B10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C10" s="76">
         <v>485011</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D10" s="58">
         <v>1000</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="26" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G10" s="59">
         <v>40406</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H10" s="60">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I10" s="61">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J10" s="60">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K10" s="60">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L10" s="60">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M10" s="60">
         <v>0.79490000000000005</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P10" s="30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="2:35" s="12" customFormat="1">
-      <c r="B10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="58">
-        <v>200</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:35" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
@@ -2817,7 +2809,7 @@
         <v>161</v>
       </c>
       <c r="D12" s="58">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="26"/>
@@ -2831,13 +2823,13 @@
     </row>
     <row r="13" spans="2:35" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>159</v>
       </c>
       <c r="D13" s="58">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="26"/>
@@ -2851,13 +2843,13 @@
     </row>
     <row r="14" spans="2:35" s="12" customFormat="1">
       <c r="B14" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="58">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="26"/>
@@ -2871,18 +2863,16 @@
     </row>
     <row r="15" spans="2:35" s="12" customFormat="1">
       <c r="B15" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="26">
-        <v>110018</v>
-      </c>
-      <c r="D15" s="58">
-        <v>200</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="26" t="s">
-        <v>157</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58">
+        <v>5165</v>
+      </c>
+      <c r="F15" s="26"/>
       <c r="G15" s="31"/>
       <c r="H15" s="29"/>
       <c r="I15" s="50"/>
@@ -2891,608 +2881,604 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="2:35" s="12" customFormat="1">
-      <c r="B16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58">
-        <v>5165</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:16" s="19" customFormat="1">
+    <row r="16" spans="2:35" s="19" customFormat="1">
+      <c r="B16" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="2:16" s="19" customFormat="1" ht="16.5">
       <c r="B17" s="19" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="2:16" s="19" customFormat="1" ht="16.5">
-      <c r="B18" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="46">
+        <v>1434</v>
+      </c>
+      <c r="E17" s="46">
+        <v>4091</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="21">
+        <v>41255</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J17" s="22">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K17" s="22">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L17" s="22">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D18" s="46">
-        <v>1434</v>
+        <v>5362</v>
       </c>
       <c r="E18" s="46">
-        <v>4091</v>
+        <v>3997</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="21">
-        <v>41255</v>
-      </c>
-      <c r="H18" s="22">
+        <v>56</v>
+      </c>
+      <c r="G18" s="14">
+        <v>41519</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="51">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J18" s="15">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.1229</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="19" customFormat="1" ht="16.5">
+      <c r="B19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="46">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="58">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="23">
+        <v>41341</v>
+      </c>
+      <c r="H19" s="22">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I18" s="52">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J18" s="22">
+      <c r="I19" s="52">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J19" s="22">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K19" s="22">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L19" s="22">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16.5">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="46">
+        <v>1880</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="14">
+        <v>41478</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J20" s="15">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K18" s="22">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L18" s="22">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="16.5">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="46">
-        <v>5362</v>
-      </c>
-      <c r="E19" s="46">
-        <v>3997</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="14">
-        <v>41519</v>
-      </c>
-      <c r="H19" s="15">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I19" s="51">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J19" s="15">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K19" s="15">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0.1229</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="19" customFormat="1" ht="16.5">
-      <c r="B20" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="46">
-        <v>1200</v>
-      </c>
-      <c r="E20" s="58">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="23">
-        <v>41341</v>
-      </c>
-      <c r="H20" s="22">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I20" s="52">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J20" s="22">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K20" s="22">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L20" s="22">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0.25140000000000001</v>
+      <c r="K20" s="15">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L20" s="15">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.35639999999999999</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="16.5">
-      <c r="B21" t="s">
-        <v>46</v>
+    <row r="21" spans="2:16" ht="14.25">
+      <c r="B21" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D21" s="46">
-        <v>2000</v>
+        <v>1251</v>
       </c>
       <c r="E21" s="46">
-        <v>1880</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="14">
-        <v>41478</v>
-      </c>
-      <c r="H21" s="15">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I21" s="53">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J21" s="15">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K21" s="15">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L21" s="15">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>61</v>
+        <v>2583</v>
+      </c>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.25">
       <c r="B22" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>80</v>
+        <v>168</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="D22" s="46">
-        <v>1251</v>
-      </c>
-      <c r="E22" s="46">
-        <v>2583</v>
-      </c>
-      <c r="N22" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="41" t="s">
-        <v>95</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="14.25">
-      <c r="B23" s="40" t="s">
-        <v>170</v>
+      <c r="B23" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="46">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="46"/>
+        <v>133</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1300</v>
+      </c>
       <c r="P23" s="41"/>
     </row>
     <row r="24" spans="2:16" ht="14.25">
       <c r="B24" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1300</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="46"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="2:16" ht="14.25">
-      <c r="B25" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>127</v>
+    <row r="25" spans="2:16">
+      <c r="B25" t="s">
+        <v>131</v>
       </c>
       <c r="D25" s="46">
-        <v>1000</v>
+        <v>3035</v>
       </c>
       <c r="E25" s="46"/>
-      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D26" s="46">
-        <v>3035</v>
-      </c>
-      <c r="E26" s="46"/>
+        <v>4148</v>
+      </c>
+      <c r="E26" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="46">
-        <v>4148</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="I28" s="51"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="I29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="55"/>
+      <c r="K29" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="2:16">
+      <c r="B30" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="I30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="55"/>
-      <c r="K30" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J30" s="64">
+        <f>SUM(J31:J35)</f>
+        <v>58070.6</v>
+      </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="I31" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J31" s="64">
-        <f>SUM(J32:J36)</f>
-        <v>60908.6</v>
-      </c>
-      <c r="K31" s="7"/>
+        <f>SUM(D17:D24)</f>
+        <v>13247</v>
+      </c>
+      <c r="K31" s="62">
+        <f>J31/J30</f>
+        <v>0.2281188759888825</v>
+      </c>
     </row>
     <row r="32" spans="2:16">
       <c r="I32" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J32" s="64">
-        <f>SUM(D18:D25)</f>
-        <v>13247</v>
+        <f>SUM(D6:D15)</f>
+        <v>6492</v>
       </c>
       <c r="K32" s="62">
-        <f>J32/J31</f>
-        <v>0.21748981260445979</v>
+        <f>J32/J30</f>
+        <v>0.11179495303992038</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="I33" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J33" s="64">
-        <f>SUM(D5:D16)</f>
-        <v>7692</v>
+        <f>SUM(D2:D5)</f>
+        <v>23948</v>
       </c>
       <c r="K33" s="62">
-        <f>J33/J31</f>
-        <v>0.12628758500441645</v>
+        <f>J33/J30</f>
+        <v>0.41239456799137603</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="I34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="64">
-        <f>SUM(D2:D4)</f>
-        <v>22948</v>
+        <v>112</v>
+      </c>
+      <c r="J34" s="69">
+        <f>SUM(G39:G43)</f>
+        <v>7200.6</v>
       </c>
       <c r="K34" s="62">
-        <f>J34/J31</f>
-        <v>0.37676124553839691</v>
+        <f>J34/J30</f>
+        <v>0.12399734116747546</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="I35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" s="69">
-        <f>SUM(G40:G44)</f>
-        <v>9838.6</v>
-      </c>
-      <c r="K35" s="62">
-        <f>J35/J31</f>
-        <v>0.16153055561940352</v>
-      </c>
+      <c r="I35" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="64">
+        <f>SUM(D25:D26)</f>
+        <v>7183</v>
+      </c>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="I36" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="J36" s="64">
-        <f>SUM(D26:D27)</f>
-        <v>7183</v>
-      </c>
-      <c r="K36" s="7"/>
+      <c r="I36"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="2:11">
       <c r="I37"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:11">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I38"/>
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39" s="54"/>
+      <c r="B39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E39" s="8">
+        <f>D39*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="55">
+        <f>D39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="55"/>
+      <c r="K39" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="8">
-        <v>501029</v>
+        <v>159905</v>
       </c>
       <c r="D40" s="8">
-        <v>0.89400000000000002</v>
+        <v>1.381</v>
       </c>
       <c r="E40" s="8">
         <f>D40*1.05</f>
-        <v>0.93870000000000009</v>
+        <v>1.4500500000000001</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="55">
-        <f>D40*F40</f>
+        <f t="shared" ref="G40:G43" si="0">D40*F40</f>
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J40" s="64">
+        <f>SUM(J41:J45)</f>
+        <v>27348</v>
+      </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C41" s="8">
-        <v>159905</v>
+        <v>510880</v>
       </c>
       <c r="D41" s="8">
-        <v>1.381</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="E41" s="8">
         <f>D41*1.05</f>
-        <v>1.4500500000000001</v>
+        <v>2.7698999999999998</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
       </c>
       <c r="G41" s="55">
-        <f t="shared" ref="G41:G44" si="0">D41*F41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J41" s="64">
-        <f>SUM(J42:J46)</f>
-        <v>27348</v>
-      </c>
-      <c r="K41" s="7"/>
+        <f>SUM(E17:E24)</f>
+        <v>13851</v>
+      </c>
+      <c r="K41" s="62">
+        <f>J41/J40</f>
+        <v>0.50647213690215009</v>
+      </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="8">
-        <v>510880</v>
+        <v>510900</v>
       </c>
       <c r="D42" s="8">
-        <v>2.6379999999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="E42" s="8">
         <f>D42*1.05</f>
-        <v>2.7698999999999998</v>
+        <v>1.36395</v>
       </c>
       <c r="F42" s="8">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="55">
-        <f t="shared" si="0"/>
-        <v>2638</v>
+        <f>D42*F42</f>
+        <v>5196</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J42" s="64">
-        <f>SUM(E18:E25)</f>
-        <v>13851</v>
+        <f>SUM(E6:E14)</f>
+        <v>2050</v>
       </c>
       <c r="K42" s="62">
-        <f>J42/J41</f>
-        <v>0.50647213690215009</v>
+        <f>J42/J40</f>
+        <v>7.4959777680269124E-2</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="B43" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="45">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="E43" s="45">
         <f>D43*1.05</f>
-        <v>1.36395</v>
-      </c>
-      <c r="F43" s="8">
-        <v>4000</v>
+        <v>3.5080500000000003</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="G43" s="55">
-        <f>D43*F43</f>
-        <v>5196</v>
+        <f t="shared" si="0"/>
+        <v>2004.6000000000001</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J43" s="64">
-        <f>SUM(E5:E15)</f>
-        <v>2050</v>
-      </c>
-      <c r="K43" s="62">
-        <f>J43/J41</f>
-        <v>7.4959777680269124E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="45">
-        <v>3.3410000000000002</v>
-      </c>
-      <c r="E44" s="45">
-        <f>D44*1.05</f>
-        <v>3.5080500000000003</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="55">
-        <f t="shared" si="0"/>
-        <v>2004.6000000000001</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="64">
         <f>SUM(E2:E3)</f>
         <v>11447</v>
       </c>
+      <c r="K43" s="62">
+        <f>J43/J40</f>
+        <v>0.41856808541758084</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="I44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44" s="69">
+        <v>0</v>
+      </c>
       <c r="K44" s="62">
-        <f>J44/J41</f>
-        <v>0.41856808541758084</v>
+        <f>J44/J40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:11">
-      <c r="I45" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J45" s="69">
-        <v>0</v>
-      </c>
-      <c r="K45" s="62">
-        <f>J45/J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="I46" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="J46" s="64">
-        <f>SUM(D35:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="74">
+      <c r="I45" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="64">
+        <f>SUM(D34:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="74">
         <v>22</v>
       </c>
     </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="73">
+        <v>2559</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B68" s="7"/>
       <c r="C68" s="38" t="s">
         <v>151</v>
       </c>
       <c r="D68" s="73">
-        <v>2559</v>
-      </c>
-      <c r="E68" s="73"/>
+        <v>2520</v>
+      </c>
+      <c r="E68" s="73">
+        <f>MIN(IFERROR(D68-D67,0),0)*100*$C$65/(D67-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7"/>
@@ -3500,49 +3486,49 @@
         <v>152</v>
       </c>
       <c r="D69" s="73">
-        <v>2520</v>
+        <v>2547</v>
       </c>
       <c r="E69" s="73">
-        <f>MIN(IFERROR(D69-D68,0),0)*100*$C$66/(D68-1800)</f>
-        <v>-113.04347826086956</v>
+        <f>(D69-D67)*100*$C$65/(D67-1800)</f>
+        <v>-34.782608695652172</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="7"/>
-      <c r="C70" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="73">
-        <v>2547</v>
-      </c>
       <c r="E70" s="73">
-        <f>(D70-D68)*100*$C$66/(D68-1800)</f>
-        <v>-34.782608695652172</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="E71" s="73">
-        <f>(D70+D69-D68*2)*100*$C$66/(D68-1800)</f>
+        <f>(D69+D68-D67*2)*100*$C$65/(D67-1800)</f>
         <v>-147.82608695652175</v>
       </c>
     </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="73">
+        <v>1277</v>
+      </c>
+      <c r="E72" s="73"/>
+    </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B73" s="7"/>
       <c r="C73" s="38" t="s">
         <v>151</v>
       </c>
       <c r="D73" s="73">
-        <v>1277</v>
-      </c>
-      <c r="E73" s="73"/>
+        <v>1359</v>
+      </c>
+      <c r="E73" s="73">
+        <f>MIN(IFERROR(D73-D72,0),0)*100*$C$65/(D72-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="7"/>
@@ -3550,49 +3536,49 @@
         <v>152</v>
       </c>
       <c r="D74" s="73">
-        <v>1359</v>
+        <v>1537</v>
       </c>
       <c r="E74" s="73">
-        <f>MIN(IFERROR(D74-D73,0),0)*100*$C$66/(D73-1800)</f>
-        <v>0</v>
+        <f>(D74-D72)*100*$C$65/(D72-1000)</f>
+        <v>2064.9819494584835</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="7"/>
-      <c r="C75" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="73">
-        <v>1537</v>
-      </c>
       <c r="E75" s="73">
-        <f>(D75-D73)*100*$C$66/(D73-1000)</f>
-        <v>2064.9819494584835</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="E76" s="73">
-        <f>(D75+D74-D73*2)*100*$C$66/(D73-1000)</f>
+        <f>(D74+D73-D72*2)*100*$C$65/(D72-1000)</f>
         <v>2716.2454873646211</v>
       </c>
     </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="73">
+        <v>869</v>
+      </c>
+      <c r="E77" s="73"/>
+    </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="38" t="s">
         <v>151</v>
       </c>
       <c r="D78" s="73">
-        <v>869</v>
-      </c>
-      <c r="E78" s="73"/>
+        <v>877</v>
+      </c>
+      <c r="E78" s="73">
+        <f>MIN(IFERROR(D78-D77,0),0)*100*$C$65/(D77-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7"/>
@@ -3600,37 +3586,28 @@
         <v>152</v>
       </c>
       <c r="D79" s="73">
-        <v>877</v>
+        <v>958</v>
       </c>
       <c r="E79" s="73">
-        <f>MIN(IFERROR(D79-D78,0),0)*100*$C$66/(D78-1800)</f>
-        <v>0</v>
+        <f>(D79-D77)*100*$C$65/(D77-800)</f>
+        <v>2837.68115942029</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="7"/>
-      <c r="C80" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="73">
-        <v>958</v>
-      </c>
       <c r="E80" s="73">
-        <f>(D80-D78)*100*$C$66/(D78-800)</f>
-        <v>2837.68115942029</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>154</v>
+        <f>(D79+D78-D77*2)*100*$C$65/(D77-800)</f>
+        <v>3092.753623188406</v>
       </c>
     </row>
     <row r="81" spans="3:9">
-      <c r="E81" s="73">
-        <f>(D80+D79-D78*2)*100*$C$66/(D78-800)</f>
-        <v>3092.753623188406</v>
-      </c>
+      <c r="C81"/>
+      <c r="D81" s="54"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="I81"/>
     </row>
     <row r="82" spans="3:9">
       <c r="C82"/>
@@ -3639,17 +3616,10 @@
       <c r="F82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="3:9">
-      <c r="C83"/>
-      <c r="D83" s="54"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="I83"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,7 +3664,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C17:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3826,10 +3796,10 @@
     </row>
     <row r="22" spans="3:14">
       <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="70" t="s">
         <v>147</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -3851,47 +3821,47 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3881,7 @@
   <dimension ref="A3:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3929,7 +3899,7 @@
         <v>510900</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="43">
         <v>1.25</v>
@@ -3956,13 +3926,13 @@
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
         <v>0.03</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M4" s="66">
         <v>1</v>
@@ -3977,7 +3947,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -3994,7 +3964,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
@@ -4042,19 +4012,19 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="G9" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="H9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="I9" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M9" s="66">
         <v>6</v>
@@ -4599,10 +4569,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J42"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4622,7 +4593,7 @@
         <v>510900</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="43">
         <v>2.5</v>
@@ -4630,18 +4601,18 @@
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
         <v>0.03</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
@@ -4649,7 +4620,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
@@ -4657,22 +4628,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="G9" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="H9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="I9" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J9" s="78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4680,12 +4651,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="66">
-        <f>$D$3*(1+E10*$D$4)</f>
-        <v>2.7250000000000001</v>
+        <f>$D$3*(1+E11*$D$4)</f>
+        <v>2.6500000000000004</v>
       </c>
       <c r="G10" s="66">
         <f>F10*(1+$D$5)</f>
-        <v>2.8612500000000001</v>
+        <v>2.7825000000000006</v>
       </c>
       <c r="H10" s="7">
         <v>2500</v>
@@ -4704,12 +4675,12 @@
         <v>2</v>
       </c>
       <c r="F11" s="66">
-        <f t="shared" ref="F11:F25" si="0">$D$3*(1+E11*$D$4)</f>
-        <v>2.6500000000000004</v>
+        <f t="shared" ref="F11:F25" si="0">$D$3*(1+E12*$D$4)</f>
+        <v>2.5750000000000002</v>
       </c>
       <c r="G11" s="66">
         <f t="shared" ref="G11:G25" si="1">F11*(1+$D$5)</f>
-        <v>2.7825000000000006</v>
+        <v>2.7037500000000003</v>
       </c>
       <c r="H11" s="7">
         <v>2500</v>
@@ -4729,11 +4700,11 @@
       </c>
       <c r="F12" s="66">
         <f t="shared" si="0"/>
-        <v>2.5750000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="G12" s="66">
         <f t="shared" si="1"/>
-        <v>2.7037500000000003</v>
+        <v>2.625</v>
       </c>
       <c r="H12" s="7">
         <v>2500</v>
@@ -4744,7 +4715,7 @@
       </c>
       <c r="J12" s="77">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4753,11 +4724,11 @@
       </c>
       <c r="F13" s="66">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="G13" s="66">
         <f t="shared" si="1"/>
-        <v>2.625</v>
+        <v>2.5462500000000001</v>
       </c>
       <c r="H13" s="7">
         <v>2500</v>
@@ -4777,11 +4748,11 @@
       </c>
       <c r="F14" s="66">
         <f t="shared" si="0"/>
-        <v>2.4249999999999998</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="G14" s="66">
         <f t="shared" si="1"/>
-        <v>2.5462500000000001</v>
+        <v>2.4674999999999998</v>
       </c>
       <c r="H14" s="7">
         <v>2500</v>
@@ -4801,11 +4772,11 @@
       </c>
       <c r="F15" s="66">
         <f t="shared" si="0"/>
-        <v>2.3499999999999996</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="G15" s="66">
         <f t="shared" si="1"/>
-        <v>2.4674999999999998</v>
+        <v>2.3887499999999999</v>
       </c>
       <c r="H15" s="7">
         <v>3000</v>
@@ -4816,7 +4787,7 @@
       </c>
       <c r="J15" s="77">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4825,11 +4796,11 @@
       </c>
       <c r="F16" s="66">
         <f t="shared" si="0"/>
-        <v>2.2749999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G16" s="66">
         <f t="shared" si="1"/>
-        <v>2.3887499999999999</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="H16" s="7">
         <v>3000</v>
@@ -4849,11 +4820,11 @@
       </c>
       <c r="F17" s="66">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.125</v>
       </c>
       <c r="G17" s="66">
         <f t="shared" si="1"/>
-        <v>2.3100000000000005</v>
+        <v>2.2312500000000002</v>
       </c>
       <c r="H17" s="7">
         <v>3000</v>
@@ -4864,7 +4835,7 @@
       </c>
       <c r="J17" s="77">
         <f t="shared" si="2"/>
-        <v>1300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="18" spans="5:10">
@@ -4873,11 +4844,11 @@
       </c>
       <c r="F18" s="66">
         <f t="shared" si="0"/>
-        <v>2.125</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="G18" s="66">
         <f t="shared" si="1"/>
-        <v>2.2312500000000002</v>
+        <v>2.1525000000000003</v>
       </c>
       <c r="H18" s="7">
         <v>4000</v>
@@ -4888,7 +4859,7 @@
       </c>
       <c r="J18" s="77">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="19" spans="5:10">
@@ -4897,11 +4868,11 @@
       </c>
       <c r="F19" s="66">
         <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="G19" s="66">
         <f t="shared" si="1"/>
-        <v>2.1525000000000003</v>
+        <v>2.07375</v>
       </c>
       <c r="H19" s="7">
         <v>4000</v>
@@ -4912,7 +4883,7 @@
       </c>
       <c r="J19" s="77">
         <f t="shared" si="2"/>
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="5:10">
@@ -4921,11 +4892,11 @@
       </c>
       <c r="F20" s="66">
         <f t="shared" si="0"/>
-        <v>1.9750000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G20" s="66">
         <f t="shared" si="1"/>
-        <v>2.07375</v>
+        <v>1.9949999999999999</v>
       </c>
       <c r="H20" s="7">
         <v>4000</v>
@@ -4936,7 +4907,7 @@
       </c>
       <c r="J20" s="77">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="21" spans="5:10">
@@ -4945,11 +4916,11 @@
       </c>
       <c r="F21" s="66">
         <f t="shared" si="0"/>
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="G21" s="66">
         <f t="shared" si="1"/>
-        <v>1.9949999999999999</v>
+        <v>1.91625</v>
       </c>
       <c r="H21" s="7">
         <v>4000</v>
@@ -4969,11 +4940,11 @@
       </c>
       <c r="F22" s="66">
         <f t="shared" si="0"/>
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="G22" s="66">
         <f t="shared" si="1"/>
-        <v>1.91625</v>
+        <v>1.8375000000000001</v>
       </c>
       <c r="H22" s="7">
         <v>4000</v>
@@ -4984,7 +4955,7 @@
       </c>
       <c r="J22" s="77">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="23" spans="5:10">
@@ -4993,11 +4964,11 @@
       </c>
       <c r="F23" s="66">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.675</v>
       </c>
       <c r="G23" s="66">
         <f t="shared" si="1"/>
-        <v>1.8375000000000001</v>
+        <v>1.75875</v>
       </c>
       <c r="H23" s="7">
         <v>5000</v>
@@ -5008,7 +4979,7 @@
       </c>
       <c r="J23" s="77">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="24" spans="5:10">
@@ -5017,11 +4988,11 @@
       </c>
       <c r="F24" s="66">
         <f t="shared" si="0"/>
-        <v>1.675</v>
+        <v>1.6</v>
       </c>
       <c r="G24" s="66">
         <f t="shared" si="1"/>
-        <v>1.75875</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="H24" s="7">
         <v>5000</v>
@@ -5032,7 +5003,7 @@
       </c>
       <c r="J24" s="77">
         <f t="shared" si="2"/>
-        <v>2900</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="25" spans="5:10">
@@ -5041,11 +5012,11 @@
       </c>
       <c r="F25" s="66">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="G25" s="66">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002</v>
+        <v>2.625</v>
       </c>
       <c r="H25" s="7">
         <v>5000</v>
@@ -5056,230 +5027,13 @@
       </c>
       <c r="J25" s="77">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="H26">
         <f>SUM(H10:H25)</f>
         <v>56500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="66">
-        <v>2.5</v>
-      </c>
-      <c r="G34" s="66">
-        <f t="shared" ref="G34:G42" si="3">F34*(1+$D$5)</f>
-        <v>2.625</v>
-      </c>
-      <c r="H34" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I34" s="7">
-        <f>SUM(G$10:$H35)+$D$6</f>
-        <v>120041.73750000002</v>
-      </c>
-      <c r="J34" s="77">
-        <f t="shared" ref="J34:J42" si="4">INT(H34/(F34*100))*100</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="E35" s="7">
-        <v>2</v>
-      </c>
-      <c r="F35" s="66">
-        <f t="shared" ref="F35:F42" si="5">$D$3*(1+E35*$D$4)</f>
-        <v>2.6500000000000004</v>
-      </c>
-      <c r="G35" s="66">
-        <f t="shared" si="3"/>
-        <v>2.7825000000000006</v>
-      </c>
-      <c r="H35" s="7">
-        <v>4000</v>
-      </c>
-      <c r="I35" s="7">
-        <f>SUM(G$10:$H36)+$D$6</f>
-        <v>124043.89000000001</v>
-      </c>
-      <c r="J35" s="77">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="E36" s="7">
-        <v>-6</v>
-      </c>
-      <c r="F36" s="66">
-        <f t="shared" si="5"/>
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="G36" s="66">
-        <f t="shared" si="3"/>
-        <v>2.1525000000000003</v>
-      </c>
-      <c r="H36" s="7">
-        <v>4000</v>
-      </c>
-      <c r="I36" s="7">
-        <f>SUM(G$10:$H37)+$D$6</f>
-        <v>128045.96375000001</v>
-      </c>
-      <c r="J36" s="77">
-        <f t="shared" si="4"/>
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="E37" s="7">
-        <v>-7</v>
-      </c>
-      <c r="F37" s="66">
-        <f t="shared" si="5"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="G37" s="66">
-        <f t="shared" si="3"/>
-        <v>2.07375</v>
-      </c>
-      <c r="H37" s="7">
-        <v>4000</v>
-      </c>
-      <c r="I37" s="7">
-        <f>SUM(G$10:$H38)+$D$6</f>
-        <v>132047.95874999999</v>
-      </c>
-      <c r="J37" s="77">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="E38" s="7">
-        <v>-8</v>
-      </c>
-      <c r="F38" s="66">
-        <f t="shared" si="5"/>
-        <v>1.9</v>
-      </c>
-      <c r="G38" s="66">
-        <f t="shared" si="3"/>
-        <v>1.9949999999999999</v>
-      </c>
-      <c r="H38" s="7">
-        <v>4000</v>
-      </c>
-      <c r="I38" s="7">
-        <f>SUM(G$10:$H39)+$D$6</f>
-        <v>136049.875</v>
-      </c>
-      <c r="J38" s="77">
-        <f t="shared" si="4"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="E39" s="7">
-        <v>-9</v>
-      </c>
-      <c r="F39" s="66">
-        <f t="shared" si="5"/>
-        <v>1.825</v>
-      </c>
-      <c r="G39" s="66">
-        <f t="shared" si="3"/>
-        <v>1.91625</v>
-      </c>
-      <c r="H39" s="7">
-        <v>4000</v>
-      </c>
-      <c r="I39" s="7">
-        <f>SUM(G$10:$H40)+$D$6</f>
-        <v>141051.71249999999</v>
-      </c>
-      <c r="J39" s="77">
-        <f t="shared" si="4"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="E40" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F40" s="66">
-        <f t="shared" si="5"/>
-        <v>1.75</v>
-      </c>
-      <c r="G40" s="66">
-        <f t="shared" si="3"/>
-        <v>1.8375000000000001</v>
-      </c>
-      <c r="H40" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I40" s="7">
-        <f>SUM(G$10:$H41)+$D$6</f>
-        <v>146053.47125</v>
-      </c>
-      <c r="J40" s="77">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="E41" s="7">
-        <v>-11</v>
-      </c>
-      <c r="F41" s="66">
-        <f t="shared" si="5"/>
-        <v>1.675</v>
-      </c>
-      <c r="G41" s="66">
-        <f t="shared" si="3"/>
-        <v>1.75875</v>
-      </c>
-      <c r="H41" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I41" s="7">
-        <f>SUM(G$10:$H42)+$D$6</f>
-        <v>151055.15125</v>
-      </c>
-      <c r="J41" s="77">
-        <f t="shared" si="4"/>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="E42" s="67">
-        <v>-12</v>
-      </c>
-      <c r="F42" s="66">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="G42" s="66">
-        <f t="shared" si="3"/>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="H42" s="7">
-        <v>5000</v>
-      </c>
-      <c r="I42" s="7">
-        <f>SUM(G$10:$H43)+$D$6</f>
-        <v>151055.15125</v>
-      </c>
-      <c r="J42" s="77">
-        <f t="shared" si="4"/>
-        <v>3100</v>
       </c>
     </row>
   </sheetData>
@@ -5294,8 +5048,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5308,13 +5062,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5332,8 +5086,8 @@
         <v>383</v>
       </c>
       <c r="E2" s="45">
-        <f>(D2)*100/(B2-807)*6</f>
-        <v>96.757894736842104</v>
+        <f>(D2)*100/(B2-807)*7</f>
+        <v>112.88421052631578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5351,8 +5105,8 @@
         <v>409</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:E30" si="1">(D3)*100/(B3-807)*6</f>
-        <v>104.87179487179486</v>
+        <f t="shared" ref="E3:E30" si="1">(D3)*100/(B3-807)*7</f>
+        <v>122.35042735042734</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5371,7 +5125,7 @@
       </c>
       <c r="E4" s="45">
         <f t="shared" si="1"/>
-        <v>103.24508966695132</v>
+        <v>120.45260461144321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5390,7 +5144,7 @@
       </c>
       <c r="E5" s="45">
         <f t="shared" si="1"/>
-        <v>100.72432893054963</v>
+        <v>117.51171708564124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5409,7 +5163,7 @@
       </c>
       <c r="E6" s="45">
         <f t="shared" si="1"/>
-        <v>97.621070518266777</v>
+        <v>113.89124893797791</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5454,7 +5208,7 @@
       </c>
       <c r="E9" s="45">
         <f t="shared" si="1"/>
-        <v>93.988145639288746</v>
+        <v>109.6528365791702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5473,7 +5227,7 @@
       </c>
       <c r="E10" s="45">
         <f t="shared" si="1"/>
-        <v>92.972057578323444</v>
+        <v>108.46740050804402</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5492,7 +5246,7 @@
       </c>
       <c r="E11" s="45">
         <f t="shared" si="1"/>
-        <v>89.038785834738619</v>
+        <v>103.87858347386172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5511,7 +5265,7 @@
       </c>
       <c r="E12" s="45">
         <f t="shared" si="1"/>
-        <v>86.616161616161619</v>
+        <v>101.05218855218855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5530,7 +5284,7 @@
       </c>
       <c r="E13" s="45">
         <f t="shared" si="1"/>
-        <v>82.767295597484278</v>
+        <v>96.561844863731665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5542,10 +5296,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="45">
-        <f>SUM(E2:E26)</f>
-        <v>1184.6799813792018</v>
-      </c>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="14">
@@ -5643,7 +5394,7 @@
       </c>
       <c r="E23" s="45">
         <f t="shared" si="1"/>
-        <v>75.81047381546135</v>
+        <v>88.445552784704915</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5662,7 +5413,7 @@
       </c>
       <c r="E24" s="45">
         <f t="shared" si="1"/>
-        <v>65.955701394585731</v>
+        <v>76.948318293683343</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5681,7 +5432,7 @@
       </c>
       <c r="E25" s="45">
         <f t="shared" si="1"/>
-        <v>53.709677419354833</v>
+        <v>62.661290322580641</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5700,7 +5451,7 @@
       </c>
       <c r="E26" s="45">
         <f t="shared" si="1"/>
-        <v>40.601503759398497</v>
+        <v>47.368421052631575</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5719,7 +5470,7 @@
       </c>
       <c r="E27" s="45">
         <f t="shared" si="1"/>
-        <v>53.846279405332439</v>
+        <v>62.820659306221181</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5730,15 +5481,15 @@
         <v>3354</v>
       </c>
       <c r="C28" s="45">
-        <v>3205</v>
+        <v>3502</v>
       </c>
       <c r="D28" s="45">
         <f t="shared" si="2"/>
-        <v>-149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="1"/>
-        <v>-35.100117785630154</v>
+        <v>40.675304279544562</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5770,30 +5521,51 @@
       </c>
       <c r="E30" s="45">
         <f t="shared" si="1"/>
-        <v>29.719188767550705</v>
+        <v>34.672386895475817</v>
       </c>
     </row>
     <row r="31" spans="1:5">
+      <c r="A31" s="14">
+        <v>43515</v>
+      </c>
+      <c r="B31" s="72">
+        <v>3410</v>
+      </c>
+      <c r="C31" s="45">
+        <v>3495</v>
+      </c>
       <c r="D31" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E31" s="45">
         <f t="shared" ref="E3:E43" si="3">(D31)*100/(B31-807)*7</f>
-        <v>0</v>
+        <v>22.8582404917403</v>
       </c>
     </row>
     <row r="32" spans="1:5">
+      <c r="A32" s="14">
+        <v>43516</v>
+      </c>
+      <c r="B32" s="72">
+        <v>3414</v>
+      </c>
+      <c r="C32" s="45">
+        <v>3492</v>
+      </c>
       <c r="D32" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E32" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
+        <v>20.943613348676642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14">
+        <v>43517</v>
+      </c>
       <c r="D33" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5803,7 +5575,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="1:5">
+      <c r="A34" s="14">
+        <v>43518</v>
+      </c>
       <c r="D34" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5813,7 +5588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="1:5">
+      <c r="A35" s="14">
+        <v>43519</v>
+      </c>
       <c r="D35" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5823,7 +5601,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="1:5">
+      <c r="A36" s="14">
+        <v>43520</v>
+      </c>
       <c r="D36" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5833,7 +5614,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="1:5">
+      <c r="A37" s="14">
+        <v>43521</v>
+      </c>
       <c r="D37" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5843,7 +5627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="1:5">
+      <c r="A38" s="14">
+        <v>43522</v>
+      </c>
       <c r="D38" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5853,7 +5640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="1:5">
+      <c r="A39" s="14">
+        <v>43523</v>
+      </c>
       <c r="D39" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5863,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="1:5">
       <c r="D40" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5873,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="1:5">
       <c r="D41" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5883,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="1:5">
       <c r="D42" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5893,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="1:5">
       <c r="D43" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5912,10 +5702,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5926,18 +5717,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14">
-        <v>43483</v>
+        <v>43514</v>
       </c>
       <c r="B2" s="72">
         <v>4507</v>
@@ -5950,8 +5741,267 @@
         <v>588</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(-110,(D2)*100/(B2-1500)*3)</f>
-        <v>58.663119388094444</v>
+        <f>MAX(-110,(D2)*100/(B2-1500)*2)</f>
+        <v>39.108746258729632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14">
+        <v>43515</v>
+      </c>
+      <c r="B3">
+        <v>4582</v>
+      </c>
+      <c r="C3">
+        <v>5090</v>
+      </c>
+      <c r="D3" s="45">
+        <f t="shared" ref="D3:D21" si="0">(C3-B3)</f>
+        <v>508</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" ref="E3:E21" si="1">MAX(-110,(D3)*100/(B3-1500)*2)</f>
+        <v>32.965606748864374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>43516</v>
+      </c>
+      <c r="B4">
+        <v>4604</v>
+      </c>
+      <c r="C4">
+        <v>5520</v>
+      </c>
+      <c r="D4" s="45">
+        <f t="shared" si="0"/>
+        <v>916</v>
+      </c>
+      <c r="E4" s="45">
+        <f t="shared" si="1"/>
+        <v>59.020618556701031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
+        <v>43517</v>
+      </c>
+      <c r="D5" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
+        <v>43518</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
+        <v>43519</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
+        <v>43520</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>43521</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
+        <v>43522</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
+        <v>43523</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14">
+        <v>43524</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14">
+        <v>43525</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14">
+        <v>43526</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14">
+        <v>43527</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14">
+        <v>43528</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14">
+        <v>43529</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14">
+        <v>43530</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14">
+        <v>43531</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14">
+        <v>43532</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14">
+        <v>43533</v>
+      </c>
+      <c r="D21" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5962,10 +6012,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5976,18 +6027,18 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="14">
-        <v>43483</v>
+        <v>43514</v>
       </c>
       <c r="B2" s="72">
         <v>1356</v>
@@ -6004,6 +6055,292 @@
         <v>22.438391699092087</v>
       </c>
       <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14">
+        <v>43515</v>
+      </c>
+      <c r="B3" s="72">
+        <v>1382</v>
+      </c>
+      <c r="C3" s="45">
+        <v>1528</v>
+      </c>
+      <c r="D3" s="45">
+        <f t="shared" ref="D3:D16" si="0">(C3-B3)</f>
+        <v>146</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" ref="E3:E15" si="1">MAX(10,(D3)*100/(B3-585)*1)</f>
+        <v>18.318695106649937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14">
+        <v>43516</v>
+      </c>
+      <c r="B4" s="72">
+        <v>1382</v>
+      </c>
+      <c r="C4" s="45">
+        <v>1528</v>
+      </c>
+      <c r="D4" s="45">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="E4" s="45">
+        <f t="shared" si="1"/>
+        <v>18.318695106649937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14">
+        <v>43517</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14">
+        <v>43518</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14">
+        <v>43519</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14">
+        <v>43520</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14">
+        <v>43521</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14">
+        <v>43523</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14">
+        <v>43524</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14">
+        <v>43525</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14">
+        <v>43526</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14">
+        <v>43527</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14">
+        <v>43528</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>43529</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>43530</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>43531</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>43532</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>43533</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>43534</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>43535</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>43536</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>43537</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="8"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="300" sheetId="10" r:id="rId7"/>
     <sheet name="500" sheetId="12" r:id="rId8"/>
     <sheet name="cyb" sheetId="14" r:id="rId9"/>
+    <sheet name="红利" sheetId="17" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -1226,7 +1227,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,14 +1395,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2305,13 +2298,260 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14">
+        <v>43516</v>
+      </c>
+      <c r="B2" s="72">
+        <v>2682</v>
+      </c>
+      <c r="C2" s="45">
+        <v>2693</v>
+      </c>
+      <c r="D2" s="45">
+        <f>(C2-B2)</f>
+        <v>11</v>
+      </c>
+      <c r="E2" s="45">
+        <f>(D2)*100/(B2-784)*10</f>
+        <v>5.7955742887249739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14">
+        <v>43515</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
+        <v>43516</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
+        <v>43517</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
+        <v>43518</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
+        <v>43519</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
+        <v>43520</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>43521</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
+        <v>43523</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14">
+        <v>43524</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14">
+        <v>43525</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14">
+        <v>43526</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14">
+        <v>43527</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14">
+        <v>43528</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>43529</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>43530</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>43531</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>43532</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>43533</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>43534</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>43535</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>43536</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>43537</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AI82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3624,7 +3864,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5049,7 +5288,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5105,7 +5344,7 @@
         <v>409</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:E30" si="1">(D3)*100/(B3-807)*7</f>
+        <f t="shared" ref="E3:E32" si="1">(D3)*100/(B3-807)*7</f>
         <v>122.35042735042734</v>
       </c>
     </row>
@@ -5539,7 +5778,7 @@
         <v>85</v>
       </c>
       <c r="E31" s="45">
-        <f t="shared" ref="E3:E43" si="3">(D31)*100/(B31-807)*7</f>
+        <f t="shared" si="1"/>
         <v>22.8582404917403</v>
       </c>
     </row>
@@ -5558,7 +5797,7 @@
         <v>78</v>
       </c>
       <c r="E32" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20.943613348676642</v>
       </c>
     </row>
@@ -5571,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E3:E43" si="3">(D33)*100/(B33-807)*7</f>
         <v>0</v>
       </c>
     </row>
@@ -5706,7 +5945,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5741,7 +5980,7 @@
         <v>588</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(-110,(D2)*100/(B2-1500)*2)</f>
+        <f>(D2)*100/(B2-1500)*2</f>
         <v>39.108746258729632</v>
       </c>
     </row>
@@ -5760,7 +5999,7 @@
         <v>508</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:E21" si="1">MAX(-110,(D3)*100/(B3-1500)*2)</f>
+        <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-1500)*2</f>
         <v>32.965606748864374</v>
       </c>
     </row>
@@ -5792,8 +6031,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="E3:E21" si="2">(D5)*100/(B5-1500)*2-10</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5805,8 +6044,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5818,8 +6057,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5831,8 +6070,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5844,8 +6083,8 @@
         <v>0</v>
       </c>
       <c r="E9" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5857,8 +6096,8 @@
         <v>0</v>
       </c>
       <c r="E10" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5870,8 +6109,8 @@
         <v>0</v>
       </c>
       <c r="E11" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5883,8 +6122,8 @@
         <v>0</v>
       </c>
       <c r="E12" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5896,8 +6135,8 @@
         <v>0</v>
       </c>
       <c r="E13" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5909,8 +6148,8 @@
         <v>0</v>
       </c>
       <c r="E14" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5922,8 +6161,8 @@
         <v>0</v>
       </c>
       <c r="E15" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5935,8 +6174,8 @@
         <v>0</v>
       </c>
       <c r="E16" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5948,8 +6187,8 @@
         <v>0</v>
       </c>
       <c r="E17" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5961,8 +6200,8 @@
         <v>0</v>
       </c>
       <c r="E18" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5974,8 +6213,8 @@
         <v>0</v>
       </c>
       <c r="E19" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5987,8 +6226,8 @@
         <v>0</v>
       </c>
       <c r="E20" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6000,8 +6239,8 @@
         <v>0</v>
       </c>
       <c r="E21" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -6015,8 +6254,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6051,7 +6290,7 @@
         <v>173</v>
       </c>
       <c r="E2" s="45">
-        <f>MAX(10,(D2)*100/(B2-585)*1)</f>
+        <f>(D2)*100/(B2-585)*1</f>
         <v>22.438391699092087</v>
       </c>
       <c r="F2" s="45"/>
@@ -6071,7 +6310,7 @@
         <v>146</v>
       </c>
       <c r="E3" s="45">
-        <f t="shared" ref="E3:E15" si="1">MAX(10,(D3)*100/(B3-585)*1)</f>
+        <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-585)*1</f>
         <v>18.318695106649937</v>
       </c>
     </row>
@@ -6105,8 +6344,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="E3:E16" si="2">MAX(-100,(D5)*100/(B5-585)*1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6120,8 +6359,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6135,8 +6374,8 @@
         <v>0</v>
       </c>
       <c r="E7" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6150,8 +6389,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6165,8 +6404,8 @@
         <v>0</v>
       </c>
       <c r="E9" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6180,8 +6419,8 @@
         <v>0</v>
       </c>
       <c r="E10" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6195,8 +6434,8 @@
         <v>0</v>
       </c>
       <c r="E11" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6210,8 +6449,8 @@
         <v>0</v>
       </c>
       <c r="E12" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6225,8 +6464,8 @@
         <v>0</v>
       </c>
       <c r="E13" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6240,8 +6479,8 @@
         <v>0</v>
       </c>
       <c r="E14" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6255,8 +6494,8 @@
         <v>0</v>
       </c>
       <c r="E15" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6267,6 +6506,10 @@
       <c r="C16" s="45"/>
       <c r="D16" s="45">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="8700" activeTab="9"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="3480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="300" sheetId="10" r:id="rId7"/>
     <sheet name="500" sheetId="12" r:id="rId8"/>
     <sheet name="cyb" sheetId="14" r:id="rId9"/>
-    <sheet name="红利" sheetId="17" r:id="rId10"/>
+    <sheet name="中证红利" sheetId="18" r:id="rId10"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
@@ -1221,11 +1221,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1525,7 +1526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,6 +1766,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2300,15 +2304,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2319,225 +2323,28 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="80" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14">
-        <v>43516</v>
+        <v>43486</v>
       </c>
       <c r="B2" s="72">
-        <v>2682</v>
+        <v>1540</v>
       </c>
       <c r="C2" s="45">
-        <v>2693</v>
+        <v>1569</v>
       </c>
       <c r="D2" s="45">
-        <f>(C2-B2)</f>
-        <v>11</v>
-      </c>
-      <c r="E2" s="45">
-        <f>(D2)*100/(B2-784)*10</f>
-        <v>5.7955742887249739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14">
-        <v>43515</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14">
-        <v>43516</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
-        <v>43517</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14">
-        <v>43518</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>43519</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
-        <v>43520</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14">
-        <v>43521</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14">
-        <v>43522</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="14">
-        <v>43523</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14">
-        <v>43524</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14">
-        <v>43525</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14">
-        <v>43526</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14">
-        <v>43527</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14">
-        <v>43528</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14">
-        <v>43529</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14">
-        <v>43530</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14">
-        <v>43531</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14">
-        <v>43532</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14">
-        <v>43533</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14">
-        <v>43534</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14">
-        <v>43535</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14">
-        <v>43536</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14">
-        <v>43537</v>
-      </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+        <f t="shared" ref="D2" si="0">(C2-B2)</f>
+        <v>29</v>
+      </c>
+      <c r="E2" s="80">
+        <f>(D2)*100/(B2-677)*10</f>
+        <v>33.603707995365006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2550,8 +2357,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AI82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3872,8 +3679,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B5:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5285,10 +5092,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5296,21 +5103,21 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="B1" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="80" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="14">
         <v>43486</v>
       </c>
@@ -5324,12 +5131,12 @@
         <f t="shared" ref="D2:D13" si="0">(C2-B2)</f>
         <v>383</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="80">
         <f>(D2)*100/(B2-807)*7</f>
         <v>112.88421052631578</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="14">
         <v>43487</v>
       </c>
@@ -5343,12 +5150,12 @@
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="80">
         <f t="shared" ref="E3:E32" si="1">(D3)*100/(B3-807)*7</f>
         <v>122.35042735042734</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="14">
         <v>43488</v>
       </c>
@@ -5362,12 +5169,12 @@
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="80">
         <f t="shared" si="1"/>
         <v>120.45260461144321</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="14">
         <v>43489</v>
       </c>
@@ -5381,12 +5188,12 @@
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="80">
         <f t="shared" si="1"/>
         <v>117.51171708564124</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="14">
         <v>43490</v>
       </c>
@@ -5400,12 +5207,12 @@
         <f t="shared" si="0"/>
         <v>383</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="80">
         <f t="shared" si="1"/>
         <v>113.89124893797791</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="14">
         <v>43491</v>
       </c>
@@ -5413,12 +5220,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="E7" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="14">
         <v>43492</v>
       </c>
@@ -5426,12 +5233,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="E8" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="14">
         <v>43493</v>
       </c>
@@ -5445,12 +5252,12 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="80">
         <f t="shared" si="1"/>
         <v>109.6528365791702</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="14">
         <v>43494</v>
       </c>
@@ -5464,12 +5271,12 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="80">
         <f t="shared" si="1"/>
         <v>108.46740050804402</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="14">
         <v>43495</v>
       </c>
@@ -5483,12 +5290,12 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="80">
         <f t="shared" si="1"/>
         <v>103.87858347386172</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="14">
         <v>43496</v>
       </c>
@@ -5502,12 +5309,12 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="80">
         <f t="shared" si="1"/>
         <v>101.05218855218855</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="14">
         <v>43497</v>
       </c>
@@ -5521,38 +5328,38 @@
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="80">
         <f t="shared" si="1"/>
         <v>96.561844863731665</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="14">
         <v>43498</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="45"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="E14" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="14">
         <v>43499</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="E15" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="14">
         <v>43500</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="45">
+      <c r="E16" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5562,7 +5369,7 @@
         <v>43501</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="45">
+      <c r="E17" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5572,7 +5379,7 @@
         <v>43502</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="45">
+      <c r="E18" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5582,7 +5389,7 @@
         <v>43503</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="45">
+      <c r="E19" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5592,7 +5399,7 @@
         <v>43504</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="45">
+      <c r="E20" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5602,7 +5409,7 @@
         <v>43505</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="45">
+      <c r="E21" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5612,7 +5419,7 @@
         <v>43506</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="45">
+      <c r="E22" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5631,7 +5438,7 @@
         <f t="shared" ref="D23:D43" si="2">(C23-B23)</f>
         <v>304</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="80">
         <f t="shared" si="1"/>
         <v>88.445552784704915</v>
       </c>
@@ -5650,7 +5457,7 @@
         <f t="shared" si="2"/>
         <v>268</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="80">
         <f t="shared" si="1"/>
         <v>76.948318293683343</v>
       </c>
@@ -5669,7 +5476,7 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="80">
         <f t="shared" si="1"/>
         <v>62.661290322580641</v>
       </c>
@@ -5688,7 +5495,7 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="80">
         <f t="shared" si="1"/>
         <v>47.368421052631575</v>
       </c>
@@ -5707,7 +5514,7 @@
         <f t="shared" si="2"/>
         <v>221.94165137614982</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="80">
         <f t="shared" si="1"/>
         <v>62.820659306221181</v>
       </c>
@@ -5726,7 +5533,7 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="80">
         <f t="shared" si="1"/>
         <v>40.675304279544562</v>
       </c>
@@ -5739,7 +5546,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5758,7 +5565,7 @@
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="80">
         <f t="shared" si="1"/>
         <v>34.672386895475817</v>
       </c>
@@ -5777,7 +5584,7 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="80">
         <f t="shared" si="1"/>
         <v>22.8582404917403</v>
       </c>
@@ -5796,7 +5603,7 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="80">
         <f t="shared" si="1"/>
         <v>20.943613348676642</v>
       </c>
@@ -5805,13 +5612,19 @@
       <c r="A33" s="14">
         <v>43517</v>
       </c>
+      <c r="B33" s="72">
+        <v>3422</v>
+      </c>
+      <c r="C33" s="45">
+        <v>3489</v>
+      </c>
       <c r="D33" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="45">
-        <f t="shared" ref="E3:E43" si="3">(D33)*100/(B33-807)*7</f>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="E33" s="80">
+        <f t="shared" ref="E33:E43" si="3">(D33)*100/(B33-807)*7</f>
+        <v>17.934990439770555</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5822,7 +5635,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5835,7 +5648,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5848,7 +5661,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5861,7 +5674,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5874,7 +5687,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5887,7 +5700,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5897,7 +5710,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5907,7 +5720,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5917,7 +5730,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5927,7 +5740,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5942,16 +5755,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5961,7 +5775,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="80" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5979,7 +5793,7 @@
         <f>(C2-B2)</f>
         <v>588</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="80">
         <f>(D2)*100/(B2-1500)*2</f>
         <v>39.108746258729632</v>
       </c>
@@ -5998,8 +5812,8 @@
         <f t="shared" ref="D3:D21" si="0">(C3-B3)</f>
         <v>508</v>
       </c>
-      <c r="E3" s="45">
-        <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-1500)*2</f>
+      <c r="E3" s="80">
+        <f t="shared" ref="E3:E22" si="1">(D3)*100/(B3-1500)*2</f>
         <v>32.965606748864374</v>
       </c>
     </row>
@@ -6017,7 +5831,7 @@
         <f t="shared" si="0"/>
         <v>916</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="80">
         <f t="shared" si="1"/>
         <v>59.020618556701031</v>
       </c>
@@ -6026,13 +5840,19 @@
       <c r="A5" s="14">
         <v>43517</v>
       </c>
+      <c r="B5">
+        <v>4630</v>
+      </c>
+      <c r="C5">
+        <v>5080</v>
+      </c>
       <c r="D5" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <f t="shared" ref="E3:E21" si="2">(D5)*100/(B5-1500)*2-10</f>
-        <v>-10</v>
+        <v>450</v>
+      </c>
+      <c r="E5" s="80">
+        <f t="shared" si="1"/>
+        <v>28.753993610223642</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6043,9 +5863,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E6" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6056,9 +5876,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E7" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6069,9 +5889,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E8" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6082,9 +5902,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E9" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6095,9 +5915,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E10" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6108,9 +5928,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E11" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6121,9 +5941,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E12" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6134,9 +5954,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E13" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6147,9 +5967,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E14" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6160,9 +5980,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E15" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6173,9 +5993,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E16" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6186,9 +6006,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E17" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6199,9 +6019,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E18" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6212,9 +6032,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E19" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6225,9 +6045,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E20" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6238,9 +6058,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="45">
-        <f t="shared" si="2"/>
-        <v>-10</v>
+      <c r="E21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6255,13 +6081,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6271,7 +6098,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="80" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6289,7 +6116,7 @@
         <f>(C2-B2)</f>
         <v>173</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="80">
         <f>(D2)*100/(B2-585)*1</f>
         <v>22.438391699092087</v>
       </c>
@@ -6309,7 +6136,7 @@
         <f t="shared" ref="D3:D16" si="0">(C3-B3)</f>
         <v>146</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="80">
         <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-585)*1</f>
         <v>18.318695106649937</v>
       </c>
@@ -6328,7 +6155,7 @@
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="80">
         <f t="shared" si="1"/>
         <v>18.318695106649937</v>
       </c>
@@ -6337,15 +6164,19 @@
       <c r="A5" s="14">
         <v>43517</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="72">
+        <v>1398</v>
+      </c>
+      <c r="C5" s="45">
+        <v>1525</v>
+      </c>
       <c r="D5" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
+        <v>127</v>
+      </c>
+      <c r="E5" s="80">
         <f t="shared" ref="E3:E16" si="2">MAX(-100,(D5)*100/(B5-585)*1)</f>
-        <v>0</v>
+        <v>15.621156211562116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6358,7 +6189,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6373,7 +6204,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6388,7 +6219,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6403,7 +6234,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6418,7 +6249,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6433,7 +6264,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6448,7 +6279,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6463,7 +6294,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6478,7 +6309,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6493,7 +6324,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6508,7 +6339,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -18,15 +18,12 @@
     <sheet name="cyb" sheetId="14" r:id="rId9"/>
     <sheet name="中证红利" sheetId="18" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="188">
   <si>
     <r>
       <rPr>
@@ -1117,13 +1114,6 @@
     <t>110008</t>
   </si>
   <si>
-    <t>易方达信用债债券C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000033</t>
-  </si>
-  <si>
     <t>广发聚财信用债券B</t>
   </si>
   <si>
@@ -1209,11 +1199,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>510300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1216,7 @@
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1398,7 +1388,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,12 +1422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,20 +1739,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1867,26 +1848,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="股票指数"/>
-      <sheetName val="开放式基金"/>
-      <sheetName val="贵金属"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="更新开放式基金净值"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2323,7 +2284,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="78" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2341,7 +2302,7 @@
         <f t="shared" ref="D2" si="0">(C2-B2)</f>
         <v>29</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="78">
         <f>(D2)*100/(B2-677)*10</f>
         <v>33.603707995365006</v>
       </c>
@@ -2355,10 +2316,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AI82"/>
+  <dimension ref="B1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2433,7 +2394,7 @@
         <v>11355</v>
       </c>
       <c r="E2" s="56">
-        <v>5307</v>
+        <v>5364</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>50</v>
@@ -2516,14 +2477,14 @@
       <c r="B3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="26" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="56">
         <v>9190</v>
       </c>
       <c r="E3" s="56">
-        <v>6140</v>
+        <v>6179</v>
       </c>
       <c r="F3" s="26"/>
       <c r="I3" s="49"/>
@@ -2533,10 +2494,10 @@
     </row>
     <row r="4" spans="2:35" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="58">
         <v>1000</v>
@@ -2628,7 +2589,7 @@
         <v>2064</v>
       </c>
       <c r="E6" s="56">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>42</v>
@@ -2712,7 +2673,7 @@
         <v>500</v>
       </c>
       <c r="E7" s="56">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="F7" s="26"/>
       <c r="I7" s="49"/>
@@ -2720,18 +2681,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:35" s="12" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="2:35" s="12" customFormat="1" ht="14.25">
       <c r="B8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D8" s="56">
         <v>1200</v>
       </c>
       <c r="E8" s="56">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="F8" s="26"/>
       <c r="I8" s="49"/>
@@ -2739,101 +2700,74 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="56">
-        <v>628</v>
-      </c>
-      <c r="E9" s="56">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="Q9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" s="12" customFormat="1" ht="16.5">
-      <c r="B10" s="26" t="s">
+    <row r="9" spans="2:35" s="12" customFormat="1" ht="16.5">
+      <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C9" s="26">
         <v>485011</v>
       </c>
+      <c r="D9" s="58">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="59">
+        <v>40406</v>
+      </c>
+      <c r="H9" s="60">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I9" s="61">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="J9" s="60">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="K9" s="60">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="L9" s="60">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M9" s="60">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" s="12" customFormat="1">
+      <c r="B10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>163</v>
+      </c>
       <c r="D10" s="58">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E10" s="58"/>
-      <c r="F10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="59">
-        <v>40406</v>
-      </c>
-      <c r="H10" s="60">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I10" s="61">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="J10" s="60">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="K10" s="60">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="L10" s="60">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="M10" s="60">
-        <v>0.79490000000000005</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:35" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="D11" s="58">
         <v>200</v>
@@ -2850,13 +2784,13 @@
     </row>
     <row r="12" spans="2:35" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="D12" s="58">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="26"/>
@@ -2870,13 +2804,13 @@
     </row>
     <row r="13" spans="2:35" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>165</v>
       </c>
       <c r="D13" s="58">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E13" s="58"/>
       <c r="F13" s="26"/>
@@ -2888,17 +2822,17 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="2:35" s="12" customFormat="1">
+    <row r="14" spans="2:35" s="12" customFormat="1" ht="14.25" thickBot="1">
       <c r="B14" s="12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="58">
-        <v>200</v>
-      </c>
-      <c r="E14" s="58"/>
+        <v>171</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58">
+        <v>5173</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="31"/>
       <c r="H14" s="29"/>
@@ -2908,16 +2842,18 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="2:35" s="12" customFormat="1">
-      <c r="B15" s="12" t="s">
-        <v>174</v>
+    <row r="15" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58">
-        <v>5165</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="56">
+        <v>628</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="31"/>
@@ -2927,727 +2863,741 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="2:35" s="19" customFormat="1">
+      <c r="Q15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" s="19" customFormat="1" ht="16.5">
       <c r="B16" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="2:16" s="19" customFormat="1" ht="16.5">
-      <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C16" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="D16" s="46">
+        <v>1434</v>
+      </c>
+      <c r="E16" s="46">
+        <v>2305</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="21">
+        <v>41255</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J16" s="22">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K16" s="22">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L16" s="22">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.5">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="46">
-        <v>1434</v>
+        <v>5362</v>
       </c>
       <c r="E17" s="46">
-        <v>4091</v>
+        <v>4014</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="21">
-        <v>41255</v>
-      </c>
-      <c r="H17" s="22">
+        <v>56</v>
+      </c>
+      <c r="G17" s="14">
+        <v>41519</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="51">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.1229</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.34060000000000001</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="19" customFormat="1" ht="16.5">
+      <c r="B18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="46">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="75">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="23">
+        <v>41341</v>
+      </c>
+      <c r="H18" s="22">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I17" s="52">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="I18" s="52">
+        <v>1.84E-2</v>
+      </c>
+      <c r="J18" s="22">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="K18" s="22">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.5">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="46">
+        <v>974</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="14">
+        <v>41478</v>
+      </c>
+      <c r="H19" s="15">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I19" s="53">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J19" s="15">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K17" s="22">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="L17" s="22">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.5">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="46">
-        <v>5362</v>
-      </c>
-      <c r="E18" s="46">
-        <v>3997</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="14">
-        <v>41519</v>
-      </c>
-      <c r="H18" s="15">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I18" s="51">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J18" s="15">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="K18" s="15">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0.1229</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0.34060000000000001</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" s="19" customFormat="1" ht="16.5">
-      <c r="B19" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="46">
-        <v>1200</v>
-      </c>
-      <c r="E19" s="58">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="23">
-        <v>41341</v>
-      </c>
-      <c r="H19" s="22">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I19" s="52">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K19" s="22">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L19" s="22">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0.25140000000000001</v>
+      <c r="K19" s="15">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L19" s="15">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.35639999999999999</v>
       </c>
       <c r="P19" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16.5">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>48</v>
+    <row r="20" spans="2:16" ht="14.25">
+      <c r="B20" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="46">
-        <v>2000</v>
+        <v>1251</v>
       </c>
       <c r="E20" s="46">
-        <v>1880</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="14">
-        <v>41478</v>
-      </c>
-      <c r="H20" s="15">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I20" s="53">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J20" s="15">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K20" s="15">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L20" s="15">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>61</v>
+        <v>4402</v>
+      </c>
+      <c r="N20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25">
       <c r="B21" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>80</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="D21" s="46">
-        <v>1251</v>
-      </c>
-      <c r="E21" s="46">
-        <v>2583</v>
-      </c>
-      <c r="N21" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>95</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="46">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="46"/>
+      <c r="B22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="46">
+        <v>1300</v>
+      </c>
       <c r="P22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1300</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="46"/>
       <c r="P23" s="41"/>
     </row>
-    <row r="24" spans="2:16" ht="14.25">
-      <c r="B24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>127</v>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
+        <v>131</v>
       </c>
       <c r="D24" s="46">
-        <v>1000</v>
+        <v>3035</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D25" s="46">
-        <v>3035</v>
-      </c>
-      <c r="E25" s="46"/>
+        <v>4148</v>
+      </c>
+      <c r="E25" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="46">
-        <v>4148</v>
-      </c>
-      <c r="E26" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="I27" s="51"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="I28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="2:16">
+      <c r="B29" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="I29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J29" s="64">
+        <f>SUM(J30:J34)</f>
+        <v>90472.7</v>
+      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="I30" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J30" s="64">
-        <f>SUM(J31:J35)</f>
-        <v>58070.6</v>
-      </c>
-      <c r="K30" s="7"/>
+        <f>SUM(D16:E23)</f>
+        <v>26242</v>
+      </c>
+      <c r="K30" s="62">
+        <f>J30/J29</f>
+        <v>0.29005434788615791</v>
+      </c>
     </row>
     <row r="31" spans="2:16">
       <c r="I31" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" s="64">
-        <f>SUM(D17:D24)</f>
-        <v>13247</v>
+        <f>SUM(D6:E14)</f>
+        <v>14022</v>
       </c>
       <c r="K31" s="62">
-        <f>J31/J30</f>
-        <v>0.2281188759888825</v>
+        <f>J31/J29</f>
+        <v>0.15498597919593424</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="I32" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J32" s="64">
-        <f>SUM(D6:D15)</f>
-        <v>6492</v>
+        <f>SUM(D2:E5)</f>
+        <v>35491</v>
       </c>
       <c r="K32" s="62">
-        <f>J32/J30</f>
-        <v>0.11179495303992038</v>
+        <f>J32/J29</f>
+        <v>0.39228408127534603</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="I33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="64">
-        <f>SUM(D2:D5)</f>
-        <v>23948</v>
+        <v>112</v>
+      </c>
+      <c r="J33" s="69">
+        <f>SUM(G38:G42)</f>
+        <v>7534.7000000000007</v>
       </c>
       <c r="K33" s="62">
-        <f>J33/J30</f>
-        <v>0.41239456799137603</v>
+        <f>J33/J29</f>
+        <v>8.3281476069576796E-2</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="I34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="69">
-        <f>SUM(G39:G43)</f>
-        <v>7200.6</v>
-      </c>
-      <c r="K34" s="62">
-        <f>J34/J30</f>
-        <v>0.12399734116747546</v>
-      </c>
+      <c r="I34" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="64">
+        <f>SUM(D24:D25)</f>
+        <v>7183</v>
+      </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="I35" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="J35" s="64">
-        <f>SUM(D25:D26)</f>
-        <v>7183</v>
-      </c>
-      <c r="K35" s="7"/>
+      <c r="I35"/>
+      <c r="J35" s="54"/>
     </row>
     <row r="36" spans="2:11">
       <c r="I36"/>
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="2:11">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I37"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" s="54"/>
+      <c r="B38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="8">
+        <v>501029</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38*1.05</f>
+        <v>0.93870000000000009</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="55">
+        <f>D38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J38" s="55"/>
+      <c r="K38" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="8">
-        <v>501029</v>
+        <v>159905</v>
       </c>
       <c r="D39" s="8">
-        <v>0.89400000000000002</v>
+        <v>1.381</v>
       </c>
       <c r="E39" s="8">
         <f>D39*1.05</f>
-        <v>0.93870000000000009</v>
+        <v>1.4500500000000001</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="55">
-        <f>D39*F39</f>
+        <f t="shared" ref="G39:G42" si="0">D39*F39</f>
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" s="55"/>
-      <c r="K39" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J39" s="64">
+        <f>SUM(J40:J44)</f>
+        <v>27523</v>
+      </c>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C40" s="8">
-        <v>159905</v>
+        <v>510880</v>
       </c>
       <c r="D40" s="8">
-        <v>1.381</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="E40" s="8">
         <f>D40*1.05</f>
-        <v>1.4500500000000001</v>
+        <v>2.7698999999999998</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="55">
-        <f t="shared" ref="G40:G43" si="0">D40*F40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J40" s="64">
-        <f>SUM(J41:J45)</f>
-        <v>27348</v>
-      </c>
-      <c r="K40" s="7"/>
+        <f>SUM(E16:E23)</f>
+        <v>12995</v>
+      </c>
+      <c r="K40" s="62">
+        <f>J40/J39</f>
+        <v>0.47215056498201502</v>
+      </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="8">
-        <v>510880</v>
+        <v>510900</v>
       </c>
       <c r="D41" s="8">
-        <v>2.6379999999999999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="E41" s="8">
         <f>D41*1.05</f>
-        <v>2.7698999999999998</v>
+        <v>1.36395</v>
       </c>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D41*F41</f>
+        <v>5196</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J41" s="64">
-        <f>SUM(E17:E24)</f>
-        <v>13851</v>
+        <f>SUM(E6:E13)</f>
+        <v>2985</v>
       </c>
       <c r="K41" s="62">
-        <f>J41/J40</f>
-        <v>0.50647213690215009</v>
+        <f>J41/J39</f>
+        <v>0.1084547469389238</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="8">
-        <v>510900</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="B42" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="45">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="E42" s="45">
         <f>D42*1.05</f>
-        <v>1.36395</v>
-      </c>
-      <c r="F42" s="8">
-        <v>4000</v>
+        <v>3.5080500000000003</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="G42" s="55">
-        <f>D42*F42</f>
-        <v>5196</v>
+        <f t="shared" si="0"/>
+        <v>2338.7000000000003</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J42" s="64">
-        <f>SUM(E6:E14)</f>
-        <v>2050</v>
+        <f>SUM(E2:E3)</f>
+        <v>11543</v>
       </c>
       <c r="K42" s="62">
-        <f>J42/J40</f>
-        <v>7.4959777680269124E-2</v>
+        <f>J42/J39</f>
+        <v>0.41939468807906116</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="45">
-        <v>3.3410000000000002</v>
-      </c>
-      <c r="E43" s="45">
-        <f>D43*1.05</f>
-        <v>3.5080500000000003</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="55">
-        <f t="shared" si="0"/>
-        <v>2004.6000000000001</v>
-      </c>
       <c r="I43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="64">
-        <f>SUM(E2:E3)</f>
-        <v>11447</v>
+        <v>112</v>
+      </c>
+      <c r="J43" s="69">
+        <v>0</v>
       </c>
       <c r="K43" s="62">
-        <f>J43/J40</f>
-        <v>0.41856808541758084</v>
+        <f>J43/J39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="I44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J44" s="69">
-        <v>0</v>
-      </c>
-      <c r="K44" s="62">
-        <f>J44/J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="I45" s="67" t="s">
+      <c r="I44" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="J45" s="64">
-        <f>SUM(D34:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="62" t="s">
+      <c r="J44" s="64">
+        <f>SUM(D33:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C64" s="74">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="8" t="s">
+    <row r="66" spans="2:9">
+      <c r="B66" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="C66" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="73">
+        <v>2559</v>
+      </c>
+      <c r="E66" s="73"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="7"/>
       <c r="C67" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D67" s="73">
-        <v>2559</v>
-      </c>
-      <c r="E67" s="73"/>
-    </row>
-    <row r="68" spans="2:6">
+        <v>2520</v>
+      </c>
+      <c r="E67" s="73">
+        <f>MIN(IFERROR(D67-D66,0),0)*100*$C$64/(D66-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" s="7"/>
       <c r="C68" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="73">
+        <v>2547</v>
+      </c>
+      <c r="E68" s="73">
+        <f>(D68-D66)*100*$C$64/(D66-1800)</f>
+        <v>-34.782608695652172</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="E69" s="73">
+        <f>(D68+D67-D66*2)*100*$C$64/(D66-1800)</f>
+        <v>-147.82608695652175</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="73">
+        <v>1277</v>
+      </c>
+      <c r="E71" s="73"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7"/>
+      <c r="C72" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="73">
-        <v>2520</v>
-      </c>
-      <c r="E68" s="73">
-        <f>MIN(IFERROR(D68-D67,0),0)*100*$C$65/(D67-1800)</f>
-        <v>-113.04347826086956</v>
-      </c>
-      <c r="F68" s="18" t="s">
+      <c r="D72" s="73">
+        <v>1359</v>
+      </c>
+      <c r="E72" s="73">
+        <f>MIN(IFERROR(D72-D71,0),0)*100*$C$64/(D71-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="7"/>
-      <c r="C69" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="73">
-        <v>2547</v>
-      </c>
-      <c r="E69" s="73">
-        <f>(D69-D67)*100*$C$65/(D67-1800)</f>
-        <v>-34.782608695652172</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="E70" s="73">
-        <f>(D69+D68-D67*2)*100*$C$65/(D67-1800)</f>
-        <v>-147.82608695652175</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="73">
-        <v>1277</v>
-      </c>
-      <c r="E72" s="73"/>
-    </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:9">
       <c r="B73" s="7"/>
       <c r="C73" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="73">
+        <v>1537</v>
+      </c>
+      <c r="E73" s="73">
+        <f>(D73-D71)*100*$C$64/(D71-1000)</f>
+        <v>2064.9819494584835</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="E74" s="73">
+        <f>(D73+D72-D71*2)*100*$C$64/(D71-1000)</f>
+        <v>2716.2454873646211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="73">
+        <v>869</v>
+      </c>
+      <c r="E76" s="73"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="7"/>
+      <c r="C77" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="73">
-        <v>1359</v>
-      </c>
-      <c r="E73" s="73">
-        <f>MIN(IFERROR(D73-D72,0),0)*100*$C$65/(D72-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="18" t="s">
+      <c r="D77" s="73">
+        <v>877</v>
+      </c>
+      <c r="E77" s="73">
+        <f>MIN(IFERROR(D77-D76,0),0)*100*$C$64/(D76-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="7"/>
-      <c r="C74" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="73">
-        <v>1537</v>
-      </c>
-      <c r="E74" s="73">
-        <f>(D74-D72)*100*$C$65/(D72-1000)</f>
-        <v>2064.9819494584835</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="E75" s="73">
-        <f>(D74+D73-D72*2)*100*$C$65/(D72-1000)</f>
-        <v>2716.2454873646211</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="73">
-        <v>869</v>
-      </c>
-      <c r="E77" s="73"/>
-    </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:9">
       <c r="B78" s="7"/>
       <c r="C78" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D78" s="73">
-        <v>877</v>
+        <v>958</v>
       </c>
       <c r="E78" s="73">
-        <f>MIN(IFERROR(D78-D77,0),0)*100*$C$65/(D77-1800)</f>
-        <v>0</v>
+        <f>(D78-D76)*100*$C$64/(D76-800)</f>
+        <v>2837.68115942029</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="7"/>
-      <c r="C79" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="73">
-        <v>958</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="E79" s="73">
-        <f>(D79-D77)*100*$C$65/(D77-800)</f>
-        <v>2837.68115942029</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="E80" s="73">
-        <f>(D79+D78-D77*2)*100*$C$65/(D77-800)</f>
+        <f>(D78+D77-D76*2)*100*$C$64/(D76-800)</f>
         <v>3092.753623188406</v>
       </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="C80"/>
+      <c r="D80" s="54"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="3:9">
       <c r="C81"/>
@@ -3656,17 +3606,10 @@
       <c r="F81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="3:9">
-      <c r="C82"/>
-      <c r="D82" s="54"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="I82"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B20" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,47 +3810,47 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4628,7 +4571,7 @@
     <col min="7" max="7" width="9" style="65"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
@@ -4686,10 +4629,10 @@
         <v>143</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4711,7 +4654,7 @@
         <f>SUM($H$10:H10)+$D$6</f>
         <v>2500</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="76">
         <f>INT(H10/(F10*100))*100</f>
         <v>900</v>
       </c>
@@ -4735,7 +4678,7 @@
         <f>SUM($H$10:H11)+$D$6</f>
         <v>5000</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="76">
         <f t="shared" ref="J11:J25" si="2">INT(H11/(F11*100))*100</f>
         <v>900</v>
       </c>
@@ -4759,7 +4702,7 @@
         <f>SUM($H$10:H12)+$D$6</f>
         <v>7500</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="76">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -4783,7 +4726,7 @@
         <f>SUM($H$10:H13)+$D$6</f>
         <v>10000</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="76">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -4807,7 +4750,7 @@
         <f>SUM($H$10:H14)+$D$6</f>
         <v>12500</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="76">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
@@ -4831,7 +4774,7 @@
         <f>SUM($H$10:H15)+$D$6</f>
         <v>15500</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="76">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
@@ -4855,7 +4798,7 @@
         <f>SUM($H$10:H16)+$D$6</f>
         <v>18500</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="76">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
@@ -4879,7 +4822,7 @@
         <f>SUM($H$10:H17)+$D$6</f>
         <v>21500</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="76">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
@@ -4903,7 +4846,7 @@
         <f>SUM($H$10:H18)+$D$6</f>
         <v>25500</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="76">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
@@ -4927,7 +4870,7 @@
         <f>SUM($H$10:H19)+$D$6</f>
         <v>29500</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="76">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
@@ -4951,7 +4894,7 @@
         <f>SUM($H$10:H20)+$D$6</f>
         <v>33500</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="76">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
@@ -4975,7 +4918,7 @@
         <f>SUM($H$10:H21)+$D$6</f>
         <v>37500</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="76">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
@@ -4999,7 +4942,7 @@
         <f>SUM($H$10:H22)+$D$6</f>
         <v>41500</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="76">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
@@ -5023,7 +4966,7 @@
         <f>SUM($H$10:H23)+$D$6</f>
         <v>46500</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="76">
         <f t="shared" si="2"/>
         <v>2900</v>
       </c>
@@ -5047,7 +4990,7 @@
         <f>SUM($H$10:H24)+$D$6</f>
         <v>51500</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="76">
         <f t="shared" si="2"/>
         <v>3100</v>
       </c>
@@ -5071,7 +5014,7 @@
         <f>SUM($H$10:H25)+$D$6</f>
         <v>56500</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="76">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
@@ -5095,7 +5038,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5103,7 +5046,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="80" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5113,7 +5056,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="78" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5131,9 +5074,13 @@
         <f t="shared" ref="D2:D13" si="0">(C2-B2)</f>
         <v>383</v>
       </c>
-      <c r="E2" s="80">
-        <f>(D2)*100/(B2-807)*7</f>
-        <v>112.88421052631578</v>
+      <c r="E2" s="78">
+        <f>(D2)*100/(B2-807)*4</f>
+        <v>64.505263157894731</v>
+      </c>
+      <c r="F2" s="78">
+        <f>SUM(E2:E197)</f>
+        <v>910.8519071005295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5150,9 +5097,9 @@
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="E3" s="80">
-        <f t="shared" ref="E3:E32" si="1">(D3)*100/(B3-807)*7</f>
-        <v>122.35042735042734</v>
+      <c r="E3" s="78">
+        <f t="shared" ref="E3:E34" si="1">(D3)*100/(B3-807)*4</f>
+        <v>69.914529914529908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5169,9 +5116,9 @@
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
-      <c r="E4" s="80">
-        <f t="shared" si="1"/>
-        <v>120.45260461144321</v>
+      <c r="E4" s="78">
+        <f t="shared" si="1"/>
+        <v>68.830059777967548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5188,9 +5135,9 @@
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="E5" s="80">
-        <f t="shared" si="1"/>
-        <v>117.51171708564124</v>
+      <c r="E5" s="78">
+        <f t="shared" si="1"/>
+        <v>67.149552620366421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5207,9 +5154,9 @@
         <f t="shared" si="0"/>
         <v>383</v>
       </c>
-      <c r="E6" s="80">
-        <f t="shared" si="1"/>
-        <v>113.89124893797791</v>
+      <c r="E6" s="78">
+        <f t="shared" si="1"/>
+        <v>65.080713678844518</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5220,7 +5167,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5233,7 +5180,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5252,9 +5199,9 @@
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="E9" s="80">
-        <f t="shared" si="1"/>
-        <v>109.6528365791702</v>
+      <c r="E9" s="78">
+        <f t="shared" si="1"/>
+        <v>62.658763759525826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5271,9 +5218,9 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="E10" s="80">
-        <f t="shared" si="1"/>
-        <v>108.46740050804402</v>
+      <c r="E10" s="78">
+        <f t="shared" si="1"/>
+        <v>61.981371718882301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5290,9 +5237,9 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="E11" s="80">
-        <f t="shared" si="1"/>
-        <v>103.87858347386172</v>
+      <c r="E11" s="78">
+        <f t="shared" si="1"/>
+        <v>59.359190556492415</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5309,9 +5256,9 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="E12" s="80">
-        <f t="shared" si="1"/>
-        <v>101.05218855218855</v>
+      <c r="E12" s="78">
+        <f t="shared" si="1"/>
+        <v>57.744107744107744</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5328,9 +5275,9 @@
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="E13" s="80">
-        <f t="shared" si="1"/>
-        <v>96.561844863731665</v>
+      <c r="E13" s="78">
+        <f t="shared" si="1"/>
+        <v>55.178197064989519</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5338,7 +5285,7 @@
         <v>43498</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5349,7 +5296,7 @@
         <v>43499</v>
       </c>
       <c r="D15" s="45"/>
-      <c r="E15" s="80">
+      <c r="E15" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5359,7 +5306,7 @@
         <v>43500</v>
       </c>
       <c r="D16" s="45"/>
-      <c r="E16" s="80">
+      <c r="E16" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5369,7 +5316,7 @@
         <v>43501</v>
       </c>
       <c r="D17" s="45"/>
-      <c r="E17" s="80">
+      <c r="E17" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5379,7 +5326,7 @@
         <v>43502</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5389,7 +5336,7 @@
         <v>43503</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5399,7 +5346,7 @@
         <v>43504</v>
       </c>
       <c r="D20" s="45"/>
-      <c r="E20" s="80">
+      <c r="E20" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5409,7 +5356,7 @@
         <v>43505</v>
       </c>
       <c r="D21" s="45"/>
-      <c r="E21" s="80">
+      <c r="E21" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5419,7 +5366,7 @@
         <v>43506</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="80">
+      <c r="E22" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5438,9 +5385,9 @@
         <f t="shared" ref="D23:D43" si="2">(C23-B23)</f>
         <v>304</v>
       </c>
-      <c r="E23" s="80">
-        <f t="shared" si="1"/>
-        <v>88.445552784704915</v>
+      <c r="E23" s="78">
+        <f t="shared" si="1"/>
+        <v>50.540315876974233</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5457,9 +5404,9 @@
         <f t="shared" si="2"/>
         <v>268</v>
       </c>
-      <c r="E24" s="80">
-        <f t="shared" si="1"/>
-        <v>76.948318293683343</v>
+      <c r="E24" s="78">
+        <f t="shared" si="1"/>
+        <v>43.970467596390485</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5476,9 +5423,9 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="E25" s="80">
-        <f t="shared" si="1"/>
-        <v>62.661290322580641</v>
+      <c r="E25" s="78">
+        <f t="shared" si="1"/>
+        <v>35.806451612903224</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5495,9 +5442,9 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="E26" s="80">
-        <f t="shared" si="1"/>
-        <v>47.368421052631575</v>
+      <c r="E26" s="78">
+        <f t="shared" si="1"/>
+        <v>27.06766917293233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5514,9 +5461,9 @@
         <f t="shared" si="2"/>
         <v>221.94165137614982</v>
       </c>
-      <c r="E27" s="80">
-        <f t="shared" si="1"/>
-        <v>62.820659306221181</v>
+      <c r="E27" s="78">
+        <f t="shared" si="1"/>
+        <v>35.897519603554962</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5533,9 +5480,9 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="E28" s="80">
-        <f t="shared" si="1"/>
-        <v>40.675304279544562</v>
+      <c r="E28" s="78">
+        <f t="shared" si="1"/>
+        <v>23.243031016882608</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5546,7 +5493,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5565,9 +5512,9 @@
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="E30" s="80">
-        <f t="shared" si="1"/>
-        <v>34.672386895475817</v>
+      <c r="E30" s="78">
+        <f t="shared" si="1"/>
+        <v>19.812792511700469</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5584,9 +5531,9 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E31" s="80">
-        <f t="shared" si="1"/>
-        <v>22.8582404917403</v>
+      <c r="E31" s="78">
+        <f t="shared" si="1"/>
+        <v>13.061851709565886</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5603,9 +5550,9 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="E32" s="80">
-        <f t="shared" si="1"/>
-        <v>20.943613348676642</v>
+      <c r="E32" s="78">
+        <f t="shared" si="1"/>
+        <v>11.967779056386652</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5622,22 +5569,28 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="E33" s="80">
-        <f t="shared" ref="E33:E43" si="3">(D33)*100/(B33-807)*7</f>
-        <v>17.934990439770555</v>
+      <c r="E33" s="78">
+        <f t="shared" si="1"/>
+        <v>10.248565965583174</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="14">
         <v>43518</v>
       </c>
+      <c r="B34" s="72">
+        <v>3441</v>
+      </c>
+      <c r="C34" s="45">
+        <v>3486</v>
+      </c>
       <c r="D34" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E34" s="78">
+        <f t="shared" si="1"/>
+        <v>6.83371298405467</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5648,8 +5601,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="80">
-        <f t="shared" si="3"/>
+      <c r="E35" s="78">
+        <f t="shared" ref="E35:E43" si="3">(D35)*100/(B35-807)*7</f>
         <v>0</v>
       </c>
     </row>
@@ -5661,7 +5614,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5674,7 +5627,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E37" s="80">
+      <c r="E37" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5687,7 +5640,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5700,7 +5653,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5710,7 +5663,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5720,7 +5673,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5730,7 +5683,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5740,7 +5693,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5755,31 +5708,31 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="78" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="14">
         <v>43514</v>
       </c>
@@ -5793,12 +5746,16 @@
         <f>(C2-B2)</f>
         <v>588</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="78">
         <f>(D2)*100/(B2-1500)*2</f>
         <v>39.108746258729632</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="78">
+        <f>SUM(E2:E197)</f>
+        <v>185.97167232189375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="14">
         <v>43515</v>
       </c>
@@ -5812,12 +5769,12 @@
         <f t="shared" ref="D3:D21" si="0">(C3-B3)</f>
         <v>508</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="78">
         <f t="shared" ref="E3:E22" si="1">(D3)*100/(B3-1500)*2</f>
         <v>32.965606748864374</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="14">
         <v>43516</v>
       </c>
@@ -5831,12 +5788,12 @@
         <f t="shared" si="0"/>
         <v>916</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="78">
         <f t="shared" si="1"/>
         <v>59.020618556701031</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="14">
         <v>43517</v>
       </c>
@@ -5850,25 +5807,31 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="78">
         <f t="shared" si="1"/>
         <v>28.753993610223642</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>43518</v>
       </c>
+      <c r="B6">
+        <v>4662</v>
+      </c>
+      <c r="C6">
+        <v>5075</v>
+      </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>413</v>
+      </c>
+      <c r="E6" s="78">
+        <f t="shared" si="1"/>
+        <v>26.122707147375078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="14">
         <v>43519</v>
       </c>
@@ -5876,12 +5839,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="14">
         <v>43520</v>
       </c>
@@ -5889,12 +5852,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="14">
         <v>43521</v>
       </c>
@@ -5902,12 +5865,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="14">
         <v>43522</v>
       </c>
@@ -5915,12 +5878,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="14">
         <v>43523</v>
       </c>
@@ -5928,12 +5891,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="14">
         <v>43524</v>
       </c>
@@ -5941,12 +5904,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="14">
         <v>43525</v>
       </c>
@@ -5954,12 +5917,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="14">
         <v>43526</v>
       </c>
@@ -5967,12 +5930,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="14">
         <v>43527</v>
       </c>
@@ -5980,12 +5943,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="14">
         <v>43528</v>
       </c>
@@ -5993,7 +5956,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6006,7 +5969,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6019,7 +5982,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6032,7 +5995,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6045,7 +6008,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6058,13 +6021,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="E22" s="80">
+      <c r="E22" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6081,14 +6044,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6098,7 +6061,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="78" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6116,11 +6079,14 @@
         <f>(C2-B2)</f>
         <v>173</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="78">
         <f>(D2)*100/(B2-585)*1</f>
         <v>22.438391699092087</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="78">
+        <f>SUM(E2:E39)</f>
+        <v>88.774608026866701</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14">
@@ -6136,7 +6102,7 @@
         <f t="shared" ref="D3:D16" si="0">(C3-B3)</f>
         <v>146</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="78">
         <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-585)*1</f>
         <v>18.318695106649937</v>
       </c>
@@ -6155,7 +6121,7 @@
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="78">
         <f t="shared" si="1"/>
         <v>18.318695106649937</v>
       </c>
@@ -6174,8 +6140,8 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="E5" s="80">
-        <f t="shared" ref="E3:E16" si="2">MAX(-100,(D5)*100/(B5-585)*1)</f>
+      <c r="E5" s="78">
+        <f t="shared" ref="E5:E16" si="2">MAX(-100,(D5)*100/(B5-585)*1)</f>
         <v>15.621156211562116</v>
       </c>
     </row>
@@ -6183,15 +6149,19 @@
       <c r="A6" s="14">
         <v>43518</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="72">
+        <v>1409</v>
+      </c>
+      <c r="C6" s="45">
+        <v>1525</v>
+      </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="80">
+        <v>116</v>
+      </c>
+      <c r="E6" s="78">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.077669902912621</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6204,7 +6174,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6219,7 +6189,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6234,7 +6204,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6249,7 +6219,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6264,7 +6234,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6279,7 +6249,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6294,7 +6264,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6309,7 +6279,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6324,7 +6294,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6339,7 +6309,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="3480" activeTab="1"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="1650" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,15 @@
     <sheet name="红利ETF" sheetId="13" r:id="rId6"/>
     <sheet name="300" sheetId="10" r:id="rId7"/>
     <sheet name="500" sheetId="12" r:id="rId8"/>
-    <sheet name="cyb" sheetId="14" r:id="rId9"/>
-    <sheet name="中证红利" sheetId="18" r:id="rId10"/>
+    <sheet name="有色" sheetId="20" r:id="rId9"/>
+    <sheet name="医药ETF" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -1099,9 +1099,6 @@
     <t>博时宏观回报债券B</t>
   </si>
   <si>
-    <t>051016</t>
-  </si>
-  <si>
     <t>易方达增强回报债券B</t>
   </si>
   <si>
@@ -1203,7 +1200,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700</t>
+    <t>519713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银阿尔法后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位(股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前仓位（股）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,12 +1252,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1388,7 +1430,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,6 +1464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,7 +1558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1794,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2139,7 +2196,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2265,46 +2322,705 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A3:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="65"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="9" style="65"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="9" style="76"/>
+    <col min="13" max="13" width="9" style="76"/>
+    <col min="14" max="14" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14">
-        <v>43486</v>
-      </c>
-      <c r="B2" s="72">
-        <v>1540</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1569</v>
-      </c>
-      <c r="D2" s="45">
-        <f t="shared" ref="D2" si="0">(C2-B2)</f>
-        <v>29</v>
-      </c>
-      <c r="E2" s="78">
-        <f>(D2)*100/(B2-677)*10</f>
-        <v>33.603707995365006</v>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="68">
+        <v>512010</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="C4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="80">
+        <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
+        <v>1.8769800000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>500</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
+        <v>1.9708290000000002</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM($G$10:G10)+$D$6</f>
+        <v>500</v>
+      </c>
+      <c r="K10" s="76">
+        <f t="shared" ref="K10:K25" si="2">F10*G10</f>
+        <v>938.49</v>
+      </c>
+      <c r="L10" s="76">
+        <f>SUM($K$10:K10)+$D$6</f>
+        <v>938.49</v>
+      </c>
+      <c r="M10" s="76">
+        <f>F10*J10</f>
+        <v>938.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="80">
+        <f t="shared" si="0"/>
+        <v>1.8253200000000001</v>
+      </c>
+      <c r="G11" s="9">
+        <v>600</v>
+      </c>
+      <c r="H11" s="66">
+        <f t="shared" si="1"/>
+        <v>1.9165860000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM($G$10:G11)+$D$6</f>
+        <v>1100</v>
+      </c>
+      <c r="K11" s="76">
+        <f t="shared" si="2"/>
+        <v>1095.192</v>
+      </c>
+      <c r="L11" s="76">
+        <f>SUM($K$10:K11)+$D$6</f>
+        <v>2033.682</v>
+      </c>
+      <c r="M11" s="76">
+        <f t="shared" ref="M11:M25" si="3">F11*J11</f>
+        <v>2007.8520000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="80">
+        <f t="shared" si="0"/>
+        <v>1.77366</v>
+      </c>
+      <c r="G12" s="9">
+        <v>700</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" si="1"/>
+        <v>1.8623430000000001</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM($G$10:G12)+$D$6</f>
+        <v>1800</v>
+      </c>
+      <c r="K12" s="76">
+        <f t="shared" si="2"/>
+        <v>1241.5619999999999</v>
+      </c>
+      <c r="L12" s="76">
+        <f>SUM($K$10:K12)+$D$6</f>
+        <v>3275.2439999999997</v>
+      </c>
+      <c r="M12" s="76">
+        <f t="shared" si="3"/>
+        <v>3192.5880000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="81">
+        <f t="shared" si="0"/>
+        <v>1.722</v>
+      </c>
+      <c r="G13" s="9">
+        <v>800</v>
+      </c>
+      <c r="H13" s="66">
+        <f t="shared" si="1"/>
+        <v>1.8081</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM($G$10:G13)+$D$6</f>
+        <v>2600</v>
+      </c>
+      <c r="K13" s="76">
+        <f t="shared" si="2"/>
+        <v>1377.6</v>
+      </c>
+      <c r="L13" s="76">
+        <f>SUM($K$10:K13)+$D$6</f>
+        <v>4652.8439999999991</v>
+      </c>
+      <c r="M13" s="76">
+        <f t="shared" si="3"/>
+        <v>4477.2</v>
+      </c>
+      <c r="N13" s="65">
+        <f>M13/L13</f>
+        <v>0.96225018504811266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="81">
+        <f t="shared" si="0"/>
+        <v>1.6703399999999999</v>
+      </c>
+      <c r="G14" s="9">
+        <v>900</v>
+      </c>
+      <c r="H14" s="66">
+        <f t="shared" si="1"/>
+        <v>1.753857</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM($G$10:G14)+$D$6</f>
+        <v>3500</v>
+      </c>
+      <c r="K14" s="76">
+        <f t="shared" si="2"/>
+        <v>1503.306</v>
+      </c>
+      <c r="L14" s="76">
+        <f>SUM($K$10:K14)+$D$6</f>
+        <v>6156.15</v>
+      </c>
+      <c r="M14" s="76">
+        <f t="shared" si="3"/>
+        <v>5846.19</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" ref="N14:N25" si="4">M14/L14</f>
+        <v>0.94965034965034967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="66">
+        <f t="shared" si="0"/>
+        <v>1.6186799999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="1"/>
+        <v>1.699614</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM($G$10:G15)+$D$6</f>
+        <v>4500</v>
+      </c>
+      <c r="K15" s="76">
+        <f t="shared" si="2"/>
+        <v>1618.6799999999998</v>
+      </c>
+      <c r="L15" s="76">
+        <f>SUM($K$10:K15)+$D$6</f>
+        <v>7774.83</v>
+      </c>
+      <c r="M15" s="76">
+        <f t="shared" si="3"/>
+        <v>7284.0599999999995</v>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="4"/>
+        <v>0.93687707641196005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="E16" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="66">
+        <f t="shared" si="0"/>
+        <v>1.5670200000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1100</v>
+      </c>
+      <c r="H16" s="66">
+        <f t="shared" si="1"/>
+        <v>1.6453710000000001</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUM($G$10:G16)+$D$6</f>
+        <v>5600</v>
+      </c>
+      <c r="K16" s="76">
+        <f t="shared" si="2"/>
+        <v>1723.722</v>
+      </c>
+      <c r="L16" s="76">
+        <f>SUM($K$10:K16)+$D$6</f>
+        <v>9498.5519999999997</v>
+      </c>
+      <c r="M16" s="76">
+        <f t="shared" si="3"/>
+        <v>8775.3119999999999</v>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="4"/>
+        <v>0.92385786802030456</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="7">
+        <v>-4</v>
+      </c>
+      <c r="F17" s="66">
+        <f t="shared" si="0"/>
+        <v>1.51536</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="66">
+        <f t="shared" si="1"/>
+        <v>1.5911280000000001</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUM($G$10:G17)+$D$6</f>
+        <v>6800</v>
+      </c>
+      <c r="K17" s="76">
+        <f t="shared" si="2"/>
+        <v>1818.432</v>
+      </c>
+      <c r="L17" s="76">
+        <f>SUM($K$10:K17)+$D$6</f>
+        <v>11316.984</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" si="3"/>
+        <v>10304.448</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="4"/>
+        <v>0.91052951917224589</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F18" s="66">
+        <f t="shared" si="0"/>
+        <v>1.4637</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H18" s="66">
+        <f t="shared" si="1"/>
+        <v>1.5368850000000001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUM($G$10:G18)+$D$6</f>
+        <v>8100</v>
+      </c>
+      <c r="K18" s="76">
+        <f t="shared" si="2"/>
+        <v>1902.81</v>
+      </c>
+      <c r="L18" s="76">
+        <f>SUM($K$10:K18)+$D$6</f>
+        <v>13219.794</v>
+      </c>
+      <c r="M18" s="76">
+        <f t="shared" si="3"/>
+        <v>11855.97</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="4"/>
+        <v>0.89683470105509966</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="7">
+        <v>-6</v>
+      </c>
+      <c r="F19" s="66">
+        <f t="shared" si="0"/>
+        <v>1.4120400000000002</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H19" s="66">
+        <f t="shared" si="1"/>
+        <v>1.4826420000000002</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUM($G$10:G19)+$D$6</f>
+        <v>9500</v>
+      </c>
+      <c r="K19" s="76">
+        <f t="shared" si="2"/>
+        <v>1976.8560000000002</v>
+      </c>
+      <c r="L19" s="76">
+        <f>SUM($K$10:K19)+$D$6</f>
+        <v>15196.65</v>
+      </c>
+      <c r="M19" s="76">
+        <f t="shared" si="3"/>
+        <v>13414.380000000001</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="4"/>
+        <v>0.88271954674220976</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="7">
+        <v>-7</v>
+      </c>
+      <c r="F20" s="66">
+        <f t="shared" si="0"/>
+        <v>1.3603800000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1500</v>
+      </c>
+      <c r="H20" s="66">
+        <f t="shared" si="1"/>
+        <v>1.4283990000000002</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUM($G$10:G20)+$D$6</f>
+        <v>11000</v>
+      </c>
+      <c r="K20" s="76">
+        <f t="shared" si="2"/>
+        <v>2040.5700000000002</v>
+      </c>
+      <c r="L20" s="76">
+        <f>SUM($K$10:K20)+$D$6</f>
+        <v>17237.22</v>
+      </c>
+      <c r="M20" s="76">
+        <f t="shared" si="3"/>
+        <v>14964.180000000002</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="4"/>
+        <v>0.86813186813186816</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="7">
+        <v>-8</v>
+      </c>
+      <c r="F21" s="66">
+        <f t="shared" si="0"/>
+        <v>1.3087200000000001</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H21" s="66">
+        <f t="shared" si="1"/>
+        <v>1.3741560000000002</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUM($G$10:G21)+$D$6</f>
+        <v>12600</v>
+      </c>
+      <c r="K21" s="76">
+        <f t="shared" si="2"/>
+        <v>2093.9520000000002</v>
+      </c>
+      <c r="L21" s="76">
+        <f>SUM($K$10:K21)+$D$6</f>
+        <v>19331.172000000002</v>
+      </c>
+      <c r="M21" s="76">
+        <f t="shared" si="3"/>
+        <v>16489.872000000003</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="4"/>
+        <v>0.85301977552111174</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="7">
+        <v>-9</v>
+      </c>
+      <c r="F22" s="66">
+        <f t="shared" si="0"/>
+        <v>1.2570599999999998</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1700</v>
+      </c>
+      <c r="H22" s="66">
+        <f t="shared" si="1"/>
+        <v>1.3199129999999999</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUM($G$10:G22)+$D$6</f>
+        <v>14300</v>
+      </c>
+      <c r="K22" s="76">
+        <f t="shared" si="2"/>
+        <v>2137.002</v>
+      </c>
+      <c r="L22" s="76">
+        <f>SUM($K$10:K22)+$D$6</f>
+        <v>21468.174000000003</v>
+      </c>
+      <c r="M22" s="76">
+        <f t="shared" si="3"/>
+        <v>17975.957999999999</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="4"/>
+        <v>0.83733055265901968</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F23" s="66">
+        <f t="shared" si="0"/>
+        <v>1.2053999999999998</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H23" s="66">
+        <f t="shared" si="1"/>
+        <v>1.2656699999999999</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUM($G$10:G23)+$D$6</f>
+        <v>16100</v>
+      </c>
+      <c r="K23" s="76">
+        <f t="shared" si="2"/>
+        <v>2169.7199999999998</v>
+      </c>
+      <c r="L23" s="76">
+        <f>SUM($K$10:K23)+$D$6</f>
+        <v>23637.894000000004</v>
+      </c>
+      <c r="M23" s="76">
+        <f t="shared" si="3"/>
+        <v>19406.939999999995</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="4"/>
+        <v>0.82100968893421689</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="7">
+        <v>-11</v>
+      </c>
+      <c r="F24" s="66">
+        <f t="shared" si="0"/>
+        <v>1.15374</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1900</v>
+      </c>
+      <c r="H24" s="66">
+        <f t="shared" si="1"/>
+        <v>1.211427</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUM($G$10:G24)+$D$6</f>
+        <v>18000</v>
+      </c>
+      <c r="K24" s="76">
+        <f t="shared" si="2"/>
+        <v>2192.1059999999998</v>
+      </c>
+      <c r="L24" s="76">
+        <f>SUM($K$10:K24)+$D$6</f>
+        <v>25830.000000000004</v>
+      </c>
+      <c r="M24" s="76">
+        <f t="shared" si="3"/>
+        <v>20767.32</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="4"/>
+        <v>0.80399999999999983</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="67">
+        <v>-12</v>
+      </c>
+      <c r="F25" s="66">
+        <f t="shared" si="0"/>
+        <v>1.1020799999999999</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="66">
+        <f t="shared" si="1"/>
+        <v>1.157184</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUM($G$10:G25)+$D$6</f>
+        <v>20000</v>
+      </c>
+      <c r="K25" s="76">
+        <f t="shared" si="2"/>
+        <v>2204.16</v>
+      </c>
+      <c r="L25" s="76">
+        <f>SUM($K$10:K25)+$D$6</f>
+        <v>28034.160000000003</v>
+      </c>
+      <c r="M25" s="76">
+        <f t="shared" si="3"/>
+        <v>22041.599999999999</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="4"/>
+        <v>0.78624078624078608</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="G26">
+        <f>SUM(G10:G25)</f>
+        <v>20000</v>
+      </c>
+      <c r="K26" s="76">
+        <f>SUM(K10:K25)</f>
+        <v>28034.160000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2316,10 +3032,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:AI81"/>
+  <dimension ref="B1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2391,7 +3107,7 @@
         <v>519976</v>
       </c>
       <c r="D2" s="56">
-        <v>11355</v>
+        <v>16436</v>
       </c>
       <c r="E2" s="56">
         <v>5364</v>
@@ -2481,7 +3197,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="56">
-        <v>9190</v>
+        <v>12009</v>
       </c>
       <c r="E3" s="56">
         <v>6179</v>
@@ -2494,13 +3210,13 @@
     </row>
     <row r="4" spans="2:35" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>170</v>
-      </c>
       <c r="D4" s="58">
-        <v>1000</v>
+        <v>2348</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="26"/>
@@ -2520,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="56">
-        <v>2403</v>
+        <v>2958</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="26"/>
@@ -2586,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="56">
-        <v>2064</v>
+        <v>3217</v>
       </c>
       <c r="E6" s="56">
         <v>1054</v>
@@ -2670,7 +3386,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="56">
-        <v>500</v>
+        <v>1006</v>
       </c>
       <c r="E7" s="56">
         <v>1017</v>
@@ -2708,7 +3424,7 @@
         <v>485011</v>
       </c>
       <c r="D9" s="58">
-        <v>1000</v>
+        <v>1731</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="26" t="s">
@@ -2744,10 +3460,10 @@
     </row>
     <row r="10" spans="2:35" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="D10" s="58">
         <v>200</v>
@@ -2764,10 +3480,10 @@
     </row>
     <row r="11" spans="2:35" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="D11" s="58">
         <v>200</v>
@@ -2787,7 +3503,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D12" s="58">
         <v>500</v>
@@ -2804,10 +3520,10 @@
     </row>
     <row r="13" spans="2:35" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="D13" s="58">
         <v>200</v>
@@ -2822,12 +3538,12 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="2:35" s="12" customFormat="1" ht="14.25" thickBot="1">
+    <row r="14" spans="2:35" s="12" customFormat="1">
       <c r="B14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58">
@@ -2842,19 +3558,17 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="35" t="s">
-        <v>68</v>
+    <row r="15" spans="2:35" s="12" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B15" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="56">
-        <v>628</v>
-      </c>
-      <c r="E15" s="56">
-        <v>0</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="58"/>
       <c r="F15" s="26"/>
       <c r="G15" s="31"/>
       <c r="H15" s="29"/>
@@ -2863,741 +3577,795 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="Q15" s="32" t="s">
+    </row>
+    <row r="16" spans="2:35" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="56">
+        <v>628</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="Q16" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="R16" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="S16" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="32" t="s">
+      <c r="U16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33" t="s">
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:35" s="19" customFormat="1" ht="16.5">
-      <c r="B16" s="19" t="s">
+    <row r="17" spans="2:16" s="19" customFormat="1" ht="16.5">
+      <c r="B17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="46">
-        <v>1434</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="D17" s="46">
+        <v>1940</v>
+      </c>
+      <c r="E17" s="46">
         <v>2305</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G17" s="21">
         <v>41255</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="22">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I17" s="52">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="22">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K17" s="22">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L17" s="22">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M17" s="22">
         <v>0.39169999999999999</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P17" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="16.5">
-      <c r="B17" t="s">
+    <row r="18" spans="2:16" ht="16.5">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="46">
-        <v>5362</v>
-      </c>
-      <c r="E17" s="46">
+      <c r="D18" s="46">
+        <v>5384</v>
+      </c>
+      <c r="E18" s="46">
         <v>4014</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <v>41519</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I18" s="51">
         <v>2.76E-2</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="15">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L18" s="15">
         <v>0.1229</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M18" s="15">
         <v>0.34060000000000001</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P18" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="19" customFormat="1" ht="16.5">
-      <c r="B18" s="37" t="s">
+    <row r="19" spans="2:16" s="19" customFormat="1" ht="16.5">
+      <c r="B19" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="46">
-        <v>1200</v>
-      </c>
-      <c r="E18" s="75">
+      <c r="D19" s="46">
+        <v>1205</v>
+      </c>
+      <c r="E19" s="75">
         <v>0</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G19" s="23">
         <v>41341</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H19" s="22">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I19" s="52">
         <v>1.84E-2</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J19" s="22">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K19" s="22">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L19" s="22">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M19" s="22">
         <v>0.25140000000000001</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="16.5">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="46">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="46">
-        <v>974</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="14">
-        <v>41478</v>
-      </c>
-      <c r="H19" s="15">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I19" s="53">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="J19" s="15">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="K19" s="15">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="L19" s="15">
-        <v>9.6500000000000002E-2</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0.35639999999999999</v>
       </c>
       <c r="P19" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="14.25">
-      <c r="B20" s="40" t="s">
-        <v>94</v>
+    <row r="20" spans="2:16" ht="16.5">
+      <c r="B20" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D20" s="46">
-        <v>1251</v>
+        <v>2200</v>
       </c>
       <c r="E20" s="46">
-        <v>4402</v>
-      </c>
-      <c r="N20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>95</v>
+        <v>974</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="14">
+        <v>41478</v>
+      </c>
+      <c r="H20" s="15">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="K20" s="15">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="L20" s="15">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25">
       <c r="B21" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="46">
+        <v>2410</v>
+      </c>
+      <c r="E21" s="46">
+        <v>4402</v>
+      </c>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="14.25">
+      <c r="B22" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="46">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="46"/>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.25">
-      <c r="B22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="46">
-        <v>1300</v>
-      </c>
+      <c r="D22" s="46">
+        <v>996</v>
+      </c>
+      <c r="E22" s="46"/>
       <c r="P22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="45">
+        <v>498</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1300</v>
+      </c>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="2:16" ht="14.25">
+      <c r="B24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="46">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
       <c r="D24" s="46">
-        <v>3035</v>
+        <v>1002</v>
       </c>
       <c r="E24" s="46"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="46">
+        <v>3035</v>
+      </c>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D26" s="46">
         <v>4148</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E26" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
-      <c r="I26" s="51"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="I28" s="7" t="s">
+    <row r="27" spans="2:16">
+      <c r="I27" s="51"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="I29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="7" t="s">
+      <c r="J29" s="55"/>
+      <c r="K29" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" s="7" t="s">
+    <row r="30" spans="2:16">
+      <c r="B30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J29" s="64">
-        <f>SUM(J30:J34)</f>
-        <v>90472.7</v>
-      </c>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="I30" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="J30" s="64">
-        <f>SUM(D16:E23)</f>
-        <v>26242</v>
-      </c>
-      <c r="K30" s="62">
-        <f>J30/J29</f>
-        <v>0.29005434788615791</v>
-      </c>
+        <f>SUM(J31:J35)</f>
+        <v>90465.9</v>
+      </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="I31" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="64">
-        <f>SUM(D6:E14)</f>
-        <v>14022</v>
+        <f>SUM(D17:E24)</f>
+        <v>28630</v>
       </c>
       <c r="K31" s="62">
-        <f>J31/J29</f>
-        <v>0.15498597919593424</v>
+        <f>J31/J30</f>
+        <v>0.31647283672632454</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="I32" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="J32" s="64">
-        <f>SUM(D2:E5)</f>
-        <v>35491</v>
+        <f>SUM(D6:E14)</f>
+        <v>16412</v>
       </c>
       <c r="K32" s="62">
-        <f>J32/J29</f>
-        <v>0.39228408127534603</v>
+        <f>J32/J30</f>
+        <v>0.18141642320476556</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="I33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="64">
+        <f>SUM(D2:E5)</f>
+        <v>45294</v>
+      </c>
+      <c r="K33" s="62">
+        <f>J33/J30</f>
+        <v>0.5006748399120553</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="I34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="69">
-        <f>SUM(G38:G42)</f>
-        <v>7534.7000000000007</v>
-      </c>
-      <c r="K33" s="62">
-        <f>J33/J29</f>
-        <v>8.3281476069576796E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="I34" s="67" t="s">
+      <c r="J34" s="69">
+        <f>SUM(G39:G45)</f>
+        <v>129.9</v>
+      </c>
+      <c r="K34" s="62">
+        <f>J34/J30</f>
+        <v>1.4359001568546824E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="I35" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="64">
-        <f>SUM(D24:D25)</f>
-        <v>7183</v>
-      </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="I35"/>
-      <c r="J35" s="54"/>
+      <c r="J35" s="64">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11">
       <c r="I36"/>
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="I37"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="8">
-        <v>501029</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="E38" s="8">
-        <f>D38*1.05</f>
-        <v>0.93870000000000009</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="55">
-        <f>D38*F38</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8">
-        <v>159905</v>
+        <v>501029</v>
       </c>
       <c r="D39" s="8">
-        <v>1.381</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="E39" s="8">
-        <f>D39*1.05</f>
-        <v>1.4500500000000001</v>
+        <f t="shared" ref="E39:E45" si="0">D39*1.05</f>
+        <v>0.93870000000000009</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
       </c>
       <c r="G39" s="55">
-        <f t="shared" ref="G39:G42" si="0">D39*F39</f>
+        <f>D39*F39</f>
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="64">
-        <f>SUM(J40:J44)</f>
-        <v>27523</v>
-      </c>
-      <c r="K39" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="J39" s="55"/>
+      <c r="K39" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C40" s="8">
-        <v>510880</v>
+        <v>159905</v>
       </c>
       <c r="D40" s="8">
-        <v>2.6379999999999999</v>
+        <v>1.381</v>
       </c>
       <c r="E40" s="8">
-        <f>D40*1.05</f>
-        <v>2.7698999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.4500500000000001</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G40:G41" si="1">D40*F40</f>
         <v>0</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J40" s="64">
-        <f>SUM(E16:E23)</f>
-        <v>12995</v>
-      </c>
-      <c r="K40" s="62">
-        <f>J40/J39</f>
-        <v>0.47215056498201502</v>
-      </c>
+        <f>SUM(J41:J45)</f>
+        <v>27523</v>
+      </c>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="8">
+        <v>510880</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7698999999999998</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="64">
+        <f>SUM(E17:E24)</f>
+        <v>12995</v>
+      </c>
+      <c r="K41" s="62">
+        <f>J41/J40</f>
+        <v>0.47215056498201502</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="8">
         <v>510900</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>1.2989999999999999</v>
       </c>
-      <c r="E41" s="8">
-        <f>D41*1.05</f>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
         <v>1.36395</v>
       </c>
-      <c r="F41" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G41" s="55">
-        <f>D41*F41</f>
-        <v>5196</v>
-      </c>
-      <c r="I41" s="7" t="s">
+      <c r="F42" s="8">
+        <v>100</v>
+      </c>
+      <c r="G42" s="55">
+        <f>D42*F42</f>
+        <v>129.9</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="64">
+      <c r="J42" s="64">
         <f>SUM(E6:E13)</f>
         <v>2985</v>
       </c>
-      <c r="K41" s="62">
-        <f>J41/J39</f>
+      <c r="K42" s="62">
+        <f>J42/J40</f>
         <v>0.1084547469389238</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="35" t="s">
+    <row r="43" spans="2:11">
+      <c r="B43" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="45">
+      <c r="C43" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="45">
         <v>3.3410000000000002</v>
       </c>
-      <c r="E42" s="45">
-        <f>D42*1.05</f>
+      <c r="E43" s="45">
+        <f t="shared" si="0"/>
         <v>3.5080500000000003</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="55">
-        <f t="shared" si="0"/>
-        <v>2338.7000000000003</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="F43" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="64">
+      <c r="J43" s="64">
         <f>SUM(E2:E3)</f>
         <v>11543</v>
       </c>
-      <c r="K42" s="62">
-        <f>J42/J39</f>
+      <c r="K43" s="62">
+        <f>J43/J40</f>
         <v>0.41939468807906116</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
-      <c r="I43" s="7" t="s">
+    <row r="44" spans="2:11">
+      <c r="B44" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="45">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="E44" s="45">
+        <f t="shared" si="0"/>
+        <v>3.5080500000000003</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="69">
+      <c r="J44" s="69">
         <v>0</v>
       </c>
-      <c r="K43" s="62">
-        <f>J43/J39</f>
+      <c r="K44" s="62">
+        <f>J44/J40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
-      <c r="I44" s="67" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="45">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="E45" s="45">
+        <f t="shared" si="0"/>
+        <v>3.5080500000000003</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="J44" s="64">
-        <f>SUM(D33:D34)</f>
+      <c r="J45" s="64">
+        <f>SUM(D34:D35)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="62" t="s">
+      <c r="K45" s="7"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C65" s="74">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="8" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C67" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D67" s="73">
         <v>2559</v>
       </c>
-      <c r="E66" s="73"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="7"/>
-      <c r="C67" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="73">
-        <v>2520</v>
-      </c>
-      <c r="E67" s="73">
-        <f>MIN(IFERROR(D67-D66,0),0)*100*$C$64/(D66-1800)</f>
-        <v>-113.04347826086956</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+      <c r="E67" s="73"/>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="7"/>
       <c r="C68" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="73">
+        <v>2520</v>
+      </c>
+      <c r="E68" s="73">
+        <f>MIN(IFERROR(D68-D67,0),0)*100*$C$65/(D67-1800)</f>
+        <v>-113.04347826086956</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="7"/>
+      <c r="C69" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D69" s="73">
         <v>2547</v>
       </c>
-      <c r="E68" s="73">
-        <f>(D68-D66)*100*$C$64/(D66-1800)</f>
+      <c r="E69" s="73">
+        <f>(D69-D67)*100*$C$65/(D67-1800)</f>
         <v>-34.782608695652172</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F69" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
-      <c r="E69" s="73">
-        <f>(D68+D67-D66*2)*100*$C$64/(D66-1800)</f>
+    <row r="70" spans="2:6">
+      <c r="E70" s="73">
+        <f>(D69+D68-D67*2)*100*$C$65/(D67-1800)</f>
         <v>-147.82608695652175</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="2:6">
+      <c r="B72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C72" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D72" s="73">
         <v>1277</v>
       </c>
-      <c r="E71" s="73"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="7"/>
-      <c r="C72" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="73">
-        <v>1359</v>
-      </c>
-      <c r="E72" s="73">
-        <f>MIN(IFERROR(D72-D71,0),0)*100*$C$64/(D71-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+      <c r="E72" s="73"/>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="7"/>
       <c r="C73" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="73">
+        <v>1359</v>
+      </c>
+      <c r="E73" s="73">
+        <f>MIN(IFERROR(D73-D72,0),0)*100*$C$65/(D72-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="7"/>
+      <c r="C74" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="73">
+      <c r="D74" s="73">
         <v>1537</v>
       </c>
-      <c r="E73" s="73">
-        <f>(D73-D71)*100*$C$64/(D71-1000)</f>
+      <c r="E74" s="73">
+        <f>(D74-D72)*100*$C$65/(D72-1000)</f>
         <v>2064.9819494584835</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F74" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="E74" s="73">
-        <f>(D73+D72-D71*2)*100*$C$64/(D71-1000)</f>
+    <row r="75" spans="2:6">
+      <c r="E75" s="73">
+        <f>(D74+D73-D72*2)*100*$C$65/(D72-1000)</f>
         <v>2716.2454873646211</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="8" t="s">
+    <row r="77" spans="2:6">
+      <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C77" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="73">
+      <c r="D77" s="73">
         <v>869</v>
       </c>
-      <c r="E76" s="73"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="7"/>
-      <c r="C77" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="73">
-        <v>877</v>
-      </c>
-      <c r="E77" s="73">
-        <f>MIN(IFERROR(D77-D76,0),0)*100*$C$64/(D76-1800)</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+      <c r="E77" s="73"/>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="7"/>
       <c r="C78" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="73">
+        <v>877</v>
+      </c>
+      <c r="E78" s="73">
+        <f>MIN(IFERROR(D78-D77,0),0)*100*$C$65/(D77-1800)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="7"/>
+      <c r="C79" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="73">
+      <c r="D79" s="73">
         <v>958</v>
       </c>
-      <c r="E78" s="73">
-        <f>(D78-D76)*100*$C$64/(D76-800)</f>
+      <c r="E79" s="73">
+        <f>(D79-D77)*100*$C$65/(D77-800)</f>
         <v>2837.68115942029</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F79" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="E79" s="73">
-        <f>(D78+D77-D76*2)*100*$C$64/(D76-800)</f>
+    <row r="80" spans="2:6">
+      <c r="E80" s="73">
+        <f>(D79+D78-D77*2)*100*$C$65/(D77-800)</f>
         <v>3092.753623188406</v>
       </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="C80"/>
-      <c r="D80" s="54"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="I80"/>
     </row>
     <row r="81" spans="3:9">
       <c r="C81"/>
@@ -3606,10 +4374,17 @@
       <c r="F81"/>
       <c r="I81"/>
     </row>
+    <row r="82" spans="3:9">
+      <c r="C82"/>
+      <c r="D82" s="54"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="I82"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
+    <hyperlink ref="B21" r:id="rId1" display="http://fund.eastmoney.com/270045.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://fund.eastmoney.com/110028.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,7 +4429,7 @@
   <dimension ref="C17:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3798,59 +4573,59 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" t="s">
         <v>176</v>
-      </c>
-      <c r="G45" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" t="s">
         <v>178</v>
-      </c>
-      <c r="G46" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" t="s">
         <v>180</v>
-      </c>
-      <c r="G47" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" t="s">
         <v>182</v>
-      </c>
-      <c r="G48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" t="s">
         <v>184</v>
-      </c>
-      <c r="G49" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +4645,7 @@
   <dimension ref="A3:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3891,7 +4666,7 @@
         <v>136</v>
       </c>
       <c r="D3" s="43">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="M3" s="66"/>
       <c r="N3" s="7" t="s">
@@ -4042,18 +4817,18 @@
       </c>
       <c r="F10" s="66">
         <f>$D$3*(1+E10*$D$4)</f>
-        <v>1.3625</v>
+        <v>1.1663000000000001</v>
       </c>
       <c r="G10" s="66">
         <f>F10*(1+$D$5)</f>
-        <v>1.430625</v>
+        <v>1.2246150000000002</v>
       </c>
       <c r="H10" s="7">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="I10" s="7">
         <f>SUM($H$10:H10)+$D$6</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M10" s="66">
         <v>7</v>
@@ -4086,18 +4861,18 @@
       </c>
       <c r="F11" s="66">
         <f t="shared" ref="F11:F25" si="1">$D$3*(1+E11*$D$4)</f>
-        <v>1.3250000000000002</v>
+        <v>1.1342000000000001</v>
       </c>
       <c r="G11" s="66">
         <f t="shared" ref="G11:G25" si="2">F11*(1+$D$5)</f>
-        <v>1.3912500000000003</v>
+        <v>1.1909100000000001</v>
       </c>
       <c r="H11" s="7">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I11" s="7">
         <f>SUM($H$10:H11)+$D$6</f>
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="M11" s="66">
         <v>8</v>
@@ -4130,18 +4905,18 @@
       </c>
       <c r="F12" s="66">
         <f t="shared" si="1"/>
-        <v>1.2875000000000001</v>
+        <v>1.1021000000000001</v>
       </c>
       <c r="G12" s="66">
         <f t="shared" si="2"/>
-        <v>1.3518750000000002</v>
+        <v>1.157205</v>
       </c>
       <c r="H12" s="7">
         <v>2000</v>
       </c>
       <c r="I12" s="7">
         <f>SUM($H$10:H12)+$D$6</f>
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="M12" s="66">
         <v>9</v>
@@ -4174,18 +4949,18 @@
       </c>
       <c r="F13" s="66">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="G13" s="66">
         <f t="shared" si="2"/>
-        <v>1.3125</v>
+        <v>1.1235000000000002</v>
       </c>
       <c r="H13" s="7">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I13" s="7">
         <f>SUM($H$10:H13)+$D$6</f>
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="M13" s="66">
         <v>10</v>
@@ -4218,14 +4993,14 @@
       </c>
       <c r="F14" s="66">
         <f t="shared" si="1"/>
-        <v>1.2124999999999999</v>
+        <v>1.0379</v>
       </c>
       <c r="G14" s="66">
         <f t="shared" si="2"/>
-        <v>1.2731250000000001</v>
+        <v>1.0897950000000001</v>
       </c>
       <c r="H14" s="7">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="I14" s="7">
         <f>SUM($H$10:H14)+$D$6</f>
@@ -4258,18 +5033,18 @@
       </c>
       <c r="F15" s="66">
         <f t="shared" si="1"/>
-        <v>1.1749999999999998</v>
+        <v>1.0058</v>
       </c>
       <c r="G15" s="66">
         <f t="shared" si="2"/>
-        <v>1.2337499999999999</v>
+        <v>1.05609</v>
       </c>
       <c r="H15" s="7">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="I15" s="7">
         <f>SUM($H$10:H15)+$D$6</f>
-        <v>13000</v>
+        <v>12300</v>
       </c>
       <c r="M15" s="66">
         <v>12</v>
@@ -4298,18 +5073,18 @@
       </c>
       <c r="F16" s="66">
         <f t="shared" si="1"/>
-        <v>1.1375</v>
+        <v>0.97370000000000012</v>
       </c>
       <c r="G16" s="66">
         <f t="shared" si="2"/>
-        <v>1.194375</v>
+        <v>1.0223850000000001</v>
       </c>
       <c r="H16" s="7">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="I16" s="7">
         <f>SUM($H$10:H16)+$D$6</f>
-        <v>16000</v>
+        <v>14700</v>
       </c>
       <c r="M16" s="66">
         <v>13</v>
@@ -4335,18 +5110,18 @@
       </c>
       <c r="F17" s="66">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0.9416000000000001</v>
       </c>
       <c r="G17" s="66">
         <f t="shared" si="2"/>
-        <v>1.1550000000000002</v>
+        <v>0.98868000000000011</v>
       </c>
       <c r="H17" s="7">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="I17" s="7">
         <f>SUM($H$10:H17)+$D$6</f>
-        <v>19000</v>
+        <v>17200</v>
       </c>
       <c r="M17" s="66">
         <v>14</v>
@@ -4376,18 +5151,18 @@
       </c>
       <c r="F18" s="66">
         <f t="shared" si="1"/>
-        <v>1.0625</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="G18" s="66">
         <f t="shared" si="2"/>
-        <v>1.1156250000000001</v>
+        <v>0.95497500000000002</v>
       </c>
       <c r="H18" s="7">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="I18" s="7">
         <f>SUM($H$10:H18)+$D$6</f>
-        <v>23000</v>
+        <v>19800</v>
       </c>
       <c r="M18" s="66">
         <v>15</v>
@@ -4406,18 +5181,18 @@
       </c>
       <c r="F19" s="66">
         <f t="shared" si="1"/>
-        <v>1.0250000000000001</v>
+        <v>0.87740000000000007</v>
       </c>
       <c r="G19" s="66">
         <f t="shared" si="2"/>
-        <v>1.0762500000000002</v>
+        <v>0.92127000000000014</v>
       </c>
       <c r="H19" s="7">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="I19" s="7">
         <f>SUM($H$10:H19)+$D$6</f>
-        <v>27000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="20" spans="5:19">
@@ -4426,18 +5201,18 @@
       </c>
       <c r="F20" s="66">
         <f t="shared" si="1"/>
-        <v>0.98750000000000004</v>
+        <v>0.84530000000000005</v>
       </c>
       <c r="G20" s="66">
         <f t="shared" si="2"/>
-        <v>1.036875</v>
+        <v>0.88756500000000005</v>
       </c>
       <c r="H20" s="7">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="I20" s="7">
         <f>SUM($H$10:H20)+$D$6</f>
-        <v>31000</v>
+        <v>25300</v>
       </c>
     </row>
     <row r="21" spans="5:19">
@@ -4446,18 +5221,18 @@
       </c>
       <c r="F21" s="66">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.81320000000000003</v>
       </c>
       <c r="G21" s="66">
         <f t="shared" si="2"/>
-        <v>0.99749999999999994</v>
+        <v>0.85386000000000006</v>
       </c>
       <c r="H21" s="7">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="I21" s="7">
         <f>SUM($H$10:H21)+$D$6</f>
-        <v>35000</v>
+        <v>28200</v>
       </c>
     </row>
     <row r="22" spans="5:19">
@@ -4466,18 +5241,18 @@
       </c>
       <c r="F22" s="66">
         <f t="shared" si="1"/>
-        <v>0.91249999999999998</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="G22" s="66">
         <f t="shared" si="2"/>
-        <v>0.958125</v>
+        <v>0.82015500000000008</v>
       </c>
       <c r="H22" s="7">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="7">
         <f>SUM($H$10:H22)+$D$6</f>
-        <v>39000</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="23" spans="5:19">
@@ -4486,18 +5261,18 @@
       </c>
       <c r="F23" s="66">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.749</v>
       </c>
       <c r="G23" s="66">
         <f t="shared" si="2"/>
-        <v>0.91875000000000007</v>
+        <v>0.78644999999999998</v>
       </c>
       <c r="H23" s="7">
-        <v>5000</v>
+        <v>3100</v>
       </c>
       <c r="I23" s="7">
         <f>SUM($H$10:H23)+$D$6</f>
-        <v>44000</v>
+        <v>34300</v>
       </c>
     </row>
     <row r="24" spans="5:19">
@@ -4506,18 +5281,18 @@
       </c>
       <c r="F24" s="66">
         <f t="shared" si="1"/>
-        <v>0.83750000000000002</v>
+        <v>0.71690000000000009</v>
       </c>
       <c r="G24" s="66">
         <f t="shared" si="2"/>
-        <v>0.87937500000000002</v>
+        <v>0.75274500000000011</v>
       </c>
       <c r="H24" s="7">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="7">
         <f>SUM($H$10:H24)+$D$6</f>
-        <v>49000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="25" spans="5:19">
@@ -4526,24 +5301,24 @@
       </c>
       <c r="F25" s="66">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.68480000000000008</v>
       </c>
       <c r="G25" s="66">
         <f t="shared" si="2"/>
-        <v>0.84000000000000008</v>
+        <v>0.71904000000000012</v>
       </c>
       <c r="H25" s="7">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="I25" s="7">
         <f>SUM($H$10:H25)+$D$6</f>
-        <v>54000</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="26" spans="5:19">
       <c r="H26">
         <f>SUM(H10:H25)</f>
-        <v>54000</v>
+        <v>40800</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +5337,7 @@
   <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4629,10 +5404,10 @@
         <v>143</v>
       </c>
       <c r="I9" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="77" t="s">
         <v>173</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4648,15 +5423,15 @@
         <v>2.7825000000000006</v>
       </c>
       <c r="H10" s="7">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="7">
         <f>SUM($H$10:H10)+$D$6</f>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="76">
         <f>INT(H10/(F10*100))*100</f>
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4672,15 +5447,15 @@
         <v>2.7037500000000003</v>
       </c>
       <c r="H11" s="7">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="I11" s="7">
         <f>SUM($H$10:H11)+$D$6</f>
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="J11" s="76">
         <f t="shared" ref="J11:J25" si="2">INT(H11/(F11*100))*100</f>
-        <v>900</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4696,15 +5471,15 @@
         <v>2.625</v>
       </c>
       <c r="H12" s="7">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="7">
         <f>SUM($H$10:H12)+$D$6</f>
-        <v>7500</v>
+        <v>3300</v>
       </c>
       <c r="J12" s="76">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4720,15 +5495,15 @@
         <v>2.5462500000000001</v>
       </c>
       <c r="H13" s="7">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="I13" s="7">
         <f>SUM($H$10:H13)+$D$6</f>
-        <v>10000</v>
+        <v>4600</v>
       </c>
       <c r="J13" s="76">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4744,15 +5519,15 @@
         <v>2.4674999999999998</v>
       </c>
       <c r="H14" s="7">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="7">
         <f>SUM($H$10:H14)+$D$6</f>
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="76">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4768,15 +5543,15 @@
         <v>2.3887499999999999</v>
       </c>
       <c r="H15" s="7">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I15" s="7">
         <f>SUM($H$10:H15)+$D$6</f>
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="J15" s="76">
         <f t="shared" si="2"/>
-        <v>1300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4792,15 +5567,15 @@
         <v>2.3100000000000005</v>
       </c>
       <c r="H16" s="7">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="I16" s="7">
         <f>SUM($H$10:H16)+$D$6</f>
-        <v>18500</v>
+        <v>9100</v>
       </c>
       <c r="J16" s="76">
         <f t="shared" si="2"/>
-        <v>1300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="5:10">
@@ -4816,15 +5591,15 @@
         <v>2.2312500000000002</v>
       </c>
       <c r="H17" s="7">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="I17" s="7">
         <f>SUM($H$10:H17)+$D$6</f>
-        <v>21500</v>
+        <v>10800</v>
       </c>
       <c r="J17" s="76">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="5:10">
@@ -4840,15 +5615,15 @@
         <v>2.1525000000000003</v>
       </c>
       <c r="H18" s="7">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="I18" s="7">
         <f>SUM($H$10:H18)+$D$6</f>
-        <v>25500</v>
+        <v>12600</v>
       </c>
       <c r="J18" s="76">
         <f t="shared" si="2"/>
-        <v>1900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="5:10">
@@ -4864,15 +5639,15 @@
         <v>2.07375</v>
       </c>
       <c r="H19" s="7">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="I19" s="7">
         <f>SUM($H$10:H19)+$D$6</f>
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="J19" s="76">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="5:10">
@@ -4888,15 +5663,15 @@
         <v>1.9949999999999999</v>
       </c>
       <c r="H20" s="7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="7">
         <f>SUM($H$10:H20)+$D$6</f>
-        <v>33500</v>
+        <v>16500</v>
       </c>
       <c r="J20" s="76">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="5:10">
@@ -4912,15 +5687,15 @@
         <v>1.91625</v>
       </c>
       <c r="H21" s="7">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="I21" s="7">
         <f>SUM($H$10:H21)+$D$6</f>
-        <v>37500</v>
+        <v>18600</v>
       </c>
       <c r="J21" s="76">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="22" spans="5:10">
@@ -4936,15 +5711,15 @@
         <v>1.8375000000000001</v>
       </c>
       <c r="H22" s="7">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="I22" s="7">
         <f>SUM($H$10:H22)+$D$6</f>
-        <v>41500</v>
+        <v>20800</v>
       </c>
       <c r="J22" s="76">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="5:10">
@@ -4960,15 +5735,15 @@
         <v>1.75875</v>
       </c>
       <c r="H23" s="7">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="I23" s="7">
         <f>SUM($H$10:H23)+$D$6</f>
-        <v>46500</v>
+        <v>23100</v>
       </c>
       <c r="J23" s="76">
         <f t="shared" si="2"/>
-        <v>2900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="5:10">
@@ -4984,15 +5759,15 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="H24" s="7">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="I24" s="7">
         <f>SUM($H$10:H24)+$D$6</f>
-        <v>51500</v>
+        <v>25500</v>
       </c>
       <c r="J24" s="76">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="5:10">
@@ -5008,21 +5783,21 @@
         <v>2.625</v>
       </c>
       <c r="H25" s="7">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="I25" s="7">
         <f>SUM($H$10:H25)+$D$6</f>
-        <v>56500</v>
+        <v>28000</v>
       </c>
       <c r="J25" s="76">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="H26">
         <f>SUM(H10:H25)</f>
-        <v>56500</v>
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
@@ -5035,10 +5810,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5046,7 +5821,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="72" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5056,7 +5831,7 @@
       <c r="C1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="79" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5071,632 +5846,20 @@
         <v>3565</v>
       </c>
       <c r="D2" s="45">
-        <f t="shared" ref="D2:D13" si="0">(C2-B2)</f>
+        <f t="shared" ref="D2" si="0">(C2-B2)</f>
         <v>383</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="79">
         <f>(D2)*100/(B2-807)*4</f>
         <v>64.505263157894731</v>
       </c>
       <c r="F2" s="78">
-        <f>SUM(E2:E197)</f>
-        <v>910.8519071005295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="14">
-        <v>43487</v>
-      </c>
-      <c r="B3" s="72">
-        <v>3147</v>
-      </c>
-      <c r="C3" s="45">
-        <v>3556</v>
-      </c>
-      <c r="D3" s="45">
-        <f t="shared" si="0"/>
-        <v>409</v>
-      </c>
-      <c r="E3" s="78">
-        <f t="shared" ref="E3:E34" si="1">(D3)*100/(B3-807)*4</f>
-        <v>69.914529914529908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="14">
-        <v>43488</v>
-      </c>
-      <c r="B4" s="72">
-        <v>3149</v>
-      </c>
-      <c r="C4" s="45">
-        <v>3552</v>
-      </c>
-      <c r="D4" s="45">
-        <f t="shared" si="0"/>
-        <v>403</v>
-      </c>
-      <c r="E4" s="78">
-        <f t="shared" si="1"/>
-        <v>68.830059777967548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="14">
-        <v>43489</v>
-      </c>
-      <c r="B5" s="72">
-        <v>3154</v>
-      </c>
-      <c r="C5" s="45">
-        <v>3548</v>
-      </c>
-      <c r="D5" s="45">
-        <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-      <c r="E5" s="78">
-        <f t="shared" si="1"/>
-        <v>67.149552620366421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="14">
-        <v>43490</v>
-      </c>
-      <c r="B6" s="72">
-        <v>3161</v>
-      </c>
-      <c r="C6" s="45">
-        <v>3544</v>
-      </c>
-      <c r="D6" s="45">
-        <f t="shared" si="0"/>
-        <v>383</v>
-      </c>
-      <c r="E6" s="78">
-        <f t="shared" si="1"/>
-        <v>65.080713678844518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="14">
-        <v>43491</v>
-      </c>
-      <c r="D7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="14">
-        <v>43492</v>
-      </c>
-      <c r="D8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="14">
-        <v>43493</v>
-      </c>
-      <c r="B9" s="72">
-        <v>3169</v>
-      </c>
-      <c r="C9" s="45">
-        <v>3539</v>
-      </c>
-      <c r="D9" s="45">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="E9" s="78">
-        <f t="shared" si="1"/>
-        <v>62.658763759525826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="14">
-        <v>43494</v>
-      </c>
-      <c r="B10" s="72">
-        <v>3169</v>
-      </c>
-      <c r="C10" s="45">
-        <v>3535</v>
-      </c>
-      <c r="D10" s="45">
-        <f t="shared" si="0"/>
-        <v>366</v>
-      </c>
-      <c r="E10" s="78">
-        <f t="shared" si="1"/>
-        <v>61.981371718882301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="14">
-        <v>43495</v>
-      </c>
-      <c r="B11" s="72">
-        <v>3179</v>
-      </c>
-      <c r="C11" s="45">
-        <v>3531</v>
-      </c>
-      <c r="D11" s="45">
-        <f t="shared" si="0"/>
-        <v>352</v>
-      </c>
-      <c r="E11" s="78">
-        <f t="shared" si="1"/>
-        <v>59.359190556492415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="14">
-        <v>43496</v>
-      </c>
-      <c r="B12" s="72">
-        <v>3183</v>
-      </c>
-      <c r="C12" s="45">
-        <v>3526</v>
-      </c>
-      <c r="D12" s="45">
-        <f t="shared" si="0"/>
-        <v>343</v>
-      </c>
-      <c r="E12" s="78">
-        <f t="shared" si="1"/>
-        <v>57.744107744107744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="14">
-        <v>43497</v>
-      </c>
-      <c r="B13" s="72">
-        <v>3192</v>
-      </c>
-      <c r="C13" s="45">
-        <v>3521</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="0"/>
-        <v>329</v>
-      </c>
-      <c r="E13" s="78">
-        <f t="shared" si="1"/>
-        <v>55.178197064989519</v>
+        <f>SUM(E2:E153)</f>
+        <v>64.505263157894731</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="14">
-        <v>43498</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="N14" s="45"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14">
-        <v>43499</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14">
-        <v>43500</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14">
-        <v>43501</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14">
-        <v>43502</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14">
-        <v>43503</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14">
-        <v>43504</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="14">
-        <v>43505</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="14">
-        <v>43506</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="14">
-        <v>43507</v>
-      </c>
-      <c r="B23" s="72">
-        <v>3213</v>
-      </c>
-      <c r="C23" s="45">
-        <v>3517</v>
-      </c>
-      <c r="D23" s="45">
-        <f t="shared" ref="D23:D43" si="2">(C23-B23)</f>
-        <v>304</v>
-      </c>
-      <c r="E23" s="78">
-        <f t="shared" si="1"/>
-        <v>50.540315876974233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14">
-        <v>43508</v>
-      </c>
-      <c r="B24" s="72">
-        <v>3245</v>
-      </c>
-      <c r="C24" s="45">
-        <v>3513</v>
-      </c>
-      <c r="D24" s="45">
-        <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="E24" s="78">
-        <f t="shared" si="1"/>
-        <v>43.970467596390485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="14">
-        <v>43509</v>
-      </c>
-      <c r="B25" s="72">
-        <v>3287</v>
-      </c>
-      <c r="C25" s="45">
-        <v>3509</v>
-      </c>
-      <c r="D25" s="45">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="E25" s="78">
-        <f t="shared" si="1"/>
-        <v>35.806451612903224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14">
-        <v>43510</v>
-      </c>
-      <c r="B26" s="72">
-        <v>3334</v>
-      </c>
-      <c r="C26" s="45">
-        <v>3505</v>
-      </c>
-      <c r="D26" s="45">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="E26" s="78">
-        <f t="shared" si="1"/>
-        <v>27.06766917293233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="14">
-        <v>43511</v>
-      </c>
-      <c r="B27" s="72">
-        <v>3280.0583486238502</v>
-      </c>
-      <c r="C27" s="45">
-        <v>3502</v>
-      </c>
-      <c r="D27" s="45">
-        <f t="shared" si="2"/>
-        <v>221.94165137614982</v>
-      </c>
-      <c r="E27" s="78">
-        <f t="shared" si="1"/>
-        <v>35.897519603554962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="14">
-        <v>43512</v>
-      </c>
-      <c r="B28" s="72">
-        <v>3354</v>
-      </c>
-      <c r="C28" s="45">
-        <v>3502</v>
-      </c>
-      <c r="D28" s="45">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="E28" s="78">
-        <f t="shared" si="1"/>
-        <v>23.243031016882608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="14">
-        <v>43513</v>
-      </c>
-      <c r="D29" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14">
-        <v>43514</v>
-      </c>
-      <c r="B30" s="72">
-        <v>3371</v>
-      </c>
-      <c r="C30" s="45">
-        <v>3498</v>
-      </c>
-      <c r="D30" s="45">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="E30" s="78">
-        <f t="shared" si="1"/>
-        <v>19.812792511700469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="14">
-        <v>43515</v>
-      </c>
-      <c r="B31" s="72">
-        <v>3410</v>
-      </c>
-      <c r="C31" s="45">
-        <v>3495</v>
-      </c>
-      <c r="D31" s="45">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="E31" s="78">
-        <f t="shared" si="1"/>
-        <v>13.061851709565886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14">
-        <v>43516</v>
-      </c>
-      <c r="B32" s="72">
-        <v>3414</v>
-      </c>
-      <c r="C32" s="45">
-        <v>3492</v>
-      </c>
-      <c r="D32" s="45">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="E32" s="78">
-        <f t="shared" si="1"/>
-        <v>11.967779056386652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14">
-        <v>43517</v>
-      </c>
-      <c r="B33" s="72">
-        <v>3422</v>
-      </c>
-      <c r="C33" s="45">
-        <v>3489</v>
-      </c>
-      <c r="D33" s="45">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="E33" s="78">
-        <f t="shared" si="1"/>
-        <v>10.248565965583174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="14">
-        <v>43518</v>
-      </c>
-      <c r="B34" s="72">
-        <v>3441</v>
-      </c>
-      <c r="C34" s="45">
-        <v>3486</v>
-      </c>
-      <c r="D34" s="45">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="E34" s="78">
-        <f t="shared" si="1"/>
-        <v>6.83371298405467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="14">
-        <v>43519</v>
-      </c>
-      <c r="D35" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="78">
-        <f t="shared" ref="E35:E43" si="3">(D35)*100/(B35-807)*7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14">
-        <v>43520</v>
-      </c>
-      <c r="D36" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14">
-        <v>43521</v>
-      </c>
-      <c r="D37" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="14">
-        <v>43522</v>
-      </c>
-      <c r="D38" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="14">
-        <v>43523</v>
-      </c>
-      <c r="D39" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="D40" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="D41" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="D42" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="D43" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5708,10 +5871,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5746,290 +5909,13 @@
         <f>(C2-B2)</f>
         <v>588</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="79">
         <f>(D2)*100/(B2-1500)*2</f>
         <v>39.108746258729632</v>
       </c>
       <c r="F2" s="78">
-        <f>SUM(E2:E197)</f>
-        <v>185.97167232189375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14">
-        <v>43515</v>
-      </c>
-      <c r="B3">
-        <v>4582</v>
-      </c>
-      <c r="C3">
-        <v>5090</v>
-      </c>
-      <c r="D3" s="45">
-        <f t="shared" ref="D3:D21" si="0">(C3-B3)</f>
-        <v>508</v>
-      </c>
-      <c r="E3" s="78">
-        <f t="shared" ref="E3:E22" si="1">(D3)*100/(B3-1500)*2</f>
-        <v>32.965606748864374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14">
-        <v>43516</v>
-      </c>
-      <c r="B4">
-        <v>4604</v>
-      </c>
-      <c r="C4">
-        <v>5520</v>
-      </c>
-      <c r="D4" s="45">
-        <f t="shared" si="0"/>
-        <v>916</v>
-      </c>
-      <c r="E4" s="78">
-        <f t="shared" si="1"/>
-        <v>59.020618556701031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14">
-        <v>43517</v>
-      </c>
-      <c r="B5">
-        <v>4630</v>
-      </c>
-      <c r="C5">
-        <v>5080</v>
-      </c>
-      <c r="D5" s="45">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E5" s="78">
-        <f t="shared" si="1"/>
-        <v>28.753993610223642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14">
-        <v>43518</v>
-      </c>
-      <c r="B6">
-        <v>4662</v>
-      </c>
-      <c r="C6">
-        <v>5075</v>
-      </c>
-      <c r="D6" s="45">
-        <f t="shared" si="0"/>
-        <v>413</v>
-      </c>
-      <c r="E6" s="78">
-        <f t="shared" si="1"/>
-        <v>26.122707147375078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14">
-        <v>43519</v>
-      </c>
-      <c r="D7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>43520</v>
-      </c>
-      <c r="D8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14">
-        <v>43521</v>
-      </c>
-      <c r="D9" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
-        <v>43522</v>
-      </c>
-      <c r="D10" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
-        <v>43523</v>
-      </c>
-      <c r="D11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14">
-        <v>43524</v>
-      </c>
-      <c r="D12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14">
-        <v>43525</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14">
-        <v>43526</v>
-      </c>
-      <c r="D14" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14">
-        <v>43527</v>
-      </c>
-      <c r="D15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14">
-        <v>43528</v>
-      </c>
-      <c r="D16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14">
-        <v>43529</v>
-      </c>
-      <c r="D17" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14">
-        <v>43530</v>
-      </c>
-      <c r="D18" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14">
-        <v>43531</v>
-      </c>
-      <c r="D19" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14">
-        <v>43532</v>
-      </c>
-      <c r="D20" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="14">
-        <v>43533</v>
-      </c>
-      <c r="D21" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="E22" s="78">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(E2:E174)</f>
+        <v>39.108746258729632</v>
       </c>
     </row>
   </sheetData>
@@ -6040,354 +5926,710 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A3:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9" style="65"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="9" style="65"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="9" style="76"/>
+    <col min="13" max="13" width="9" style="76"/>
+    <col min="14" max="14" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14">
-        <v>43514</v>
-      </c>
-      <c r="B2" s="72">
-        <v>1356</v>
-      </c>
-      <c r="C2" s="45">
-        <v>1529</v>
-      </c>
-      <c r="D2" s="45">
-        <f>(C2-B2)</f>
-        <v>173</v>
-      </c>
-      <c r="E2" s="78">
-        <f>(D2)*100/(B2-585)*1</f>
-        <v>22.438391699092087</v>
-      </c>
-      <c r="F2" s="78">
-        <f>SUM(E2:E39)</f>
-        <v>88.774608026866701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14">
-        <v>43515</v>
-      </c>
-      <c r="B3" s="72">
-        <v>1382</v>
-      </c>
-      <c r="C3" s="45">
-        <v>1528</v>
-      </c>
-      <c r="D3" s="45">
-        <f t="shared" ref="D3:D16" si="0">(C3-B3)</f>
-        <v>146</v>
-      </c>
-      <c r="E3" s="78">
-        <f t="shared" ref="E3:E4" si="1">(D3)*100/(B3-585)*1</f>
-        <v>18.318695106649937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14">
-        <v>43516</v>
-      </c>
-      <c r="B4" s="72">
-        <v>1382</v>
-      </c>
-      <c r="C4" s="45">
-        <v>1528</v>
-      </c>
-      <c r="D4" s="45">
+    <row r="3" spans="1:14">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="68">
+        <v>510900</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="C4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="E9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="80">
+        <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
+        <v>0.7553700000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM($G$10:G10)+$D$6</f>
+        <v>2500</v>
+      </c>
+      <c r="K10" s="76">
+        <f t="shared" ref="K10:K17" si="2">F10*G10</f>
+        <v>1798.5</v>
+      </c>
+      <c r="L10" s="76">
+        <f>SUM($K$10:K10)+$D$6</f>
+        <v>1798.5</v>
+      </c>
+      <c r="M10" s="76">
+        <f>F10*J10</f>
+        <v>1798.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="80">
         <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="E4" s="78">
+        <v>0.69960000000000011</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="66">
         <f t="shared" si="1"/>
-        <v>18.318695106649937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14">
-        <v>43517</v>
-      </c>
-      <c r="B5" s="72">
-        <v>1398</v>
-      </c>
-      <c r="C5" s="45">
-        <v>1525</v>
-      </c>
-      <c r="D5" s="45">
+        <v>0.73458000000000012</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM($G$10:G11)+$D$6</f>
+        <v>5500</v>
+      </c>
+      <c r="K11" s="76">
+        <f t="shared" si="2"/>
+        <v>2098.8000000000002</v>
+      </c>
+      <c r="L11" s="76">
+        <f>SUM($K$10:K11)+$D$6</f>
+        <v>3897.3</v>
+      </c>
+      <c r="M11" s="76">
+        <f t="shared" ref="M11:M25" si="3">F11*J11</f>
+        <v>3847.8000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="80">
         <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="E5" s="78">
-        <f t="shared" ref="E5:E16" si="2">MAX(-100,(D5)*100/(B5-585)*1)</f>
-        <v>15.621156211562116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14">
-        <v>43518</v>
-      </c>
-      <c r="B6" s="72">
-        <v>1409</v>
-      </c>
-      <c r="C6" s="45">
-        <v>1525</v>
-      </c>
-      <c r="D6" s="45">
+        <v>0.67980000000000007</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3500</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" si="1"/>
+        <v>0.71379000000000015</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM($G$10:G12)+$D$6</f>
+        <v>9000</v>
+      </c>
+      <c r="K12" s="76">
+        <f t="shared" si="2"/>
+        <v>2379.3000000000002</v>
+      </c>
+      <c r="L12" s="76">
+        <f>SUM($K$10:K12)+$D$6</f>
+        <v>6276.6</v>
+      </c>
+      <c r="M12" s="76">
+        <f t="shared" si="3"/>
+        <v>6118.2000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="81">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="E6" s="78">
+        <v>0.66</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="66">
+        <f t="shared" si="1"/>
+        <v>0.69300000000000006</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM($G$10:G13)+$D$6</f>
+        <v>13000</v>
+      </c>
+      <c r="K13" s="76">
         <f t="shared" si="2"/>
-        <v>14.077669902912621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14">
-        <v>43519</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45">
+        <v>2640</v>
+      </c>
+      <c r="L13" s="76">
+        <f>SUM($K$10:K13)+$D$6</f>
+        <v>8916.6</v>
+      </c>
+      <c r="M13" s="76">
+        <f t="shared" si="3"/>
+        <v>8580</v>
+      </c>
+      <c r="N13" s="65">
+        <f>M13/L13</f>
+        <v>0.96225018504811244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="81">
         <f t="shared" si="0"/>
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4500</v>
+      </c>
+      <c r="H14" s="66">
+        <f t="shared" si="1"/>
+        <v>0.67220999999999997</v>
+      </c>
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="78">
+      <c r="J14" s="7">
+        <f>SUM($G$10:G14)+$D$6</f>
+        <v>17500</v>
+      </c>
+      <c r="K14" s="76">
         <f t="shared" si="2"/>
+        <v>2880.9</v>
+      </c>
+      <c r="L14" s="76">
+        <f>SUM($K$10:K14)+$D$6</f>
+        <v>11797.5</v>
+      </c>
+      <c r="M14" s="76">
+        <f t="shared" si="3"/>
+        <v>11203.5</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" ref="N14:N25" si="4">M14/L14</f>
+        <v>0.94965034965034967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="66">
+        <f t="shared" si="0"/>
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="66">
+        <f t="shared" si="1"/>
+        <v>0.65142</v>
+      </c>
+      <c r="I15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>43520</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45">
+      <c r="J15" s="7">
+        <f>SUM($G$10:G15)+$D$6</f>
+        <v>22500</v>
+      </c>
+      <c r="K15" s="76">
+        <f t="shared" si="2"/>
+        <v>3101.9999999999995</v>
+      </c>
+      <c r="L15" s="76">
+        <f>SUM($K$10:K15)+$D$6</f>
+        <v>14899.5</v>
+      </c>
+      <c r="M15" s="76">
+        <f t="shared" si="3"/>
+        <v>13958.999999999998</v>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="4"/>
+        <v>0.93687707641196005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="E16" s="7">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="66">
         <f t="shared" si="0"/>
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5500</v>
+      </c>
+      <c r="H16" s="66">
+        <f t="shared" si="1"/>
+        <v>0.63063000000000002</v>
+      </c>
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="78">
+      <c r="J16" s="7">
+        <f>SUM($G$10:G16)+$D$6</f>
+        <v>28000</v>
+      </c>
+      <c r="K16" s="76">
         <f t="shared" si="2"/>
+        <v>3303.3</v>
+      </c>
+      <c r="L16" s="76">
+        <f>SUM($K$10:K16)+$D$6</f>
+        <v>18202.8</v>
+      </c>
+      <c r="M16" s="76">
+        <f t="shared" si="3"/>
+        <v>16816.8</v>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="4"/>
+        <v>0.92385786802030456</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="7">
+        <v>-4</v>
+      </c>
+      <c r="F17" s="66">
+        <f t="shared" si="0"/>
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="G17" s="9">
+        <v>6000</v>
+      </c>
+      <c r="H17" s="66">
+        <f t="shared" si="1"/>
+        <v>0.60984000000000005</v>
+      </c>
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14">
-        <v>43521</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45">
+      <c r="J17" s="7">
+        <f>SUM($G$10:G17)+$D$6</f>
+        <v>34000</v>
+      </c>
+      <c r="K17" s="76">
+        <f t="shared" si="2"/>
+        <v>3484.7999999999997</v>
+      </c>
+      <c r="L17" s="76">
+        <f>SUM($K$10:K17)+$D$6</f>
+        <v>21687.599999999999</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" si="3"/>
+        <v>19747.2</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="4"/>
+        <v>0.910529519172246</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F18" s="66">
         <f t="shared" si="0"/>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6500</v>
+      </c>
+      <c r="H18" s="66">
+        <f t="shared" si="1"/>
+        <v>0.58905000000000007</v>
+      </c>
+      <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="78">
-        <f t="shared" si="2"/>
+      <c r="J18" s="7">
+        <f>SUM($G$10:G18)+$D$6</f>
+        <v>40500</v>
+      </c>
+      <c r="K18" s="76">
+        <f t="shared" ref="K18:K25" si="5">F18*G18</f>
+        <v>3646.5000000000005</v>
+      </c>
+      <c r="L18" s="76">
+        <f>SUM($K$10:K18)+$D$6</f>
+        <v>25334.1</v>
+      </c>
+      <c r="M18" s="76">
+        <f t="shared" si="3"/>
+        <v>22720.500000000004</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="4"/>
+        <v>0.89683470105509988</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="7">
+        <v>-6</v>
+      </c>
+      <c r="F19" s="66">
+        <f t="shared" si="0"/>
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7000</v>
+      </c>
+      <c r="H19" s="66">
+        <f t="shared" si="1"/>
+        <v>0.56825999999999999</v>
+      </c>
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
-        <v>43522</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45">
+      <c r="J19" s="7">
+        <f>SUM($G$10:G19)+$D$6</f>
+        <v>47500</v>
+      </c>
+      <c r="K19" s="76">
+        <f t="shared" si="5"/>
+        <v>3788.4</v>
+      </c>
+      <c r="L19" s="76">
+        <f>SUM($K$10:K19)+$D$6</f>
+        <v>29122.5</v>
+      </c>
+      <c r="M19" s="76">
+        <f t="shared" si="3"/>
+        <v>25707</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="4"/>
+        <v>0.88271954674220965</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="7">
+        <v>-7</v>
+      </c>
+      <c r="F20" s="66">
         <f t="shared" si="0"/>
+        <v>0.52140000000000009</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7500</v>
+      </c>
+      <c r="H20" s="66">
+        <f t="shared" si="1"/>
+        <v>0.54747000000000012</v>
+      </c>
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="78">
-        <f t="shared" si="2"/>
+      <c r="J20" s="7">
+        <f>SUM($G$10:G20)+$D$6</f>
+        <v>55000</v>
+      </c>
+      <c r="K20" s="76">
+        <f t="shared" si="5"/>
+        <v>3910.5000000000005</v>
+      </c>
+      <c r="L20" s="76">
+        <f>SUM($K$10:K20)+$D$6</f>
+        <v>33033</v>
+      </c>
+      <c r="M20" s="76">
+        <f t="shared" si="3"/>
+        <v>28677.000000000004</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="4"/>
+        <v>0.86813186813186827</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="7">
+        <v>-8</v>
+      </c>
+      <c r="F21" s="66">
+        <f t="shared" si="0"/>
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H21" s="66">
+        <f t="shared" si="1"/>
+        <v>0.52668000000000004</v>
+      </c>
+      <c r="I21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
-        <v>43523</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45">
+      <c r="J21" s="7">
+        <f>SUM($G$10:G21)+$D$6</f>
+        <v>63000</v>
+      </c>
+      <c r="K21" s="76">
+        <f t="shared" si="5"/>
+        <v>4012.8</v>
+      </c>
+      <c r="L21" s="76">
+        <f>SUM($K$10:K21)+$D$6</f>
+        <v>37045.800000000003</v>
+      </c>
+      <c r="M21" s="76">
+        <f t="shared" si="3"/>
+        <v>31600.800000000003</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="4"/>
+        <v>0.85301977552111174</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="7">
+        <v>-9</v>
+      </c>
+      <c r="F22" s="66">
         <f t="shared" si="0"/>
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8500</v>
+      </c>
+      <c r="H22" s="66">
+        <f t="shared" si="1"/>
+        <v>0.50589000000000006</v>
+      </c>
+      <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="78">
-        <f t="shared" si="2"/>
+      <c r="J22" s="7">
+        <f>SUM($G$10:G22)+$D$6</f>
+        <v>71500</v>
+      </c>
+      <c r="K22" s="76">
+        <f t="shared" si="5"/>
+        <v>4095.3</v>
+      </c>
+      <c r="L22" s="76">
+        <f>SUM($K$10:K22)+$D$6</f>
+        <v>41141.100000000006</v>
+      </c>
+      <c r="M22" s="76">
+        <f t="shared" si="3"/>
+        <v>34448.699999999997</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="4"/>
+        <v>0.83733055265901968</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F23" s="66">
+        <f t="shared" si="0"/>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="G23" s="9">
+        <v>9000</v>
+      </c>
+      <c r="H23" s="66">
+        <f t="shared" si="1"/>
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="I23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14">
-        <v>43524</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45">
+      <c r="J23" s="7">
+        <f>SUM($G$10:G23)+$D$6</f>
+        <v>80500</v>
+      </c>
+      <c r="K23" s="76">
+        <f t="shared" si="5"/>
+        <v>4158</v>
+      </c>
+      <c r="L23" s="76">
+        <f>SUM($K$10:K23)+$D$6</f>
+        <v>45299.100000000006</v>
+      </c>
+      <c r="M23" s="76">
+        <f t="shared" si="3"/>
+        <v>37191</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="4"/>
+        <v>0.82100968893421711</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="7">
+        <v>-11</v>
+      </c>
+      <c r="F24" s="66">
         <f t="shared" si="0"/>
+        <v>0.44220000000000004</v>
+      </c>
+      <c r="G24" s="9">
+        <v>9500</v>
+      </c>
+      <c r="H24" s="66">
+        <f t="shared" si="1"/>
+        <v>0.46431000000000006</v>
+      </c>
+      <c r="I24" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="78">
-        <f t="shared" si="2"/>
+      <c r="J24" s="7">
+        <f>SUM($G$10:G24)+$D$6</f>
+        <v>90000</v>
+      </c>
+      <c r="K24" s="76">
+        <f t="shared" si="5"/>
+        <v>4200.9000000000005</v>
+      </c>
+      <c r="L24" s="76">
+        <f>SUM($K$10:K24)+$D$6</f>
+        <v>49500.000000000007</v>
+      </c>
+      <c r="M24" s="76">
+        <f t="shared" si="3"/>
+        <v>39798</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="4"/>
+        <v>0.80399999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="67">
+        <v>-12</v>
+      </c>
+      <c r="F25" s="66">
+        <f t="shared" si="0"/>
+        <v>0.42240000000000005</v>
+      </c>
+      <c r="G25" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="66">
+        <f t="shared" si="1"/>
+        <v>0.44352000000000008</v>
+      </c>
+      <c r="I25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14">
-        <v>43525</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14">
-        <v>43526</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14">
-        <v>43527</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="14">
-        <v>43528</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14">
-        <v>43529</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14">
-        <v>43530</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14">
-        <v>43531</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14">
-        <v>43532</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14">
-        <v>43533</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14">
-        <v>43534</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14">
-        <v>43535</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14">
-        <v>43536</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14">
-        <v>43537</v>
-      </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="J25" s="7">
+        <f>SUM($G$10:G25)+$D$6</f>
+        <v>100000</v>
+      </c>
+      <c r="K25" s="76">
+        <f t="shared" si="5"/>
+        <v>4224.0000000000009</v>
+      </c>
+      <c r="L25" s="76">
+        <f>SUM($K$10:K25)+$D$6</f>
+        <v>53724.000000000007</v>
+      </c>
+      <c r="M25" s="76">
+        <f t="shared" si="3"/>
+        <v>42240.000000000007</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="4"/>
+        <v>0.7862407862407863</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="G26">
+        <f>SUM(G10:G25)</f>
+        <v>100000</v>
+      </c>
+      <c r="K26" s="76">
+        <f>SUM(K10:K25)</f>
+        <v>53724.000000000007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="1650" activeTab="8"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="1650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,16 @@
     <sheet name="古债平衡" sheetId="8" r:id="rId4"/>
     <sheet name="H股ETF" sheetId="9" r:id="rId5"/>
     <sheet name="红利ETF" sheetId="13" r:id="rId6"/>
-    <sheet name="300" sheetId="10" r:id="rId7"/>
-    <sheet name="500" sheetId="12" r:id="rId8"/>
-    <sheet name="有色" sheetId="20" r:id="rId9"/>
-    <sheet name="医药ETF" sheetId="21" r:id="rId10"/>
+    <sheet name="有色" sheetId="20" r:id="rId7"/>
+    <sheet name="300" sheetId="10" r:id="rId8"/>
+    <sheet name="500" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -916,10 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所需成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,18 +1031,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓位(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前盈余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前仓位（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定投300额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,14 +1131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维持仓位（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前仓位(股数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE排位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,10 +1220,6 @@
   </si>
   <si>
     <t>卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医药ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,9 +1765,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +1775,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2320,715 +2301,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="6" max="6" width="9" style="65"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="9" style="65"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="9" style="76"/>
-    <col min="13" max="13" width="9" style="76"/>
-    <col min="14" max="14" width="9" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="68">
-        <v>512010</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="43">
-        <v>1.722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="C4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="E9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="80">
-        <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
-        <v>1.8769800000000001</v>
-      </c>
-      <c r="G10" s="9">
-        <v>500</v>
-      </c>
-      <c r="H10" s="66">
-        <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
-        <v>1.9708290000000002</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <f>SUM($G$10:G10)+$D$6</f>
-        <v>500</v>
-      </c>
-      <c r="K10" s="76">
-        <f t="shared" ref="K10:K25" si="2">F10*G10</f>
-        <v>938.49</v>
-      </c>
-      <c r="L10" s="76">
-        <f>SUM($K$10:K10)+$D$6</f>
-        <v>938.49</v>
-      </c>
-      <c r="M10" s="76">
-        <f>F10*J10</f>
-        <v>938.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="80">
-        <f t="shared" si="0"/>
-        <v>1.8253200000000001</v>
-      </c>
-      <c r="G11" s="9">
-        <v>600</v>
-      </c>
-      <c r="H11" s="66">
-        <f t="shared" si="1"/>
-        <v>1.9165860000000001</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <f>SUM($G$10:G11)+$D$6</f>
-        <v>1100</v>
-      </c>
-      <c r="K11" s="76">
-        <f t="shared" si="2"/>
-        <v>1095.192</v>
-      </c>
-      <c r="L11" s="76">
-        <f>SUM($K$10:K11)+$D$6</f>
-        <v>2033.682</v>
-      </c>
-      <c r="M11" s="76">
-        <f t="shared" ref="M11:M25" si="3">F11*J11</f>
-        <v>2007.8520000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="80">
-        <f t="shared" si="0"/>
-        <v>1.77366</v>
-      </c>
-      <c r="G12" s="9">
-        <v>700</v>
-      </c>
-      <c r="H12" s="66">
-        <f t="shared" si="1"/>
-        <v>1.8623430000000001</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <f>SUM($G$10:G12)+$D$6</f>
-        <v>1800</v>
-      </c>
-      <c r="K12" s="76">
-        <f t="shared" si="2"/>
-        <v>1241.5619999999999</v>
-      </c>
-      <c r="L12" s="76">
-        <f>SUM($K$10:K12)+$D$6</f>
-        <v>3275.2439999999997</v>
-      </c>
-      <c r="M12" s="76">
-        <f t="shared" si="3"/>
-        <v>3192.5880000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="81">
-        <f t="shared" si="0"/>
-        <v>1.722</v>
-      </c>
-      <c r="G13" s="9">
-        <v>800</v>
-      </c>
-      <c r="H13" s="66">
-        <f t="shared" si="1"/>
-        <v>1.8081</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <f>SUM($G$10:G13)+$D$6</f>
-        <v>2600</v>
-      </c>
-      <c r="K13" s="76">
-        <f t="shared" si="2"/>
-        <v>1377.6</v>
-      </c>
-      <c r="L13" s="76">
-        <f>SUM($K$10:K13)+$D$6</f>
-        <v>4652.8439999999991</v>
-      </c>
-      <c r="M13" s="76">
-        <f t="shared" si="3"/>
-        <v>4477.2</v>
-      </c>
-      <c r="N13" s="65">
-        <f>M13/L13</f>
-        <v>0.96225018504811266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="E14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="81">
-        <f t="shared" si="0"/>
-        <v>1.6703399999999999</v>
-      </c>
-      <c r="G14" s="9">
-        <v>900</v>
-      </c>
-      <c r="H14" s="66">
-        <f t="shared" si="1"/>
-        <v>1.753857</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <f>SUM($G$10:G14)+$D$6</f>
-        <v>3500</v>
-      </c>
-      <c r="K14" s="76">
-        <f t="shared" si="2"/>
-        <v>1503.306</v>
-      </c>
-      <c r="L14" s="76">
-        <f>SUM($K$10:K14)+$D$6</f>
-        <v>6156.15</v>
-      </c>
-      <c r="M14" s="76">
-        <f t="shared" si="3"/>
-        <v>5846.19</v>
-      </c>
-      <c r="N14" s="65">
-        <f t="shared" ref="N14:N25" si="4">M14/L14</f>
-        <v>0.94965034965034967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="E15" s="7">
-        <v>-2</v>
-      </c>
-      <c r="F15" s="66">
-        <f t="shared" si="0"/>
-        <v>1.6186799999999999</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="66">
-        <f t="shared" si="1"/>
-        <v>1.699614</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <f>SUM($G$10:G15)+$D$6</f>
-        <v>4500</v>
-      </c>
-      <c r="K15" s="76">
-        <f t="shared" si="2"/>
-        <v>1618.6799999999998</v>
-      </c>
-      <c r="L15" s="76">
-        <f>SUM($K$10:K15)+$D$6</f>
-        <v>7774.83</v>
-      </c>
-      <c r="M15" s="76">
-        <f t="shared" si="3"/>
-        <v>7284.0599999999995</v>
-      </c>
-      <c r="N15" s="65">
-        <f t="shared" si="4"/>
-        <v>0.93687707641196005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="E16" s="7">
-        <v>-3</v>
-      </c>
-      <c r="F16" s="66">
-        <f t="shared" si="0"/>
-        <v>1.5670200000000001</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1100</v>
-      </c>
-      <c r="H16" s="66">
-        <f t="shared" si="1"/>
-        <v>1.6453710000000001</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <f>SUM($G$10:G16)+$D$6</f>
-        <v>5600</v>
-      </c>
-      <c r="K16" s="76">
-        <f t="shared" si="2"/>
-        <v>1723.722</v>
-      </c>
-      <c r="L16" s="76">
-        <f>SUM($K$10:K16)+$D$6</f>
-        <v>9498.5519999999997</v>
-      </c>
-      <c r="M16" s="76">
-        <f t="shared" si="3"/>
-        <v>8775.3119999999999</v>
-      </c>
-      <c r="N16" s="65">
-        <f t="shared" si="4"/>
-        <v>0.92385786802030456</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="7">
-        <v>-4</v>
-      </c>
-      <c r="F17" s="66">
-        <f t="shared" si="0"/>
-        <v>1.51536</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H17" s="66">
-        <f t="shared" si="1"/>
-        <v>1.5911280000000001</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <f>SUM($G$10:G17)+$D$6</f>
-        <v>6800</v>
-      </c>
-      <c r="K17" s="76">
-        <f t="shared" si="2"/>
-        <v>1818.432</v>
-      </c>
-      <c r="L17" s="76">
-        <f>SUM($K$10:K17)+$D$6</f>
-        <v>11316.984</v>
-      </c>
-      <c r="M17" s="76">
-        <f t="shared" si="3"/>
-        <v>10304.448</v>
-      </c>
-      <c r="N17" s="65">
-        <f t="shared" si="4"/>
-        <v>0.91052951917224589</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="7">
-        <v>-5</v>
-      </c>
-      <c r="F18" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4637</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1300</v>
-      </c>
-      <c r="H18" s="66">
-        <f t="shared" si="1"/>
-        <v>1.5368850000000001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f>SUM($G$10:G18)+$D$6</f>
-        <v>8100</v>
-      </c>
-      <c r="K18" s="76">
-        <f t="shared" si="2"/>
-        <v>1902.81</v>
-      </c>
-      <c r="L18" s="76">
-        <f>SUM($K$10:K18)+$D$6</f>
-        <v>13219.794</v>
-      </c>
-      <c r="M18" s="76">
-        <f t="shared" si="3"/>
-        <v>11855.97</v>
-      </c>
-      <c r="N18" s="65">
-        <f t="shared" si="4"/>
-        <v>0.89683470105509966</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="7">
-        <v>-6</v>
-      </c>
-      <c r="F19" s="66">
-        <f t="shared" si="0"/>
-        <v>1.4120400000000002</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1400</v>
-      </c>
-      <c r="H19" s="66">
-        <f t="shared" si="1"/>
-        <v>1.4826420000000002</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f>SUM($G$10:G19)+$D$6</f>
-        <v>9500</v>
-      </c>
-      <c r="K19" s="76">
-        <f t="shared" si="2"/>
-        <v>1976.8560000000002</v>
-      </c>
-      <c r="L19" s="76">
-        <f>SUM($K$10:K19)+$D$6</f>
-        <v>15196.65</v>
-      </c>
-      <c r="M19" s="76">
-        <f t="shared" si="3"/>
-        <v>13414.380000000001</v>
-      </c>
-      <c r="N19" s="65">
-        <f t="shared" si="4"/>
-        <v>0.88271954674220976</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="F20" s="66">
-        <f t="shared" si="0"/>
-        <v>1.3603800000000001</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="66">
-        <f t="shared" si="1"/>
-        <v>1.4283990000000002</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f>SUM($G$10:G20)+$D$6</f>
-        <v>11000</v>
-      </c>
-      <c r="K20" s="76">
-        <f t="shared" si="2"/>
-        <v>2040.5700000000002</v>
-      </c>
-      <c r="L20" s="76">
-        <f>SUM($K$10:K20)+$D$6</f>
-        <v>17237.22</v>
-      </c>
-      <c r="M20" s="76">
-        <f t="shared" si="3"/>
-        <v>14964.180000000002</v>
-      </c>
-      <c r="N20" s="65">
-        <f t="shared" si="4"/>
-        <v>0.86813186813186816</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="7">
-        <v>-8</v>
-      </c>
-      <c r="F21" s="66">
-        <f t="shared" si="0"/>
-        <v>1.3087200000000001</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1600</v>
-      </c>
-      <c r="H21" s="66">
-        <f t="shared" si="1"/>
-        <v>1.3741560000000002</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <f>SUM($G$10:G21)+$D$6</f>
-        <v>12600</v>
-      </c>
-      <c r="K21" s="76">
-        <f t="shared" si="2"/>
-        <v>2093.9520000000002</v>
-      </c>
-      <c r="L21" s="76">
-        <f>SUM($K$10:K21)+$D$6</f>
-        <v>19331.172000000002</v>
-      </c>
-      <c r="M21" s="76">
-        <f t="shared" si="3"/>
-        <v>16489.872000000003</v>
-      </c>
-      <c r="N21" s="65">
-        <f t="shared" si="4"/>
-        <v>0.85301977552111174</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="7">
-        <v>-9</v>
-      </c>
-      <c r="F22" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2570599999999998</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1700</v>
-      </c>
-      <c r="H22" s="66">
-        <f t="shared" si="1"/>
-        <v>1.3199129999999999</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <f>SUM($G$10:G22)+$D$6</f>
-        <v>14300</v>
-      </c>
-      <c r="K22" s="76">
-        <f t="shared" si="2"/>
-        <v>2137.002</v>
-      </c>
-      <c r="L22" s="76">
-        <f>SUM($K$10:K22)+$D$6</f>
-        <v>21468.174000000003</v>
-      </c>
-      <c r="M22" s="76">
-        <f t="shared" si="3"/>
-        <v>17975.957999999999</v>
-      </c>
-      <c r="N22" s="65">
-        <f t="shared" si="4"/>
-        <v>0.83733055265901968</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" s="7">
-        <v>-10</v>
-      </c>
-      <c r="F23" s="66">
-        <f t="shared" si="0"/>
-        <v>1.2053999999999998</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1800</v>
-      </c>
-      <c r="H23" s="66">
-        <f t="shared" si="1"/>
-        <v>1.2656699999999999</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <f>SUM($G$10:G23)+$D$6</f>
-        <v>16100</v>
-      </c>
-      <c r="K23" s="76">
-        <f t="shared" si="2"/>
-        <v>2169.7199999999998</v>
-      </c>
-      <c r="L23" s="76">
-        <f>SUM($K$10:K23)+$D$6</f>
-        <v>23637.894000000004</v>
-      </c>
-      <c r="M23" s="76">
-        <f t="shared" si="3"/>
-        <v>19406.939999999995</v>
-      </c>
-      <c r="N23" s="65">
-        <f t="shared" si="4"/>
-        <v>0.82100968893421689</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" s="7">
-        <v>-11</v>
-      </c>
-      <c r="F24" s="66">
-        <f t="shared" si="0"/>
-        <v>1.15374</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1900</v>
-      </c>
-      <c r="H24" s="66">
-        <f t="shared" si="1"/>
-        <v>1.211427</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <f>SUM($G$10:G24)+$D$6</f>
-        <v>18000</v>
-      </c>
-      <c r="K24" s="76">
-        <f t="shared" si="2"/>
-        <v>2192.1059999999998</v>
-      </c>
-      <c r="L24" s="76">
-        <f>SUM($K$10:K24)+$D$6</f>
-        <v>25830.000000000004</v>
-      </c>
-      <c r="M24" s="76">
-        <f t="shared" si="3"/>
-        <v>20767.32</v>
-      </c>
-      <c r="N24" s="65">
-        <f t="shared" si="4"/>
-        <v>0.80399999999999983</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="67">
-        <v>-12</v>
-      </c>
-      <c r="F25" s="66">
-        <f t="shared" si="0"/>
-        <v>1.1020799999999999</v>
-      </c>
-      <c r="G25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="H25" s="66">
-        <f t="shared" si="1"/>
-        <v>1.157184</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <f>SUM($G$10:G25)+$D$6</f>
-        <v>20000</v>
-      </c>
-      <c r="K25" s="76">
-        <f t="shared" si="2"/>
-        <v>2204.16</v>
-      </c>
-      <c r="L25" s="76">
-        <f>SUM($K$10:K25)+$D$6</f>
-        <v>28034.160000000003</v>
-      </c>
-      <c r="M25" s="76">
-        <f t="shared" si="3"/>
-        <v>22041.599999999999</v>
-      </c>
-      <c r="N25" s="65">
-        <f t="shared" si="4"/>
-        <v>0.78624078624078608</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="G26">
-        <f>SUM(G10:G25)</f>
-        <v>20000</v>
-      </c>
-      <c r="K26" s="76">
-        <f>SUM(K10:K25)</f>
-        <v>28034.160000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
@@ -3090,7 +2362,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>53</v>
@@ -3137,7 +2409,7 @@
         <v>1.1455</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>52</v>
@@ -3210,10 +2482,10 @@
     </row>
     <row r="4" spans="2:35" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B4" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D4" s="58">
         <v>2348</v>
@@ -3399,10 +2671,10 @@
     </row>
     <row r="8" spans="2:35" s="12" customFormat="1" ht="14.25">
       <c r="B8" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="56">
         <v>1200</v>
@@ -3452,7 +2724,7 @@
         <v>0.79490000000000005</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P9" s="30" t="s">
         <v>67</v>
@@ -3460,10 +2732,10 @@
     </row>
     <row r="10" spans="2:35" s="12" customFormat="1">
       <c r="B10" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="58">
         <v>200</v>
@@ -3480,10 +2752,10 @@
     </row>
     <row r="11" spans="2:35" s="12" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="58">
         <v>200</v>
@@ -3500,10 +2772,10 @@
     </row>
     <row r="12" spans="2:35" s="12" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D12" s="58">
         <v>500</v>
@@ -3520,10 +2792,10 @@
     </row>
     <row r="13" spans="2:35" s="12" customFormat="1">
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="58">
         <v>200</v>
@@ -3540,10 +2812,10 @@
     </row>
     <row r="14" spans="2:35" s="12" customFormat="1">
       <c r="B14" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58">
@@ -3560,10 +2832,10 @@
     </row>
     <row r="15" spans="2:35" s="12" customFormat="1" ht="14.25" thickBot="1">
       <c r="B15" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D15" s="58">
         <v>1000</v>
@@ -3809,7 +3081,7 @@
         <v>4402</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>95</v>
@@ -3817,10 +3089,10 @@
     </row>
     <row r="22" spans="2:16" ht="14.25">
       <c r="B22" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D22" s="46">
         <v>996</v>
@@ -3830,10 +3102,10 @@
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="45">
         <v>498</v>
@@ -3845,10 +3117,10 @@
     </row>
     <row r="24" spans="2:16" ht="14.25">
       <c r="B24" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="46">
         <v>1002</v>
@@ -3858,7 +3130,7 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="46">
         <v>3035</v>
@@ -3867,7 +3139,7 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="46">
         <v>4148</v>
@@ -3883,7 +3155,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="I29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="7" t="s">
@@ -3892,7 +3164,7 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>111</v>
@@ -3931,7 +3203,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="I33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33" s="64">
         <f>SUM(D2:E5)</f>
@@ -3957,7 +3229,7 @@
     </row>
     <row r="35" spans="2:11">
       <c r="I35" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J35" s="64">
         <v>0</v>
@@ -4014,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J39" s="55"/>
       <c r="K39" s="7" t="s">
@@ -4122,7 +3394,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D43" s="45">
         <v>3.3410000000000002</v>
@@ -4132,13 +3404,13 @@
         <v>3.5080500000000003</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J43" s="64">
         <f>SUM(E2:E3)</f>
@@ -4154,7 +3426,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D44" s="45">
         <v>3.3410000000000002</v>
@@ -4164,10 +3436,10 @@
         <v>3.5080500000000003</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>112</v>
@@ -4185,7 +3457,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D45" s="45">
         <v>3.3410000000000002</v>
@@ -4195,13 +3467,13 @@
         <v>3.5080500000000003</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J45" s="64">
         <f>SUM(D34:D35)</f>
@@ -4211,7 +3483,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="62" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" s="74">
         <v>22</v>
@@ -4222,7 +3494,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D67" s="73">
         <v>2559</v>
@@ -4232,7 +3504,7 @@
     <row r="68" spans="2:6">
       <c r="B68" s="7"/>
       <c r="C68" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D68" s="73">
         <v>2520</v>
@@ -4242,13 +3514,13 @@
         <v>-113.04347826086956</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7"/>
       <c r="C69" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D69" s="73">
         <v>2547</v>
@@ -4258,7 +3530,7 @@
         <v>-34.782608695652172</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -4272,7 +3544,7 @@
         <v>19</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D72" s="73">
         <v>1277</v>
@@ -4282,7 +3554,7 @@
     <row r="73" spans="2:6">
       <c r="B73" s="7"/>
       <c r="C73" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D73" s="73">
         <v>1359</v>
@@ -4292,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="7"/>
       <c r="C74" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D74" s="73">
         <v>1537</v>
@@ -4308,7 +3580,7 @@
         <v>2064.9819494584835</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -4322,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D77" s="73">
         <v>869</v>
@@ -4332,7 +3604,7 @@
     <row r="78" spans="2:6">
       <c r="B78" s="7"/>
       <c r="C78" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D78" s="73">
         <v>877</v>
@@ -4342,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7"/>
       <c r="C79" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D79" s="73">
         <v>958</v>
@@ -4358,7 +3630,7 @@
         <v>2837.68115942029</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -4413,7 +3685,7 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4560,10 +3832,10 @@
     </row>
     <row r="22" spans="3:14">
       <c r="D22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="3:14">
@@ -4573,59 +3845,59 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="123" customHeight="1">
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4642,10 +3914,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A3:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4655,6 +3927,20 @@
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19">
+      <c r="G1"/>
+      <c r="H1" s="65"/>
+      <c r="K1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="G2"/>
+      <c r="H2" s="65"/>
+      <c r="K2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="65"/>
+    </row>
     <row r="3" spans="1:19">
       <c r="A3" s="9" t="s">
         <v>21</v>
@@ -4663,20 +3949,21 @@
         <v>510900</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="43">
-        <v>1.07</v>
-      </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="65"/>
+      <c r="K3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="65"/>
       <c r="O3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>115</v>
@@ -4685,25 +3972,24 @@
         <v>116</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="C4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="66">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4.9000000000000004</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="65"/>
+      <c r="K4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -4711,34 +3997,32 @@
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
-      <c r="M5" s="66">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="G5"/>
+      <c r="H5" s="65"/>
+      <c r="K5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="65"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:19">
       <c r="C6" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
       </c>
-      <c r="M6" s="66">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4.3</v>
-      </c>
+      <c r="G6"/>
+      <c r="H6" s="65"/>
+      <c r="K6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6">
@@ -4747,12 +4031,11 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="M7" s="66">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7" s="65"/>
+      <c r="K7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7">
@@ -4761,12 +4044,11 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="M8" s="66">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3.7</v>
-      </c>
+      <c r="G8"/>
+      <c r="H8" s="65"/>
+      <c r="K8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8">
@@ -4776,26 +4058,26 @@
     </row>
     <row r="9" spans="1:19">
       <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="66">
-        <v>6</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3.4</v>
-      </c>
+      <c r="G9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
@@ -4812,36 +4094,46 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="66">
-        <f>$D$3*(1+E10*$D$4)</f>
-        <v>1.1663000000000001</v>
-      </c>
-      <c r="G10" s="66">
-        <f>F10*(1+$D$5)</f>
-        <v>1.2246150000000002</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1800</v>
+      <c r="E10" s="82">
+        <v>4</v>
+      </c>
+      <c r="F10" s="79">
+        <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
+        <v>1.26</v>
       </c>
       <c r="I10" s="7">
-        <f>SUM($H$10:H10)+$D$6</f>
-        <v>1800</v>
-      </c>
-      <c r="M10" s="66">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM($G$10:G10)+$D$6</f>
+        <v>2000</v>
+      </c>
+      <c r="K10" s="76">
+        <f t="shared" ref="K10:K25" si="2">F10*G10</f>
+        <v>2400</v>
+      </c>
+      <c r="L10" s="76">
+        <f>SUM($K$10:K10)+$D$6</f>
+        <v>2400</v>
+      </c>
+      <c r="M10" s="76">
+        <f>F10*J10</f>
+        <v>2400</v>
+      </c>
+      <c r="N10" s="65"/>
       <c r="O10" s="7">
         <v>4500</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" ref="P10:P17" si="0">N10*O10</f>
-        <v>13950</v>
+        <f t="shared" ref="P10:P17" si="3">N10*O10</f>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>4500</v>
@@ -4852,40 +4144,50 @@
       </c>
       <c r="S10">
         <f>SUM(P9:P10)</f>
-        <v>13950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66">
-        <f t="shared" ref="F11:F25" si="1">$D$3*(1+E11*$D$4)</f>
-        <v>1.1342000000000001</v>
-      </c>
-      <c r="G11" s="66">
-        <f t="shared" ref="G11:G25" si="2">F11*(1+$D$5)</f>
-        <v>1.1909100000000001</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1900</v>
+      <c r="E11" s="82">
+        <v>3</v>
+      </c>
+      <c r="F11" s="80">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H11" s="66">
+        <f t="shared" si="1"/>
+        <v>1.2075</v>
       </c>
       <c r="I11" s="7">
-        <f>SUM($H$10:H11)+$D$6</f>
-        <v>3700</v>
-      </c>
-      <c r="M11" s="66">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM($G$10:G11)+$D$6</f>
+        <v>4500</v>
+      </c>
+      <c r="K11" s="76">
+        <f t="shared" si="2"/>
+        <v>2875</v>
+      </c>
+      <c r="L11" s="76">
+        <f>SUM($K$10:K11)+$D$6</f>
+        <v>5275</v>
+      </c>
+      <c r="M11" s="76">
+        <f t="shared" ref="M11:M25" si="4">F11*J11</f>
+        <v>5175</v>
+      </c>
+      <c r="N11" s="65"/>
       <c r="O11" s="7">
         <v>5000</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="0"/>
-        <v>14000</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>4000</v>
@@ -4896,40 +4198,50 @@
       </c>
       <c r="S11">
         <f>SUM(P9:P11)</f>
-        <v>27950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="66">
+      <c r="E12" s="82">
+        <v>2</v>
+      </c>
+      <c r="F12" s="80">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="66">
         <f t="shared" si="1"/>
-        <v>1.1021000000000001</v>
-      </c>
-      <c r="G12" s="66">
+        <v>1.1550000000000002</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM($G$10:G12)+$D$6</f>
+        <v>7500</v>
+      </c>
+      <c r="K12" s="76">
         <f t="shared" si="2"/>
-        <v>1.157205</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="7">
-        <f>SUM($H$10:H12)+$D$6</f>
-        <v>5700</v>
-      </c>
-      <c r="M12" s="66">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2.5</v>
-      </c>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="L12" s="76">
+        <f>SUM($K$10:K12)+$D$6</f>
+        <v>8575</v>
+      </c>
+      <c r="M12" s="76">
+        <f t="shared" si="4"/>
+        <v>8250</v>
+      </c>
+      <c r="N12" s="65"/>
       <c r="O12" s="7">
         <v>5500</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="0"/>
-        <v>13750</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>3500</v>
@@ -4940,40 +4252,53 @@
       </c>
       <c r="S12">
         <f>SUM(P9:P12)</f>
-        <v>41700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="66">
+      <c r="E13" s="82">
+        <v>1</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3500</v>
+      </c>
+      <c r="H13" s="66">
         <f t="shared" si="1"/>
-        <v>1.07</v>
-      </c>
-      <c r="G13" s="66">
+        <v>1.1025</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM($G$10:G13)+$D$6</f>
+        <v>11000</v>
+      </c>
+      <c r="K13" s="76">
         <f t="shared" si="2"/>
-        <v>1.1235000000000002</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2100</v>
-      </c>
-      <c r="I13" s="7">
-        <f>SUM($H$10:H13)+$D$6</f>
-        <v>7800</v>
-      </c>
-      <c r="M13" s="66">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2.2000000000000002</v>
+        <v>3675</v>
+      </c>
+      <c r="L13" s="76">
+        <f>SUM($K$10:K13)+$D$6</f>
+        <v>12250</v>
+      </c>
+      <c r="M13" s="76">
+        <f t="shared" si="4"/>
+        <v>11550</v>
+      </c>
+      <c r="N13" s="65">
+        <f>M13/L13</f>
+        <v>0.94285714285714284</v>
       </c>
       <c r="O13" s="7">
         <v>6000</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="0"/>
-        <v>13200.000000000002</v>
+        <f t="shared" si="3"/>
+        <v>5657.1428571428569</v>
       </c>
       <c r="Q13">
         <v>3000</v>
@@ -4984,40 +4309,53 @@
       </c>
       <c r="S13">
         <f>SUM(P9:P13)</f>
-        <v>54900</v>
+        <v>5657.1428571428569</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="E14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="66">
+      <c r="E14" s="82">
+        <v>0</v>
+      </c>
+      <c r="F14" s="80">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="66">
         <f t="shared" si="1"/>
-        <v>1.0379</v>
-      </c>
-      <c r="G14" s="66">
+        <v>1.05</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM($G$10:G14)+$D$6</f>
+        <v>15000</v>
+      </c>
+      <c r="K14" s="76">
         <f t="shared" si="2"/>
-        <v>1.0897950000000001</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2200</v>
-      </c>
-      <c r="I14" s="7">
-        <f>SUM($H$10:H14)+$D$6</f>
-        <v>10000</v>
-      </c>
-      <c r="M14" s="66">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1.9</v>
+        <v>4000</v>
+      </c>
+      <c r="L14" s="76">
+        <f>SUM($K$10:K14)+$D$6</f>
+        <v>16250</v>
+      </c>
+      <c r="M14" s="76">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" ref="N14:N25" si="5">M14/L14</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="O14" s="7">
         <v>6500</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="0"/>
-        <v>12350</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="Q14">
         <v>2500</v>
@@ -5028,36 +4366,49 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="E15" s="7">
-        <v>-2</v>
+      <c r="E15" s="82">
+        <v>-1</v>
       </c>
       <c r="F15" s="66">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4500</v>
+      </c>
+      <c r="H15" s="66">
         <f t="shared" si="1"/>
-        <v>1.0058</v>
-      </c>
-      <c r="G15" s="66">
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM($G$10:G15)+$D$6</f>
+        <v>19500</v>
+      </c>
+      <c r="K15" s="76">
         <f t="shared" si="2"/>
-        <v>1.05609</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2300</v>
-      </c>
-      <c r="I15" s="7">
-        <f>SUM($H$10:H15)+$D$6</f>
-        <v>12300</v>
-      </c>
-      <c r="M15" s="66">
-        <v>12</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1.6</v>
+        <v>4275</v>
+      </c>
+      <c r="L15" s="76">
+        <f>SUM($K$10:K15)+$D$6</f>
+        <v>20525</v>
+      </c>
+      <c r="M15" s="76">
+        <f t="shared" si="4"/>
+        <v>18525</v>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="5"/>
+        <v>0.90255785627283802</v>
       </c>
       <c r="O15" s="7">
         <v>7000</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="0"/>
-        <v>11200</v>
+        <f t="shared" si="3"/>
+        <v>6317.9049939098659</v>
       </c>
       <c r="Q15">
         <v>2000</v>
@@ -5068,36 +4419,49 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="E16" s="7">
-        <v>-3</v>
+      <c r="E16" s="82">
+        <v>-2</v>
       </c>
       <c r="F16" s="66">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="66">
         <f t="shared" si="1"/>
-        <v>0.97370000000000012</v>
-      </c>
-      <c r="G16" s="66">
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUM($G$10:G16)+$D$6</f>
+        <v>24500</v>
+      </c>
+      <c r="K16" s="76">
         <f t="shared" si="2"/>
-        <v>1.0223850000000001</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2400</v>
-      </c>
-      <c r="I16" s="7">
-        <f>SUM($H$10:H16)+$D$6</f>
-        <v>14700</v>
-      </c>
-      <c r="M16" s="66">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1.3</v>
+        <v>4500</v>
+      </c>
+      <c r="L16" s="76">
+        <f>SUM($K$10:K16)+$D$6</f>
+        <v>25025</v>
+      </c>
+      <c r="M16" s="76">
+        <f t="shared" si="4"/>
+        <v>22050</v>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="5"/>
+        <v>0.88111888111888115</v>
       </c>
       <c r="O16" s="7">
         <v>7500</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="0"/>
-        <v>9750</v>
+        <f t="shared" si="3"/>
+        <v>6608.3916083916083</v>
       </c>
       <c r="R16" s="7">
         <f>SUM(O9:O16)</f>
@@ -5105,36 +4469,49 @@
       </c>
     </row>
     <row r="17" spans="5:19">
-      <c r="E17" s="7">
-        <v>-4</v>
+      <c r="E17" s="82">
+        <v>-3</v>
       </c>
       <c r="F17" s="66">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5500</v>
+      </c>
+      <c r="H17" s="66">
         <f t="shared" si="1"/>
-        <v>0.9416000000000001</v>
-      </c>
-      <c r="G17" s="66">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUM($G$10:G17)+$D$6</f>
+        <v>30000</v>
+      </c>
+      <c r="K17" s="76">
         <f t="shared" si="2"/>
-        <v>0.98868000000000011</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="7">
-        <f>SUM($H$10:H17)+$D$6</f>
-        <v>17200</v>
-      </c>
-      <c r="M17" s="66">
-        <v>14</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
+        <v>4675</v>
+      </c>
+      <c r="L17" s="76">
+        <f>SUM($K$10:K17)+$D$6</f>
+        <v>29700</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" si="4"/>
+        <v>25500</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="5"/>
+        <v>0.85858585858585856</v>
       </c>
       <c r="O17" s="7">
         <v>8000</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f t="shared" si="3"/>
+        <v>6868.6868686868684</v>
       </c>
       <c r="R17" s="7">
         <f>SUM(O9:O17)</f>
@@ -5142,33 +4519,46 @@
       </c>
       <c r="S17">
         <f>SUM(P9:P17)</f>
-        <v>96200</v>
+        <v>31452.126328131202</v>
       </c>
     </row>
     <row r="18" spans="5:19">
-      <c r="E18" s="7">
-        <v>-5</v>
+      <c r="E18" s="82">
+        <v>-4</v>
       </c>
       <c r="F18" s="66">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6000</v>
+      </c>
+      <c r="H18" s="66">
         <f t="shared" si="1"/>
-        <v>0.90949999999999998</v>
-      </c>
-      <c r="G18" s="66">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUM($G$10:G18)+$D$6</f>
+        <v>36000</v>
+      </c>
+      <c r="K18" s="76">
         <f t="shared" si="2"/>
-        <v>0.95497500000000002</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2600</v>
-      </c>
-      <c r="I18" s="7">
-        <f>SUM($H$10:H18)+$D$6</f>
-        <v>19800</v>
-      </c>
-      <c r="M18" s="66">
-        <v>15</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0.7</v>
+        <v>4800</v>
+      </c>
+      <c r="L18" s="76">
+        <f>SUM($K$10:K18)+$D$6</f>
+        <v>34500</v>
+      </c>
+      <c r="M18" s="76">
+        <f t="shared" si="4"/>
+        <v>28800</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="5"/>
+        <v>0.83478260869565213</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -5176,150 +4566,297 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="5:19">
-      <c r="E19" s="7">
+      <c r="E19" s="82">
+        <v>-5</v>
+      </c>
+      <c r="F19" s="66">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="9">
+        <v>6500</v>
+      </c>
+      <c r="H19" s="66">
+        <f t="shared" si="1"/>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUM($G$10:G19)+$D$6</f>
+        <v>42500</v>
+      </c>
+      <c r="K19" s="76">
+        <f t="shared" si="2"/>
+        <v>4875</v>
+      </c>
+      <c r="L19" s="76">
+        <f>SUM($K$10:K19)+$D$6</f>
+        <v>39375</v>
+      </c>
+      <c r="M19" s="76">
+        <f t="shared" si="4"/>
+        <v>31875</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="5"/>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19">
+      <c r="E20" s="82">
         <v>-6</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F20" s="66">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7000</v>
+      </c>
+      <c r="H20" s="66">
         <f t="shared" si="1"/>
-        <v>0.87740000000000007</v>
-      </c>
-      <c r="G19" s="66">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUM($G$10:G20)+$D$6</f>
+        <v>49500</v>
+      </c>
+      <c r="K20" s="76">
         <f t="shared" si="2"/>
-        <v>0.92127000000000014</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2700</v>
-      </c>
-      <c r="I19" s="7">
-        <f>SUM($H$10:H19)+$D$6</f>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="20" spans="5:19">
-      <c r="E20" s="7">
+        <v>4900</v>
+      </c>
+      <c r="L20" s="76">
+        <f>SUM($K$10:K20)+$D$6</f>
+        <v>44275</v>
+      </c>
+      <c r="M20" s="76">
+        <f t="shared" si="4"/>
+        <v>34650</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="5"/>
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="21" spans="5:19">
+      <c r="E21" s="82">
         <v>-7</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F21" s="66">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7500</v>
+      </c>
+      <c r="H21" s="66">
         <f t="shared" si="1"/>
-        <v>0.84530000000000005</v>
-      </c>
-      <c r="G20" s="66">
+        <v>0.68249999999999988</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUM($G$10:G21)+$D$6</f>
+        <v>57000</v>
+      </c>
+      <c r="K21" s="76">
         <f t="shared" si="2"/>
-        <v>0.88756500000000005</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2800</v>
-      </c>
-      <c r="I20" s="7">
-        <f>SUM($H$10:H20)+$D$6</f>
-        <v>25300</v>
-      </c>
-    </row>
-    <row r="21" spans="5:19">
-      <c r="E21" s="7">
+        <v>4874.9999999999991</v>
+      </c>
+      <c r="L21" s="76">
+        <f>SUM($K$10:K21)+$D$6</f>
+        <v>49150</v>
+      </c>
+      <c r="M21" s="76">
+        <f t="shared" si="4"/>
+        <v>37049.999999999993</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="5"/>
+        <v>0.75381485249237012</v>
+      </c>
+    </row>
+    <row r="22" spans="5:19">
+      <c r="E22" s="82">
         <v>-8</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F22" s="66">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="66">
         <f t="shared" si="1"/>
-        <v>0.81320000000000003</v>
-      </c>
-      <c r="G21" s="66">
+        <v>0.63</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUM($G$10:G22)+$D$6</f>
+        <v>65000</v>
+      </c>
+      <c r="K22" s="76">
         <f t="shared" si="2"/>
-        <v>0.85386000000000006</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2900</v>
-      </c>
-      <c r="I21" s="7">
-        <f>SUM($H$10:H21)+$D$6</f>
-        <v>28200</v>
-      </c>
-    </row>
-    <row r="22" spans="5:19">
-      <c r="E22" s="7">
+        <v>4800</v>
+      </c>
+      <c r="L22" s="76">
+        <f>SUM($K$10:K22)+$D$6</f>
+        <v>53950</v>
+      </c>
+      <c r="M22" s="76">
+        <f t="shared" si="4"/>
+        <v>39000</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="5"/>
+        <v>0.72289156626506024</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19">
+      <c r="E23" s="82">
         <v>-9</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F23" s="66">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8500</v>
+      </c>
+      <c r="H23" s="66">
         <f t="shared" si="1"/>
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="G22" s="66">
+        <v>0.57750000000000012</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUM($G$10:G23)+$D$6</f>
+        <v>73500</v>
+      </c>
+      <c r="K23" s="76">
         <f t="shared" si="2"/>
-        <v>0.82015500000000008</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I22" s="7">
-        <f>SUM($H$10:H22)+$D$6</f>
-        <v>31200</v>
-      </c>
-    </row>
-    <row r="23" spans="5:19">
-      <c r="E23" s="7">
+        <v>4675</v>
+      </c>
+      <c r="L23" s="76">
+        <f>SUM($K$10:K23)+$D$6</f>
+        <v>58625</v>
+      </c>
+      <c r="M23" s="76">
+        <f t="shared" si="4"/>
+        <v>40425</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="5"/>
+        <v>0.68955223880597016</v>
+      </c>
+    </row>
+    <row r="24" spans="5:19">
+      <c r="E24" s="82">
         <v>-10</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F24" s="66">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>9000</v>
+      </c>
+      <c r="H24" s="66">
         <f t="shared" si="1"/>
-        <v>0.749</v>
-      </c>
-      <c r="G23" s="66">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUM($G$10:G24)+$D$6</f>
+        <v>82500</v>
+      </c>
+      <c r="K24" s="76">
         <f t="shared" si="2"/>
-        <v>0.78644999999999998</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3100</v>
-      </c>
-      <c r="I23" s="7">
-        <f>SUM($H$10:H23)+$D$6</f>
-        <v>34300</v>
-      </c>
-    </row>
-    <row r="24" spans="5:19">
-      <c r="E24" s="7">
+        <v>4500</v>
+      </c>
+      <c r="L24" s="76">
+        <f>SUM($K$10:K24)+$D$6</f>
+        <v>63125</v>
+      </c>
+      <c r="M24" s="76">
+        <f t="shared" si="4"/>
+        <v>41250</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="5"/>
+        <v>0.65346534653465349</v>
+      </c>
+    </row>
+    <row r="25" spans="5:19">
+      <c r="E25" s="82">
         <v>-11</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F25" s="66">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G25" s="9">
+        <v>9500</v>
+      </c>
+      <c r="H25" s="66">
         <f t="shared" si="1"/>
-        <v>0.71690000000000009</v>
-      </c>
-      <c r="G24" s="66">
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUM($G$10:G25)+$D$6</f>
+        <v>92000</v>
+      </c>
+      <c r="K25" s="76">
         <f t="shared" si="2"/>
-        <v>0.75274500000000011</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I24" s="7">
-        <f>SUM($H$10:H24)+$D$6</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="25" spans="5:19">
-      <c r="E25" s="67">
-        <v>-12</v>
-      </c>
-      <c r="F25" s="66">
-        <f t="shared" si="1"/>
-        <v>0.68480000000000008</v>
-      </c>
-      <c r="G25" s="66">
-        <f t="shared" si="2"/>
-        <v>0.71904000000000012</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3300</v>
-      </c>
-      <c r="I25" s="7">
-        <f>SUM($H$10:H25)+$D$6</f>
-        <v>40800</v>
+        <v>4275</v>
+      </c>
+      <c r="L25" s="76">
+        <f>SUM($K$10:K25)+$D$6</f>
+        <v>67400</v>
+      </c>
+      <c r="M25" s="76">
+        <f t="shared" si="4"/>
+        <v>41399.999999999993</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="5"/>
+        <v>0.61424332344213639</v>
       </c>
     </row>
     <row r="26" spans="5:19">
-      <c r="H26">
-        <f>SUM(H10:H25)</f>
-        <v>40800</v>
-      </c>
+      <c r="G26">
+        <f>SUM(G10:G25)</f>
+        <v>92000</v>
+      </c>
+      <c r="H26" s="65"/>
+      <c r="K26" s="76">
+        <f>SUM(K10:K25)</f>
+        <v>67400</v>
+      </c>
+      <c r="M26" s="76"/>
+      <c r="N26" s="65"/>
+    </row>
+    <row r="27" spans="5:19">
+      <c r="G27"/>
+      <c r="H27" s="65"/>
+      <c r="K27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="65"/>
     </row>
   </sheetData>
   <sortState ref="Q36:Q43">
@@ -5334,10 +4871,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:J26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5349,7 +4886,23 @@
     <col min="10" max="10" width="10.125" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="1" spans="1:14">
+      <c r="G1"/>
+      <c r="H1" s="65"/>
+      <c r="J1"/>
+      <c r="K1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="G2"/>
+      <c r="H2" s="65"/>
+      <c r="J2"/>
+      <c r="K2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="65"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -5357,448 +4910,730 @@
         <v>510900</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="65"/>
+      <c r="J3"/>
+      <c r="K3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E4" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="7" t="s">
+      <c r="G4"/>
+      <c r="H4" s="65"/>
+      <c r="J4"/>
+      <c r="K4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5"/>
+      <c r="H5" s="65"/>
+      <c r="J5"/>
+      <c r="K5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="65"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G6"/>
+      <c r="H6" s="65"/>
+      <c r="J6"/>
+      <c r="K6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="G7"/>
+      <c r="H7" s="65"/>
+      <c r="J7"/>
+      <c r="K7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="65"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="G8"/>
+      <c r="H8" s="65"/>
+      <c r="J8"/>
+      <c r="K8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="66">
-        <f>$D$3*(1+E11*$D$4)</f>
-        <v>2.6500000000000004</v>
-      </c>
-      <c r="G10" s="66">
-        <f>F10*(1+$D$5)</f>
-        <v>2.7825000000000006</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1000</v>
+        <v>14</v>
+      </c>
+      <c r="F10" s="81">
+        <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
+        <v>1.28</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
+        <v>1.3440000000000001</v>
       </c>
       <c r="I10" s="7">
-        <f>SUM($H$10:H10)+$D$6</f>
-        <v>1000</v>
-      </c>
-      <c r="J10" s="76">
-        <f>INT(H10/(F10*100))*100</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUM($G$10:G10)+$D$6</f>
+        <v>2000</v>
+      </c>
+      <c r="K10" s="76">
+        <f t="shared" ref="K10:K25" si="2">F10*G10</f>
+        <v>2560</v>
+      </c>
+      <c r="L10" s="76">
+        <f>SUM($K$10:K10)+$D$6</f>
+        <v>2560</v>
+      </c>
+      <c r="M10" s="76">
+        <f>F10*J10</f>
+        <v>2560</v>
+      </c>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="66">
-        <f t="shared" ref="F11:F25" si="0">$D$3*(1+E12*$D$4)</f>
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="G11" s="66">
-        <f t="shared" ref="G11:G25" si="1">F11*(1+$D$5)</f>
-        <v>2.7037500000000003</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1100</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="81">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="H11" s="66">
+        <f t="shared" si="1"/>
+        <v>1.3230000000000002</v>
       </c>
       <c r="I11" s="7">
-        <f>SUM($H$10:H11)+$D$6</f>
-        <v>2100</v>
-      </c>
-      <c r="J11" s="76">
-        <f t="shared" ref="J11:J25" si="2">INT(H11/(F11*100))*100</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM($G$10:G11)+$D$6</f>
+        <v>4500</v>
+      </c>
+      <c r="K11" s="76">
+        <f t="shared" si="2"/>
+        <v>3150</v>
+      </c>
+      <c r="L11" s="76">
+        <f>SUM($K$10:K11)+$D$6</f>
+        <v>5710</v>
+      </c>
+      <c r="M11" s="76">
+        <f t="shared" ref="M11:M25" si="3">F11*J11</f>
+        <v>5670</v>
+      </c>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="66">
+        <v>12</v>
+      </c>
+      <c r="F12" s="81">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="66">
+        <v>1.24</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="66">
         <f t="shared" si="1"/>
-        <v>2.625</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1200</v>
+        <v>1.302</v>
       </c>
       <c r="I12" s="7">
-        <f>SUM($H$10:H12)+$D$6</f>
-        <v>3300</v>
-      </c>
-      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM($G$10:G12)+$D$6</f>
+        <v>7500</v>
+      </c>
+      <c r="K12" s="76">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3720</v>
+      </c>
+      <c r="L12" s="76">
+        <f>SUM($K$10:K12)+$D$6</f>
+        <v>9430</v>
+      </c>
+      <c r="M12" s="76">
+        <f t="shared" si="3"/>
+        <v>9300</v>
+      </c>
+      <c r="N12" s="65"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="66">
+        <v>11</v>
+      </c>
+      <c r="F13" s="80">
         <f t="shared" si="0"/>
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="G13" s="66">
+        <v>1.22</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3500</v>
+      </c>
+      <c r="H13" s="66">
         <f t="shared" si="1"/>
-        <v>2.5462500000000001</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1300</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="I13" s="7">
-        <f>SUM($H$10:H13)+$D$6</f>
-        <v>4600</v>
-      </c>
-      <c r="J13" s="76">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM($G$10:G13)+$D$6</f>
+        <v>11000</v>
+      </c>
+      <c r="K13" s="76">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4270</v>
+      </c>
+      <c r="L13" s="76">
+        <f>SUM($K$10:K13)+$D$6</f>
+        <v>13700</v>
+      </c>
+      <c r="M13" s="76">
+        <f t="shared" si="3"/>
+        <v>13420</v>
+      </c>
+      <c r="N13" s="65">
+        <f>M13/L13</f>
+        <v>0.9795620437956204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="E14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="66">
+        <v>10</v>
+      </c>
+      <c r="F14" s="80">
         <f t="shared" si="0"/>
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="G14" s="66">
+        <v>1.2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="66">
         <f t="shared" si="1"/>
-        <v>2.4674999999999998</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1400</v>
+        <v>1.26</v>
       </c>
       <c r="I14" s="7">
-        <f>SUM($H$10:H14)+$D$6</f>
-        <v>6000</v>
-      </c>
-      <c r="J14" s="76">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM($G$10:G14)+$D$6</f>
+        <v>15000</v>
+      </c>
+      <c r="K14" s="76">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>4800</v>
+      </c>
+      <c r="L14" s="76">
+        <f>SUM($K$10:K14)+$D$6</f>
+        <v>18500</v>
+      </c>
+      <c r="M14" s="76">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" ref="N14:N25" si="4">M14/L14</f>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="E15" s="7">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F15" s="66">
         <f t="shared" si="0"/>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="G15" s="66">
+        <v>1.18</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4500</v>
+      </c>
+      <c r="H15" s="66">
         <f t="shared" si="1"/>
-        <v>2.3887499999999999</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1500</v>
+        <v>1.2389999999999999</v>
       </c>
       <c r="I15" s="7">
-        <f>SUM($H$10:H15)+$D$6</f>
-        <v>7500</v>
-      </c>
-      <c r="J15" s="76">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUM($G$10:G15)+$D$6</f>
+        <v>19500</v>
+      </c>
+      <c r="K15" s="76">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>5310</v>
+      </c>
+      <c r="L15" s="76">
+        <f>SUM($K$10:K15)+$D$6</f>
+        <v>23810</v>
+      </c>
+      <c r="M15" s="76">
+        <f t="shared" si="3"/>
+        <v>23010</v>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="4"/>
+        <v>0.96640067198656032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="E16" s="7">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="F16" s="66">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G16" s="66">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="66">
         <f t="shared" si="1"/>
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1600</v>
+        <v>1.218</v>
       </c>
       <c r="I16" s="7">
-        <f>SUM($H$10:H16)+$D$6</f>
-        <v>9100</v>
-      </c>
-      <c r="J16" s="76">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUM($G$10:G16)+$D$6</f>
+        <v>24500</v>
+      </c>
+      <c r="K16" s="76">
         <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
+        <v>5800</v>
+      </c>
+      <c r="L16" s="76">
+        <f>SUM($K$10:K16)+$D$6</f>
+        <v>29610</v>
+      </c>
+      <c r="M16" s="76">
+        <f t="shared" si="3"/>
+        <v>28419.999999999996</v>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="4"/>
+        <v>0.95981087470449156</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
       <c r="E17" s="7">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="66">
         <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="G17" s="66">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5500</v>
+      </c>
+      <c r="H17" s="66">
         <f t="shared" si="1"/>
-        <v>2.2312500000000002</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1700</v>
+        <v>1.1970000000000003</v>
       </c>
       <c r="I17" s="7">
-        <f>SUM($H$10:H17)+$D$6</f>
-        <v>10800</v>
-      </c>
-      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUM($G$10:G17)+$D$6</f>
+        <v>30000</v>
+      </c>
+      <c r="K17" s="76">
         <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
+        <v>6270.0000000000009</v>
+      </c>
+      <c r="L17" s="76">
+        <f>SUM($K$10:K17)+$D$6</f>
+        <v>35880</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" si="3"/>
+        <v>34200.000000000007</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="4"/>
+        <v>0.95317725752508387</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
       <c r="E18" s="7">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="66">
         <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="G18" s="66">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6000</v>
+      </c>
+      <c r="H18" s="66">
         <f t="shared" si="1"/>
-        <v>2.1525000000000003</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1800</v>
+        <v>1.1760000000000002</v>
       </c>
       <c r="I18" s="7">
-        <f>SUM($H$10:H18)+$D$6</f>
-        <v>12600</v>
-      </c>
-      <c r="J18" s="76">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUM($G$10:G18)+$D$6</f>
+        <v>36000</v>
+      </c>
+      <c r="K18" s="76">
         <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
+        <v>6720.0000000000009</v>
+      </c>
+      <c r="L18" s="76">
+        <f>SUM($K$10:K18)+$D$6</f>
+        <v>42600</v>
+      </c>
+      <c r="M18" s="76">
+        <f t="shared" si="3"/>
+        <v>40320.000000000007</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="4"/>
+        <v>0.9464788732394368</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
       <c r="E19" s="7">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="66">
         <f t="shared" si="0"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="G19" s="66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>6500</v>
+      </c>
+      <c r="H19" s="66">
         <f t="shared" si="1"/>
-        <v>2.07375</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1900</v>
+        <v>1.1550000000000002</v>
       </c>
       <c r="I19" s="7">
-        <f>SUM($H$10:H19)+$D$6</f>
-        <v>14500</v>
-      </c>
-      <c r="J19" s="76">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUM($G$10:G19)+$D$6</f>
+        <v>42500</v>
+      </c>
+      <c r="K19" s="76">
         <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="L19" s="76">
+        <f>SUM($K$10:K19)+$D$6</f>
+        <v>49750</v>
+      </c>
+      <c r="M19" s="76">
+        <f t="shared" si="3"/>
+        <v>46750.000000000007</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="4"/>
+        <v>0.93969849246231174</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
       <c r="E20" s="7">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="F20" s="66">
         <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="G20" s="66">
+        <v>1.08</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7000</v>
+      </c>
+      <c r="H20" s="66">
         <f t="shared" si="1"/>
-        <v>1.9949999999999999</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2000</v>
+        <v>1.1340000000000001</v>
       </c>
       <c r="I20" s="7">
-        <f>SUM($H$10:H20)+$D$6</f>
-        <v>16500</v>
-      </c>
-      <c r="J20" s="76">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUM($G$10:G20)+$D$6</f>
+        <v>49500</v>
+      </c>
+      <c r="K20" s="76">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
+        <v>7560.0000000000009</v>
+      </c>
+      <c r="L20" s="76">
+        <f>SUM($K$10:K20)+$D$6</f>
+        <v>57310</v>
+      </c>
+      <c r="M20" s="76">
+        <f t="shared" si="3"/>
+        <v>53460</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="4"/>
+        <v>0.93282149712092133</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
       <c r="E21" s="7">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="F21" s="66">
         <f t="shared" si="0"/>
-        <v>1.825</v>
-      </c>
-      <c r="G21" s="66">
+        <v>1.06</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7500</v>
+      </c>
+      <c r="H21" s="66">
         <f t="shared" si="1"/>
-        <v>1.91625</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2100</v>
+        <v>1.1130000000000002</v>
       </c>
       <c r="I21" s="7">
-        <f>SUM($H$10:H21)+$D$6</f>
-        <v>18600</v>
-      </c>
-      <c r="J21" s="76">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUM($G$10:G21)+$D$6</f>
+        <v>57000</v>
+      </c>
+      <c r="K21" s="76">
         <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
+        <v>7950</v>
+      </c>
+      <c r="L21" s="76">
+        <f>SUM($K$10:K21)+$D$6</f>
+        <v>65260</v>
+      </c>
+      <c r="M21" s="76">
+        <f t="shared" si="3"/>
+        <v>60420</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="4"/>
+        <v>0.92583512105424459</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
       <c r="E22" s="7">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="F22" s="66">
         <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="G22" s="66">
+        <v>1.04</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="66">
         <f t="shared" si="1"/>
-        <v>1.8375000000000001</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2200</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="I22" s="7">
-        <f>SUM($H$10:H22)+$D$6</f>
-        <v>20800</v>
-      </c>
-      <c r="J22" s="76">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUM($G$10:G22)+$D$6</f>
+        <v>65000</v>
+      </c>
+      <c r="K22" s="76">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
+        <v>8320</v>
+      </c>
+      <c r="L22" s="76">
+        <f>SUM($K$10:K22)+$D$6</f>
+        <v>73580</v>
+      </c>
+      <c r="M22" s="76">
+        <f t="shared" si="3"/>
+        <v>67600</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="4"/>
+        <v>0.91872791519434627</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
       <c r="E23" s="7">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F23" s="66">
         <f t="shared" si="0"/>
-        <v>1.675</v>
-      </c>
-      <c r="G23" s="66">
+        <v>1.02</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8500</v>
+      </c>
+      <c r="H23" s="66">
         <f t="shared" si="1"/>
-        <v>1.75875</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2300</v>
+        <v>1.0710000000000002</v>
       </c>
       <c r="I23" s="7">
-        <f>SUM($H$10:H23)+$D$6</f>
-        <v>23100</v>
-      </c>
-      <c r="J23" s="76">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUM($G$10:G23)+$D$6</f>
+        <v>73500</v>
+      </c>
+      <c r="K23" s="76">
         <f t="shared" si="2"/>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
+        <v>8670</v>
+      </c>
+      <c r="L23" s="76">
+        <f>SUM($K$10:K23)+$D$6</f>
+        <v>82250</v>
+      </c>
+      <c r="M23" s="76">
+        <f t="shared" si="3"/>
+        <v>74970</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="4"/>
+        <v>0.91148936170212769</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
       <c r="E24" s="7">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F24" s="66">
         <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="66">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>9000</v>
+      </c>
+      <c r="H24" s="66">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2400</v>
+        <v>1.05</v>
       </c>
       <c r="I24" s="7">
-        <f>SUM($H$10:H24)+$D$6</f>
-        <v>25500</v>
-      </c>
-      <c r="J24" s="76">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUM($G$10:G24)+$D$6</f>
+        <v>82500</v>
+      </c>
+      <c r="K24" s="76">
         <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" s="67">
-        <v>-12</v>
+        <v>9000</v>
+      </c>
+      <c r="L24" s="76">
+        <f>SUM($K$10:K24)+$D$6</f>
+        <v>91250</v>
+      </c>
+      <c r="M24" s="76">
+        <f t="shared" si="3"/>
+        <v>82500</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="4"/>
+        <v>0.90410958904109584</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="7">
+        <v>-1</v>
       </c>
       <c r="F25" s="66">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G25" s="66">
+        <v>0.98</v>
+      </c>
+      <c r="G25" s="9">
+        <v>9500</v>
+      </c>
+      <c r="H25" s="66">
         <f t="shared" si="1"/>
-        <v>2.625</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2500</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="I25" s="7">
-        <f>SUM($H$10:H25)+$D$6</f>
-        <v>28000</v>
-      </c>
-      <c r="J25" s="76">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUM($G$10:G25)+$D$6</f>
+        <v>92000</v>
+      </c>
+      <c r="K25" s="76">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="H26">
-        <f>SUM(H10:H25)</f>
-        <v>28000</v>
-      </c>
+        <v>9310</v>
+      </c>
+      <c r="L25" s="76">
+        <f>SUM($K$10:K25)+$D$6</f>
+        <v>100560</v>
+      </c>
+      <c r="M25" s="76">
+        <f t="shared" si="3"/>
+        <v>90160</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="4"/>
+        <v>0.89657915672235478</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="G26">
+        <f>SUM(G10:G25)</f>
+        <v>92000</v>
+      </c>
+      <c r="H26" s="65"/>
+      <c r="J26"/>
+      <c r="K26" s="76">
+        <f>SUM(K10:K25)</f>
+        <v>100560</v>
+      </c>
+      <c r="M26" s="76"/>
+      <c r="N26" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5809,127 +5644,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A3:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="14">
-        <v>43486</v>
-      </c>
-      <c r="B2" s="72">
-        <v>3182</v>
-      </c>
-      <c r="C2" s="45">
-        <v>3565</v>
-      </c>
-      <c r="D2" s="45">
-        <f t="shared" ref="D2" si="0">(C2-B2)</f>
-        <v>383</v>
-      </c>
-      <c r="E2" s="79">
-        <f>(D2)*100/(B2-807)*4</f>
-        <v>64.505263157894731</v>
-      </c>
-      <c r="F2" s="78">
-        <f>SUM(E2:E153)</f>
-        <v>64.505263157894731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="N14" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="78" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14">
-        <v>43514</v>
-      </c>
-      <c r="B2" s="72">
-        <v>4507</v>
-      </c>
-      <c r="C2" s="45">
-        <v>5095</v>
-      </c>
-      <c r="D2" s="45">
-        <f>(C2-B2)</f>
-        <v>588</v>
-      </c>
-      <c r="E2" s="79">
-        <f>(D2)*100/(B2-1500)*2</f>
-        <v>39.108746258729632</v>
-      </c>
-      <c r="F2" s="78">
-        <f>SUM(E2:E174)</f>
-        <v>39.108746258729632</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5944,7 +5662,7 @@
     <col min="14" max="14" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -5952,679 +5670,747 @@
         <v>510900</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="43">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D5" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="C6" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="7" spans="1:15">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="G9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>142</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J9" s="67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="81">
         <f t="shared" ref="F10:F25" si="0">$D$3*(1+E10*$D$4)</f>
-        <v>0.71940000000000004</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="G10" s="9">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="66">
         <f t="shared" ref="H10:H25" si="1">F10*(1+$D$5)</f>
-        <v>0.7553700000000001</v>
+        <v>0.9554999999999999</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
       <c r="J10" s="7">
         <f>SUM($G$10:G10)+$D$6</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K10" s="76">
         <f t="shared" ref="K10:K17" si="2">F10*G10</f>
-        <v>1798.5</v>
+        <v>2729.9999999999995</v>
       </c>
       <c r="L10" s="76">
         <f>SUM($K$10:K10)+$D$6</f>
-        <v>1798.5</v>
+        <v>2729.9999999999995</v>
       </c>
       <c r="M10" s="76">
         <f>F10*J10</f>
-        <v>1798.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>2729.9999999999995</v>
+      </c>
+      <c r="O10" s="81">
+        <f>(1+E10*$D$4)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="81">
         <f t="shared" si="0"/>
-        <v>0.69960000000000011</v>
+        <v>0.84</v>
       </c>
       <c r="G11" s="9">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="H11" s="66">
         <f t="shared" si="1"/>
-        <v>0.73458000000000012</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
       <c r="J11" s="7">
         <f>SUM($G$10:G11)+$D$6</f>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="K11" s="76">
         <f t="shared" si="2"/>
-        <v>2098.8000000000002</v>
+        <v>2940</v>
       </c>
       <c r="L11" s="76">
         <f>SUM($K$10:K11)+$D$6</f>
-        <v>3897.3</v>
+        <v>5670</v>
       </c>
       <c r="M11" s="76">
         <f t="shared" ref="M11:M25" si="3">F11*J11</f>
-        <v>3847.8000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>5460</v>
+      </c>
+      <c r="O11" s="81">
+        <f t="shared" ref="O11:O25" si="4">(1+E11*$D$4)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="81">
         <f t="shared" si="0"/>
-        <v>0.67980000000000007</v>
+        <v>0.77</v>
       </c>
       <c r="G12" s="9">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="66">
         <f t="shared" si="1"/>
-        <v>0.71379000000000015</v>
+        <v>0.80850000000000011</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
       </c>
       <c r="J12" s="7">
         <f>SUM($G$10:G12)+$D$6</f>
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="K12" s="76">
         <f t="shared" si="2"/>
-        <v>2379.3000000000002</v>
+        <v>3080</v>
       </c>
       <c r="L12" s="76">
         <f>SUM($K$10:K12)+$D$6</f>
-        <v>6276.6</v>
+        <v>8750</v>
       </c>
       <c r="M12" s="76">
         <f t="shared" si="3"/>
-        <v>6118.2000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>8085</v>
+      </c>
+      <c r="O12" s="81">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="E13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="80">
         <f t="shared" si="0"/>
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="9">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="H13" s="66">
         <f t="shared" si="1"/>
-        <v>0.69300000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
       <c r="J13" s="7">
         <f>SUM($G$10:G13)+$D$6</f>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="K13" s="76">
         <f t="shared" si="2"/>
-        <v>2640</v>
+        <v>3150</v>
       </c>
       <c r="L13" s="76">
         <f>SUM($K$10:K13)+$D$6</f>
-        <v>8916.6</v>
+        <v>11900</v>
       </c>
       <c r="M13" s="76">
         <f t="shared" si="3"/>
-        <v>8580</v>
+        <v>10500</v>
       </c>
       <c r="N13" s="65">
         <f>M13/L13</f>
-        <v>0.96225018504811244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="O13" s="81">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" s="7">
         <v>-1</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="80">
         <f t="shared" si="0"/>
-        <v>0.64019999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="G14" s="9">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="66">
         <f t="shared" si="1"/>
-        <v>0.67220999999999997</v>
+        <v>0.66150000000000009</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
       <c r="J14" s="7">
         <f>SUM($G$10:G14)+$D$6</f>
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="K14" s="76">
         <f t="shared" si="2"/>
-        <v>2880.9</v>
+        <v>3150</v>
       </c>
       <c r="L14" s="76">
         <f>SUM($K$10:K14)+$D$6</f>
-        <v>11797.5</v>
+        <v>15050</v>
       </c>
       <c r="M14" s="76">
         <f t="shared" si="3"/>
-        <v>11203.5</v>
+        <v>12600</v>
       </c>
       <c r="N14" s="65">
-        <f t="shared" ref="N14:N25" si="4">M14/L14</f>
-        <v>0.94965034965034967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <f t="shared" ref="N14:N25" si="5">M14/L14</f>
+        <v>0.83720930232558144</v>
+      </c>
+      <c r="O14" s="81">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="E15" s="7">
         <v>-2</v>
       </c>
       <c r="F15" s="66">
         <f t="shared" si="0"/>
-        <v>0.62039999999999995</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="G15" s="9">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="H15" s="66">
         <f t="shared" si="1"/>
-        <v>0.65142</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
       </c>
       <c r="J15" s="7">
         <f>SUM($G$10:G15)+$D$6</f>
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="K15" s="76">
         <f t="shared" si="2"/>
-        <v>3101.9999999999995</v>
+        <v>3079.9999999999995</v>
       </c>
       <c r="L15" s="76">
         <f>SUM($K$10:K15)+$D$6</f>
-        <v>14899.5</v>
+        <v>18130</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" si="3"/>
-        <v>13958.999999999998</v>
+        <v>14279.999999999998</v>
       </c>
       <c r="N15" s="65">
+        <f t="shared" si="5"/>
+        <v>0.78764478764478751</v>
+      </c>
+      <c r="O15" s="81">
         <f t="shared" si="4"/>
-        <v>0.93687707641196005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" s="7">
         <v>-3</v>
       </c>
       <c r="F16" s="66">
         <f t="shared" si="0"/>
-        <v>0.60060000000000002</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="G16" s="9">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="66">
         <f t="shared" si="1"/>
-        <v>0.63063000000000002</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
       <c r="J16" s="7">
         <f>SUM($G$10:G16)+$D$6</f>
-        <v>28000</v>
+        <v>31500</v>
       </c>
       <c r="K16" s="76">
         <f t="shared" si="2"/>
-        <v>3303.3</v>
+        <v>2939.9999999999995</v>
       </c>
       <c r="L16" s="76">
         <f>SUM($K$10:K16)+$D$6</f>
-        <v>18202.8</v>
+        <v>21070</v>
       </c>
       <c r="M16" s="76">
         <f t="shared" si="3"/>
-        <v>16816.8</v>
+        <v>15434.999999999998</v>
       </c>
       <c r="N16" s="65">
+        <f t="shared" si="5"/>
+        <v>0.73255813953488369</v>
+      </c>
+      <c r="O16" s="81">
         <f t="shared" si="4"/>
-        <v>0.92385786802030456</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
       <c r="E17" s="7">
         <v>-4</v>
       </c>
       <c r="F17" s="66">
         <f t="shared" si="0"/>
-        <v>0.58079999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="G17" s="9">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="H17" s="66">
         <f t="shared" si="1"/>
-        <v>0.60984000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
       <c r="J17" s="7">
         <f>SUM($G$10:G17)+$D$6</f>
-        <v>34000</v>
+        <v>38000</v>
       </c>
       <c r="K17" s="76">
         <f t="shared" si="2"/>
-        <v>3484.7999999999997</v>
+        <v>2730</v>
       </c>
       <c r="L17" s="76">
         <f>SUM($K$10:K17)+$D$6</f>
-        <v>21687.599999999999</v>
+        <v>23800</v>
       </c>
       <c r="M17" s="76">
         <f t="shared" si="3"/>
-        <v>19747.2</v>
+        <v>15960</v>
       </c>
       <c r="N17" s="65">
+        <f t="shared" si="5"/>
+        <v>0.6705882352941176</v>
+      </c>
+      <c r="O17" s="81">
         <f t="shared" si="4"/>
-        <v>0.910529519172246</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
       <c r="E18" s="7">
         <v>-5</v>
       </c>
       <c r="F18" s="66">
         <f t="shared" si="0"/>
-        <v>0.56100000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="G18" s="9">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="H18" s="66">
         <f t="shared" si="1"/>
-        <v>0.58905000000000007</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
       </c>
       <c r="J18" s="7">
         <f>SUM($G$10:G18)+$D$6</f>
-        <v>40500</v>
+        <v>45000</v>
       </c>
       <c r="K18" s="76">
-        <f t="shared" ref="K18:K25" si="5">F18*G18</f>
-        <v>3646.5000000000005</v>
+        <f t="shared" ref="K18:K25" si="6">F18*G18</f>
+        <v>2450</v>
       </c>
       <c r="L18" s="76">
         <f>SUM($K$10:K18)+$D$6</f>
-        <v>25334.1</v>
+        <v>26250</v>
       </c>
       <c r="M18" s="76">
         <f t="shared" si="3"/>
-        <v>22720.500000000004</v>
+        <v>15749.999999999998</v>
       </c>
       <c r="N18" s="65">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="O18" s="81">
         <f t="shared" si="4"/>
-        <v>0.89683470105509988</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
       <c r="E19" s="7">
         <v>-6</v>
       </c>
       <c r="F19" s="66">
         <f t="shared" si="0"/>
-        <v>0.54120000000000001</v>
+        <v>0.27999999999999992</v>
       </c>
       <c r="G19" s="9">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="H19" s="66">
         <f t="shared" si="1"/>
-        <v>0.56825999999999999</v>
+        <v>0.29399999999999993</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="J19" s="7">
         <f>SUM($G$10:G19)+$D$6</f>
-        <v>47500</v>
+        <v>52500</v>
       </c>
       <c r="K19" s="76">
-        <f t="shared" si="5"/>
-        <v>3788.4</v>
+        <f t="shared" si="6"/>
+        <v>2099.9999999999995</v>
       </c>
       <c r="L19" s="76">
         <f>SUM($K$10:K19)+$D$6</f>
-        <v>29122.5</v>
+        <v>28350</v>
       </c>
       <c r="M19" s="76">
         <f t="shared" si="3"/>
-        <v>25707</v>
+        <v>14699.999999999996</v>
       </c>
       <c r="N19" s="65">
+        <f t="shared" si="5"/>
+        <v>0.51851851851851838</v>
+      </c>
+      <c r="O19" s="81">
         <f t="shared" si="4"/>
-        <v>0.88271954674220965</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14">
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
       <c r="E20" s="7">
         <v>-7</v>
       </c>
       <c r="F20" s="66">
         <f t="shared" si="0"/>
-        <v>0.52140000000000009</v>
+        <v>0.20999999999999994</v>
       </c>
       <c r="G20" s="9">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="66">
         <f t="shared" si="1"/>
-        <v>0.54747000000000012</v>
+        <v>0.22049999999999995</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
       <c r="J20" s="7">
         <f>SUM($G$10:G20)+$D$6</f>
-        <v>55000</v>
+        <v>60500</v>
       </c>
       <c r="K20" s="76">
-        <f t="shared" si="5"/>
-        <v>3910.5000000000005</v>
+        <f t="shared" si="6"/>
+        <v>1679.9999999999995</v>
       </c>
       <c r="L20" s="76">
         <f>SUM($K$10:K20)+$D$6</f>
-        <v>33033</v>
+        <v>30030</v>
       </c>
       <c r="M20" s="76">
         <f t="shared" si="3"/>
-        <v>28677.000000000004</v>
+        <v>12704.999999999996</v>
       </c>
       <c r="N20" s="65">
+        <f t="shared" si="5"/>
+        <v>0.42307692307692296</v>
+      </c>
+      <c r="O20" s="81">
         <f t="shared" si="4"/>
-        <v>0.86813186813186827</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
       <c r="E21" s="7">
         <v>-8</v>
       </c>
       <c r="F21" s="66">
         <f t="shared" si="0"/>
-        <v>0.50160000000000005</v>
+        <v>0.13999999999999996</v>
       </c>
       <c r="G21" s="9">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="H21" s="66">
         <f t="shared" si="1"/>
-        <v>0.52668000000000004</v>
+        <v>0.14699999999999996</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
       </c>
       <c r="J21" s="7">
         <f>SUM($G$10:G21)+$D$6</f>
-        <v>63000</v>
+        <v>69000</v>
       </c>
       <c r="K21" s="76">
-        <f t="shared" si="5"/>
-        <v>4012.8</v>
+        <f t="shared" si="6"/>
+        <v>1189.9999999999995</v>
       </c>
       <c r="L21" s="76">
         <f>SUM($K$10:K21)+$D$6</f>
-        <v>37045.800000000003</v>
+        <v>31220</v>
       </c>
       <c r="M21" s="76">
         <f t="shared" si="3"/>
-        <v>31600.800000000003</v>
+        <v>9659.9999999999964</v>
       </c>
       <c r="N21" s="65">
+        <f t="shared" si="5"/>
+        <v>0.30941704035874429</v>
+      </c>
+      <c r="O21" s="81">
         <f t="shared" si="4"/>
-        <v>0.85301977552111174</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15">
       <c r="E22" s="7">
         <v>-9</v>
       </c>
       <c r="F22" s="66">
         <f t="shared" si="0"/>
-        <v>0.48180000000000001</v>
+        <v>6.9999999999999979E-2</v>
       </c>
       <c r="G22" s="9">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="H22" s="66">
         <f t="shared" si="1"/>
-        <v>0.50589000000000006</v>
+        <v>7.3499999999999982E-2</v>
       </c>
       <c r="I22" s="7">
         <v>0</v>
       </c>
       <c r="J22" s="7">
         <f>SUM($G$10:G22)+$D$6</f>
-        <v>71500</v>
+        <v>78000</v>
       </c>
       <c r="K22" s="76">
-        <f t="shared" si="5"/>
-        <v>4095.3</v>
+        <f t="shared" si="6"/>
+        <v>629.99999999999977</v>
       </c>
       <c r="L22" s="76">
         <f>SUM($K$10:K22)+$D$6</f>
-        <v>41141.100000000006</v>
+        <v>31850</v>
       </c>
       <c r="M22" s="76">
         <f t="shared" si="3"/>
-        <v>34448.699999999997</v>
+        <v>5459.9999999999982</v>
       </c>
       <c r="N22" s="65">
+        <f t="shared" si="5"/>
+        <v>0.17142857142857137</v>
+      </c>
+      <c r="O22" s="81">
         <f t="shared" si="4"/>
-        <v>0.83733055265901968</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14">
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
       <c r="E23" s="7">
         <v>-10</v>
       </c>
       <c r="F23" s="66">
         <f t="shared" si="0"/>
-        <v>0.46199999999999997</v>
+        <v>0</v>
       </c>
       <c r="G23" s="9">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="H23" s="66">
         <f t="shared" si="1"/>
-        <v>0.48509999999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
         <v>0</v>
       </c>
       <c r="J23" s="7">
         <f>SUM($G$10:G23)+$D$6</f>
-        <v>80500</v>
+        <v>87500</v>
       </c>
       <c r="K23" s="76">
-        <f t="shared" si="5"/>
-        <v>4158</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="L23" s="76">
         <f>SUM($K$10:K23)+$D$6</f>
-        <v>45299.100000000006</v>
+        <v>31850</v>
       </c>
       <c r="M23" s="76">
         <f t="shared" si="3"/>
-        <v>37191</v>
+        <v>0</v>
       </c>
       <c r="N23" s="65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="81">
         <f t="shared" si="4"/>
-        <v>0.82100968893421711</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
       <c r="E24" s="7">
         <v>-11</v>
       </c>
       <c r="F24" s="66">
         <f t="shared" si="0"/>
-        <v>0.44220000000000004</v>
+        <v>-7.0000000000000062E-2</v>
       </c>
       <c r="G24" s="9">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="66">
         <f t="shared" si="1"/>
-        <v>0.46431000000000006</v>
+        <v>-7.3500000000000065E-2</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="J24" s="7">
         <f>SUM($G$10:G24)+$D$6</f>
-        <v>90000</v>
+        <v>97500</v>
       </c>
       <c r="K24" s="76">
-        <f t="shared" si="5"/>
-        <v>4200.9000000000005</v>
+        <f t="shared" si="6"/>
+        <v>-700.00000000000057</v>
       </c>
       <c r="L24" s="76">
         <f>SUM($K$10:K24)+$D$6</f>
-        <v>49500.000000000007</v>
+        <v>31150</v>
       </c>
       <c r="M24" s="76">
         <f t="shared" si="3"/>
-        <v>39798</v>
+        <v>-6825.0000000000064</v>
       </c>
       <c r="N24" s="65">
+        <f t="shared" si="5"/>
+        <v>-0.21910112359550582</v>
+      </c>
+      <c r="O24" s="81">
         <f t="shared" si="4"/>
-        <v>0.80399999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" s="67">
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" s="7">
         <v>-12</v>
       </c>
       <c r="F25" s="66">
         <f t="shared" si="0"/>
-        <v>0.42240000000000005</v>
+        <v>-0.14000000000000012</v>
       </c>
       <c r="G25" s="9">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="H25" s="66">
         <f t="shared" si="1"/>
-        <v>0.44352000000000008</v>
+        <v>-0.14700000000000013</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
       </c>
       <c r="J25" s="7">
         <f>SUM($G$10:G25)+$D$6</f>
-        <v>100000</v>
+        <v>108000</v>
       </c>
       <c r="K25" s="76">
-        <f t="shared" si="5"/>
-        <v>4224.0000000000009</v>
+        <f t="shared" si="6"/>
+        <v>-1470.0000000000014</v>
       </c>
       <c r="L25" s="76">
         <f>SUM($K$10:K25)+$D$6</f>
-        <v>53724.000000000007</v>
+        <v>29680</v>
       </c>
       <c r="M25" s="76">
         <f t="shared" si="3"/>
-        <v>42240.000000000007</v>
+        <v>-15120.000000000013</v>
       </c>
       <c r="N25" s="65">
+        <f t="shared" si="5"/>
+        <v>-0.50943396226415139</v>
+      </c>
+      <c r="O25" s="81">
         <f t="shared" si="4"/>
-        <v>0.7862407862407863</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14">
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15">
       <c r="G26">
         <f>SUM(G10:G25)</f>
-        <v>100000</v>
+        <v>108000</v>
       </c>
       <c r="K26" s="76">
         <f>SUM(K10:K25)</f>
-        <v>53724.000000000007</v>
+        <v>29680</v>
       </c>
     </row>
   </sheetData>
@@ -6632,4 +6418,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="72" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14">
+        <v>43593</v>
+      </c>
+      <c r="B2" s="72">
+        <v>3300</v>
+      </c>
+      <c r="C2" s="45">
+        <v>3468</v>
+      </c>
+      <c r="D2" s="45">
+        <f t="shared" ref="D2" si="0">(C2-B2)</f>
+        <v>168</v>
+      </c>
+      <c r="E2" s="78">
+        <f>(D2)*100/(B2-807)*4</f>
+        <v>26.955475330926596</v>
+      </c>
+      <c r="F2" s="77">
+        <f>SUM(E2:E153)</f>
+        <v>26.955475330926596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14">
+        <v>43514</v>
+      </c>
+      <c r="B2" s="72">
+        <v>4507</v>
+      </c>
+      <c r="C2" s="45">
+        <v>5095</v>
+      </c>
+      <c r="D2" s="45">
+        <f>(C2-B2)</f>
+        <v>588</v>
+      </c>
+      <c r="E2" s="78">
+        <f>(D2)*100/(B2-1500)*2</f>
+        <v>39.108746258729632</v>
+      </c>
+      <c r="F2" s="77">
+        <f>SUM(E2:E174)</f>
+        <v>39.108746258729632</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/数据.xlsx
+++ b/data/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="1650" activeTab="5"/>
+    <workbookView xWindow="3120" yWindow="2970" windowWidth="16110" windowHeight="1650" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="记录" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="有色" sheetId="20" r:id="rId7"/>
     <sheet name="300" sheetId="10" r:id="rId8"/>
     <sheet name="500" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -1222,6 +1223,51 @@
     <t>卖出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时信用债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>富国中证红利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指数增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1235,7 +1281,7 @@
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,6 +1446,19 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2301,12 +2360,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="57.5" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5">
+      <c r="D1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5">
+      <c r="C2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="18">
+        <v>100032</v>
+      </c>
+      <c r="E3" s="18">
+        <v>100033</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://fund.eastmoney.com/050011.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AI82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3670,7 +3782,7 @@
   <dimension ref="B5:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3917,7 +4029,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4873,7 +4985,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -6426,7 +6538,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6453,22 +6565,22 @@
         <v>43593</v>
       </c>
       <c r="B2" s="72">
-        <v>3300</v>
+        <v>3674</v>
       </c>
       <c r="C2" s="45">
-        <v>3468</v>
+        <v>3492</v>
       </c>
       <c r="D2" s="45">
         <f t="shared" ref="D2" si="0">(C2-B2)</f>
-        <v>168</v>
+        <v>-182</v>
       </c>
       <c r="E2" s="78">
         <f>(D2)*100/(B2-807)*4</f>
-        <v>26.955475330926596</v>
+        <v>-25.392396232996163</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(E2:E153)</f>
-        <v>26.955475330926596</v>
+        <v>-25.392396232996163</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6487,7 +6599,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6513,22 +6625,22 @@
         <v>43514</v>
       </c>
       <c r="B2" s="72">
-        <v>4507</v>
+        <v>4666</v>
       </c>
       <c r="C2" s="45">
-        <v>5095</v>
+        <v>4880</v>
       </c>
       <c r="D2" s="45">
         <f>(C2-B2)</f>
-        <v>588</v>
+        <v>214</v>
       </c>
       <c r="E2" s="78">
         <f>(D2)*100/(B2-1500)*2</f>
-        <v>39.108746258729632</v>
+        <v>13.518635502210993</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(E2:E174)</f>
-        <v>39.108746258729632</v>
+        <v>13.518635502210993</v>
       </c>
     </row>
   </sheetData>
